--- a/Design/UI기획서.xlsx
+++ b/Design/UI기획서.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram\Documents\GitHub\PlumTowerDefecne\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="8472" tabRatio="500" activeTab="1"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8520" tabRatio="500" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="VerCon" sheetId="1" r:id="rId4"/>
@@ -21,601 +21,695 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="196">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="204">
+  <x:si>
+    <x:t>(이런 느낌으로 증강체를 구현한다는 것, 실제로 반영될 수치는 아님)(상의 필요함)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>증강체 구현은 앞으로 타워, 자원, 패시브 3개로 시트를 따로 나누어 구현할 계획임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14. StringUI/In_Game_Upgrade_Title 은 인게임 증강체 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7. StringUI/Xp_Point 는 이번 게임동안 벌어들인 Xp를 보여준다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워를 예로 들어 기본적인 증강체 구조를 만들었음, 타워 기획과 의논 필요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Upgrade_Contents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Money의 초기 시작 자금 : 100(임의)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12,13이 같이 들어있는 네모는 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워의 비용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>돌아가기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>확장하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워의 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 관통 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임시작</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">XP : </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">HP : </x:t>
+  </x:si>
+  <x:si>
+    <x:t>불화살 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불화살 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출혈 화살 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PAUSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불화살 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>더 나은 사격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Xp : </x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기 화살 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독화살 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Resume</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독화살 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp 리셋하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독화살 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임종료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Option</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.8.21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UI 기획서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>XP : 50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Expand</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문서 개요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환경설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pause</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인 메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. UI</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">버튼에 </x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ffff0000"/>
+            <x:b val="1"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ffff0000"/>
+            <x:b val="1"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>마우스 커서가 올라가면</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> 버튼의 색이 어두워지도록 </x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ffff0000"/>
+            <x:b val="1"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="11"/>
+            <x:color rgb="ffff0000"/>
+            <x:b val="1"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>모든 버튼에 2가지 경우</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="맑은 고딕"/>
+        <x:sz val="11"/>
+        <x:color rgb="ff000000"/>
+        <x:b val="1"/>
+      </x:rPr>
+      <x:t>(기본형태 버튼, 마우스커서가 올라간 버튼) 제작</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>23. StringUI/Tower_Resource_Passive_Category 타워, 자원, 패시브의 종류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Xp_Point</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Hp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Money</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14, 15 사이에는 그림 에셋이 들어갈 예정(추후 추가)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>↗</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>→</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김시우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>↘</x:t>
+  </x:si>
+  <x:si>
+    <x:t>담당자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. StringUI/Option 버튼을 누르면 환경 설정 화면으로 넘어감(구현 필요)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15. StringUI/In_Game_Upgrade_Content 는 인게임 증강체 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Version</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ver1.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ver1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.8.22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 관통 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 관통 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예리한 화살 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Level : </x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1 인게임 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워, 자원, 패시브 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 쉴드 피해 + 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Version Control</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4 추가해야 할 점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 마법 강화 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 쉴드 피해 + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>확장하기 버튼이 사라지고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 체력 피해 + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스테이지 카운트 1 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25%의 독 대미지 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 체력 피해 + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.5 현재 진행 상황</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 쉴드 피해 + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25%의 화상 대미지 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25%의 출혈 대미지 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.3 일시정지 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.3 게임오버 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작하기 버튼만 남게됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.4 게임오버 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25%의 전기 대미지 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 체력 피해 + 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22. StringUI/Xp_Reset 지금까지 사용했던 Xp를 전부 리셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Level이 증가하는 기준은 몬스터의 웨이브가 다 끝났을때 1 증가시킨다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20. StringUI/Main_Menu 는 메인 화면으로 돌아가는 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11. StringUI/Stage_Start 버튼을 누르면 웨이브가 시작된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26. StringUI/Upgrade_Contents 어떻게 강화되는지 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. StringUI/Upgrade 버튼을 누르면 1.3 강화 화면으로 넘어감</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19. StringUI/Game_Over 는 게임이 끝났다고 알려주는 글자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ex. 스테이지 3,6,9,...를 클리어하는 순간 증강체 화면이 공개되어야됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9. StringUI/Money 자신이 현재 가지고 있는 돈을 보여준다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12. StringUI/Tower_Name 타워의 이름을 보여준다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보스 몬스터가 들어올때는 체력이 1보다 더 감소할지는 논의 필요.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10. StringUI/Expand 버튼을 누르면 다음 맵이 확장된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18. StringUI/Resume 은 다시 인게임으로 돌아가는 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 배속버튼을 만들었는데 원상복구를 어떻게 시킬것인지에 대한 고민</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17. StringUI/PAUSE 는 게임이 멈춰있다고 알려주는 글자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13. StringUI/Tower_Cost 타워의 비용을 보여준다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21. StringUI/Xp 는 총 Xp를 나타낸다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. 환경 설정(인 게임 사운드, UI scale...)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터가 마을 안으로 들어왔을 때 체력이 1씩 감소한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Resource_Passive_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스테이지를 3번 클리어할 때마다 증강체 화면UI를 공개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Resource_Passive_Category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12,13 사이에는 그림 들어감(에셋 필요)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16 버튼을 클릭하면 증강체가 적용됨.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. StringUI/Game_Start 버튼을 누르면 1.2 인게임 화면으로 넘어감</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 종류를 Stage 1에서부터 다 보여줄지, 증강체에서 뽑은 것들만 보여주게 할지 논의 필요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워의 종류에 따라 타워 파트의 증강체를, 맵 기믹에 따라 자원, 패시브 파트의 증강체를 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8. StringUI/HP 는 (현재 자신의 체력 / 최대 체력 : 10(임의)) 을 보여준다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6. StringUI/Stage_Level 은 현재 스테이지의 Level(단계)를 표시해준다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25. StringUI/Upgrade_Title 강화의 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 어느 부분이 확장될 것인지에 대한 인 게임 UI 설계 필요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27. StringUI/Required_Xp 요구되는 Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워와 맵 기믹 기획자와 의논하면서 증강체 항목을 만드는게 중요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16. StringUI/Select 는 증강체를 선택하는 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작시 Xp : 0, Xp를 수급하는 조건은 회의를 통해 결정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출혈 화살 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출혈 화살 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>XP : 600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>XP : 300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기 화살 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>XP : 400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기 화살 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.5 현재 진행상황</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. 기본 폰트 설정(고민중...)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>웨이브가 끝나면 첫 화면 복귀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작하기 버튼이 배속 버튼이됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Contents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작하기 버튼을 누르게 된다면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살타워 크리티컬 확률 + 25%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLUM TOWER DEFESNSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 사서 현재 적용이 되는 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 방어구 피해 + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 방어구 피해 + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임 흐름도 -&gt; (이쪽 방향)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.1 증강체의 기본적인 개요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임 첫 화면(확장하기 가능)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.2 인게임 증강체 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 크리티컬 확률 +25%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 방어구 피해 + 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워, 자원, 패시브 카테고리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>확장하기 버튼을 누르게 된다면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인, 인게임, 강화 화면 UI기본 틀구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25%의 화상 대미지 추가(중첩 가능)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25%의 독 대미지 추가(중첩 가능)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. 사지 않았고 현재 살 수 없는 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 사지 않았지만 살 수 있는 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Upgrade_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UI 인게임 배속버튼, 일시정지 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25%의 출혈 대미지 추가(중첩 가능)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25%의 전기 대미지 추가(중첩 가능)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화 카드는 크게 3가지로 나눌수 있음</x:t>
+  </x:si>
   <x:si>
     <x:t>24. StringUI/Tower_Resource_Passive_Select 타워, 자원, 패시브 선택</x:t>
   </x:si>
   <x:si>
-    <x:t>15. StringUI/In_Game_Upgrade_Content 는 인게임 증강체 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4. StringUI/Option 버튼을 누르면 환경 설정 화면으로 넘어감(구현 필요)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(이런 느낌으로 증강체를 구현한다는 것, 실제로 반영될 수치는 아님)(상의 필요함)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워를 예로 들어 기본적인 증강체 구조를 만들었음, 타워 기획과 의논 필요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7. StringUI/Xp_Point 는 이번 게임동안 벌어들인 Xp를 보여준다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>증강체 구현은 앞으로 타워, 자원, 패시브 3개로 시트를 따로 나누어 구현할 계획임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. StringUI/GameStart 버튼을 누르면 1.2 인게임 화면으로 넘어감</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14. StringUI/In_Game_Upgrade_Title 은 인게임 증강체 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워와 맵 기믹 기획자와 의논하면서 증강체 항목을 만드는게 중요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5. StringUI/GameEnd 버튼을 누르면 게임이 종료됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작시 Xp : 0, Xp를 수급하는 조건은 회의를 통해 결정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 어느 부분이 확장될 것인지에 대한 인 게임 UI 설계 필요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27. StringUI/Required_Xp 요구되는 Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16. StringUI/Select 는 증강체를 선택하는 버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25. StringUI/Upgrade_Title 강화의 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. StringUI/Upgrade 버튼을 누르면 1.3 강화 화면으로 넘어감</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19. StringUI/Game_Over 는 게임이 끝났다고 알려주는 글자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ex. 스테이지 3,6,9,...를 클리어하는 순간 증강체 화면이 공개되어야됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9. StringUI/Money 자신이 현재 가지고 있는 돈을 보여준다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22. StringUI/Xp_Reset 지금까지 사용했던 Xp를 전부 리셋</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26. StringUI/Upgrade_Contents 어떻게 강화되는지 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20. StringUI/Main_Menu 는 메인 화면으로 돌아가는 버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Level이 증가하는 기준은 몬스터의 웨이브가 다 끝났을때 1 증가시킨다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11. StringUI/Stage_Start 버튼을 누르면 웨이브가 시작된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18. StringUI/Resume 은 다시 인게임으로 돌아가는 버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13. StringUI/Tower_Cost 타워의 비용을 보여준다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보스 몬스터가 들어올때는 체력이 1보다 더 감소할지는 논의 필요.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10. StringUI/Expand 버튼을 누르면 다음 맵이 확장된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 배속버튼을 만들었는데 원상복구를 어떻게 시킬것인지에 대한 고민</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12. StringUI/Tower_Name 타워의 이름을 보여준다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17. StringUI/PAUSE 는 게임이 멈춰있다고 알려주는 글자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Upgrade_Contents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기 화살 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>XP : 300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출혈 화살 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출혈 화살 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>XP : 600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기 화살 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>XP : 400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23. StringUI/Tower_Resource_Passive_Category 타워, 자원, 패시브의 종류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Money의 초기 시작 자금 : 100(임의)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1 인게임 UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워, 자원, 패시브 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 쉴드 피해 + 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Version Control</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.4 추가해야 할 점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 마법 강화 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 쉴드 피해 + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확장하기 버튼이 사라지고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>버튼에 마우스 커서가 올라가면 버튼의 색이 어두워지도록 모든 버튼에 2가지 경우(기본형태 버튼, 마우스커서가 올라간 버튼) 제작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 체력 피해 + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스테이지 카운트 1 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 쉴드 피해 + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.5 현재 진행 상황</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25%의 전기 대미지 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작하기 버튼만 남게됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25%의 화상 대미지 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 체력 피해 + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25%의 출혈 대미지 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.3 일시정지 UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.3 게임오버 UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.4 게임오버 UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Money</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문서 개요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ver1.0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.8.21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Expand</x:t>
-  </x:si>
-  <x:si>
-    <x:t>XP : 50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UI 기획서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환경설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pause</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인 메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워의 비용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>돌아가기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GameEnd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확장하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">XP : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.8.22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임시작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워의 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 관통 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Version</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Xp : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임종료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ver1.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독화살 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>더 나은 사격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불화살 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Resume</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PAUSE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기 화살 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독화살 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불화살 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불화살 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">HP : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Option</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출혈 화살 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독화살 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25%의 독 대미지 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 체력 피해 + 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.5 현재 진행상황</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Level : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>예리한 화살 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 관통 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 관통 III</x:t>
+    <x:t>Tower_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인 메뉴로 돌아가기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1 메인 화면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StringUI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Over</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_Menu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Cost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp_Reset</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.3 강화 화면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Required_Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예리한 화살 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Money : </x:t>
   </x:si>
   <x:si>
     <x:t>XP : 150</x:t>
   </x:si>
   <x:si>
+    <x:t>Stage_Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예리한 화살 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 증강체 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2 인게임 화면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 증강체 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>XP : 100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 마법 강화 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 마법 강화 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>XP : 200</x:t>
+  </x:si>
+  <x:si>
     <x:t>GAME OVER</x:t>
   </x:si>
   <x:si>
-    <x:t>XP : 100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인게임 증강체 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 마법 강화 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2 인게임 화면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 마법 강화 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>XP : 200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스테이지를 3번 클리어할 때마다 증강체 화면UI를 공개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21. StringUI/Xp 는 총 Xp를 나타낸다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Resource_Passive_Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Resource_Passive_Category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. 환경 설정(인 게임 사운드, UI scale...)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터가 마을 안으로 들어왔을 때 체력이 1씩 감소한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_Level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예리한 화살 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GameStart</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인게임 증강체 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_Menu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GameTitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp_Point</x:t>
-  </x:si>
-  <x:si>
-    <x:t>StringUI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Cost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Over</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Required_Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp_Reset</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인 메뉴로 돌아가기</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Money : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_Start</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.3 강화 화면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.1 메인 화면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예리한 화살 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 종류를 Stage 1에서부터 다 보여줄지, 증강체에서 뽑은 것들만 보여주게 할지 논의 필요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워의 종류에 따라 타워 파트의 증강체를, 맵 기믹에 따라 자원, 패시브 파트의 증강체를 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8. StringUI/HP 는 (현재 자신의 체력 / 최대 체력 : 10(임의)) 을 보여준다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6. StringUI/Stage_Level 은 현재 스테이지의 Level(단계)를 표시해준다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>↗</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>→</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>↘</x:t>
-  </x:si>
-  <x:si>
-    <x:t>담당자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김시우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 방어구 피해 + 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Contents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임 첫 화면(확장하기 가능)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임 흐름도 -&gt; (이쪽 방향)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.2 인게임 증강체 UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 방어구 피해 + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>웨이브가 끝나면 첫 화면 복귀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워, 자원, 패시브 카테고리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 크리티컬 확률 +25%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작하기 버튼을 누르게 된다면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확장하기 버튼을 누르게 된다면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살타워 크리티컬 확률 + 25%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 사서 현재 적용이 되는 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.1 증강체의 기본적인 개요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PLUM TOWER DEFESNSE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 방어구 피해 + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4. 기본 폰트 설정(고민중...)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작하기 버튼이 배속 버튼이됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인, 인게임, 강화 화면 UI기본 틀구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25%의 독 대미지 추가(중첩 가능)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Upgrade_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25%의 전기 대미지 추가(중첩 가능)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25%의 출혈 대미지 추가(중첩 가능)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25%의 화상 대미지 추가(중첩 가능)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 사지 않았지만 살 수 있는 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UI 인게임 배속버튼, 일시정지 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. 사지 않았고 현재 살 수 없는 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 카드는 크게 3가지로 나눌수 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp 리셋하기</x:t>
+    <x:t>14, 15가 포함된 네모를 클릭하면 16의 버튼이 나옴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_End</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14, 15가 포함된 길쭉한 네모는 증강체를 표현, 하나의 버튼임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5. StringUI/Game_End 버튼을 누르면 게임이 종료됨</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="13">
+  <x:fonts count="14">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -646,16 +740,46 @@
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff1f4e79"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="14"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff1f4e79"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff1f4e79"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="14"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="14"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -684,16 +808,46 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="19"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="16"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="19"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="19"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="16"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="16"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -711,6 +865,28 @@
           <x:name val="맑은 고딕"/>
           <x:sz val="22"/>
           <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ffff0000"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ffff0000"/>
+          <x:b val="1"/>
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1048,7 +1224,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="75">
+  <x:cellXfs count="76">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -1169,6 +1345,21 @@
     <x:xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
@@ -1225,21 +1416,6 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
@@ -1414,6 +1590,9 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="표준" xfId="0" builtinId="0" iLevel="0"/>
@@ -1832,7 +2011,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
+      <xdr:colOff>480060</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1851,8 +2030,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838200" y="514350"/>
-          <a:ext cx="7315200" cy="4114800"/>
+          <a:off x="833437" y="523875"/>
+          <a:ext cx="7274718" cy="4191000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1870,7 +2049,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
+      <xdr:colOff>480060</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
@@ -1889,8 +2068,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838200" y="7210425"/>
-          <a:ext cx="7315200" cy="4114800"/>
+          <a:off x="833437" y="7346156"/>
+          <a:ext cx="7274718" cy="4191000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1927,8 +2106,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8429625" y="12839700"/>
-          <a:ext cx="2019300" cy="1828800"/>
+          <a:off x="8382000" y="13073063"/>
+          <a:ext cx="2012156" cy="1857375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1965,8 +2144,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11687175" y="12839700"/>
-          <a:ext cx="2047875" cy="1771650"/>
+          <a:off x="11632407" y="13073063"/>
+          <a:ext cx="2024062" cy="1797843"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2003,8 +2182,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15068549" y="12839700"/>
-          <a:ext cx="2143125" cy="1771650"/>
+          <a:off x="14989969" y="13073063"/>
+          <a:ext cx="2131218" cy="1797843"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2041,8 +2220,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18421350" y="12782549"/>
-          <a:ext cx="2019300" cy="1828800"/>
+          <a:off x="18323718" y="13013531"/>
+          <a:ext cx="2000250" cy="1857375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2060,7 +2239,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
+      <xdr:colOff>480060</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2079,8 +2258,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838200" y="16783050"/>
-          <a:ext cx="7315200" cy="4114800"/>
+          <a:off x="833437" y="17085470"/>
+          <a:ext cx="7274718" cy="4191000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2098,7 +2277,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
+      <xdr:colOff>480060</xdr:colOff>
       <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2117,8 +2296,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838200" y="23469600"/>
-          <a:ext cx="7315200" cy="4114800"/>
+          <a:off x="833437" y="23895842"/>
+          <a:ext cx="7274718" cy="4191000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2136,7 +2315,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
+      <xdr:colOff>480060</xdr:colOff>
       <xdr:row>129</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2155,8 +2334,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838200" y="29127450"/>
-          <a:ext cx="7315200" cy="4114800"/>
+          <a:off x="833437" y="29658470"/>
+          <a:ext cx="7274718" cy="4191000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2174,7 +2353,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
+      <xdr:colOff>480060</xdr:colOff>
       <xdr:row>151</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2193,8 +2372,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838200" y="34785300"/>
-          <a:ext cx="7315200" cy="4114800"/>
+          <a:off x="833437" y="35421092"/>
+          <a:ext cx="7274718" cy="4191000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2231,8 +2410,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7686674" y="40738424"/>
-          <a:ext cx="1485900" cy="1047750"/>
+          <a:off x="7643812" y="41481376"/>
+          <a:ext cx="1488281" cy="1071562"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2252,7 +2431,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>162</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:pic macro="" fPublished="0">
       <xdr:nvPicPr>
@@ -2269,8 +2448,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9334500" y="40738424"/>
-          <a:ext cx="1571625" cy="1019175"/>
+          <a:off x="9286875" y="41481376"/>
+          <a:ext cx="1559718" cy="1035843"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2307,8 +2486,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11029950" y="40738424"/>
-          <a:ext cx="1628775" cy="1047750"/>
+          <a:off x="10965656" y="41481376"/>
+          <a:ext cx="1619250" cy="1071562"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2578,7 +2757,7 @@
   <x:dimension ref="A1:J18"/>
   <x:sheetViews>
     <x:sheetView showGridLines="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="K16" activeCellId="0" sqref="K16:K16"/>
+      <x:selection activeCell="B6" activeCellId="0" sqref="B6:B6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -2589,36 +2768,36 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="23.5">
-      <x:c r="A1" s="45" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="B1" s="45"/>
+      <x:c r="A1" s="50" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B1" s="50"/>
       <x:c r="C1" s="4"/>
-      <x:c r="F1" s="46" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="G1" s="46"/>
-      <x:c r="H1" s="46"/>
-      <x:c r="I1" s="46"/>
-      <x:c r="J1" s="46"/>
+      <x:c r="F1" s="51" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G1" s="51"/>
+      <x:c r="H1" s="51"/>
+      <x:c r="I1" s="51"/>
+      <x:c r="J1" s="51"/>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="44" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="B2" s="44"/>
+      <x:c r="A2" s="49" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B2" s="49"/>
       <x:c r="C2" s="4"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="16.75">
       <x:c r="A3" s="5" t="s">
-        <x:v>164</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B3" s="5" t="s">
-        <x:v>166</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C3" s="5"/>
       <x:c r="F3" s="6" t="s">
-        <x:v>72</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="G3" s="7"/>
       <x:c r="H3" s="7"/>
@@ -2627,54 +2806,54 @@
     </x:row>
     <x:row r="4" spans="1:10">
       <x:c r="A4" s="9" t="s">
-        <x:v>90</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B4" s="9" t="s">
-        <x:v>151</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C4" s="9" t="s">
-        <x:v>97</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F4" s="10"/>
-      <x:c r="G4" s="47" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="H4" s="47"/>
-      <x:c r="I4" s="47"/>
-      <x:c r="J4" s="48"/>
+      <x:c r="G4" s="52" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="H4" s="52"/>
+      <x:c r="I4" s="52"/>
+      <x:c r="J4" s="53"/>
     </x:row>
     <x:row r="5" spans="1:10">
       <x:c r="A5" s="11" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B5" s="11" t="s">
-        <x:v>185</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="C5" s="11" t="s">
-        <x:v>71</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F5" s="10"/>
-      <x:c r="G5" s="47" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="H5" s="47"/>
-      <x:c r="I5" s="47"/>
-      <x:c r="J5" s="48"/>
+      <x:c r="G5" s="52" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="H5" s="52"/>
+      <x:c r="I5" s="52"/>
+      <x:c r="J5" s="53"/>
     </x:row>
     <x:row r="6" spans="1:10">
       <x:c r="A6" s="11" t="s">
-        <x:v>95</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B6" s="11" t="s">
-        <x:v>192</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C6" s="11" t="s">
-        <x:v>86</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F6" s="12"/>
       <x:c r="G6" s="13"/>
       <x:c r="H6" s="13" t="s">
-        <x:v>43</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="I6" s="13"/>
       <x:c r="J6" s="14"/>
@@ -2686,7 +2865,7 @@
       <x:c r="F7" s="12"/>
       <x:c r="G7" s="13"/>
       <x:c r="H7" s="13" t="s">
-        <x:v>171</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="I7" s="13"/>
       <x:c r="J7" s="14"/>
@@ -2695,12 +2874,12 @@
       <x:c r="A8" s="13"/>
       <x:c r="B8" s="11"/>
       <x:c r="C8" s="11" t="s">
-        <x:v>165</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F8" s="12"/>
       <x:c r="G8" s="13"/>
       <x:c r="H8" s="13" t="s">
-        <x:v>62</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="I8" s="13"/>
       <x:c r="J8" s="14"/>
@@ -2712,7 +2891,7 @@
       <x:c r="F9" s="12"/>
       <x:c r="G9" s="13"/>
       <x:c r="H9" s="13" t="s">
-        <x:v>63</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="I9" s="13"/>
       <x:c r="J9" s="14"/>
@@ -2722,60 +2901,60 @@
       <x:c r="B10" s="13"/>
       <x:c r="C10" s="13"/>
       <x:c r="F10" s="12"/>
-      <x:c r="G10" s="40" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="H10" s="40"/>
-      <x:c r="I10" s="40"/>
-      <x:c r="J10" s="41"/>
+      <x:c r="G10" s="45" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="H10" s="45"/>
+      <x:c r="I10" s="45"/>
+      <x:c r="J10" s="46"/>
     </x:row>
     <x:row r="11" spans="1:10">
       <x:c r="A11" s="13"/>
       <x:c r="B11" s="13"/>
       <x:c r="C11" s="13"/>
       <x:c r="F11" s="12"/>
-      <x:c r="G11" s="40" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="H11" s="40"/>
-      <x:c r="I11" s="40"/>
-      <x:c r="J11" s="41"/>
+      <x:c r="G11" s="45" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="H11" s="45"/>
+      <x:c r="I11" s="45"/>
+      <x:c r="J11" s="46"/>
     </x:row>
     <x:row r="12" spans="1:10">
       <x:c r="A12" s="13"/>
       <x:c r="B12" s="13"/>
       <x:c r="C12" s="13"/>
       <x:c r="F12" s="12"/>
-      <x:c r="G12" s="42" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="H12" s="42"/>
-      <x:c r="I12" s="42"/>
-      <x:c r="J12" s="43"/>
+      <x:c r="G12" s="47" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="H12" s="47"/>
+      <x:c r="I12" s="47"/>
+      <x:c r="J12" s="48"/>
     </x:row>
     <x:row r="13" spans="1:10">
       <x:c r="A13" s="13"/>
       <x:c r="B13" s="13"/>
       <x:c r="C13" s="13"/>
       <x:c r="F13" s="12" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="G13" s="40"/>
-      <x:c r="H13" s="40"/>
-      <x:c r="I13" s="40"/>
-      <x:c r="J13" s="41"/>
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G13" s="45"/>
+      <x:c r="H13" s="45"/>
+      <x:c r="I13" s="45"/>
+      <x:c r="J13" s="46"/>
     </x:row>
     <x:row r="14" spans="1:10">
       <x:c r="A14" s="13"/>
       <x:c r="B14" s="13"/>
       <x:c r="C14" s="13"/>
       <x:c r="F14" s="12"/>
-      <x:c r="G14" s="42" t="s">
-        <x:v>180</x:v>
-      </x:c>
-      <x:c r="H14" s="42"/>
-      <x:c r="I14" s="42"/>
-      <x:c r="J14" s="43"/>
+      <x:c r="G14" s="47" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="H14" s="47"/>
+      <x:c r="I14" s="47"/>
+      <x:c r="J14" s="48"/>
     </x:row>
     <x:row r="15" spans="1:10">
       <x:c r="A15" s="13"/>
@@ -2831,8 +3010,8 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="A1:Y172"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="H145" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="N157" activeCellId="0" sqref="N157:N157"/>
+    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="U75" activeCellId="0" sqref="U75:U75"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -2844,519 +3023,591 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="2:3">
-      <x:c r="B2" s="53" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="C2" s="53"/>
+      <x:c r="B2" s="44" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="C2" s="44"/>
     </x:row>
     <x:row r="7" spans="11:16">
       <x:c r="K7" s="21" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="L7" s="49" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="M7" s="49"/>
-      <x:c r="N7" s="50" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="O7" s="51"/>
-      <x:c r="P7" s="52"/>
-    </x:row>
-    <x:row r="8" spans="11:16">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="L7" s="40" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="M7" s="40"/>
+      <x:c r="N7" s="41" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="O7" s="42"/>
+      <x:c r="P7" s="43"/>
+    </x:row>
+    <x:row r="8" spans="11:17">
       <x:c r="K8" s="18">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="L8" s="49" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="M8" s="49"/>
-      <x:c r="N8" s="49" t="s">
-        <x:v>181</x:v>
-      </x:c>
-      <x:c r="O8" s="49"/>
-      <x:c r="P8" s="49"/>
-    </x:row>
-    <x:row r="9" spans="11:16">
+      <x:c r="L8" s="40" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="M8" s="40"/>
+      <x:c r="N8" s="40" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="O8" s="40"/>
+      <x:c r="P8" s="40"/>
+      <x:c r="Q8" t="s">
+        <x:v>116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="11:17">
       <x:c r="K9" s="18">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="L9" s="49" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="M9" s="49"/>
-      <x:c r="N9" s="49" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="O9" s="49"/>
-      <x:c r="P9" s="49"/>
-    </x:row>
-    <x:row r="10" spans="11:16">
+      <x:c r="L9" s="40" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="M9" s="40"/>
+      <x:c r="N9" s="40" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="O9" s="40"/>
+      <x:c r="P9" s="40"/>
+      <x:c r="Q9" t="s">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="11:17">
       <x:c r="K10" s="18">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="L10" s="49" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="M10" s="49"/>
-      <x:c r="N10" s="49" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="O10" s="49"/>
-      <x:c r="P10" s="49"/>
-    </x:row>
-    <x:row r="11" spans="11:16">
+      <x:c r="L10" s="40" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="M10" s="40"/>
+      <x:c r="N10" s="40" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="O10" s="40"/>
+      <x:c r="P10" s="40"/>
+      <x:c r="Q10" t="s">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="11:17">
       <x:c r="K11" s="18">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="L11" s="49" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="M11" s="49"/>
-      <x:c r="N11" s="49" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="O11" s="49"/>
-      <x:c r="P11" s="49"/>
-    </x:row>
-    <x:row r="12" spans="11:16">
+      <x:c r="L11" s="40" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="M11" s="40"/>
+      <x:c r="N11" s="40" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="O11" s="40"/>
+      <x:c r="P11" s="40"/>
+      <x:c r="Q11" t="s">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="11:17">
       <x:c r="K12" s="18">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="L12" s="49" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="M12" s="49"/>
-      <x:c r="N12" s="49" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="O12" s="49"/>
-      <x:c r="P12" s="49"/>
+      <x:c r="L12" s="40" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="M12" s="40"/>
+      <x:c r="N12" s="40" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="O12" s="40"/>
+      <x:c r="P12" s="40"/>
+      <x:c r="Q12" t="s">
+        <x:v>117</x:v>
+      </x:c>
     </x:row>
     <x:row r="20" spans="2:8">
-      <x:c r="B20" s="53" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C20" s="53"/>
-      <x:c r="D20" s="53"/>
-      <x:c r="E20" s="53"/>
-      <x:c r="F20" s="53"/>
-      <x:c r="G20" s="53"/>
-      <x:c r="H20" s="53"/>
+      <x:c r="B20" s="44" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C20" s="44"/>
+      <x:c r="D20" s="44"/>
+      <x:c r="E20" s="44"/>
+      <x:c r="F20" s="44"/>
+      <x:c r="G20" s="44"/>
+      <x:c r="H20" s="44"/>
     </x:row>
     <x:row r="21" spans="2:8">
-      <x:c r="B21" s="53" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="C21" s="53"/>
-      <x:c r="D21" s="53"/>
-      <x:c r="E21" s="53"/>
-      <x:c r="F21" s="53"/>
-      <x:c r="G21" s="53"/>
-      <x:c r="H21" s="53"/>
+      <x:c r="B21" s="44" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C21" s="44"/>
+      <x:c r="D21" s="44"/>
+      <x:c r="E21" s="44"/>
+      <x:c r="F21" s="44"/>
+      <x:c r="G21" s="44"/>
+      <x:c r="H21" s="44"/>
     </x:row>
     <x:row r="22" spans="2:8">
-      <x:c r="B22" s="53" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C22" s="53"/>
-      <x:c r="D22" s="53"/>
-      <x:c r="E22" s="53"/>
-      <x:c r="F22" s="53"/>
-      <x:c r="G22" s="53"/>
-      <x:c r="H22" s="53"/>
+      <x:c r="B22" s="44" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C22" s="44"/>
+      <x:c r="D22" s="44"/>
+      <x:c r="E22" s="44"/>
+      <x:c r="F22" s="44"/>
+      <x:c r="G22" s="44"/>
+      <x:c r="H22" s="44"/>
     </x:row>
     <x:row r="23" spans="2:8">
-      <x:c r="B23" s="53" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C23" s="53"/>
-      <x:c r="D23" s="53"/>
-      <x:c r="E23" s="53"/>
-      <x:c r="F23" s="53"/>
-      <x:c r="G23" s="53"/>
-      <x:c r="H23" s="53"/>
+      <x:c r="B23" s="44" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="C23" s="44"/>
+      <x:c r="D23" s="44"/>
+      <x:c r="E23" s="44"/>
+      <x:c r="F23" s="44"/>
+      <x:c r="G23" s="44"/>
+      <x:c r="H23" s="44"/>
+    </x:row>
+    <x:row r="24" spans="2:14">
+      <x:c r="B24" s="75" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C24" s="44"/>
+      <x:c r="D24" s="44"/>
+      <x:c r="E24" s="44"/>
+      <x:c r="F24" s="44"/>
+      <x:c r="G24" s="44"/>
+      <x:c r="H24" s="44"/>
+      <x:c r="I24" s="44"/>
+      <x:c r="J24" s="44"/>
+      <x:c r="K24" s="44"/>
+      <x:c r="L24" s="44"/>
+      <x:c r="M24" s="44"/>
+      <x:c r="N24" s="44"/>
     </x:row>
     <x:row r="25" spans="2:14">
-      <x:c r="B25" s="53" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C25" s="53"/>
-      <x:c r="D25" s="53"/>
-      <x:c r="E25" s="53"/>
-      <x:c r="F25" s="53"/>
-      <x:c r="G25" s="53"/>
-      <x:c r="H25" s="53"/>
-      <x:c r="I25" s="53"/>
-      <x:c r="J25" s="53"/>
-      <x:c r="K25" s="53"/>
-      <x:c r="L25" s="53"/>
-      <x:c r="M25" s="53"/>
-      <x:c r="N25" s="53"/>
+      <x:c r="B25" s="75"/>
+      <x:c r="C25" s="44"/>
+      <x:c r="D25" s="44"/>
+      <x:c r="E25" s="44"/>
+      <x:c r="F25" s="44"/>
+      <x:c r="G25" s="44"/>
+      <x:c r="H25" s="44"/>
+      <x:c r="I25" s="44"/>
+      <x:c r="J25" s="44"/>
+      <x:c r="K25" s="44"/>
+      <x:c r="L25" s="44"/>
+      <x:c r="M25" s="44"/>
+      <x:c r="N25" s="44"/>
     </x:row>
     <x:row r="27" spans="2:3">
-      <x:c r="B27" s="53" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="C27" s="53"/>
+      <x:c r="B27" s="44" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="C27" s="44"/>
     </x:row>
     <x:row r="28" spans="2:4">
       <x:c r="B28" s="19"/>
-      <x:c r="C28" s="53" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="D28" s="53"/>
+      <x:c r="C28" s="44" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="D28" s="44"/>
     </x:row>
     <x:row r="31" spans="11:16">
       <x:c r="K31" s="21" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="L31" s="49" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="M31" s="49"/>
-      <x:c r="N31" s="50" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="O31" s="51"/>
-      <x:c r="P31" s="52"/>
-    </x:row>
-    <x:row r="32" spans="11:16">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="L31" s="40" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="M31" s="40"/>
+      <x:c r="N31" s="41" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="O31" s="42"/>
+      <x:c r="P31" s="43"/>
+    </x:row>
+    <x:row r="32" spans="11:17">
       <x:c r="K32" s="18">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="L32" s="49" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="M32" s="49"/>
-      <x:c r="N32" s="49" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="O32" s="49"/>
-      <x:c r="P32" s="49"/>
-    </x:row>
-    <x:row r="33" spans="11:16">
+      <x:c r="L32" s="40" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="M32" s="40"/>
+      <x:c r="N32" s="40" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="O32" s="40"/>
+      <x:c r="P32" s="40"/>
+      <x:c r="Q32" t="s">
+        <x:v>116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="11:17">
       <x:c r="K33" s="18">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L33" s="49" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="M33" s="49"/>
-      <x:c r="N33" s="49" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="O33" s="49"/>
-      <x:c r="P33" s="49"/>
-    </x:row>
-    <x:row r="34" spans="11:16">
+      <x:c r="L33" s="40" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="M33" s="40" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="N33" s="40" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="O33" s="40"/>
+      <x:c r="P33" s="40"/>
+      <x:c r="Q33" t="s">
+        <x:v>116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="11:17">
       <x:c r="K34" s="18">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="L34" s="49" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="M34" s="49"/>
-      <x:c r="N34" s="49" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="O34" s="49"/>
-      <x:c r="P34" s="49"/>
-    </x:row>
-    <x:row r="35" spans="11:16">
+      <x:c r="L34" s="40" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="M34" s="40" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="N34" s="40" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="O34" s="40"/>
+      <x:c r="P34" s="40"/>
+      <x:c r="Q34" t="s">
+        <x:v>116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="11:17">
       <x:c r="K35" s="18">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="L35" s="49" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="M35" s="49"/>
-      <x:c r="N35" s="49" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="O35" s="49"/>
-      <x:c r="P35" s="49"/>
-    </x:row>
-    <x:row r="36" spans="11:16">
+      <x:c r="L35" s="40" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="M35" s="40" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="N35" s="40" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="O35" s="40"/>
+      <x:c r="P35" s="40"/>
+      <x:c r="Q35" t="s">
+        <x:v>116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="11:17">
       <x:c r="K36" s="18">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L36" s="49" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="M36" s="49"/>
-      <x:c r="N36" s="49" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="O36" s="49"/>
-      <x:c r="P36" s="49"/>
-    </x:row>
-    <x:row r="37" spans="11:16">
+      <x:c r="L36" s="40" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="M36" s="40"/>
+      <x:c r="N36" s="40" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="O36" s="40"/>
+      <x:c r="P36" s="40"/>
+      <x:c r="Q36" t="s">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="11:17">
       <x:c r="K37" s="18">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="L37" s="49" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="M37" s="49"/>
-      <x:c r="N37" s="49" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="O37" s="49"/>
-      <x:c r="P37" s="49"/>
-    </x:row>
-    <x:row r="38" spans="11:16">
+      <x:c r="L37" s="40" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="M37" s="40"/>
+      <x:c r="N37" s="40" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="O37" s="40"/>
+      <x:c r="P37" s="40"/>
+      <x:c r="Q37" t="s">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="11:21">
       <x:c r="K38" s="18">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="L38" s="49" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="M38" s="49"/>
-      <x:c r="N38" s="49" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="O38" s="49"/>
-      <x:c r="P38" s="49"/>
-    </x:row>
-    <x:row r="39" spans="11:16">
+      <x:c r="L38" s="40" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="M38" s="40"/>
+      <x:c r="N38" s="40" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="O38" s="40"/>
+      <x:c r="P38" s="40"/>
+      <x:c r="Q38" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="R38" s="44" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="S38" s="44"/>
+      <x:c r="T38" s="44"/>
+      <x:c r="U38" s="44"/>
+    </x:row>
+    <x:row r="39" spans="11:21">
       <x:c r="K39" s="18">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="L39" s="49" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="M39" s="49"/>
-      <x:c r="N39" s="49" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="O39" s="49"/>
-      <x:c r="P39" s="49"/>
+      <x:c r="L39" s="40" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="M39" s="40"/>
+      <x:c r="N39" s="40" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="O39" s="40"/>
+      <x:c r="P39" s="40"/>
+      <x:c r="Q39" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="R39" s="44" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="S39" s="44"/>
+      <x:c r="T39" s="44"/>
+      <x:c r="U39" s="44"/>
     </x:row>
     <x:row r="46" spans="2:17">
-      <x:c r="B46" s="53" t="s">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="C46" s="53"/>
-      <x:c r="D46" s="53"/>
-      <x:c r="E46" s="53"/>
-      <x:c r="F46" s="53"/>
-      <x:c r="G46" s="53"/>
-      <x:c r="H46" s="53"/>
-      <x:c r="K46" s="53" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="L46" s="53"/>
-      <x:c r="M46" s="53"/>
-      <x:c r="N46" s="53"/>
-      <x:c r="O46" s="53"/>
-      <x:c r="P46" s="53"/>
-      <x:c r="Q46" s="53"/>
+      <x:c r="B46" s="44" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C46" s="44"/>
+      <x:c r="D46" s="44"/>
+      <x:c r="E46" s="44"/>
+      <x:c r="F46" s="44"/>
+      <x:c r="G46" s="44"/>
+      <x:c r="H46" s="44"/>
+      <x:c r="K46" s="44" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="L46" s="44"/>
+      <x:c r="M46" s="44"/>
+      <x:c r="N46" s="44"/>
+      <x:c r="O46" s="44"/>
+      <x:c r="P46" s="44"/>
+      <x:c r="Q46" s="44"/>
     </x:row>
     <x:row r="47" spans="2:17">
-      <x:c r="B47" s="53" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C47" s="53"/>
-      <x:c r="D47" s="53"/>
-      <x:c r="E47" s="53"/>
-      <x:c r="F47" s="53"/>
-      <x:c r="G47" s="53"/>
-      <x:c r="H47" s="53"/>
-      <x:c r="K47" s="53" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="L47" s="53"/>
-      <x:c r="M47" s="53"/>
-      <x:c r="N47" s="53"/>
-      <x:c r="O47" s="53"/>
-      <x:c r="P47" s="53"/>
-      <x:c r="Q47" s="53"/>
+      <x:c r="B47" s="44" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C47" s="44"/>
+      <x:c r="D47" s="44"/>
+      <x:c r="E47" s="44"/>
+      <x:c r="F47" s="44"/>
+      <x:c r="G47" s="44"/>
+      <x:c r="H47" s="44"/>
+      <x:c r="K47" s="44" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="L47" s="44"/>
+      <x:c r="M47" s="44"/>
+      <x:c r="N47" s="44"/>
+      <x:c r="O47" s="44"/>
+      <x:c r="P47" s="44"/>
+      <x:c r="Q47" s="44"/>
     </x:row>
     <x:row r="49" spans="2:17">
-      <x:c r="B49" s="53" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C49" s="53"/>
-      <x:c r="D49" s="53"/>
-      <x:c r="E49" s="53"/>
-      <x:c r="F49" s="53"/>
-      <x:c r="G49" s="53"/>
-      <x:c r="H49" s="53"/>
-      <x:c r="K49" s="53" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="L49" s="53"/>
-      <x:c r="M49" s="53"/>
-      <x:c r="N49" s="53"/>
-      <x:c r="O49" s="53"/>
-      <x:c r="P49" s="53"/>
-      <x:c r="Q49" s="53"/>
+      <x:c r="B49" s="44" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C49" s="44"/>
+      <x:c r="D49" s="44"/>
+      <x:c r="E49" s="44"/>
+      <x:c r="F49" s="44"/>
+      <x:c r="G49" s="44"/>
+      <x:c r="H49" s="44"/>
+      <x:c r="K49" s="44" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="L49" s="44"/>
+      <x:c r="M49" s="44"/>
+      <x:c r="N49" s="44"/>
+      <x:c r="O49" s="44"/>
+      <x:c r="P49" s="44"/>
+      <x:c r="Q49" s="44"/>
     </x:row>
     <x:row r="50" spans="2:8">
-      <x:c r="B50" s="53" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C50" s="53"/>
-      <x:c r="D50" s="53"/>
-      <x:c r="E50" s="53"/>
-      <x:c r="F50" s="53"/>
-      <x:c r="G50" s="53"/>
-      <x:c r="H50" s="53"/>
+      <x:c r="B50" s="44" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C50" s="44"/>
+      <x:c r="D50" s="44"/>
+      <x:c r="E50" s="44"/>
+      <x:c r="F50" s="44"/>
+      <x:c r="G50" s="44"/>
+      <x:c r="H50" s="44"/>
     </x:row>
     <x:row r="52" spans="2:8">
-      <x:c r="B52" s="53" t="s">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="C52" s="53"/>
-      <x:c r="D52" s="53"/>
-      <x:c r="E52" s="53"/>
-      <x:c r="F52" s="53"/>
-      <x:c r="G52" s="53"/>
-      <x:c r="H52" s="53"/>
+      <x:c r="B52" s="44" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="C52" s="44"/>
+      <x:c r="D52" s="44"/>
+      <x:c r="E52" s="44"/>
+      <x:c r="F52" s="44"/>
+      <x:c r="G52" s="44"/>
+      <x:c r="H52" s="44"/>
     </x:row>
     <x:row r="53" spans="2:8">
-      <x:c r="B53" s="53" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="C53" s="53"/>
-      <x:c r="D53" s="53"/>
-      <x:c r="E53" s="53"/>
-      <x:c r="F53" s="53"/>
-      <x:c r="G53" s="53"/>
-      <x:c r="H53" s="53"/>
+      <x:c r="B53" s="44" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C53" s="44"/>
+      <x:c r="D53" s="44"/>
+      <x:c r="E53" s="44"/>
+      <x:c r="F53" s="44"/>
+      <x:c r="G53" s="44"/>
+      <x:c r="H53" s="44"/>
     </x:row>
     <x:row r="54" spans="2:22" ht="20.649999999999999">
-      <x:c r="B54" s="53" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C54" s="53"/>
-      <x:c r="D54" s="53"/>
-      <x:c r="E54" s="53"/>
-      <x:c r="F54" s="53"/>
-      <x:c r="G54" s="53"/>
-      <x:c r="H54" s="53"/>
+      <x:c r="B54" s="44" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C54" s="44"/>
+      <x:c r="D54" s="44"/>
+      <x:c r="E54" s="44"/>
+      <x:c r="F54" s="44"/>
+      <x:c r="G54" s="44"/>
+      <x:c r="H54" s="44"/>
       <x:c r="N54" s="22" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="R54" s="23" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="V54" s="23" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="2:8">
-      <x:c r="B56" s="53" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C56" s="53"/>
-      <x:c r="D56" s="53"/>
-      <x:c r="E56" s="53"/>
-      <x:c r="F56" s="53"/>
-      <x:c r="G56" s="53"/>
-      <x:c r="H56" s="53"/>
+      <x:c r="B56" s="44" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C56" s="44"/>
+      <x:c r="D56" s="44"/>
+      <x:c r="E56" s="44"/>
+      <x:c r="F56" s="44"/>
+      <x:c r="G56" s="44"/>
+      <x:c r="H56" s="44"/>
     </x:row>
     <x:row r="57" spans="2:8">
-      <x:c r="B57" s="53" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C57" s="53"/>
-      <x:c r="D57" s="53"/>
-      <x:c r="E57" s="53"/>
-      <x:c r="F57" s="53"/>
-      <x:c r="G57" s="53"/>
-      <x:c r="H57" s="53"/>
+      <x:c r="B57" s="44" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C57" s="44"/>
+      <x:c r="D57" s="44"/>
+      <x:c r="E57" s="44"/>
+      <x:c r="F57" s="44"/>
+      <x:c r="G57" s="44"/>
+      <x:c r="H57" s="44"/>
     </x:row>
     <x:row r="58" spans="11:25">
-      <x:c r="K58" s="53" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="L58" s="53"/>
-      <x:c r="M58" s="53"/>
-      <x:c r="O58" s="53" t="s">
-        <x:v>177</x:v>
-      </x:c>
-      <x:c r="P58" s="53"/>
-      <x:c r="Q58" s="53"/>
-      <x:c r="S58" s="53" t="s">
-        <x:v>176</x:v>
-      </x:c>
-      <x:c r="T58" s="53"/>
-      <x:c r="U58" s="53"/>
-      <x:c r="W58" s="53" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="X58" s="53"/>
-      <x:c r="Y58" s="53"/>
+      <x:c r="K58" s="44" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="L58" s="44"/>
+      <x:c r="M58" s="44"/>
+      <x:c r="O58" s="44" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="P58" s="44"/>
+      <x:c r="Q58" s="44"/>
+      <x:c r="S58" s="44" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="T58" s="44"/>
+      <x:c r="U58" s="44"/>
+      <x:c r="W58" s="44" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="X58" s="44"/>
+      <x:c r="Y58" s="44"/>
     </x:row>
     <x:row r="59" spans="15:25">
-      <x:c r="O59" s="53" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="P59" s="53"/>
-      <x:c r="Q59" s="53"/>
-      <x:c r="S59" s="53" t="s">
-        <x:v>184</x:v>
-      </x:c>
-      <x:c r="T59" s="53"/>
-      <x:c r="U59" s="53"/>
-      <x:c r="W59" s="53" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="X59" s="53"/>
-      <x:c r="Y59" s="53"/>
+      <x:c r="O59" s="44" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="P59" s="44"/>
+      <x:c r="Q59" s="44"/>
+      <x:c r="S59" s="44" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="T59" s="44"/>
+      <x:c r="U59" s="44"/>
+      <x:c r="W59" s="44" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="X59" s="44"/>
+      <x:c r="Y59" s="44"/>
     </x:row>
     <x:row r="60" spans="15:17">
-      <x:c r="O60" s="53" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="P60" s="53"/>
-      <x:c r="Q60" s="53"/>
+      <x:c r="O60" s="44" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="P60" s="44"/>
+      <x:c r="Q60" s="44"/>
     </x:row>
     <x:row r="61" spans="2:8">
-      <x:c r="B61" s="53" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C61" s="53"/>
-      <x:c r="D61" s="53"/>
-      <x:c r="E61" s="53"/>
-      <x:c r="F61" s="53"/>
-      <x:c r="G61" s="53"/>
-      <x:c r="H61" s="53"/>
+      <x:c r="B61" s="44" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C61" s="44"/>
+      <x:c r="D61" s="44"/>
+      <x:c r="E61" s="44"/>
+      <x:c r="F61" s="44"/>
+      <x:c r="G61" s="44"/>
+      <x:c r="H61" s="44"/>
     </x:row>
     <x:row r="62" spans="2:13">
-      <x:c r="B62" s="53" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C62" s="53"/>
-      <x:c r="D62" s="53"/>
-      <x:c r="E62" s="53"/>
-      <x:c r="F62" s="53"/>
-      <x:c r="G62" s="53"/>
-      <x:c r="H62" s="53"/>
+      <x:c r="B62" s="44" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C62" s="44"/>
+      <x:c r="D62" s="44"/>
+      <x:c r="E62" s="44"/>
+      <x:c r="F62" s="44"/>
+      <x:c r="G62" s="44"/>
+      <x:c r="H62" s="44"/>
       <x:c r="K62" s="1"/>
       <x:c r="L62" s="1"/>
       <x:c r="M62" s="1"/>
     </x:row>
     <x:row r="63" spans="2:13">
-      <x:c r="B63" s="53" t="s">
-        <x:v>153</x:v>
-      </x:c>
-      <x:c r="C63" s="53"/>
-      <x:c r="D63" s="53"/>
-      <x:c r="E63" s="53"/>
-      <x:c r="F63" s="53"/>
-      <x:c r="G63" s="53"/>
-      <x:c r="H63" s="53"/>
-      <x:c r="I63" s="53"/>
-      <x:c r="J63" s="53"/>
-      <x:c r="K63" s="53"/>
-      <x:c r="L63" s="53"/>
+      <x:c r="B63" s="44" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C63" s="44"/>
+      <x:c r="D63" s="44"/>
+      <x:c r="E63" s="44"/>
+      <x:c r="F63" s="44"/>
+      <x:c r="G63" s="44"/>
+      <x:c r="H63" s="44"/>
+      <x:c r="I63" s="44"/>
+      <x:c r="J63" s="44"/>
+      <x:c r="K63" s="44"/>
+      <x:c r="L63" s="44"/>
       <x:c r="M63" s="1"/>
     </x:row>
     <x:row r="64" spans="2:13">
@@ -3366,567 +3617,675 @@
       <x:c r="M64" s="1"/>
     </x:row>
     <x:row r="65" spans="3:5">
-      <x:c r="C65" s="53" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="D65" s="53"/>
-      <x:c r="E65" s="53"/>
+      <x:c r="C65" s="44" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="D65" s="44"/>
+      <x:c r="E65" s="44"/>
     </x:row>
     <x:row r="70" spans="12:19">
       <x:c r="L70" s="21" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="M70" s="49" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="N70" s="49"/>
-      <x:c r="O70" s="49"/>
-      <x:c r="P70" s="49"/>
-      <x:c r="Q70" s="49" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="R70" s="49"/>
-      <x:c r="S70" s="49"/>
-    </x:row>
-    <x:row r="71" spans="12:19">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="M70" s="40" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="N70" s="40"/>
+      <x:c r="O70" s="40"/>
+      <x:c r="P70" s="40"/>
+      <x:c r="Q70" s="40" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="R70" s="40"/>
+      <x:c r="S70" s="40"/>
+    </x:row>
+    <x:row r="71" spans="12:20">
       <x:c r="L71" s="18">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="M71" s="49" t="s">
-        <x:v>187</x:v>
-      </x:c>
-      <x:c r="N71" s="49"/>
-      <x:c r="O71" s="49"/>
-      <x:c r="P71" s="49"/>
-      <x:c r="Q71" s="49" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="R71" s="49"/>
-      <x:c r="S71" s="49"/>
-    </x:row>
-    <x:row r="72" spans="12:19">
+      <x:c r="M71" s="40" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="N71" s="40"/>
+      <x:c r="O71" s="40"/>
+      <x:c r="P71" s="40"/>
+      <x:c r="Q71" s="40" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="R71" s="40"/>
+      <x:c r="S71" s="40"/>
+      <x:c r="T71" t="s">
+        <x:v>116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="12:20">
       <x:c r="L72" s="18">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="M72" s="49" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="N72" s="49"/>
-      <x:c r="O72" s="49"/>
-      <x:c r="P72" s="49"/>
-      <x:c r="Q72" s="49" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="R72" s="49"/>
-      <x:c r="S72" s="49"/>
-    </x:row>
-    <x:row r="73" spans="12:19">
+      <x:c r="M72" s="40" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="N72" s="40"/>
+      <x:c r="O72" s="40"/>
+      <x:c r="P72" s="40"/>
+      <x:c r="Q72" s="40" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="R72" s="40"/>
+      <x:c r="S72" s="40"/>
+      <x:c r="T72" t="s">
+        <x:v>116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="12:20">
       <x:c r="L73" s="18">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="M73" s="49" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="N73" s="49"/>
-      <x:c r="O73" s="49"/>
-      <x:c r="P73" s="49"/>
-      <x:c r="Q73" s="49" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="R73" s="49"/>
-      <x:c r="S73" s="49"/>
+      <x:c r="M73" s="40" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="N73" s="40"/>
+      <x:c r="O73" s="40"/>
+      <x:c r="P73" s="40"/>
+      <x:c r="Q73" s="40" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="R73" s="40"/>
+      <x:c r="S73" s="40"/>
+      <x:c r="T73" t="s">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="11:15">
+      <x:c r="K74"/>
+      <x:c r="L74"/>
+      <x:c r="M74"/>
+      <x:c r="O74"/>
+    </x:row>
+    <x:row r="75" spans="11:20">
+      <x:c r="K75"/>
+      <x:c r="L75" s="44" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="M75" s="44"/>
+      <x:c r="N75" s="44"/>
+      <x:c r="O75" s="44"/>
+      <x:c r="P75" s="44"/>
+      <x:c r="Q75" s="44"/>
+      <x:c r="R75" s="44"/>
+      <x:c r="S75" s="44"/>
+      <x:c r="T75" s="44"/>
+    </x:row>
+    <x:row r="76" spans="11:20">
+      <x:c r="K76"/>
+      <x:c r="L76" s="44" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="M76" s="44"/>
+      <x:c r="N76" s="44"/>
+      <x:c r="O76" s="44"/>
+      <x:c r="P76" s="44"/>
+      <x:c r="Q76" s="44"/>
+      <x:c r="R76" s="44"/>
+      <x:c r="S76" s="44"/>
+      <x:c r="T76" s="44"/>
+    </x:row>
+    <x:row r="77" spans="12:20">
+      <x:c r="L77" s="44" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="M77" s="44"/>
+      <x:c r="N77" s="44"/>
+      <x:c r="O77" s="44"/>
+      <x:c r="P77" s="44"/>
+      <x:c r="Q77" s="44"/>
+      <x:c r="R77" s="44"/>
+      <x:c r="S77" s="44"/>
+      <x:c r="T77" s="44"/>
+    </x:row>
+    <x:row r="79" spans="12:20">
+      <x:c r="L79" s="44" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="M79" s="44"/>
+      <x:c r="N79" s="44"/>
+      <x:c r="O79" s="44"/>
+      <x:c r="P79" s="44"/>
+      <x:c r="Q79" s="44"/>
+      <x:c r="R79" s="44"/>
+      <x:c r="S79" s="44"/>
+      <x:c r="T79" s="44"/>
     </x:row>
     <x:row r="83" spans="2:8">
-      <x:c r="B83" s="53" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="C83" s="53"/>
-      <x:c r="D83" s="53"/>
-      <x:c r="E83" s="53"/>
-      <x:c r="F83" s="53"/>
-      <x:c r="G83" s="53"/>
-      <x:c r="H83" s="53"/>
+      <x:c r="B83" s="44" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C83" s="44"/>
+      <x:c r="D83" s="44"/>
+      <x:c r="E83" s="44"/>
+      <x:c r="F83" s="44"/>
+      <x:c r="G83" s="44"/>
+      <x:c r="H83" s="44"/>
     </x:row>
     <x:row r="84" spans="2:8">
-      <x:c r="B84" s="53" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C84" s="53"/>
-      <x:c r="D84" s="53"/>
-      <x:c r="E84" s="53"/>
-      <x:c r="F84" s="53"/>
-      <x:c r="G84" s="53"/>
-      <x:c r="H84" s="53"/>
+      <x:c r="B84" s="44" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C84" s="44"/>
+      <x:c r="D84" s="44"/>
+      <x:c r="E84" s="44"/>
+      <x:c r="F84" s="44"/>
+      <x:c r="G84" s="44"/>
+      <x:c r="H84" s="44"/>
     </x:row>
     <x:row r="85" spans="2:8">
-      <x:c r="B85" s="53"/>
-      <x:c r="C85" s="53"/>
-      <x:c r="D85" s="53"/>
-      <x:c r="E85" s="53"/>
-      <x:c r="F85" s="53"/>
-      <x:c r="G85" s="53"/>
-      <x:c r="H85" s="53"/>
+      <x:c r="B85" s="44"/>
+      <x:c r="C85" s="44"/>
+      <x:c r="D85" s="44"/>
+      <x:c r="E85" s="44"/>
+      <x:c r="F85" s="44"/>
+      <x:c r="G85" s="44"/>
+      <x:c r="H85" s="44"/>
     </x:row>
     <x:row r="86" spans="2:8">
-      <x:c r="B86" s="53"/>
-      <x:c r="C86" s="53"/>
-      <x:c r="D86" s="53"/>
-      <x:c r="E86" s="53"/>
-      <x:c r="F86" s="53"/>
-      <x:c r="G86" s="53"/>
-      <x:c r="H86" s="53"/>
+      <x:c r="B86" s="44"/>
+      <x:c r="C86" s="44"/>
+      <x:c r="D86" s="44"/>
+      <x:c r="E86" s="44"/>
+      <x:c r="F86" s="44"/>
+      <x:c r="G86" s="44"/>
+      <x:c r="H86" s="44"/>
     </x:row>
     <x:row r="87" spans="2:8">
-      <x:c r="B87" s="53" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C87" s="53"/>
-      <x:c r="D87" s="53"/>
-      <x:c r="E87" s="53"/>
-      <x:c r="F87" s="53"/>
-      <x:c r="G87" s="53"/>
-      <x:c r="H87" s="53"/>
+      <x:c r="B87" s="44" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C87" s="44"/>
+      <x:c r="D87" s="44"/>
+      <x:c r="E87" s="44"/>
+      <x:c r="F87" s="44"/>
+      <x:c r="G87" s="44"/>
+      <x:c r="H87" s="44"/>
     </x:row>
     <x:row r="88" spans="2:8">
-      <x:c r="B88" s="53" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C88" s="53"/>
-      <x:c r="D88" s="53"/>
-      <x:c r="E88" s="53"/>
-      <x:c r="F88" s="53"/>
-      <x:c r="G88" s="53"/>
-      <x:c r="H88" s="53"/>
+      <x:c r="B88" s="44" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C88" s="44"/>
+      <x:c r="D88" s="44"/>
+      <x:c r="E88" s="44"/>
+      <x:c r="F88" s="44"/>
+      <x:c r="G88" s="44"/>
+      <x:c r="H88" s="44"/>
     </x:row>
     <x:row r="89" spans="2:8">
-      <x:c r="B89" s="53" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C89" s="53"/>
-      <x:c r="D89" s="53"/>
-      <x:c r="E89" s="53"/>
-      <x:c r="F89" s="53"/>
-      <x:c r="G89" s="53"/>
-      <x:c r="H89" s="53"/>
+      <x:c r="B89" s="44" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="C89" s="44"/>
+      <x:c r="D89" s="44"/>
+      <x:c r="E89" s="44"/>
+      <x:c r="F89" s="44"/>
+      <x:c r="G89" s="44"/>
+      <x:c r="H89" s="44"/>
     </x:row>
     <x:row r="91" spans="3:5">
-      <x:c r="C91" s="53" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D91" s="53"/>
-      <x:c r="E91" s="53"/>
+      <x:c r="C91" s="44" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D91" s="44"/>
+      <x:c r="E91" s="44"/>
     </x:row>
     <x:row r="96" spans="11:16">
       <x:c r="K96" s="21" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="L96" s="49" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="M96" s="49"/>
-      <x:c r="N96" s="50" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="O96" s="51"/>
-      <x:c r="P96" s="52"/>
-    </x:row>
-    <x:row r="97" spans="11:16">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="L96" s="40" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="M96" s="40"/>
+      <x:c r="N96" s="41" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="O96" s="42"/>
+      <x:c r="P96" s="43"/>
+    </x:row>
+    <x:row r="97" spans="11:17">
       <x:c r="K97" s="18">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="L97" s="49" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="M97" s="49"/>
-      <x:c r="N97" s="49" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="O97" s="49"/>
-      <x:c r="P97" s="49"/>
-    </x:row>
-    <x:row r="98" spans="11:16">
+      <x:c r="L97" s="40" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="M97" s="40"/>
+      <x:c r="N97" s="40" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="O97" s="40"/>
+      <x:c r="P97" s="40"/>
+      <x:c r="Q97" t="s">
+        <x:v>116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="11:17">
       <x:c r="K98" s="18">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="L98" s="49" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="M98" s="49"/>
-      <x:c r="N98" s="49" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="O98" s="49"/>
-      <x:c r="P98" s="49"/>
-    </x:row>
-    <x:row r="99" spans="11:16">
+      <x:c r="L98" s="40" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="M98" s="40"/>
+      <x:c r="N98" s="40" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="O98" s="40"/>
+      <x:c r="P98" s="40"/>
+      <x:c r="Q98" t="s">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="11:17">
       <x:c r="K99" s="18">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="L99" s="49" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="M99" s="49"/>
-      <x:c r="N99" s="49" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="O99" s="49"/>
-      <x:c r="P99" s="49"/>
+      <x:c r="L99" s="40" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="M99" s="40"/>
+      <x:c r="N99" s="40" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="O99" s="40"/>
+      <x:c r="P99" s="40"/>
+      <x:c r="Q99" t="s">
+        <x:v>117</x:v>
+      </x:c>
     </x:row>
     <x:row r="109" spans="2:8">
-      <x:c r="B109" s="53" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C109" s="53"/>
-      <x:c r="D109" s="53"/>
-      <x:c r="E109" s="53"/>
-      <x:c r="F109" s="53"/>
-      <x:c r="G109" s="53"/>
-      <x:c r="H109" s="53"/>
+      <x:c r="B109" s="44" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C109" s="44"/>
+      <x:c r="D109" s="44"/>
+      <x:c r="E109" s="44"/>
+      <x:c r="F109" s="44"/>
+      <x:c r="G109" s="44"/>
+      <x:c r="H109" s="44"/>
     </x:row>
     <x:row r="110" spans="2:8">
-      <x:c r="B110" s="53" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C110" s="53"/>
-      <x:c r="D110" s="53"/>
-      <x:c r="E110" s="53"/>
-      <x:c r="F110" s="53"/>
-      <x:c r="G110" s="53"/>
-      <x:c r="H110" s="53"/>
+      <x:c r="B110" s="44" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C110" s="44"/>
+      <x:c r="D110" s="44"/>
+      <x:c r="E110" s="44"/>
+      <x:c r="F110" s="44"/>
+      <x:c r="G110" s="44"/>
+      <x:c r="H110" s="44"/>
     </x:row>
     <x:row r="111" spans="2:8">
-      <x:c r="B111" s="53" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C111" s="53"/>
-      <x:c r="D111" s="53"/>
-      <x:c r="E111" s="53"/>
-      <x:c r="F111" s="53"/>
-      <x:c r="G111" s="53"/>
-      <x:c r="H111" s="53"/>
+      <x:c r="B111" s="44" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C111" s="44"/>
+      <x:c r="D111" s="44"/>
+      <x:c r="E111" s="44"/>
+      <x:c r="F111" s="44"/>
+      <x:c r="G111" s="44"/>
+      <x:c r="H111" s="44"/>
     </x:row>
     <x:row r="113" spans="3:5">
-      <x:c r="C113" s="53" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="D113" s="53"/>
-      <x:c r="E113" s="53"/>
+      <x:c r="C113" s="44" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="D113" s="44"/>
+      <x:c r="E113" s="44"/>
     </x:row>
     <x:row r="116" spans="11:16">
       <x:c r="K116" s="21" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="L116" s="49" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="M116" s="49"/>
-      <x:c r="N116" s="50" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="O116" s="51"/>
-      <x:c r="P116" s="52"/>
-    </x:row>
-    <x:row r="117" spans="11:16">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="L116" s="40" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="M116" s="40"/>
+      <x:c r="N116" s="41" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="O116" s="42"/>
+      <x:c r="P116" s="43"/>
+    </x:row>
+    <x:row r="117" spans="11:17">
       <x:c r="K117" s="18">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="L117" s="49" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="M117" s="49"/>
-      <x:c r="N117" s="49" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="O117" s="49"/>
-      <x:c r="P117" s="49"/>
-    </x:row>
-    <x:row r="118" spans="11:16">
+      <x:c r="L117" s="40" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="M117" s="40"/>
+      <x:c r="N117" s="40" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="O117" s="40"/>
+      <x:c r="P117" s="40"/>
+      <x:c r="Q117" t="s">
+        <x:v>116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="11:17">
       <x:c r="K118" s="18">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="L118" s="49" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="M118" s="49"/>
-      <x:c r="N118" s="49" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="O118" s="49"/>
-      <x:c r="P118" s="49"/>
+      <x:c r="L118" s="40" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="M118" s="40"/>
+      <x:c r="N118" s="40" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="O118" s="40"/>
+      <x:c r="P118" s="40"/>
+      <x:c r="Q118" t="s">
+        <x:v>117</x:v>
+      </x:c>
     </x:row>
     <x:row r="131" spans="2:8">
-      <x:c r="B131" s="53" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C131" s="53"/>
-      <x:c r="D131" s="53"/>
-      <x:c r="E131" s="53"/>
-      <x:c r="F131" s="53"/>
-      <x:c r="G131" s="53"/>
-      <x:c r="H131" s="53"/>
+      <x:c r="B131" s="44" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C131" s="44"/>
+      <x:c r="D131" s="44"/>
+      <x:c r="E131" s="44"/>
+      <x:c r="F131" s="44"/>
+      <x:c r="G131" s="44"/>
+      <x:c r="H131" s="44"/>
     </x:row>
     <x:row r="132" spans="2:8">
-      <x:c r="B132" s="53" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C132" s="53"/>
-      <x:c r="D132" s="53"/>
-      <x:c r="E132" s="53"/>
-      <x:c r="F132" s="53"/>
-      <x:c r="G132" s="53"/>
-      <x:c r="H132" s="53"/>
+      <x:c r="B132" s="44" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C132" s="44"/>
+      <x:c r="D132" s="44"/>
+      <x:c r="E132" s="44"/>
+      <x:c r="F132" s="44"/>
+      <x:c r="G132" s="44"/>
+      <x:c r="H132" s="44"/>
     </x:row>
     <x:row r="135" spans="2:3">
-      <x:c r="B135" s="53" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="C135" s="53"/>
+      <x:c r="B135" s="44" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="C135" s="44"/>
     </x:row>
     <x:row r="139" spans="11:18">
       <x:c r="K139" s="21" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="L139" s="49" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="M139" s="49"/>
-      <x:c r="N139" s="49"/>
-      <x:c r="O139" s="49"/>
-      <x:c r="P139" s="49" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="Q139" s="49"/>
-      <x:c r="R139" s="49"/>
-    </x:row>
-    <x:row r="140" spans="11:18">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="L139" s="40" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="M139" s="40"/>
+      <x:c r="N139" s="40"/>
+      <x:c r="O139" s="40"/>
+      <x:c r="P139" s="40" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="Q139" s="40"/>
+      <x:c r="R139" s="40"/>
+    </x:row>
+    <x:row r="140" spans="11:19">
       <x:c r="K140" s="18">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="L140" s="49" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="M140" s="49"/>
-      <x:c r="N140" s="49"/>
-      <x:c r="O140" s="49"/>
-      <x:c r="P140" s="49" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Q140" s="49"/>
-      <x:c r="R140" s="49"/>
-    </x:row>
-    <x:row r="141" spans="11:18">
+      <x:c r="L140" s="40" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="M140" s="40"/>
+      <x:c r="N140" s="40"/>
+      <x:c r="O140" s="40"/>
+      <x:c r="P140" s="40" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="Q140" s="40"/>
+      <x:c r="R140" s="40"/>
+      <x:c r="S140" t="s">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="141" spans="11:19">
       <x:c r="K141" s="18">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="L141" s="49" t="s">
-        <x:v>162</x:v>
-      </x:c>
-      <x:c r="M141" s="49"/>
-      <x:c r="N141" s="49"/>
-      <x:c r="O141" s="49"/>
-      <x:c r="P141" s="49" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="Q141" s="49"/>
-      <x:c r="R141" s="49"/>
-    </x:row>
-    <x:row r="142" spans="11:18">
+      <x:c r="L141" s="40" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="M141" s="40"/>
+      <x:c r="N141" s="40"/>
+      <x:c r="O141" s="40"/>
+      <x:c r="P141" s="40" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="Q141" s="40"/>
+      <x:c r="R141" s="40"/>
+      <x:c r="S141" t="s">
+        <x:v>116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="142" spans="11:19">
       <x:c r="K142" s="18">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="L142" s="49" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="M142" s="49"/>
-      <x:c r="N142" s="49"/>
-      <x:c r="O142" s="49"/>
-      <x:c r="P142" s="49" t="s">
-        <x:v>195</x:v>
-      </x:c>
-      <x:c r="Q142" s="49"/>
-      <x:c r="R142" s="49"/>
-    </x:row>
-    <x:row r="143" spans="11:18">
+      <x:c r="L142" s="40" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="M142" s="40"/>
+      <x:c r="N142" s="40"/>
+      <x:c r="O142" s="40"/>
+      <x:c r="P142" s="40" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q142" s="40"/>
+      <x:c r="R142" s="40"/>
+      <x:c r="S142" t="s">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="143" spans="11:19">
       <x:c r="K143" s="18">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="L143" s="49" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="M143" s="49"/>
-      <x:c r="N143" s="49"/>
-      <x:c r="O143" s="49"/>
-      <x:c r="P143" s="49" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="Q143" s="49"/>
-      <x:c r="R143" s="49"/>
-    </x:row>
-    <x:row r="144" spans="11:18">
+      <x:c r="L143" s="40" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="M143" s="40"/>
+      <x:c r="N143" s="40"/>
+      <x:c r="O143" s="40"/>
+      <x:c r="P143" s="40" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="Q143" s="40"/>
+      <x:c r="R143" s="40"/>
+      <x:c r="S143" t="s">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="144" spans="11:19">
       <x:c r="K144" s="18">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="L144" s="49" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="M144" s="49"/>
-      <x:c r="N144" s="49"/>
-      <x:c r="O144" s="49"/>
-      <x:c r="P144" s="49" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="Q144" s="49"/>
-      <x:c r="R144" s="49"/>
-    </x:row>
-    <x:row r="145" spans="11:18">
+      <x:c r="L144" s="40" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="M144" s="40"/>
+      <x:c r="N144" s="40"/>
+      <x:c r="O144" s="40"/>
+      <x:c r="P144" s="40" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Q144" s="40"/>
+      <x:c r="R144" s="40"/>
+      <x:c r="S144" t="s">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="145" spans="11:19">
       <x:c r="K145" s="18">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="L145" s="49" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="M145" s="49"/>
-      <x:c r="N145" s="49"/>
-      <x:c r="O145" s="49"/>
-      <x:c r="P145" s="49" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="Q145" s="49"/>
-      <x:c r="R145" s="49"/>
-    </x:row>
-    <x:row r="146" spans="11:18">
+      <x:c r="L145" s="40" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M145" s="40"/>
+      <x:c r="N145" s="40"/>
+      <x:c r="O145" s="40"/>
+      <x:c r="P145" s="40" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="Q145" s="40"/>
+      <x:c r="R145" s="40"/>
+      <x:c r="S145" t="s">
+        <x:v>116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="146" spans="11:19">
       <x:c r="K146" s="18">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="L146" s="49" t="s">
-        <x:v>168</x:v>
-      </x:c>
-      <x:c r="M146" s="49"/>
-      <x:c r="N146" s="49"/>
-      <x:c r="O146" s="49"/>
-      <x:c r="P146" s="49" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="Q146" s="49"/>
-      <x:c r="R146" s="49"/>
-    </x:row>
-    <x:row r="147" spans="11:18">
+      <x:c r="L146" s="40" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="M146" s="40"/>
+      <x:c r="N146" s="40"/>
+      <x:c r="O146" s="40"/>
+      <x:c r="P146" s="40" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="Q146" s="40"/>
+      <x:c r="R146" s="40"/>
+      <x:c r="S146" t="s">
+        <x:v>116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="147" spans="11:19">
       <x:c r="K147" s="18">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="L147" s="49" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="M147" s="49"/>
-      <x:c r="N147" s="49"/>
-      <x:c r="O147" s="49"/>
-      <x:c r="P147" s="49" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="Q147" s="49"/>
-      <x:c r="R147" s="49"/>
+      <x:c r="L147" s="40" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="M147" s="40"/>
+      <x:c r="N147" s="40"/>
+      <x:c r="O147" s="40"/>
+      <x:c r="P147" s="40" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="Q147" s="40"/>
+      <x:c r="R147" s="40"/>
+      <x:c r="S147" t="s">
+        <x:v>117</x:v>
+      </x:c>
     </x:row>
     <x:row r="153" spans="2:17">
-      <x:c r="B153" s="53" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C153" s="53"/>
-      <x:c r="D153" s="53"/>
-      <x:c r="E153" s="53"/>
-      <x:c r="F153" s="53"/>
-      <x:c r="G153" s="53"/>
-      <x:c r="H153" s="53"/>
-      <x:c r="K153" s="53" t="s">
-        <x:v>194</x:v>
-      </x:c>
-      <x:c r="L153" s="53"/>
-      <x:c r="M153" s="53"/>
-      <x:c r="N153" s="53"/>
-      <x:c r="O153" s="53"/>
-      <x:c r="P153" s="53"/>
-      <x:c r="Q153" s="53"/>
+      <x:c r="B153" s="44" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C153" s="44"/>
+      <x:c r="D153" s="44"/>
+      <x:c r="E153" s="44"/>
+      <x:c r="F153" s="44"/>
+      <x:c r="G153" s="44"/>
+      <x:c r="H153" s="44"/>
+      <x:c r="K153" s="44" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="L153" s="44"/>
+      <x:c r="M153" s="44"/>
+      <x:c r="N153" s="44"/>
+      <x:c r="O153" s="44"/>
+      <x:c r="P153" s="44"/>
+      <x:c r="Q153" s="44"/>
     </x:row>
     <x:row r="154" spans="2:17">
-      <x:c r="B154" s="53" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="C154" s="53"/>
-      <x:c r="D154" s="53"/>
-      <x:c r="E154" s="53"/>
-      <x:c r="F154" s="53"/>
-      <x:c r="G154" s="53"/>
-      <x:c r="H154" s="53"/>
-      <x:c r="K154" s="53" t="s">
-        <x:v>179</x:v>
-      </x:c>
-      <x:c r="L154" s="53"/>
-      <x:c r="M154" s="53"/>
-      <x:c r="N154" s="53"/>
-      <x:c r="O154" s="53"/>
-      <x:c r="P154" s="53"/>
-      <x:c r="Q154" s="53"/>
+      <x:c r="B154" s="44" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C154" s="44"/>
+      <x:c r="D154" s="44"/>
+      <x:c r="E154" s="44"/>
+      <x:c r="F154" s="44"/>
+      <x:c r="G154" s="44"/>
+      <x:c r="H154" s="44"/>
+      <x:c r="K154" s="44" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="L154" s="44"/>
+      <x:c r="M154" s="44"/>
+      <x:c r="N154" s="44"/>
+      <x:c r="O154" s="44"/>
+      <x:c r="P154" s="44"/>
+      <x:c r="Q154" s="44"/>
     </x:row>
     <x:row r="155" spans="2:17">
-      <x:c r="B155" s="53" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C155" s="53"/>
-      <x:c r="D155" s="53"/>
-      <x:c r="E155" s="53"/>
-      <x:c r="F155" s="53"/>
-      <x:c r="G155" s="53"/>
-      <x:c r="H155" s="53"/>
-      <x:c r="K155" s="53" t="s">
-        <x:v>191</x:v>
-      </x:c>
-      <x:c r="L155" s="53"/>
-      <x:c r="M155" s="53"/>
-      <x:c r="N155" s="53"/>
-      <x:c r="O155" s="53"/>
-      <x:c r="P155" s="53"/>
-      <x:c r="Q155" s="53"/>
+      <x:c r="B155" s="44" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C155" s="44"/>
+      <x:c r="D155" s="44"/>
+      <x:c r="E155" s="44"/>
+      <x:c r="F155" s="44"/>
+      <x:c r="G155" s="44"/>
+      <x:c r="H155" s="44"/>
+      <x:c r="K155" s="44" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="L155" s="44"/>
+      <x:c r="M155" s="44"/>
+      <x:c r="N155" s="44"/>
+      <x:c r="O155" s="44"/>
+      <x:c r="P155" s="44"/>
+      <x:c r="Q155" s="44"/>
     </x:row>
     <x:row r="156" spans="2:17">
-      <x:c r="B156" s="53" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C156" s="53"/>
-      <x:c r="D156" s="53"/>
-      <x:c r="E156" s="53"/>
-      <x:c r="F156" s="53"/>
-      <x:c r="G156" s="53"/>
-      <x:c r="H156" s="53"/>
-      <x:c r="K156" s="53" t="s">
-        <x:v>193</x:v>
-      </x:c>
-      <x:c r="L156" s="53"/>
-      <x:c r="M156" s="53"/>
-      <x:c r="N156" s="53"/>
-      <x:c r="O156" s="53"/>
-      <x:c r="P156" s="53"/>
-      <x:c r="Q156" s="53"/>
+      <x:c r="B156" s="44" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C156" s="44"/>
+      <x:c r="D156" s="44"/>
+      <x:c r="E156" s="44"/>
+      <x:c r="F156" s="44"/>
+      <x:c r="G156" s="44"/>
+      <x:c r="H156" s="44"/>
+      <x:c r="K156" s="44" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="L156" s="44"/>
+      <x:c r="M156" s="44"/>
+      <x:c r="N156" s="44"/>
+      <x:c r="O156" s="44"/>
+      <x:c r="P156" s="44"/>
+      <x:c r="Q156" s="44"/>
     </x:row>
     <x:row r="157" spans="2:8">
-      <x:c r="B157" s="53" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C157" s="53"/>
-      <x:c r="D157" s="53"/>
-      <x:c r="E157" s="53"/>
-      <x:c r="F157" s="53"/>
-      <x:c r="G157" s="53"/>
-      <x:c r="H157" s="53"/>
+      <x:c r="B157" s="44" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C157" s="44"/>
+      <x:c r="D157" s="44"/>
+      <x:c r="E157" s="44"/>
+      <x:c r="F157" s="44"/>
+      <x:c r="G157" s="44"/>
+      <x:c r="H157" s="44"/>
     </x:row>
     <x:row r="158" spans="2:15">
-      <x:c r="B158" s="53" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C158" s="53"/>
-      <x:c r="D158" s="53"/>
-      <x:c r="E158" s="53"/>
-      <x:c r="F158" s="53"/>
-      <x:c r="G158" s="53"/>
-      <x:c r="H158" s="53"/>
+      <x:c r="B158" s="44" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="C158" s="44"/>
+      <x:c r="D158" s="44"/>
+      <x:c r="E158" s="44"/>
+      <x:c r="F158" s="44"/>
+      <x:c r="G158" s="44"/>
+      <x:c r="H158" s="44"/>
       <x:c r="K158" s="20">
         <x:v>1</x:v>
       </x:c>
@@ -3938,94 +4297,94 @@
       </x:c>
     </x:row>
     <x:row r="159" spans="2:8">
-      <x:c r="B159" s="53" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C159" s="53"/>
-      <x:c r="D159" s="53"/>
-      <x:c r="E159" s="53"/>
-      <x:c r="F159" s="53"/>
-      <x:c r="G159" s="53"/>
-      <x:c r="H159" s="53"/>
+      <x:c r="B159" s="44" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C159" s="44"/>
+      <x:c r="D159" s="44"/>
+      <x:c r="E159" s="44"/>
+      <x:c r="F159" s="44"/>
+      <x:c r="G159" s="44"/>
+      <x:c r="H159" s="44"/>
     </x:row>
     <x:row r="160" spans="2:8">
-      <x:c r="B160" s="53" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C160" s="53"/>
-      <x:c r="D160" s="53"/>
-      <x:c r="E160" s="53"/>
-      <x:c r="F160" s="53"/>
-      <x:c r="G160" s="53"/>
-      <x:c r="H160" s="53"/>
+      <x:c r="B160" s="44" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C160" s="44"/>
+      <x:c r="D160" s="44"/>
+      <x:c r="E160" s="44"/>
+      <x:c r="F160" s="44"/>
+      <x:c r="G160" s="44"/>
+      <x:c r="H160" s="44"/>
     </x:row>
     <x:row r="165" spans="2:3">
-      <x:c r="B165" s="53" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C165" s="53"/>
+      <x:c r="B165" s="44" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C165" s="44"/>
     </x:row>
     <x:row r="166" spans="2:8">
-      <x:c r="B166" s="53" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C166" s="53"/>
-      <x:c r="D166" s="53"/>
-      <x:c r="E166" s="53"/>
-      <x:c r="F166" s="53"/>
-      <x:c r="G166" s="53"/>
-      <x:c r="H166" s="53"/>
+      <x:c r="B166" s="44" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C166" s="44"/>
+      <x:c r="D166" s="44"/>
+      <x:c r="E166" s="44"/>
+      <x:c r="F166" s="44"/>
+      <x:c r="G166" s="44"/>
+      <x:c r="H166" s="44"/>
     </x:row>
     <x:row r="167" spans="2:8">
-      <x:c r="B167" s="53" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C167" s="53"/>
-      <x:c r="D167" s="53"/>
-      <x:c r="E167" s="53"/>
-      <x:c r="F167" s="53"/>
-      <x:c r="G167" s="53"/>
-      <x:c r="H167" s="53"/>
+      <x:c r="B167" s="44" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="C167" s="44"/>
+      <x:c r="D167" s="44"/>
+      <x:c r="E167" s="44"/>
+      <x:c r="F167" s="44"/>
+      <x:c r="G167" s="44"/>
+      <x:c r="H167" s="44"/>
     </x:row>
     <x:row r="168" spans="2:8">
-      <x:c r="B168" s="53" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="C168" s="53"/>
-      <x:c r="D168" s="53"/>
-      <x:c r="E168" s="53"/>
-      <x:c r="F168" s="53"/>
-      <x:c r="G168" s="53"/>
-      <x:c r="H168" s="53"/>
+      <x:c r="B168" s="44" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C168" s="44"/>
+      <x:c r="D168" s="44"/>
+      <x:c r="E168" s="44"/>
+      <x:c r="F168" s="44"/>
+      <x:c r="G168" s="44"/>
+      <x:c r="H168" s="44"/>
     </x:row>
     <x:row r="169" spans="2:8">
-      <x:c r="B169" s="53" t="s">
-        <x:v>183</x:v>
-      </x:c>
-      <x:c r="C169" s="53"/>
-      <x:c r="D169" s="53"/>
-      <x:c r="E169" s="53"/>
-      <x:c r="F169" s="53"/>
-      <x:c r="G169" s="53"/>
-      <x:c r="H169" s="53"/>
+      <x:c r="B169" s="44" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C169" s="44"/>
+      <x:c r="D169" s="44"/>
+      <x:c r="E169" s="44"/>
+      <x:c r="F169" s="44"/>
+      <x:c r="G169" s="44"/>
+      <x:c r="H169" s="44"/>
     </x:row>
     <x:row r="171" spans="2:3">
-      <x:c r="B171" s="53" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C171" s="53"/>
+      <x:c r="B171" s="44" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="C171" s="44"/>
     </x:row>
     <x:row r="172" spans="2:8">
-      <x:c r="B172" s="53"/>
-      <x:c r="C172" s="53"/>
-      <x:c r="D172" s="53"/>
-      <x:c r="E172" s="53"/>
-      <x:c r="F172" s="53"/>
-      <x:c r="G172" s="53"/>
-      <x:c r="H172" s="53"/>
+      <x:c r="B172" s="44"/>
+      <x:c r="C172" s="44"/>
+      <x:c r="D172" s="44"/>
+      <x:c r="E172" s="44"/>
+      <x:c r="F172" s="44"/>
+      <x:c r="G172" s="44"/>
+      <x:c r="H172" s="44"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="136">
+  <x:mergeCells count="143">
     <x:mergeCell ref="L7:M7"/>
     <x:mergeCell ref="L8:M8"/>
     <x:mergeCell ref="L9:M9"/>
@@ -4162,8 +4521,15 @@
     <x:mergeCell ref="B169:H169"/>
     <x:mergeCell ref="B172:H172"/>
     <x:mergeCell ref="B63:L63"/>
+    <x:mergeCell ref="R38:U38"/>
+    <x:mergeCell ref="R39:U39"/>
+    <x:mergeCell ref="L75:T75"/>
+    <x:mergeCell ref="L76:T76"/>
+    <x:mergeCell ref="B24:N24"/>
+    <x:mergeCell ref="L77:T77"/>
+    <x:mergeCell ref="L79:T79"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <x:drawing r:id="rId1"/>
 </x:worksheet>
@@ -4174,114 +4540,114 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="A1:AN100"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" topLeftCell="A76" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E16" activeCellId="0" sqref="E16:E16"/>
+    <x:sheetView showGridLines="0" topLeftCell="A55" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="Y59" activeCellId="0" sqref="Y59:Z60"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="12" t="s">
-        <x:v>103</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="2:6">
-      <x:c r="B2" s="42" t="s">
-        <x:v>180</x:v>
-      </x:c>
-      <x:c r="C2" s="42"/>
-      <x:c r="D2" s="42"/>
-      <x:c r="E2" s="42"/>
+      <x:c r="B2" s="47" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="C2" s="47"/>
+      <x:c r="D2" s="47"/>
+      <x:c r="E2" s="47"/>
       <x:c r="F2" s="19"/>
     </x:row>
     <x:row r="3" spans="2:6">
-      <x:c r="B3" s="42"/>
-      <x:c r="C3" s="42"/>
-      <x:c r="D3" s="42"/>
-      <x:c r="E3" s="42"/>
+      <x:c r="B3" s="47"/>
+      <x:c r="C3" s="47"/>
+      <x:c r="D3" s="47"/>
+      <x:c r="E3" s="47"/>
       <x:c r="F3" s="19"/>
     </x:row>
     <x:row r="4" spans="2:10">
-      <x:c r="B4" s="53" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C4" s="53"/>
-      <x:c r="D4" s="53"/>
-      <x:c r="E4" s="53"/>
-      <x:c r="F4" s="53"/>
-      <x:c r="G4" s="53"/>
-      <x:c r="H4" s="53"/>
-      <x:c r="I4" s="53"/>
-      <x:c r="J4" s="53"/>
+      <x:c r="B4" s="44" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C4" s="44"/>
+      <x:c r="D4" s="44"/>
+      <x:c r="E4" s="44"/>
+      <x:c r="F4" s="44"/>
+      <x:c r="G4" s="44"/>
+      <x:c r="H4" s="44"/>
+      <x:c r="I4" s="44"/>
+      <x:c r="J4" s="44"/>
     </x:row>
     <x:row r="5" spans="2:10">
-      <x:c r="B5" s="53" t="s">
+      <x:c r="B5" s="44" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C5" s="53"/>
-      <x:c r="D5" s="53"/>
-      <x:c r="E5" s="53"/>
-      <x:c r="F5" s="53"/>
-      <x:c r="G5" s="53"/>
-      <x:c r="H5" s="53"/>
-      <x:c r="I5" s="53"/>
-      <x:c r="J5" s="53"/>
+      <x:c r="C5" s="44"/>
+      <x:c r="D5" s="44"/>
+      <x:c r="E5" s="44"/>
+      <x:c r="F5" s="44"/>
+      <x:c r="G5" s="44"/>
+      <x:c r="H5" s="44"/>
+      <x:c r="I5" s="44"/>
+      <x:c r="J5" s="44"/>
     </x:row>
     <x:row r="6" spans="2:10">
-      <x:c r="B6" s="53" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="C6" s="53"/>
-      <x:c r="D6" s="53"/>
-      <x:c r="E6" s="53"/>
-      <x:c r="F6" s="53"/>
-      <x:c r="G6" s="53"/>
-      <x:c r="H6" s="53"/>
-      <x:c r="I6" s="53"/>
-      <x:c r="J6" s="53"/>
+      <x:c r="B6" s="44" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C6" s="44"/>
+      <x:c r="D6" s="44"/>
+      <x:c r="E6" s="44"/>
+      <x:c r="F6" s="44"/>
+      <x:c r="G6" s="44"/>
+      <x:c r="H6" s="44"/>
+      <x:c r="I6" s="44"/>
+      <x:c r="J6" s="44"/>
     </x:row>
     <x:row r="7" spans="2:10">
-      <x:c r="B7" s="53"/>
-      <x:c r="C7" s="53"/>
-      <x:c r="D7" s="53"/>
-      <x:c r="E7" s="53"/>
-      <x:c r="F7" s="53"/>
-      <x:c r="G7" s="53"/>
-      <x:c r="H7" s="53"/>
-      <x:c r="I7" s="53"/>
-      <x:c r="J7" s="53"/>
+      <x:c r="B7" s="44"/>
+      <x:c r="C7" s="44"/>
+      <x:c r="D7" s="44"/>
+      <x:c r="E7" s="44"/>
+      <x:c r="F7" s="44"/>
+      <x:c r="G7" s="44"/>
+      <x:c r="H7" s="44"/>
+      <x:c r="I7" s="44"/>
+      <x:c r="J7" s="44"/>
     </x:row>
     <x:row r="9" spans="2:10">
-      <x:c r="B9" s="53" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C9" s="53"/>
-      <x:c r="D9" s="53"/>
-      <x:c r="E9" s="53"/>
-      <x:c r="F9" s="53"/>
-      <x:c r="G9" s="53"/>
-      <x:c r="H9" s="53"/>
-      <x:c r="I9" s="53"/>
-      <x:c r="J9" s="53"/>
+      <x:c r="B9" s="44" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C9" s="44"/>
+      <x:c r="D9" s="44"/>
+      <x:c r="E9" s="44"/>
+      <x:c r="F9" s="44"/>
+      <x:c r="G9" s="44"/>
+      <x:c r="H9" s="44"/>
+      <x:c r="I9" s="44"/>
+      <x:c r="J9" s="44"/>
     </x:row>
     <x:row r="11" spans="2:10">
-      <x:c r="B11" s="53" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C11" s="53"/>
-      <x:c r="D11" s="53"/>
-      <x:c r="E11" s="53"/>
-      <x:c r="F11" s="53"/>
-      <x:c r="G11" s="53"/>
-      <x:c r="H11" s="53"/>
-      <x:c r="I11" s="53"/>
-      <x:c r="J11" s="53"/>
+      <x:c r="B11" s="44" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C11" s="44"/>
+      <x:c r="D11" s="44"/>
+      <x:c r="E11" s="44"/>
+      <x:c r="F11" s="44"/>
+      <x:c r="G11" s="44"/>
+      <x:c r="H11" s="44"/>
+      <x:c r="I11" s="44"/>
+      <x:c r="J11" s="44"/>
     </x:row>
     <x:row r="19" spans="19:40">
       <x:c r="S19" s="32"/>
       <x:c r="T19" s="33"/>
       <x:c r="U19" s="65" t="s">
-        <x:v>110</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="V19" s="66"/>
       <x:c r="W19" s="66"/>
@@ -4289,7 +4655,7 @@
       <x:c r="AA19" s="32"/>
       <x:c r="AB19" s="33"/>
       <x:c r="AC19" s="65" t="s">
-        <x:v>35</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="AD19" s="66"/>
       <x:c r="AE19" s="66"/>
@@ -4297,7 +4663,7 @@
       <x:c r="AI19" s="32"/>
       <x:c r="AJ19" s="33"/>
       <x:c r="AK19" s="65" t="s">
-        <x:v>36</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="AL19" s="66"/>
       <x:c r="AM19" s="66"/>
@@ -4327,7 +4693,7 @@
       <x:c r="S21" s="34"/>
       <x:c r="T21" s="35"/>
       <x:c r="U21" s="70" t="s">
-        <x:v>61</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="V21" s="70"/>
       <x:c r="W21" s="70"/>
@@ -4335,7 +4701,7 @@
       <x:c r="AA21" s="34"/>
       <x:c r="AB21" s="35"/>
       <x:c r="AC21" s="70" t="s">
-        <x:v>189</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AD21" s="70"/>
       <x:c r="AE21" s="70"/>
@@ -4343,7 +4709,7 @@
       <x:c r="AI21" s="34"/>
       <x:c r="AJ21" s="35"/>
       <x:c r="AK21" s="70" t="s">
-        <x:v>189</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AL21" s="70"/>
       <x:c r="AM21" s="70"/>
@@ -4371,7 +4737,7 @@
     </x:row>
     <x:row r="23" spans="19:40">
       <x:c r="S23" s="60" t="s">
-        <x:v>119</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="T23" s="56"/>
       <x:c r="U23" s="35"/>
@@ -4379,13 +4745,13 @@
       <x:c r="W23" s="35"/>
       <x:c r="X23" s="36"/>
       <x:c r="Y23" s="72" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="Z23" s="57" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AA23" s="60" t="s">
-        <x:v>34</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="AB23" s="56"/>
       <x:c r="AC23" s="35"/>
@@ -4393,13 +4759,13 @@
       <x:c r="AE23" s="35"/>
       <x:c r="AF23" s="36"/>
       <x:c r="AG23" s="72" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AH23" s="57" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AI23" s="60" t="s">
-        <x:v>37</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="AJ23" s="56"/>
       <x:c r="AK23" s="35"/>
@@ -4415,10 +4781,10 @@
       <x:c r="W24" s="35"/>
       <x:c r="X24" s="36"/>
       <x:c r="Y24" s="73" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="Z24" s="57" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AA24" s="61"/>
       <x:c r="AB24" s="62"/>
@@ -4427,10 +4793,10 @@
       <x:c r="AE24" s="35"/>
       <x:c r="AF24" s="36"/>
       <x:c r="AG24" s="73" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AH24" s="57" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AI24" s="61"/>
       <x:c r="AJ24" s="62"/>
@@ -4501,10 +4867,10 @@
     </x:row>
     <x:row r="28" spans="17:40">
       <x:c r="Q28" s="74" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="R28" s="53" t="s">
-        <x:v>157</x:v>
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="R28" s="44" t="s">
+        <x:v>57</x:v>
       </x:c>
       <x:c r="S28" s="37"/>
       <x:c r="T28" s="38"/>
@@ -4526,26 +4892,26 @@
       <x:c r="AN28" s="39"/>
     </x:row>
     <x:row r="29" spans="17:18">
-      <x:c r="Q29" s="53" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="R29" s="53" t="s">
-        <x:v>157</x:v>
+      <x:c r="Q29" s="44" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="R29" s="44" t="s">
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="17:18">
-      <x:c r="Q30" s="53" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="R30" s="53" t="s">
-        <x:v>157</x:v>
+      <x:c r="Q30" s="44" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="R30" s="44" t="s">
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="11:40">
       <x:c r="K31" s="26"/>
       <x:c r="L31" s="27"/>
       <x:c r="M31" s="54" t="s">
-        <x:v>152</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="N31" s="55"/>
       <x:c r="O31" s="55"/>
@@ -4553,7 +4919,7 @@
       <x:c r="S31" s="32"/>
       <x:c r="T31" s="33"/>
       <x:c r="U31" s="65" t="s">
-        <x:v>116</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="V31" s="66"/>
       <x:c r="W31" s="66"/>
@@ -4561,7 +4927,7 @@
       <x:c r="AA31" s="32"/>
       <x:c r="AB31" s="33"/>
       <x:c r="AC31" s="65" t="s">
-        <x:v>134</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="AD31" s="66"/>
       <x:c r="AE31" s="66"/>
@@ -4569,7 +4935,7 @@
       <x:c r="AI31" s="32"/>
       <x:c r="AJ31" s="33"/>
       <x:c r="AK31" s="65" t="s">
-        <x:v>99</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="AL31" s="66"/>
       <x:c r="AM31" s="66"/>
@@ -4578,9 +4944,9 @@
     <x:row r="32" spans="11:40">
       <x:c r="K32" s="28"/>
       <x:c r="L32" s="19"/>
-      <x:c r="M32" s="53"/>
-      <x:c r="N32" s="53"/>
-      <x:c r="O32" s="53"/>
+      <x:c r="M32" s="44"/>
+      <x:c r="N32" s="44"/>
+      <x:c r="O32" s="44"/>
       <x:c r="P32" s="57"/>
       <x:c r="S32" s="34"/>
       <x:c r="T32" s="35"/>
@@ -4605,7 +4971,7 @@
       <x:c r="K33" s="28"/>
       <x:c r="L33" s="19"/>
       <x:c r="M33" s="58" t="s">
-        <x:v>52</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="N33" s="58"/>
       <x:c r="O33" s="58"/>
@@ -4613,7 +4979,7 @@
       <x:c r="S33" s="34"/>
       <x:c r="T33" s="35"/>
       <x:c r="U33" s="70" t="s">
-        <x:v>60</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="V33" s="70"/>
       <x:c r="W33" s="70"/>
@@ -4621,7 +4987,7 @@
       <x:c r="AA33" s="34"/>
       <x:c r="AB33" s="35"/>
       <x:c r="AC33" s="70" t="s">
-        <x:v>113</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="AD33" s="70"/>
       <x:c r="AE33" s="70"/>
@@ -4629,7 +4995,7 @@
       <x:c r="AI33" s="34"/>
       <x:c r="AJ33" s="35"/>
       <x:c r="AK33" s="70" t="s">
-        <x:v>175</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AL33" s="70"/>
       <x:c r="AM33" s="70"/>
@@ -4663,7 +5029,7 @@
     </x:row>
     <x:row r="35" spans="11:40">
       <x:c r="K35" s="60" t="s">
-        <x:v>74</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="L35" s="56"/>
       <x:c r="M35" s="19"/>
@@ -4671,13 +5037,13 @@
       <x:c r="O35" s="19"/>
       <x:c r="P35" s="25"/>
       <x:c r="Q35" s="72" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="R35" s="57" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="S35" s="60" t="s">
-        <x:v>121</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="T35" s="56"/>
       <x:c r="U35" s="35"/>
@@ -4685,13 +5051,13 @@
       <x:c r="W35" s="35"/>
       <x:c r="X35" s="36"/>
       <x:c r="Y35" s="72" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="Z35" s="57" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AA35" s="60" t="s">
-        <x:v>126</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="AB35" s="56"/>
       <x:c r="AC35" s="35"/>
@@ -4699,13 +5065,13 @@
       <x:c r="AE35" s="35"/>
       <x:c r="AF35" s="36"/>
       <x:c r="AG35" s="72" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AH35" s="57" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AI35" s="60" t="s">
-        <x:v>39</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="AJ35" s="56"/>
       <x:c r="AK35" s="35"/>
@@ -4721,10 +5087,10 @@
       <x:c r="O36" s="19"/>
       <x:c r="P36" s="25"/>
       <x:c r="Q36" s="73" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="R36" s="57" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="S36" s="61"/>
       <x:c r="T36" s="62"/>
@@ -4733,10 +5099,10 @@
       <x:c r="W36" s="35"/>
       <x:c r="X36" s="36"/>
       <x:c r="Y36" s="73" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="Z36" s="57" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AA36" s="61"/>
       <x:c r="AB36" s="62"/>
@@ -4745,10 +5111,10 @@
       <x:c r="AE36" s="35"/>
       <x:c r="AF36" s="36"/>
       <x:c r="AG36" s="73" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AH36" s="57" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AI36" s="61"/>
       <x:c r="AJ36" s="62"/>
@@ -4863,31 +5229,31 @@
     </x:row>
     <x:row r="41" spans="17:18">
       <x:c r="Q41" s="74" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="R41" s="53" t="s">
-        <x:v>163</x:v>
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R41" s="44" t="s">
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="17:18">
-      <x:c r="Q42" s="53" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="R42" s="53" t="s">
-        <x:v>163</x:v>
+      <x:c r="Q42" s="44" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R42" s="44" t="s">
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="13:40">
       <x:c r="M43" s="19"/>
       <x:c r="N43" s="19"/>
       <x:c r="O43" s="63"/>
-      <x:c r="P43" s="53"/>
-      <x:c r="Q43" s="53"/>
-      <x:c r="R43" s="53"/>
+      <x:c r="P43" s="44"/>
+      <x:c r="Q43" s="44"/>
+      <x:c r="R43" s="44"/>
       <x:c r="S43" s="32"/>
       <x:c r="T43" s="33"/>
       <x:c r="U43" s="65" t="s">
-        <x:v>111</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="V43" s="66"/>
       <x:c r="W43" s="66"/>
@@ -4895,7 +5261,7 @@
       <x:c r="AA43" s="32"/>
       <x:c r="AB43" s="33"/>
       <x:c r="AC43" s="65" t="s">
-        <x:v>105</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="AD43" s="66"/>
       <x:c r="AE43" s="66"/>
@@ -4903,7 +5269,7 @@
       <x:c r="AI43" s="32"/>
       <x:c r="AJ43" s="33"/>
       <x:c r="AK43" s="65" t="s">
-        <x:v>98</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="AL43" s="66"/>
       <x:c r="AM43" s="66"/>
@@ -4912,10 +5278,10 @@
     <x:row r="44" spans="13:40">
       <x:c r="M44" s="19"/>
       <x:c r="N44" s="19"/>
-      <x:c r="O44" s="53"/>
-      <x:c r="P44" s="53"/>
-      <x:c r="Q44" s="53"/>
-      <x:c r="R44" s="53"/>
+      <x:c r="O44" s="44"/>
+      <x:c r="P44" s="44"/>
+      <x:c r="Q44" s="44"/>
+      <x:c r="R44" s="44"/>
       <x:c r="S44" s="34"/>
       <x:c r="T44" s="35"/>
       <x:c r="U44" s="68"/>
@@ -4945,7 +5311,7 @@
       <x:c r="S45" s="34"/>
       <x:c r="T45" s="35"/>
       <x:c r="U45" s="70" t="s">
-        <x:v>112</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="V45" s="70"/>
       <x:c r="W45" s="70"/>
@@ -4953,7 +5319,7 @@
       <x:c r="AA45" s="34"/>
       <x:c r="AB45" s="35"/>
       <x:c r="AC45" s="70" t="s">
-        <x:v>186</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="AD45" s="70"/>
       <x:c r="AE45" s="70"/>
@@ -4961,7 +5327,7 @@
       <x:c r="AI45" s="34"/>
       <x:c r="AJ45" s="35"/>
       <x:c r="AK45" s="70" t="s">
-        <x:v>186</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="AL45" s="70"/>
       <x:c r="AM45" s="70"/>
@@ -4995,19 +5361,19 @@
     </x:row>
     <x:row r="47" spans="9:40">
       <x:c r="I47" s="74" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="J47" s="53" t="s">
-        <x:v>157</x:v>
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="J47" s="44" t="s">
+        <x:v>57</x:v>
       </x:c>
       <x:c r="M47" s="64"/>
-      <x:c r="N47" s="53"/>
+      <x:c r="N47" s="44"/>
       <x:c r="O47" s="19"/>
       <x:c r="P47" s="19"/>
       <x:c r="Q47" s="19"/>
       <x:c r="R47" s="19"/>
       <x:c r="S47" s="60" t="s">
-        <x:v>119</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="T47" s="56"/>
       <x:c r="U47" s="35"/>
@@ -5015,13 +5381,13 @@
       <x:c r="W47" s="35"/>
       <x:c r="X47" s="36"/>
       <x:c r="Y47" s="72" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="Z47" s="57" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AA47" s="60" t="s">
-        <x:v>34</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="AB47" s="56"/>
       <x:c r="AC47" s="35"/>
@@ -5029,13 +5395,13 @@
       <x:c r="AE47" s="35"/>
       <x:c r="AF47" s="36"/>
       <x:c r="AG47" s="72" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AH47" s="57" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AI47" s="60" t="s">
-        <x:v>37</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="AJ47" s="56"/>
       <x:c r="AK47" s="35"/>
@@ -5044,14 +5410,14 @@
       <x:c r="AN47" s="36"/>
     </x:row>
     <x:row r="48" spans="9:40">
-      <x:c r="I48" s="53" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="J48" s="53" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="M48" s="53"/>
-      <x:c r="N48" s="53"/>
+      <x:c r="I48" s="44" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="J48" s="44" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="M48" s="44"/>
+      <x:c r="N48" s="44"/>
       <x:c r="O48" s="19"/>
       <x:c r="P48" s="19"/>
       <x:c r="Q48" s="19"/>
@@ -5063,10 +5429,10 @@
       <x:c r="W48" s="35"/>
       <x:c r="X48" s="36"/>
       <x:c r="Y48" s="73" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="Z48" s="57" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AA48" s="61"/>
       <x:c r="AB48" s="62"/>
@@ -5075,10 +5441,10 @@
       <x:c r="AE48" s="35"/>
       <x:c r="AF48" s="36"/>
       <x:c r="AG48" s="73" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AH48" s="57" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AI48" s="61"/>
       <x:c r="AJ48" s="62"/>
@@ -5088,11 +5454,11 @@
       <x:c r="AN48" s="36"/>
     </x:row>
     <x:row r="49" spans="9:40">
-      <x:c r="I49" s="53" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="J49" s="53" t="s">
-        <x:v>157</x:v>
+      <x:c r="I49" s="44" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="J49" s="44" t="s">
+        <x:v>57</x:v>
       </x:c>
       <x:c r="M49" s="19"/>
       <x:c r="N49" s="19"/>
@@ -5201,7 +5567,7 @@
       <x:c r="C55" s="26"/>
       <x:c r="D55" s="27"/>
       <x:c r="E55" s="54" t="s">
-        <x:v>69</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F55" s="55"/>
       <x:c r="G55" s="55"/>
@@ -5209,7 +5575,7 @@
       <x:c r="K55" s="26"/>
       <x:c r="L55" s="27"/>
       <x:c r="M55" s="54" t="s">
-        <x:v>89</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="N55" s="55"/>
       <x:c r="O55" s="55"/>
@@ -5217,7 +5583,7 @@
       <x:c r="S55" s="32"/>
       <x:c r="T55" s="33"/>
       <x:c r="U55" s="65" t="s">
-        <x:v>117</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="V55" s="66"/>
       <x:c r="W55" s="66"/>
@@ -5225,7 +5591,7 @@
       <x:c r="AA55" s="32"/>
       <x:c r="AB55" s="33"/>
       <x:c r="AC55" s="65" t="s">
-        <x:v>118</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="AD55" s="66"/>
       <x:c r="AE55" s="66"/>
@@ -5233,7 +5599,7 @@
       <x:c r="AI55" s="32"/>
       <x:c r="AJ55" s="33"/>
       <x:c r="AK55" s="65" t="s">
-        <x:v>99</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="AL55" s="66"/>
       <x:c r="AM55" s="66"/>
@@ -5242,15 +5608,15 @@
     <x:row r="56" spans="3:40">
       <x:c r="C56" s="28"/>
       <x:c r="D56" s="19"/>
-      <x:c r="E56" s="53"/>
-      <x:c r="F56" s="53"/>
-      <x:c r="G56" s="53"/>
+      <x:c r="E56" s="44"/>
+      <x:c r="F56" s="44"/>
+      <x:c r="G56" s="44"/>
       <x:c r="H56" s="57"/>
       <x:c r="K56" s="28"/>
       <x:c r="L56" s="19"/>
-      <x:c r="M56" s="53"/>
-      <x:c r="N56" s="53"/>
-      <x:c r="O56" s="53"/>
+      <x:c r="M56" s="44"/>
+      <x:c r="N56" s="44"/>
+      <x:c r="O56" s="44"/>
       <x:c r="P56" s="57"/>
       <x:c r="S56" s="34"/>
       <x:c r="T56" s="35"/>
@@ -5275,7 +5641,7 @@
       <x:c r="C57" s="28"/>
       <x:c r="D57" s="19"/>
       <x:c r="E57" s="58" t="s">
-        <x:v>42</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F57" s="58"/>
       <x:c r="G57" s="58"/>
@@ -5283,7 +5649,7 @@
       <x:c r="K57" s="28"/>
       <x:c r="L57" s="19"/>
       <x:c r="M57" s="58" t="s">
-        <x:v>172</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="N57" s="58"/>
       <x:c r="O57" s="58"/>
@@ -5291,7 +5657,7 @@
       <x:c r="S57" s="34"/>
       <x:c r="T57" s="35"/>
       <x:c r="U57" s="70" t="s">
-        <x:v>182</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="V57" s="70"/>
       <x:c r="W57" s="70"/>
@@ -5299,7 +5665,7 @@
       <x:c r="AA57" s="34"/>
       <x:c r="AB57" s="35"/>
       <x:c r="AC57" s="70" t="s">
-        <x:v>167</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="AD57" s="70"/>
       <x:c r="AE57" s="70"/>
@@ -5307,7 +5673,7 @@
       <x:c r="AI57" s="34"/>
       <x:c r="AJ57" s="35"/>
       <x:c r="AK57" s="70" t="s">
-        <x:v>178</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="AL57" s="70"/>
       <x:c r="AM57" s="70"/>
@@ -5353,13 +5719,13 @@
       <x:c r="G59" s="19"/>
       <x:c r="H59" s="24"/>
       <x:c r="I59" s="72" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="J59" s="57" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="K59" s="60" t="s">
-        <x:v>74</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="L59" s="56"/>
       <x:c r="M59" s="19"/>
@@ -5367,13 +5733,13 @@
       <x:c r="O59" s="19"/>
       <x:c r="P59" s="25"/>
       <x:c r="Q59" s="72" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="R59" s="57" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="S59" s="60" t="s">
-        <x:v>121</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="T59" s="56"/>
       <x:c r="U59" s="35"/>
@@ -5381,13 +5747,13 @@
       <x:c r="W59" s="35"/>
       <x:c r="X59" s="36"/>
       <x:c r="Y59" s="72" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="Z59" s="57" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AA59" s="60" t="s">
-        <x:v>126</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="AB59" s="56"/>
       <x:c r="AC59" s="35"/>
@@ -5395,13 +5761,13 @@
       <x:c r="AE59" s="35"/>
       <x:c r="AF59" s="36"/>
       <x:c r="AG59" s="72" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AH59" s="57" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AI59" s="60" t="s">
-        <x:v>39</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="AJ59" s="56"/>
       <x:c r="AK59" s="35"/>
@@ -5417,10 +5783,10 @@
       <x:c r="G60" s="19"/>
       <x:c r="H60" s="24"/>
       <x:c r="I60" s="73" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="J60" s="57" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="K60" s="61"/>
       <x:c r="L60" s="62"/>
@@ -5429,10 +5795,10 @@
       <x:c r="O60" s="19"/>
       <x:c r="P60" s="25"/>
       <x:c r="Q60" s="73" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="R60" s="57" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="S60" s="61"/>
       <x:c r="T60" s="62"/>
@@ -5441,10 +5807,10 @@
       <x:c r="W60" s="35"/>
       <x:c r="X60" s="36"/>
       <x:c r="Y60" s="73" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="Z60" s="57" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AA60" s="61"/>
       <x:c r="AB60" s="62"/>
@@ -5453,10 +5819,10 @@
       <x:c r="AE60" s="35"/>
       <x:c r="AF60" s="36"/>
       <x:c r="AG60" s="73" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AH60" s="57" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AI60" s="61"/>
       <x:c r="AJ60" s="62"/>
@@ -5595,25 +5961,25 @@
     </x:row>
     <x:row r="65" spans="17:18">
       <x:c r="Q65" s="74" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="R65" s="53" t="s">
-        <x:v>163</x:v>
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R65" s="44" t="s">
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="17:18">
-      <x:c r="Q66" s="53" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="R66" s="53" t="s">
-        <x:v>163</x:v>
+      <x:c r="Q66" s="44" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R66" s="44" t="s">
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="19:40">
       <x:c r="S67" s="32"/>
       <x:c r="T67" s="33"/>
       <x:c r="U67" s="65" t="s">
-        <x:v>100</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="V67" s="66"/>
       <x:c r="W67" s="66"/>
@@ -5621,7 +5987,7 @@
       <x:c r="AA67" s="32"/>
       <x:c r="AB67" s="33"/>
       <x:c r="AC67" s="65" t="s">
-        <x:v>107</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="AD67" s="66"/>
       <x:c r="AE67" s="66"/>
@@ -5629,7 +5995,7 @@
       <x:c r="AI67" s="32"/>
       <x:c r="AJ67" s="33"/>
       <x:c r="AK67" s="65" t="s">
-        <x:v>106</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="AL67" s="66"/>
       <x:c r="AM67" s="66"/>
@@ -5659,7 +6025,7 @@
       <x:c r="S69" s="34"/>
       <x:c r="T69" s="35"/>
       <x:c r="U69" s="70" t="s">
-        <x:v>59</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="V69" s="70"/>
       <x:c r="W69" s="70"/>
@@ -5667,7 +6033,7 @@
       <x:c r="AA69" s="34"/>
       <x:c r="AB69" s="35"/>
       <x:c r="AC69" s="70" t="s">
-        <x:v>190</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="AD69" s="70"/>
       <x:c r="AE69" s="70"/>
@@ -5675,7 +6041,7 @@
       <x:c r="AI69" s="34"/>
       <x:c r="AJ69" s="35"/>
       <x:c r="AK69" s="70" t="s">
-        <x:v>190</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="AL69" s="70"/>
       <x:c r="AM69" s="70"/>
@@ -5703,13 +6069,13 @@
     </x:row>
     <x:row r="71" spans="9:40">
       <x:c r="I71" s="74" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="J71" s="53" t="s">
-        <x:v>163</x:v>
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="J71" s="44" t="s">
+        <x:v>61</x:v>
       </x:c>
       <x:c r="S71" s="60" t="s">
-        <x:v>119</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="T71" s="56"/>
       <x:c r="U71" s="35"/>
@@ -5717,13 +6083,13 @@
       <x:c r="W71" s="35"/>
       <x:c r="X71" s="36"/>
       <x:c r="Y71" s="72" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="Z71" s="57" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AA71" s="60" t="s">
-        <x:v>34</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="AB71" s="56"/>
       <x:c r="AC71" s="35"/>
@@ -5731,13 +6097,13 @@
       <x:c r="AE71" s="35"/>
       <x:c r="AF71" s="36"/>
       <x:c r="AG71" s="72" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AH71" s="57" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AI71" s="60" t="s">
-        <x:v>37</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="AJ71" s="56"/>
       <x:c r="AK71" s="35"/>
@@ -5746,11 +6112,11 @@
       <x:c r="AN71" s="36"/>
     </x:row>
     <x:row r="72" spans="9:40">
-      <x:c r="I72" s="53" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="J72" s="53" t="s">
-        <x:v>163</x:v>
+      <x:c r="I72" s="44" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="J72" s="44" t="s">
+        <x:v>61</x:v>
       </x:c>
       <x:c r="S72" s="61"/>
       <x:c r="T72" s="62"/>
@@ -5759,10 +6125,10 @@
       <x:c r="W72" s="35"/>
       <x:c r="X72" s="36"/>
       <x:c r="Y72" s="73" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="Z72" s="57" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AA72" s="61"/>
       <x:c r="AB72" s="62"/>
@@ -5771,10 +6137,10 @@
       <x:c r="AE72" s="35"/>
       <x:c r="AF72" s="36"/>
       <x:c r="AG72" s="73" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AH72" s="57" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AI72" s="61"/>
       <x:c r="AJ72" s="62"/>
@@ -5867,7 +6233,7 @@
       <x:c r="K79" s="26"/>
       <x:c r="L79" s="27"/>
       <x:c r="M79" s="54" t="s">
-        <x:v>123</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="N79" s="55"/>
       <x:c r="O79" s="55"/>
@@ -5875,7 +6241,7 @@
       <x:c r="S79" s="32"/>
       <x:c r="T79" s="33"/>
       <x:c r="U79" s="65" t="s">
-        <x:v>125</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="V79" s="66"/>
       <x:c r="W79" s="66"/>
@@ -5883,7 +6249,7 @@
       <x:c r="AA79" s="32"/>
       <x:c r="AB79" s="33"/>
       <x:c r="AC79" s="65" t="s">
-        <x:v>48</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="AD79" s="66"/>
       <x:c r="AE79" s="66"/>
@@ -5891,7 +6257,7 @@
       <x:c r="AI79" s="32"/>
       <x:c r="AJ79" s="33"/>
       <x:c r="AK79" s="65" t="s">
-        <x:v>99</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="AL79" s="66"/>
       <x:c r="AM79" s="66"/>
@@ -5900,9 +6266,9 @@
     <x:row r="80" spans="11:40">
       <x:c r="K80" s="28"/>
       <x:c r="L80" s="19"/>
-      <x:c r="M80" s="53"/>
-      <x:c r="N80" s="53"/>
-      <x:c r="O80" s="53"/>
+      <x:c r="M80" s="44"/>
+      <x:c r="N80" s="44"/>
+      <x:c r="O80" s="44"/>
       <x:c r="P80" s="57"/>
       <x:c r="S80" s="34"/>
       <x:c r="T80" s="35"/>
@@ -5927,7 +6293,7 @@
       <x:c r="K81" s="28"/>
       <x:c r="L81" s="19"/>
       <x:c r="M81" s="58" t="s">
-        <x:v>55</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="N81" s="58"/>
       <x:c r="O81" s="58"/>
@@ -5935,7 +6301,7 @@
       <x:c r="S81" s="34"/>
       <x:c r="T81" s="35"/>
       <x:c r="U81" s="70" t="s">
-        <x:v>49</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="V81" s="70"/>
       <x:c r="W81" s="70"/>
@@ -5943,7 +6309,7 @@
       <x:c r="AA81" s="34"/>
       <x:c r="AB81" s="35"/>
       <x:c r="AC81" s="70" t="s">
-        <x:v>45</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="AD81" s="70"/>
       <x:c r="AE81" s="70"/>
@@ -5951,7 +6317,7 @@
       <x:c r="AI81" s="34"/>
       <x:c r="AJ81" s="35"/>
       <x:c r="AK81" s="70" t="s">
-        <x:v>178</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="AL81" s="70"/>
       <x:c r="AM81" s="70"/>
@@ -5985,7 +6351,7 @@
     </x:row>
     <x:row r="83" spans="11:40">
       <x:c r="K83" s="60" t="s">
-        <x:v>74</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="L83" s="56"/>
       <x:c r="M83" s="19"/>
@@ -5993,13 +6359,13 @@
       <x:c r="O83" s="19"/>
       <x:c r="P83" s="25"/>
       <x:c r="Q83" s="72" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="R83" s="57" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="S83" s="60" t="s">
-        <x:v>121</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="T83" s="56"/>
       <x:c r="U83" s="35"/>
@@ -6007,13 +6373,13 @@
       <x:c r="W83" s="35"/>
       <x:c r="X83" s="36"/>
       <x:c r="Y83" s="72" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="Z83" s="57" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AA83" s="60" t="s">
-        <x:v>126</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="AB83" s="56"/>
       <x:c r="AC83" s="35"/>
@@ -6021,13 +6387,13 @@
       <x:c r="AE83" s="35"/>
       <x:c r="AF83" s="36"/>
       <x:c r="AG83" s="72" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AH83" s="57" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AI83" s="60" t="s">
-        <x:v>39</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="AJ83" s="56"/>
       <x:c r="AK83" s="35"/>
@@ -6043,10 +6409,10 @@
       <x:c r="O84" s="19"/>
       <x:c r="P84" s="25"/>
       <x:c r="Q84" s="73" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="R84" s="57" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="S84" s="61"/>
       <x:c r="T84" s="62"/>
@@ -6055,10 +6421,10 @@
       <x:c r="W84" s="35"/>
       <x:c r="X84" s="36"/>
       <x:c r="Y84" s="73" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="Z84" s="57" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AA84" s="61"/>
       <x:c r="AB84" s="62"/>
@@ -6067,10 +6433,10 @@
       <x:c r="AE84" s="35"/>
       <x:c r="AF84" s="36"/>
       <x:c r="AG84" s="73" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AH84" s="57" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AI84" s="61"/>
       <x:c r="AJ84" s="62"/>
@@ -6185,25 +6551,25 @@
     </x:row>
     <x:row r="89" spans="17:18">
       <x:c r="Q89" s="74" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="R89" s="53" t="s">
-        <x:v>163</x:v>
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R89" s="44" t="s">
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="17:18">
-      <x:c r="Q90" s="53" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="R90" s="53" t="s">
-        <x:v>163</x:v>
+      <x:c r="Q90" s="44" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="R90" s="44" t="s">
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="19:40">
       <x:c r="S91" s="32"/>
       <x:c r="T91" s="33"/>
       <x:c r="U91" s="65" t="s">
-        <x:v>104</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="V91" s="66"/>
       <x:c r="W91" s="66"/>
@@ -6211,7 +6577,7 @@
       <x:c r="AA91" s="32"/>
       <x:c r="AB91" s="33"/>
       <x:c r="AC91" s="65" t="s">
-        <x:v>33</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="AD91" s="66"/>
       <x:c r="AE91" s="66"/>
@@ -6219,7 +6585,7 @@
       <x:c r="AI91" s="32"/>
       <x:c r="AJ91" s="33"/>
       <x:c r="AK91" s="65" t="s">
-        <x:v>38</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="AL91" s="66"/>
       <x:c r="AM91" s="66"/>
@@ -6249,7 +6615,7 @@
       <x:c r="S93" s="34"/>
       <x:c r="T93" s="35"/>
       <x:c r="U93" s="70" t="s">
-        <x:v>57</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="V93" s="70"/>
       <x:c r="W93" s="70"/>
@@ -6257,7 +6623,7 @@
       <x:c r="AA93" s="34"/>
       <x:c r="AB93" s="35"/>
       <x:c r="AC93" s="70" t="s">
-        <x:v>188</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AD93" s="70"/>
       <x:c r="AE93" s="70"/>
@@ -6265,7 +6631,7 @@
       <x:c r="AI93" s="34"/>
       <x:c r="AJ93" s="35"/>
       <x:c r="AK93" s="70" t="s">
-        <x:v>188</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AL93" s="70"/>
       <x:c r="AM93" s="70"/>
@@ -6293,7 +6659,7 @@
     </x:row>
     <x:row r="95" spans="19:40">
       <x:c r="S95" s="60" t="s">
-        <x:v>119</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="T95" s="56"/>
       <x:c r="U95" s="35"/>
@@ -6301,13 +6667,13 @@
       <x:c r="W95" s="35"/>
       <x:c r="X95" s="36"/>
       <x:c r="Y95" s="72" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="Z95" s="57" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AA95" s="60" t="s">
-        <x:v>34</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="AB95" s="56"/>
       <x:c r="AC95" s="35"/>
@@ -6315,13 +6681,13 @@
       <x:c r="AE95" s="35"/>
       <x:c r="AF95" s="36"/>
       <x:c r="AG95" s="72" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AH95" s="57" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AI95" s="60" t="s">
-        <x:v>37</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="AJ95" s="56"/>
       <x:c r="AK95" s="35"/>
@@ -6337,10 +6703,10 @@
       <x:c r="W96" s="35"/>
       <x:c r="X96" s="36"/>
       <x:c r="Y96" s="73" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="Z96" s="57" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AA96" s="61"/>
       <x:c r="AB96" s="62"/>
@@ -6349,10 +6715,10 @@
       <x:c r="AE96" s="35"/>
       <x:c r="AF96" s="36"/>
       <x:c r="AG96" s="73" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AH96" s="57" t="s">
-        <x:v>161</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="AI96" s="61"/>
       <x:c r="AJ96" s="62"/>
@@ -6553,7 +6919,7 @@
     <x:mergeCell ref="B9:J9"/>
     <x:mergeCell ref="B11:J11"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/Design/UI기획서.xlsx
+++ b/Design/UI기획서.xlsx
@@ -5,23 +5,226 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram\Documents\GitHub\PlumTowerDefecne\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8520" tabRatio="500" activeTab="1"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22776" windowHeight="8520" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="VerCon" sheetId="1" r:id="rId4"/>
     <x:sheet name="UI" sheetId="2" r:id="rId5"/>
     <x:sheet name="강화(증강체)" sheetId="3" r:id="rId6"/>
+    <x:sheet name="개발일정" sheetId="4" r:id="rId7"/>
   </x:sheets>
   <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="204">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="259">
+  <x:si>
+    <x:t>증강체(타워, 패시브) 부분 기획 시작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중앙에 있는 정사각형은 타워를 나타냄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>확장하기 버튼으로 바뀌게</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>시작시 Xp : 0, Xp를 수급하는 조건은 레벨 단위로 수급함</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>게임 흐름도 -&gt; (이쪽 방향)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.1 증강체의 기본적인 개요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 방어구 피해 + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 사서 현재 적용이 되는 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 방어구 피해 + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.2 인게임 증강체 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 크리티컬 확률 +25%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불화살 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출혈 화살 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PAUSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임시작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불화살 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>돌아가기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워의 비용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 관통 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>확장하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>String</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">XP : </x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워의 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>불화살 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">HP : </x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인 메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독화살 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>XP : 50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Option</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환경설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp 리셋하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임종료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독화살 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독화살 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Xp : </x:t>
+  </x:si>
+  <x:si>
+    <x:t>더 나은 사격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기 화살 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Expand</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Resume</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UI 기획서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pause</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인, 인게임, 강화 화면 UI 제작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 부수기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Target_Priority_Button</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. UI
+몬스터 관련 UI 구현 필요
+환경설정 UI 구현 필요
+프로토타입 이후 요구되는 정보들 UI 구현
+2. 증강체
+타워의 종류와 특성이 나오는대로 작업
+맵 기믹의 종류와 특성이 나오는대로 작업</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>확장하기 버튼을 누르게 된다면</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>타워와 맵 기믹 기획자와 의논하면서 증강체 항목을 만드는게 중요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16. StringUI/Select 는 증강체를 선택하는 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27. StringUI/Required_Xp 요구되는 Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25. StringUI/Upgrade_Title 강화의 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14, 15 사이에는 그림 에셋이 들어갈 예정(추후 추가)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29. StringUI/Tower_Level 은 타워의 레벨을 알려주는 글자, 레벨에 관련된 것은 타워 기획 문서 참고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Demolish</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Fire_Rate</x:t>
+  </x:si>
   <x:si>
     <x:t>4. StringUI/Option 버튼을 누르면 환경 설정 화면으로 넘어감(구현 필요)</x:t>
   </x:si>
@@ -29,46 +232,195 @@
     <x:t>15. StringUI/In_Game_Upgrade_Content 는 인게임 증강체 설명</x:t>
   </x:si>
   <x:si>
-    <x:t>24. StringUI/Tower_Resource_Passive_Select 타워, 자원, 패시브 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25. StringUI/Upgrade_Title 강화의 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14, 15 사이에는 그림 에셋이 들어갈 예정(추후 추가)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27. StringUI/Required_Xp 요구되는 Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 어느 부분이 확장될 것인지에 대한 인 게임 UI 설계 필요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워와 맵 기믹 기획자와 의논하면서 증강체 항목을 만드는게 중요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작시 Xp : 0, Xp를 수급하는 조건은 회의를 통해 결정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16. StringUI/Select 는 증강체를 선택하는 버튼</x:t>
+    <x:t>우선적 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">범위 : </x:t>
+  </x:si>
+  <x:si>
+    <x:t>증강체(자원(맵 기믹))부분 기획 시작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 방어구 피해 + 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22. StringUI/Xp_Reset 지금까지 사용했던 Xp를 전부 리셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19. StringUI/Game_Over 는 게임이 끝났다고 알려주는 글자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26. StringUI/Upgrade_Contents 어떻게 강화되는지 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. StringUI/Upgrade 버튼을 누르면 1.3 강화 화면으로 넘어감</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20. StringUI/Main_Menu 는 메인 화면으로 돌아가는 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Level이 증가하는 기준은 몬스터의 웨이브가 다 끝났을때 1 증가시킨다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ex. 스테이지 3,6,9,...를 클리어하는 순간 증강체 화면이 공개되어야됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9. StringUI/Money 자신이 현재 가지고 있는 돈을 보여준다.</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">맵을 밝히기 위해 확장하기 </x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>Version Control</x:t>
+  </x:si>
+  <x:si>
+    <x:t>목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>담당자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>토</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23. StringUI/Tower_Resource_Passive_Category 타워, 자원, 패시브의 종류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1 메인 화면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StringUI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Over</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_Menu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Cost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인 메뉴로 돌아가기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기 화살 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출혈 화살 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전기 화살 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>XP : 400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>XP : 300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출혈 화살 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>XP : 600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우선적 선택 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(이런 느낌으로 증강체를 구현한다는 것, 실제로 반영될 수치는 아님)(상의 필요함)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14. StringUI/In_Game_Upgrade_Title 은 인게임 증강체 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워를 예로 들어 기본적인 증강체 구조를 만들었음, 타워 기획과 의논 필요</x:t>
   </x:si>
   <x:si>
     <x:t>2. StringUI/Game_Start 버튼을 누르면 1.2 인게임 화면으로 넘어감</x:t>
   </x:si>
   <x:si>
-    <x:t>14. StringUI/In_Game_Upgrade_Title 은 인게임 증강체 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(이런 느낌으로 증강체를 구현한다는 것, 실제로 반영될 수치는 아님)(상의 필요함)</x:t>
+    <x:t>증강체 구현은 앞으로 타워, 자원, 패시브 3개로 시트를 따로 나누어 구현할 계획임</x:t>
   </x:si>
   <x:si>
     <x:t>7. StringUI/Xp_Point 는 이번 게임동안 벌어들인 Xp를 보여준다.</x:t>
   </x:si>
   <x:si>
-    <x:t>증강체 구현은 앞으로 타워, 자원, 패시브 3개로 시트를 따로 나누어 구현할 계획임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워를 예로 들어 기본적인 증강체 구조를 만들었음, 타워 기획과 의논 필요</x:t>
+    <x:t>Money의 초기 시작 자금 : 100(임의)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Upgrade_Contents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12,13 사이에는 그림 들어감(에셋 필요)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ver1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ver1.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ver1.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.8.21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문서 개요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Week1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Version</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개발 일정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Week3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>To Do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.8.22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Week2</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -144,572 +496,418 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>23. StringUI/Tower_Resource_Passive_Category 타워, 자원, 패시브의 종류</x:t>
+    <x:t>24. StringUI/Tower_Resource_Passive_Select 타워, 자원, 패시브 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워에 대한 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Money</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워, 자원, 패시브 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1 인게임 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 쉴드 피해 + 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 마법 강화 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 쉴드 피해 + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 체력 피해 + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25%의 독 대미지 추가</x:t>
   </x:si>
   <x:si>
     <x:t>Upgrade_Title</x:t>
   </x:si>
   <x:si>
-    <x:t>확장하기 버튼이 사라지고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 체력 피해 + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.4 추가해야 할 점</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워, 자원, 패시브 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 쉴드 피해 + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Money</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Version Control</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워에 대한 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1 인게임 UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 쉴드 피해 + 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 마법 강화 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12,13 사이에는 그림 들어감(에셋 필요)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Level이 증가하는 기준은 몬스터의 웨이브가 다 끝났을때 1 증가시킨다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22. StringUI/Xp_Reset 지금까지 사용했던 Xp를 전부 리셋</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19. StringUI/Game_Over 는 게임이 끝났다고 알려주는 글자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20. StringUI/Main_Menu 는 메인 화면으로 돌아가는 버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ex. 스테이지 3,6,9,...를 클리어하는 순간 증강체 화면이 공개되어야됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. StringUI/Upgrade 버튼을 누르면 1.3 강화 화면으로 넘어감</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9. StringUI/Money 자신이 현재 가지고 있는 돈을 보여준다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11. StringUI/Stage_Start 버튼을 누르면 웨이브가 시작된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26. StringUI/Upgrade_Contents 어떻게 강화되는지 설명</x:t>
+    <x:t>25%의 화상 대미지 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25%의 출혈 대미지 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.3 일시정지 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 체력 피해 + 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 쉴드 피해 + 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.4 게임오버 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25%의 전기 대미지 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 타워 체력 피해 + 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8. StringUI/HP 는 (현재 자신의 체력 / 최대 체력 : 10(임의)) 을 보여준다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워의 종류에 따라 타워 파트의 증강체를, 맵 기믹에 따라 자원, 패시브 파트의 증강체를 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6. StringUI/Stage_Level 은 현재 스테이지의 Level(단계)를 표시해준다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살타워 크리티컬 확률 + 25%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Xp_Point</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Contents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작하기 버튼을 누르게 된다면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLUM TOWER DEFESNSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>→</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김시우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>↗</x:t>
+  </x:si>
+  <x:si>
+    <x:t>↘</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 UI의 확장, 타워정보 UI 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Hp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 관통 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예리한 화살 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Level : </x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 관통 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21. StringUI/Xp 는 총 Xp를 나타낸다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Resource_Passive_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Resource_Passive_Category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14, 15가 포함된 네모를 클릭하면 16의 버튼이 나옴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스테이지를 3번 클리어할 때마다 증강체 화면UI를 공개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UI 인게임 배속버튼, 일시정지 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12,13이 같이 들어있는 네모는 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25%의 출혈 대미지 추가(중첩 가능)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25%의 전기 대미지 추가(중첩 가능)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16 버튼을 클릭하면 증강체가 적용됨.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 사지 않았지만 살 수 있는 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25%의 화상 대미지 추가(중첩 가능)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화 카드는 크게 3가지로 나눌수 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25%의 독 대미지 추가(중첩 가능)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Upgrade_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인, 인게임, 강화 화면 UI기본 틀구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. 사지 않았고 현재 살 수 없는 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>1.2.1 인게임 UI</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>타워, 자원, 패시브 카테고리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>XP : 200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_End</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GAME OVER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 마법 강화 II</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 증강체 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2 인게임 화면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Required_Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 증강체 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.3 강화 화면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>XP : 100</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Money : </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp_Reset</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예리한 화살 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예리한 화살 III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화살 마법 강화 I</x:t>
+  </x:si>
+  <x:si>
+    <x:t>XP : 150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12. StringUI/Tower_Name 타워의 이름을 보여준다.</x:t>
   </x:si>
   <x:si>
     <x:t>14, 15가 포함된 길쭉한 네모는 증강체를 표현, 하나의 버튼임</x:t>
   </x:si>
   <x:si>
-    <x:t>12. StringUI/Tower_Name 타워의 이름을 보여준다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보스 몬스터가 들어올때는 체력이 1보다 더 감소할지는 논의 필요.</x:t>
+    <x:t>17. StringUI/PAUSE 는 게임이 멈춰있다고 알려주는 글자</x:t>
   </x:si>
   <x:si>
     <x:t>13. StringUI/Tower_Cost 타워의 비용을 보여준다.</x:t>
   </x:si>
   <x:si>
-    <x:t>17. StringUI/PAUSE 는 게임이 멈춰있다고 알려주는 글자</x:t>
-  </x:si>
-  <x:si>
     <x:t>5. StringUI/Game_End 버튼을 누르면 게임이 종료됨</x:t>
   </x:si>
   <x:si>
-    <x:t>1. 배속버튼을 만들었는데 원상복구를 어떻게 시킬것인지에 대한 고민</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10. StringUI/Expand 버튼을 누르면 다음 맵이 확장된다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>18. StringUI/Resume 은 다시 인게임으로 돌아가는 버튼</x:t>
   </x:si>
   <x:si>
-    <x:t>시작하기 버튼만 남게됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25%의 전기 대미지 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.4 게임오버 UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 체력 피해 + 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21. StringUI/Xp 는 총 Xp를 나타낸다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터가 마을 안으로 들어왔을 때 체력이 1씩 감소한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. 환경 설정(인 게임 사운드, UI scale...)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스테이지를 3번 클리어할 때마다 증강체 화면UI를 공개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Resource_Passive_Category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Resource_Passive_Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14, 15가 포함된 네모를 클릭하면 16의 버튼이 나옴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 마법 강화 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_End</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예리한 화살 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2 인게임 화면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인게임 증강체 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>XP : 100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GAME OVER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Start</x:t>
-  </x:si>
-  <x:si>
-    <x:t>XP : 200</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 마법 강화 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인게임 증강체 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 종류를 Stage 1에서부터 다 보여줄지, 증강체에서 뽑은 것들만 보여주게 할지 논의 필요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8. StringUI/HP 는 (현재 자신의 체력 / 최대 체력 : 10(임의)) 을 보여준다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워의 종류에 따라 타워 파트의 증강체를, 맵 기믹에 따라 자원, 패시브 파트의 증강체를 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6. StringUI/Stage_Level 은 현재 스테이지의 Level(단계)를 표시해준다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.5 현재 진행상황</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기 화살 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출혈 화살 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>XP : 300</x:t>
-  </x:si>
-  <x:si>
-    <x:t>XP : 600</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기 화살 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>XP : 400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출혈 화살 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임 흐름도 -&gt; (이쪽 방향)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살타워 크리티컬 확률 + 25%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>웨이브가 끝나면 첫 화면 복귀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작하기 버튼이 배속 버튼이됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확장하기 버튼을 누르게 된다면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 방어구 피해 + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4. 기본 폰트 설정(고민중...)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PLUM TOWER DEFESNSE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 크리티컬 확률 +25%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워, 자원, 패시브 카테고리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Contents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Xp_Point</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.1 증강체의 기본적인 개요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 방어구 피해 + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작하기 버튼을 누르게 된다면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임 첫 화면(확장하기 가능)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.2 인게임 증강체 UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 사서 현재 적용이 되는 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 방어구 피해 + 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Upgrade_Contents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Money의 초기 시작 자금 : 100(임의)</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Money : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_Start</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인 메뉴로 돌아가기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>XP : 150</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.1 메인 화면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Over</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Required_Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Cost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>StringUI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_Level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp_Reset</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_Menu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.3 강화 화면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예리한 화살 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예리한 화살 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Level : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 관통 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 관통 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Hp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>→</x:t>
-  </x:si>
-  <x:si>
-    <x:t>담당자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>↗</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김시우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>↘</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.3 게임오버 UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스테이지 카운트 1 증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 쉴드 피해 + 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워 체력 피해 + 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25%의 독 대미지 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.5 현재 진행 상황</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25%의 화상 대미지 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.3 일시정지 UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25%의 출혈 대미지 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.8.22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ver1.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>더 나은 사격</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>출혈 화살 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워의 비용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불화살 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>불화살 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확장하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 관통 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임시작</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">HP : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>불화살 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독화살 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Xp : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>전기 화살 I</x:t>
-  </x:si>
-  <x:si>
-    <x:t>String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>돌아가기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워의 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PAUSE</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">XP : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Resume</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독화살 II</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pause</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp 리셋하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임종료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화살 타워</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Option</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독화살 III</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UI 기획서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>XP : 50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Expand</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.8.21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문서 개요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환경설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Version</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ver1.0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인 메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25%의 화상 대미지 추가(중첩 가능)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인, 인게임, 강화 화면 UI기본 틀구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. 사지 않았고 현재 살 수 없는 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 카드는 크게 3가지로 나눌수 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12,13이 같이 들어있는 네모는 버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25%의 전기 대미지 추가(중첩 가능)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25%의 출혈 대미지 추가(중첩 가능)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 사지 않았지만 살 수 있는 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16 버튼을 클릭하면 증강체가 적용됨.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UI 인게임 배속버튼, 일시정지 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25%의 독 대미지 추가(중첩 가능)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Upgrade_Title</x:t>
+    <x:r>
+      <x:t>게임이 진행된다.</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>31. StringUI/Tower_Priority는 우선적 선택 화면임을 알려주는 글자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 정보 UI 제작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보스 몬스터가 들어올때는 체력이 1보다 더 감소할지는 몬스터 기획이</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>버튼을 누른다.</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>22.8.23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우선적 선택 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">타워 데미지 : </x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 업그레이드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Move</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t xml:space="preserve">확장하기 버튼이 시작하기 </x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>이므로 클릭할 수 없다.</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>몬스터가 마을 안으로 들어왔을 때 체력이 1씩 감소되는지와,</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>1.2.5 타워정보 UI</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">타워 레벨 : </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">공격 속도 : </x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 정보 UI 제작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Range</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환경설정 UI 제작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>웨이브가 시작되고, 버튼은</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Upgrade</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>32번은 왼쪽, 오른쪽 버튼을 둬 다양한 우선 선택 사항들을 볼 수 있게 구현할 계획</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>28. StringUI/Tower_Mover 는 타워를 이동하게 해주는 버튼, 이동에 필요한 돈은 타워 기획 문서 참고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>되고, 이 버튼은 비활성화 상태</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>버튼으로 바뀌게 된다.</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>UI파트 개발자와 지속적인 커뮤니케이션을 통해 구현중</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StringUI 1~27에 해당하는 UI부분 작업중</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>타워는 모든 타워의 종류를 보여줌, 타워 에셋을 확보하여 12,13 중간 부분에 타워 그림을 넣는 작업 필요.</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>35. StringUI/Tower_Range는 타워의 범위를 나타내는 글자, 수치는 타워 기획 문서 참고</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>10, 11의 StringUI/Expand, StringUI/Stage_Start는 밑의 흐름을 통해</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>33. StingUI/Tower_Damage 는 타워 데미지를 알려주는 글자, 데미지 숫자는 타워 기획 문서 참고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30. StringUI/Tower_Demolish 는 타워를 부술 수 있게 해주는 버튼, 얼마의 돈을 돌려받는지는 타워 기획 문서 참고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36. StringUI/Tower_Fire_Rate는 타워의 공격속도를 나타내는 글자, 수치는 타워 기획 문서 참고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34. StingUI/Tower_Upgrade는 타워를 업그레이드 해 줄수 있는 버튼, 업그레이드에 필요한 재화는 타워 기획 문서 참고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4 현재 진행상황</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Damage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Target_Priority</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.5 타워정보 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32. StringUI/Tower_Priority_Type는 우선적 선택 타입을 알려주는 글자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4 현재 진행 상황</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Target_Priority_Type</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="15">
+  <x:fonts count="16">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -745,11 +943,26 @@
       <x:sz val="11"/>
       <x:color rgb="ff1f4e79"/>
     </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="14"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="14"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="14"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -762,11 +975,26 @@
       <x:color rgb="ff000000"/>
       <x:b val="1"/>
     </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="19"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="19"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="19"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -807,12 +1035,18 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ffff0000"/>
+    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
-          <x:name val="Bahnschrift SemiBold"/>
+          <x:name val="맑은 고딕"/>
           <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
+          <x:color rgb="ffff0000"/>
+          <x:b val="1"/>
           <hs:size val="100"/>
           <hs:ratio val="100"/>
           <hs:spacing val="0"/>
@@ -821,9 +1055,10 @@
       </mc:Choice>
       <mc:Fallback>
         <x:font>
-          <x:name val="Bahnschrift SemiBold"/>
+          <x:name val="맑은 고딕"/>
           <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
+          <x:color rgb="ffff0000"/>
+          <x:b val="1"/>
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -1183,7 +1418,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="78">
+  <x:cellXfs count="93">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -1555,7 +1790,62 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="top" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="top"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="top"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellXfs>
@@ -1568,6 +1858,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1650,6 +1941,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1684,6 +1976,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1728,6 +2021,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1771,6 +2065,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1855,6 +2150,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1875,6 +2171,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1905,6 +2202,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1957,7 +2255,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/drawings/drawing0.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2001,196 +2299,6 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic macro="" fPublished="0">
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="833437" y="7346156"/>
-          <a:ext cx="7274718" cy="4191000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>312419</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic macro="" fPublished="0">
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8382000" y="13073063"/>
-          <a:ext cx="2012156" cy="1857375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic macro="" fPublished="0">
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11632407" y="13073063"/>
-          <a:ext cx="2024062" cy="1797843"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic macro="" fPublished="0">
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="그림 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14989969" y="13073063"/>
-          <a:ext cx="2131218" cy="1797843"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic macro="" fPublished="0">
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="그림 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18323718" y="13013531"/>
-          <a:ext cx="2000250" cy="1857375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -2208,7 +2316,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId7"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2246,7 +2354,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId8"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2284,7 +2392,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId9"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2303,20 +2411,210 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic macro="" fPublished="0">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="그림 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8382000" y="13263563"/>
+          <a:ext cx="2286000" cy="1654968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic macro="" fPublished="0">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="그림 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11644312" y="13263563"/>
+          <a:ext cx="2381250" cy="1654968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic macro="" fPublished="0">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="그림 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15001875" y="13263563"/>
+          <a:ext cx="2286000" cy="1654968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic macro="" fPublished="0">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="그림 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="845343" y="7346156"/>
+          <a:ext cx="7262812" cy="4083843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic macro="" fPublished="0">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="그림 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="833437" y="35230596"/>
+          <a:ext cx="7155656" cy="4155281"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>162</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic macro="" fPublished="0">
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="그림 13"/>
+        <xdr:cNvPr id="35" name="그림 35"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2329,7 +2627,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="833437" y="35421092"/>
+          <a:off x="833437" y="42493404"/>
           <a:ext cx="7274718" cy="4191000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2343,18 +2641,18 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:colOff>624839</xdr:colOff>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:pic macro="" fPublished="0">
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="그림 14"/>
+        <xdr:cNvPr id="36" name="그림 36"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2367,8 +2665,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7643812" y="41481376"/>
-          <a:ext cx="1488281" cy="1071562"/>
+          <a:off x="7643812" y="48565596"/>
+          <a:ext cx="1476375" cy="1059656"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2380,19 +2678,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>162</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic macro="" fPublished="0">
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="그림 15"/>
+        <xdr:cNvPr id="37" name="그림 37"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2405,8 +2703,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9286875" y="41481376"/>
-          <a:ext cx="1559718" cy="1035843"/>
+          <a:off x="9274969" y="48565596"/>
+          <a:ext cx="1571625" cy="1012031"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2418,19 +2716,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>189</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:pic macro="" fPublished="0">
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="그림 16"/>
+        <xdr:cNvPr id="38" name="그림 38"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2443,8 +2741,47 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10965656" y="41481376"/>
-          <a:ext cx="1619250" cy="1071562"/>
+          <a:off x="10977563" y="48565596"/>
+          <a:ext cx="1607343" cy="1059656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>464819</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic macro="" fPublished="0">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="그림 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip r:embed="rId14"/>
+        <a:srcRect l="29110" t="28930" r="29930" b="29220"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11781235" y="39921660"/>
+          <a:ext cx="2964668" cy="1721660"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2713,8 +3050,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:J18"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B6" activeCellId="0" sqref="B6:B6"/>
+    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="G3" activeCellId="0" sqref="G3:G3"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -2726,12 +3063,12 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="23.5">
       <x:c r="A1" s="52" t="s">
-        <x:v>180</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B1" s="52"/>
       <x:c r="C1" s="5"/>
       <x:c r="F1" s="53" t="s">
-        <x:v>186</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="G1" s="53"/>
       <x:c r="H1" s="53"/>
@@ -2740,21 +3077,21 @@
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="51" t="s">
-        <x:v>25</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B2" s="51"/>
       <x:c r="C2" s="5"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="16.75">
       <x:c r="A3" s="6" t="s">
-        <x:v>128</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B3" s="6" t="s">
-        <x:v>130</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="C3" s="6"/>
       <x:c r="F3" s="7" t="s">
-        <x:v>190</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G3" s="8"/>
       <x:c r="H3" s="8"/>
@@ -2763,17 +3100,17 @@
     </x:row>
     <x:row r="4" spans="1:10">
       <x:c r="A4" s="10" t="s">
-        <x:v>188</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B4" s="10" t="s">
-        <x:v>125</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C4" s="10" t="s">
-        <x:v>146</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="F4" s="11"/>
       <x:c r="G4" s="54" t="s">
-        <x:v>110</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="H4" s="54"/>
       <x:c r="I4" s="54"/>
@@ -2781,17 +3118,17 @@
     </x:row>
     <x:row r="5" spans="1:10">
       <x:c r="A5" s="12" t="s">
-        <x:v>189</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B5" s="12" t="s">
-        <x:v>193</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="C5" s="12" t="s">
-        <x:v>185</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="F5" s="11"/>
       <x:c r="G5" s="54" t="s">
-        <x:v>63</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="H5" s="54"/>
       <x:c r="I5" s="54"/>
@@ -2799,30 +3136,36 @@
     </x:row>
     <x:row r="6" spans="1:10">
       <x:c r="A6" s="12" t="s">
-        <x:v>148</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B6" s="12" t="s">
-        <x:v>201</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C6" s="12" t="s">
-        <x:v>147</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="F6" s="13"/>
       <x:c r="G6" s="14"/>
-      <x:c r="H6" s="14" t="s">
-        <x:v>27</x:v>
+      <x:c r="H6" s="86" t="s">
+        <x:v>188</x:v>
       </x:c>
       <x:c r="I6" s="14"/>
       <x:c r="J6" s="15"/>
     </x:row>
     <x:row r="7" spans="1:10">
-      <x:c r="A7" s="14"/>
-      <x:c r="B7" s="14"/>
-      <x:c r="C7" s="12"/>
+      <x:c r="A7" s="14" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="B7" s="86" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="C7" s="12" t="s">
+        <x:v>221</x:v>
+      </x:c>
       <x:c r="F7" s="13"/>
       <x:c r="G7" s="14"/>
       <x:c r="H7" s="14" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="I7" s="14"/>
       <x:c r="J7" s="15"/>
@@ -2831,12 +3174,12 @@
       <x:c r="A8" s="14"/>
       <x:c r="B8" s="12"/>
       <x:c r="C8" s="12" t="s">
-        <x:v>134</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F8" s="13"/>
       <x:c r="G8" s="14"/>
       <x:c r="H8" s="14" t="s">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="I8" s="14"/>
       <x:c r="J8" s="15"/>
@@ -2848,7 +3191,7 @@
       <x:c r="F9" s="13"/>
       <x:c r="G9" s="14"/>
       <x:c r="H9" s="14" t="s">
-        <x:v>137</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="I9" s="14"/>
       <x:c r="J9" s="15"/>
@@ -2858,12 +3201,12 @@
       <x:c r="B10" s="14"/>
       <x:c r="C10" s="14"/>
       <x:c r="F10" s="13"/>
-      <x:c r="G10" s="47" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="H10" s="47"/>
-      <x:c r="I10" s="47"/>
-      <x:c r="J10" s="48"/>
+      <x:c r="G10" s="84"/>
+      <x:c r="H10" s="87" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="I10" s="84"/>
+      <x:c r="J10" s="85"/>
     </x:row>
     <x:row r="11" spans="1:10">
       <x:c r="A11" s="14"/>
@@ -2871,7 +3214,7 @@
       <x:c r="C11" s="14"/>
       <x:c r="F11" s="13"/>
       <x:c r="G11" s="47" t="s">
-        <x:v>21</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="H11" s="47"/>
       <x:c r="I11" s="47"/>
@@ -2882,24 +3225,24 @@
       <x:c r="B12" s="14"/>
       <x:c r="C12" s="14"/>
       <x:c r="F12" s="13"/>
-      <x:c r="G12" s="49" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="H12" s="49"/>
-      <x:c r="I12" s="49"/>
-      <x:c r="J12" s="50"/>
+      <x:c r="G12" s="47" t="s">
+        <x:v>257</x:v>
+      </x:c>
+      <x:c r="H12" s="47"/>
+      <x:c r="I12" s="47"/>
+      <x:c r="J12" s="48"/>
     </x:row>
     <x:row r="13" spans="1:10">
       <x:c r="A13" s="14"/>
       <x:c r="B13" s="14"/>
       <x:c r="C13" s="14"/>
       <x:c r="F13" s="13" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="G13" s="47"/>
-      <x:c r="H13" s="47"/>
-      <x:c r="I13" s="47"/>
-      <x:c r="J13" s="48"/>
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G13" s="49"/>
+      <x:c r="H13" s="49"/>
+      <x:c r="I13" s="49"/>
+      <x:c r="J13" s="50"/>
     </x:row>
     <x:row r="14" spans="1:10">
       <x:c r="A14" s="14"/>
@@ -2907,7 +3250,7 @@
       <x:c r="C14" s="14"/>
       <x:c r="F14" s="13"/>
       <x:c r="G14" s="49" t="s">
-        <x:v>96</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="H14" s="49"/>
       <x:c r="I14" s="49"/>
@@ -2918,10 +3261,10 @@
       <x:c r="B15" s="14"/>
       <x:c r="C15" s="14"/>
       <x:c r="F15" s="13"/>
-      <x:c r="G15" s="14"/>
-      <x:c r="H15" s="14"/>
-      <x:c r="I15" s="14"/>
-      <x:c r="J15" s="15"/>
+      <x:c r="G15" s="49"/>
+      <x:c r="H15" s="49"/>
+      <x:c r="I15" s="49"/>
+      <x:c r="J15" s="50"/>
     </x:row>
     <x:row r="16" spans="6:10">
       <x:c r="F16" s="13"/>
@@ -2946,15 +3289,15 @@
     </x:row>
   </x:sheetData>
   <x:mergeCells count="10">
-    <x:mergeCell ref="G11:J11"/>
-    <x:mergeCell ref="G12:J12"/>
     <x:mergeCell ref="A2:B2"/>
     <x:mergeCell ref="A1:B1"/>
     <x:mergeCell ref="F1:J1"/>
     <x:mergeCell ref="G4:J4"/>
     <x:mergeCell ref="G5:J5"/>
-    <x:mergeCell ref="G10:J10"/>
+    <x:mergeCell ref="G15:J15"/>
     <x:mergeCell ref="G13:J13"/>
+    <x:mergeCell ref="G12:J12"/>
+    <x:mergeCell ref="G11:J11"/>
     <x:mergeCell ref="G14:J14"/>
   </x:mergeCells>
   <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -2965,10 +3308,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet2"/>
-  <x:dimension ref="A1:Y172"/>
+  <x:dimension ref="A1:Y198"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="N104" activeCellId="0" sqref="N104:N104"/>
+    <x:sheetView showGridLines="0" topLeftCell="A103" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="B194" activeCellId="0" sqref="B194:H194"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -2980,25 +3323,25 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="3" t="s">
-        <x:v>190</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="2:3">
       <x:c r="B2" s="45" t="s">
-        <x:v>110</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C2" s="45"/>
     </x:row>
     <x:row r="7" spans="11:16">
       <x:c r="K7" s="22" t="s">
-        <x:v>133</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="L7" s="41" t="s">
-        <x:v>114</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="M7" s="41"/>
       <x:c r="N7" s="42" t="s">
-        <x:v>166</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O7" s="43"/>
       <x:c r="P7" s="44"/>
@@ -3008,16 +3351,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="L8" s="41" t="s">
-        <x:v>70</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="M8" s="41"/>
       <x:c r="N8" s="41" t="s">
-        <x:v>91</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="O8" s="41"/>
       <x:c r="P8" s="41"/>
       <x:c r="Q8" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="11:17">
@@ -3025,16 +3368,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="L9" s="41" t="s">
-        <x:v>67</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="M9" s="41"/>
       <x:c r="N9" s="41" t="s">
-        <x:v>160</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="O9" s="41"/>
       <x:c r="P9" s="41"/>
       <x:c r="Q9" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="11:17">
@@ -3042,16 +3385,16 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="L10" s="41" t="s">
-        <x:v>158</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="M10" s="41"/>
       <x:c r="N10" s="41" t="s">
-        <x:v>126</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="O10" s="41"/>
       <x:c r="P10" s="41"/>
       <x:c r="Q10" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="11:17">
@@ -3059,16 +3402,16 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="L11" s="41" t="s">
-        <x:v>178</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="M11" s="41"/>
       <x:c r="N11" s="41" t="s">
-        <x:v>187</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="O11" s="41"/>
       <x:c r="P11" s="41"/>
       <x:c r="Q11" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="11:17">
@@ -3076,21 +3419,21 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L12" s="41" t="s">
-        <x:v>61</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="M12" s="41"/>
       <x:c r="N12" s="41" t="s">
-        <x:v>176</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="O12" s="41"/>
       <x:c r="P12" s="41"/>
       <x:c r="Q12" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:8">
       <x:c r="B20" s="45" t="s">
-        <x:v>10</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C20" s="45"/>
       <x:c r="D20" s="45"/>
@@ -3101,7 +3444,7 @@
     </x:row>
     <x:row r="21" spans="2:8">
       <x:c r="B21" s="45" t="s">
-        <x:v>36</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C21" s="45"/>
       <x:c r="D21" s="45"/>
@@ -3112,7 +3455,7 @@
     </x:row>
     <x:row r="22" spans="2:8">
       <x:c r="B22" s="45" t="s">
-        <x:v>0</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C22" s="45"/>
       <x:c r="D22" s="45"/>
@@ -3123,7 +3466,7 @@
     </x:row>
     <x:row r="23" spans="2:8">
       <x:c r="B23" s="45" t="s">
-        <x:v>45</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="C23" s="45"/>
       <x:c r="D23" s="45"/>
@@ -3134,7 +3477,7 @@
     </x:row>
     <x:row r="24" spans="2:14">
       <x:c r="B24" s="46" t="s">
-        <x:v>16</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C24" s="45"/>
       <x:c r="D24" s="45"/>
@@ -3166,27 +3509,27 @@
     </x:row>
     <x:row r="27" spans="2:3">
       <x:c r="B27" s="45" t="s">
-        <x:v>63</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="C27" s="45"/>
     </x:row>
     <x:row r="28" spans="2:4">
       <x:c r="B28" s="20"/>
       <x:c r="C28" s="45" t="s">
-        <x:v>27</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D28" s="45"/>
     </x:row>
     <x:row r="31" spans="11:16">
       <x:c r="K31" s="22" t="s">
-        <x:v>133</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="L31" s="41" t="s">
-        <x:v>114</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="M31" s="41"/>
       <x:c r="N31" s="42" t="s">
-        <x:v>166</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O31" s="43"/>
       <x:c r="P31" s="44"/>
@@ -3196,16 +3539,16 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="L32" s="41" t="s">
-        <x:v>115</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="M32" s="41"/>
       <x:c r="N32" s="41" t="s">
-        <x:v>121</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="O32" s="41"/>
       <x:c r="P32" s="41"/>
       <x:c r="Q32" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="11:17">
@@ -3213,18 +3556,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="L33" s="41" t="s">
-        <x:v>95</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="M33" s="41" t="s">
-        <x:v>95</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="N33" s="41" t="s">
-        <x:v>171</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="O33" s="41"/>
       <x:c r="P33" s="41"/>
       <x:c r="Q33" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="11:17">
@@ -3232,18 +3575,18 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="L34" s="41" t="s">
-        <x:v>124</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="M34" s="41" t="s">
-        <x:v>124</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="N34" s="41" t="s">
-        <x:v>161</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="O34" s="41"/>
       <x:c r="P34" s="41"/>
       <x:c r="Q34" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="11:17">
@@ -3251,18 +3594,18 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="L35" s="41" t="s">
-        <x:v>24</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="M35" s="41" t="s">
-        <x:v>24</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="N35" s="41" t="s">
-        <x:v>105</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="O35" s="41"/>
       <x:c r="P35" s="41"/>
       <x:c r="Q35" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="11:17">
@@ -3270,16 +3613,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="L36" s="41" t="s">
-        <x:v>182</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="M36" s="41"/>
       <x:c r="N36" s="41" t="s">
-        <x:v>157</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="O36" s="41"/>
       <x:c r="P36" s="41"/>
       <x:c r="Q36" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="11:17">
@@ -3287,16 +3630,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="L37" s="41" t="s">
-        <x:v>106</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="M37" s="41"/>
       <x:c r="N37" s="41" t="s">
-        <x:v>156</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="O37" s="41"/>
       <x:c r="P37" s="41"/>
       <x:c r="Q37" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="11:21">
@@ -3304,19 +3647,19 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="L38" s="41" t="s">
-        <x:v>107</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="M38" s="41"/>
       <x:c r="N38" s="41" t="s">
-        <x:v>169</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="O38" s="41"/>
       <x:c r="P38" s="41"/>
       <x:c r="Q38" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="R38" s="45" t="s">
-        <x:v>196</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="S38" s="45"/>
       <x:c r="T38" s="45"/>
@@ -3327,19 +3670,19 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="L39" s="41" t="s">
-        <x:v>113</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="M39" s="41"/>
       <x:c r="N39" s="41" t="s">
-        <x:v>153</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="O39" s="41"/>
       <x:c r="P39" s="41"/>
       <x:c r="Q39" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="R39" s="45" t="s">
-        <x:v>30</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="S39" s="45"/>
       <x:c r="T39" s="45"/>
@@ -3347,7 +3690,7 @@
     </x:row>
     <x:row r="46" spans="2:17">
       <x:c r="B46" s="45" t="s">
-        <x:v>75</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C46" s="45"/>
       <x:c r="D46" s="45"/>
@@ -3355,8 +3698,8 @@
       <x:c r="F46" s="45"/>
       <x:c r="G46" s="45"/>
       <x:c r="H46" s="45"/>
-      <x:c r="K46" s="45" t="s">
-        <x:v>47</x:v>
+      <x:c r="K46" s="46" t="s">
+        <x:v>246</x:v>
       </x:c>
       <x:c r="L46" s="45"/>
       <x:c r="M46" s="45"/>
@@ -3367,7 +3710,7 @@
     </x:row>
     <x:row r="47" spans="2:17">
       <x:c r="B47" s="45" t="s">
-        <x:v>31</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C47" s="45"/>
       <x:c r="D47" s="45"/>
@@ -3375,8 +3718,8 @@
       <x:c r="F47" s="45"/>
       <x:c r="G47" s="45"/>
       <x:c r="H47" s="45"/>
-      <x:c r="K47" s="45" t="s">
-        <x:v>38</x:v>
+      <x:c r="K47" s="46" t="s">
+        <x:v>216</x:v>
       </x:c>
       <x:c r="L47" s="45"/>
       <x:c r="M47" s="45"/>
@@ -3387,7 +3730,7 @@
     </x:row>
     <x:row r="49" spans="2:17">
       <x:c r="B49" s="45" t="s">
-        <x:v>13</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C49" s="45"/>
       <x:c r="D49" s="45"/>
@@ -3396,7 +3739,7 @@
       <x:c r="G49" s="45"/>
       <x:c r="H49" s="45"/>
       <x:c r="K49" s="45" t="s">
-        <x:v>84</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="L49" s="45"/>
       <x:c r="M49" s="45"/>
@@ -3406,8 +3749,8 @@
       <x:c r="Q49" s="45"/>
     </x:row>
     <x:row r="50" spans="2:8">
-      <x:c r="B50" s="45" t="s">
-        <x:v>8</x:v>
+      <x:c r="B50" s="46" t="s">
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C50" s="45"/>
       <x:c r="D50" s="45"/>
@@ -3418,7 +3761,7 @@
     </x:row>
     <x:row r="52" spans="2:8">
       <x:c r="B52" s="45" t="s">
-        <x:v>73</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="C52" s="45"/>
       <x:c r="D52" s="45"/>
@@ -3428,8 +3771,8 @@
       <x:c r="H52" s="45"/>
     </x:row>
     <x:row r="53" spans="2:8">
-      <x:c r="B53" s="45" t="s">
-        <x:v>54</x:v>
+      <x:c r="B53" s="46" t="s">
+        <x:v>229</x:v>
       </x:c>
       <x:c r="C53" s="45"/>
       <x:c r="D53" s="45"/>
@@ -3439,8 +3782,8 @@
       <x:c r="H53" s="45"/>
     </x:row>
     <x:row r="54" spans="2:22" ht="20.649999999999999">
-      <x:c r="B54" s="45" t="s">
-        <x:v>42</x:v>
+      <x:c r="B54" s="46" t="s">
+        <x:v>219</x:v>
       </x:c>
       <x:c r="C54" s="45"/>
       <x:c r="D54" s="45"/>
@@ -3449,18 +3792,16 @@
       <x:c r="G54" s="45"/>
       <x:c r="H54" s="45"/>
       <x:c r="N54" s="23" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="R54" s="24" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="V54" s="24" t="s">
-        <x:v>127</x:v>
-      </x:c>
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="V54" s="24"/>
     </x:row>
     <x:row r="56" spans="2:8">
       <x:c r="B56" s="45" t="s">
-        <x:v>37</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C56" s="45"/>
       <x:c r="D56" s="45"/>
@@ -3471,7 +3812,7 @@
     </x:row>
     <x:row r="57" spans="2:8">
       <x:c r="B57" s="45" t="s">
-        <x:v>104</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C57" s="45"/>
       <x:c r="D57" s="45"/>
@@ -3481,54 +3822,60 @@
       <x:c r="H57" s="45"/>
     </x:row>
     <x:row r="58" spans="11:25">
-      <x:c r="K58" s="45" t="s">
-        <x:v>99</x:v>
+      <x:c r="K58" s="46" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L58" s="45"/>
       <x:c r="M58" s="45"/>
-      <x:c r="O58" s="45" t="s">
-        <x:v>88</x:v>
+      <x:c r="O58" s="46" t="s">
+        <x:v>55</x:v>
       </x:c>
       <x:c r="P58" s="45"/>
       <x:c r="Q58" s="45"/>
-      <x:c r="S58" s="45" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="T58" s="45"/>
-      <x:c r="U58" s="45"/>
-      <x:c r="W58" s="45" t="s">
-        <x:v>86</x:v>
-      </x:c>
+      <x:c r="S58" s="46" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="T58" s="46"/>
+      <x:c r="U58" s="46"/>
+      <x:c r="W58" s="45"/>
       <x:c r="X58" s="45"/>
       <x:c r="Y58" s="45"/>
     </x:row>
-    <x:row r="59" spans="15:25">
-      <x:c r="O59" s="45" t="s">
-        <x:v>19</x:v>
+    <x:row r="59" spans="11:25">
+      <x:c r="K59" s="46" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="L59" s="45"/>
+      <x:c r="M59" s="45"/>
+      <x:c r="O59" s="46" t="s">
+        <x:v>227</x:v>
       </x:c>
       <x:c r="P59" s="45"/>
       <x:c r="Q59" s="45"/>
-      <x:c r="S59" s="45" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="T59" s="45"/>
-      <x:c r="U59" s="45"/>
-      <x:c r="W59" s="45" t="s">
-        <x:v>138</x:v>
-      </x:c>
+      <x:c r="S59" s="46" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="T59" s="46"/>
+      <x:c r="U59" s="46"/>
+      <x:c r="W59" s="45"/>
       <x:c r="X59" s="45"/>
       <x:c r="Y59" s="45"/>
     </x:row>
-    <x:row r="60" spans="15:17">
-      <x:c r="O60" s="45" t="s">
-        <x:v>49</x:v>
+    <x:row r="60" spans="15:21">
+      <x:c r="O60" s="46" t="s">
+        <x:v>241</x:v>
       </x:c>
       <x:c r="P60" s="45"/>
       <x:c r="Q60" s="45"/>
-    </x:row>
-    <x:row r="61" spans="2:8">
+      <x:c r="S60" s="46" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="T60" s="46"/>
+      <x:c r="U60" s="46"/>
+    </x:row>
+    <x:row r="61" spans="2:21">
       <x:c r="B61" s="45" t="s">
-        <x:v>41</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="C61" s="45"/>
       <x:c r="D61" s="45"/>
@@ -3536,10 +3883,15 @@
       <x:c r="F61" s="45"/>
       <x:c r="G61" s="45"/>
       <x:c r="H61" s="45"/>
-    </x:row>
-    <x:row r="62" spans="2:13">
+      <x:c r="S61" s="46" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="T61" s="46"/>
+      <x:c r="U61" s="46"/>
+    </x:row>
+    <x:row r="62" spans="2:21">
       <x:c r="B62" s="45" t="s">
-        <x:v>43</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="C62" s="45"/>
       <x:c r="D62" s="45"/>
@@ -3550,10 +3902,15 @@
       <x:c r="K62" s="2"/>
       <x:c r="L62" s="2"/>
       <x:c r="M62" s="2"/>
+      <x:c r="S62" s="46" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="T62" s="46"/>
+      <x:c r="U62" s="46"/>
     </x:row>
     <x:row r="63" spans="2:13">
-      <x:c r="B63" s="45" t="s">
-        <x:v>72</x:v>
+      <x:c r="B63" s="46" t="s">
+        <x:v>244</x:v>
       </x:c>
       <x:c r="C63" s="45"/>
       <x:c r="D63" s="45"/>
@@ -3575,23 +3932,23 @@
     </x:row>
     <x:row r="65" spans="3:5">
       <x:c r="C65" s="45" t="s">
-        <x:v>100</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D65" s="45"/>
       <x:c r="E65" s="45"/>
     </x:row>
     <x:row r="70" spans="12:19">
       <x:c r="L70" s="22" t="s">
-        <x:v>133</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="M70" s="41" t="s">
-        <x:v>114</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="N70" s="41"/>
       <x:c r="O70" s="41"/>
       <x:c r="P70" s="41"/>
       <x:c r="Q70" s="41" t="s">
-        <x:v>166</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="R70" s="41"/>
       <x:c r="S70" s="41"/>
@@ -3601,18 +3958,18 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="M71" s="41" t="s">
-        <x:v>203</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="N71" s="41"/>
       <x:c r="O71" s="41"/>
       <x:c r="P71" s="41"/>
       <x:c r="Q71" s="41" t="s">
-        <x:v>64</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="R71" s="41"/>
       <x:c r="S71" s="41"/>
       <x:c r="T71" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="12:20">
@@ -3620,18 +3977,18 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="M72" s="41" t="s">
-        <x:v>103</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="N72" s="41"/>
       <x:c r="O72" s="41"/>
       <x:c r="P72" s="41"/>
       <x:c r="Q72" s="41" t="s">
-        <x:v>71</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="R72" s="41"/>
       <x:c r="S72" s="41"/>
       <x:c r="T72" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="12:20">
@@ -3639,18 +3996,18 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="M73" s="41" t="s">
-        <x:v>152</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="N73" s="41"/>
       <x:c r="O73" s="41"/>
       <x:c r="P73" s="41"/>
       <x:c r="Q73" s="41" t="s">
-        <x:v>183</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="R73" s="41"/>
       <x:c r="S73" s="41"/>
       <x:c r="T73" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="11:15">
@@ -3662,7 +4019,7 @@
     <x:row r="75" spans="11:20">
       <x:c r="K75" s="1"/>
       <x:c r="L75" s="45" t="s">
-        <x:v>40</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="M75" s="45"/>
       <x:c r="N75" s="45"/>
@@ -3676,7 +4033,7 @@
     <x:row r="76" spans="11:20">
       <x:c r="K76" s="1"/>
       <x:c r="L76" s="45" t="s">
-        <x:v>59</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="M76" s="45"/>
       <x:c r="N76" s="45"/>
@@ -3689,7 +4046,7 @@
     </x:row>
     <x:row r="77" spans="12:20">
       <x:c r="L77" s="45" t="s">
-        <x:v>200</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="M77" s="45"/>
       <x:c r="N77" s="45"/>
@@ -3702,7 +4059,7 @@
     </x:row>
     <x:row r="79" spans="12:20">
       <x:c r="L79" s="45" t="s">
-        <x:v>4</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="M79" s="45"/>
       <x:c r="N79" s="45"/>
@@ -3715,7 +4072,7 @@
     </x:row>
     <x:row r="83" spans="2:8">
       <x:c r="B83" s="45" t="s">
-        <x:v>56</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="C83" s="45"/>
       <x:c r="D83" s="45"/>
@@ -3726,7 +4083,7 @@
     </x:row>
     <x:row r="84" spans="2:8">
       <x:c r="B84" s="45" t="s">
-        <x:v>35</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C84" s="45"/>
       <x:c r="D84" s="45"/>
@@ -3755,7 +4112,7 @@
     </x:row>
     <x:row r="87" spans="2:8">
       <x:c r="B87" s="45" t="s">
-        <x:v>11</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C87" s="45"/>
       <x:c r="D87" s="45"/>
@@ -3766,7 +4123,7 @@
     </x:row>
     <x:row r="88" spans="2:8">
       <x:c r="B88" s="45" t="s">
-        <x:v>1</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C88" s="45"/>
       <x:c r="D88" s="45"/>
@@ -3777,7 +4134,7 @@
     </x:row>
     <x:row r="89" spans="2:8">
       <x:c r="B89" s="45" t="s">
-        <x:v>9</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C89" s="45"/>
       <x:c r="D89" s="45"/>
@@ -3788,21 +4145,21 @@
     </x:row>
     <x:row r="91" spans="3:5">
       <x:c r="C91" s="45" t="s">
-        <x:v>144</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D91" s="45"/>
       <x:c r="E91" s="45"/>
     </x:row>
     <x:row r="96" spans="11:16">
       <x:c r="K96" s="22" t="s">
-        <x:v>133</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="L96" s="41" t="s">
-        <x:v>114</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="M96" s="41"/>
       <x:c r="N96" s="42" t="s">
-        <x:v>166</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O96" s="43"/>
       <x:c r="P96" s="44"/>
@@ -3812,16 +4169,16 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="L97" s="41" t="s">
-        <x:v>174</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="M97" s="41"/>
       <x:c r="N97" s="41" t="s">
-        <x:v>170</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="O97" s="41"/>
       <x:c r="P97" s="41"/>
       <x:c r="Q97" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="11:17">
@@ -3829,16 +4186,16 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="L98" s="41" t="s">
-        <x:v>172</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="M98" s="41"/>
       <x:c r="N98" s="41" t="s">
-        <x:v>168</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="O98" s="41"/>
       <x:c r="P98" s="41"/>
       <x:c r="Q98" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="11:17">
@@ -3846,24 +4203,21 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="L99" s="41" t="s">
-        <x:v>117</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="M99" s="41"/>
       <x:c r="N99" s="41" t="s">
-        <x:v>108</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="O99" s="41"/>
       <x:c r="P99" s="41"/>
       <x:c r="Q99" s="1" t="s">
-        <x:v>131</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="104" spans="14:14">
-      <x:c r="N104" s="77"/>
+        <x:v>158</x:v>
+      </x:c>
     </x:row>
     <x:row r="109" spans="2:8">
       <x:c r="B109" s="45" t="s">
-        <x:v>44</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="C109" s="45"/>
       <x:c r="D109" s="45"/>
@@ -3874,7 +4228,7 @@
     </x:row>
     <x:row r="110" spans="2:8">
       <x:c r="B110" s="45" t="s">
-        <x:v>48</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="C110" s="45"/>
       <x:c r="D110" s="45"/>
@@ -3885,7 +4239,7 @@
     </x:row>
     <x:row r="111" spans="2:8">
       <x:c r="B111" s="45" t="s">
-        <x:v>34</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C111" s="45"/>
       <x:c r="D111" s="45"/>
@@ -3896,21 +4250,21 @@
     </x:row>
     <x:row r="113" spans="3:5">
       <x:c r="C113" s="45" t="s">
-        <x:v>51</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D113" s="45"/>
       <x:c r="E113" s="45"/>
     </x:row>
     <x:row r="116" spans="11:16">
       <x:c r="K116" s="22" t="s">
-        <x:v>133</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="L116" s="41" t="s">
-        <x:v>114</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="M116" s="41"/>
       <x:c r="N116" s="42" t="s">
-        <x:v>166</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="O116" s="43"/>
       <x:c r="P116" s="44"/>
@@ -3920,16 +4274,16 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="L117" s="41" t="s">
-        <x:v>111</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="M117" s="41"/>
       <x:c r="N117" s="41" t="s">
-        <x:v>66</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="O117" s="41"/>
       <x:c r="P117" s="41"/>
       <x:c r="Q117" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="11:17">
@@ -3937,21 +4291,21 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="L118" s="41" t="s">
-        <x:v>117</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="M118" s="41"/>
       <x:c r="N118" s="41" t="s">
-        <x:v>108</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="O118" s="41"/>
       <x:c r="P118" s="41"/>
       <x:c r="Q118" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="2:8">
       <x:c r="B131" s="45" t="s">
-        <x:v>33</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C131" s="45"/>
       <x:c r="D131" s="45"/>
@@ -3962,7 +4316,7 @@
     </x:row>
     <x:row r="132" spans="2:8">
       <x:c r="B132" s="45" t="s">
-        <x:v>34</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C132" s="45"/>
       <x:c r="D132" s="45"/>
@@ -3971,380 +4325,923 @@
       <x:c r="G132" s="45"/>
       <x:c r="H132" s="45"/>
     </x:row>
-    <x:row r="135" spans="2:3">
-      <x:c r="B135" s="45" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="C135" s="45"/>
-    </x:row>
-    <x:row r="139" spans="11:18">
-      <x:c r="K139" s="22" t="s">
+    <x:row r="134" spans="3:5">
+      <x:c r="C134" s="46" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="D134" s="45"/>
+      <x:c r="E134" s="45"/>
+    </x:row>
+    <x:row r="135" spans="11:15">
+      <x:c r="K135"/>
+      <x:c r="L135"/>
+      <x:c r="M135"/>
+      <x:c r="O135"/>
+    </x:row>
+    <x:row r="136" spans="11:17">
+      <x:c r="K136" s="88" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="L136" s="89" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="M136" s="89" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="N136" s="89" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="O136" s="89" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="P136" s="89" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="Q136" s="90"/>
+    </x:row>
+    <x:row r="137" spans="11:17">
+      <x:c r="K137" s="91">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="L137" s="89" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="M137" s="89" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="N137" s="89" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="O137" s="89" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="P137" s="89" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="Q137" s="90" t="s">
+        <x:v>158</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="138" spans="11:17">
+      <x:c r="K138" s="91">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="L138" s="89" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="M138" s="89" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="N138" s="89" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="O138" s="89" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="P138" s="89" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="Q138" s="90" t="s">
+        <x:v>163</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="139" spans="11:17">
+      <x:c r="K139" s="91">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="L139" s="89" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="M139" s="89" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="N139" s="89" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="O139" s="89" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="P139" s="89" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="Q139" s="90" t="s">
+        <x:v>158</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="140" spans="11:17">
+      <x:c r="K140" s="91">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="L140" s="89" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="M140" s="89" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="N140" s="89" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="O140" s="89" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="P140" s="89" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="Q140" s="90" t="s">
+        <x:v>163</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="141" spans="11:17">
+      <x:c r="K141" s="91">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="L141" s="89" t="s">
+        <x:v>258</x:v>
+      </x:c>
+      <x:c r="M141" s="89" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="N141" s="89" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="O141" s="89" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="P141" s="89" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="Q141" s="90" t="s">
+        <x:v>163</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="142" spans="11:17">
+      <x:c r="K142" s="91">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="L142" s="89" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="M142" s="89" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="N142" s="89" t="s">
+        <x:v>252</x:v>
+      </x:c>
+      <x:c r="O142" s="89" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="P142" s="89" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="Q142" s="90" t="s">
+        <x:v>163</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="143" spans="11:17">
+      <x:c r="K143" s="91">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="L143" s="89" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="M143" s="89" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="N143" s="89" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="O143" s="89" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="P143" s="89" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="Q143" s="90" t="s">
+        <x:v>158</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="144" spans="11:17">
+      <x:c r="K144" s="91">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="L144" s="89" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="M144" s="89" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="N144" s="89" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="O144" s="89" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="P144" s="89" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="Q144" s="90" t="s">
+        <x:v>163</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="145" spans="11:17">
+      <x:c r="K145" s="91">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="L145" s="89" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="M145" s="89" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="N145" s="89" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="O145" s="89" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="P145" s="89" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="Q145" s="90" t="s">
+        <x:v>163</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="146" spans="11:15">
+      <x:c r="K146"/>
+      <x:c r="L146"/>
+      <x:c r="M146"/>
+      <x:c r="O146"/>
+    </x:row>
+    <x:row r="147" spans="11:17">
+      <x:c r="K147" s="92" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L147" s="92"/>
+      <x:c r="M147" s="92"/>
+      <x:c r="N147" s="92"/>
+      <x:c r="O147" s="92"/>
+      <x:c r="P147" s="92"/>
+      <x:c r="Q147" s="92"/>
+    </x:row>
+    <x:row r="148" spans="11:15">
+      <x:c r="K148"/>
+      <x:c r="L148"/>
+      <x:c r="M148"/>
+      <x:c r="O148"/>
+    </x:row>
+    <x:row r="151" spans="2:15">
+      <x:c r="B151"/>
+      <x:c r="K151"/>
+      <x:c r="L151"/>
+      <x:c r="M151"/>
+      <x:c r="O151" s="90" t="s">
+        <x:v>238</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="152" spans="2:15">
+      <x:c r="B152" s="46" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="C152" s="46"/>
+      <x:c r="D152" s="46"/>
+      <x:c r="E152" s="46"/>
+      <x:c r="F152" s="46"/>
+      <x:c r="G152" s="46"/>
+      <x:c r="H152" s="46"/>
+      <x:c r="I152" s="46"/>
+      <x:c r="J152" s="46"/>
+      <x:c r="K152" s="46"/>
+      <x:c r="L152" s="46"/>
+      <x:c r="M152" s="46"/>
+      <x:c r="O152" s="3" t="s">
+        <x:v>256</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="153" spans="2:13">
+      <x:c r="B153" s="46" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C153" s="46"/>
+      <x:c r="D153" s="46"/>
+      <x:c r="E153" s="46"/>
+      <x:c r="F153" s="46"/>
+      <x:c r="G153" s="46"/>
+      <x:c r="H153" s="46"/>
+      <x:c r="I153" s="46"/>
+      <x:c r="J153" s="46"/>
+      <x:c r="K153" s="46"/>
+      <x:c r="L153" s="46"/>
+      <x:c r="M153" s="90"/>
+    </x:row>
+    <x:row r="154" spans="2:13">
+      <x:c r="B154" s="46" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="C154" s="46"/>
+      <x:c r="D154" s="46"/>
+      <x:c r="E154" s="46"/>
+      <x:c r="F154" s="46"/>
+      <x:c r="G154" s="46"/>
+      <x:c r="H154" s="46"/>
+      <x:c r="I154" s="46"/>
+      <x:c r="J154" s="46"/>
+      <x:c r="K154" s="46"/>
+      <x:c r="L154" s="46"/>
+      <x:c r="M154" s="46"/>
+    </x:row>
+    <x:row r="155" spans="2:13">
+      <x:c r="B155" s="46" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="C155" s="46"/>
+      <x:c r="D155" s="46"/>
+      <x:c r="E155" s="46"/>
+      <x:c r="F155" s="46"/>
+      <x:c r="G155" s="46"/>
+      <x:c r="H155" s="46"/>
+      <x:c r="I155" s="90"/>
+      <x:c r="J155" s="90"/>
+      <x:c r="K155" s="90"/>
+      <x:c r="L155" s="90"/>
+      <x:c r="M155" s="90"/>
+    </x:row>
+    <x:row r="156" spans="2:13">
+      <x:c r="B156" s="46" t="s">
+        <x:v>255</x:v>
+      </x:c>
+      <x:c r="C156" s="46"/>
+      <x:c r="D156" s="46"/>
+      <x:c r="E156" s="46"/>
+      <x:c r="F156" s="46"/>
+      <x:c r="G156" s="46"/>
+      <x:c r="H156" s="46"/>
+      <x:c r="I156" s="90"/>
+      <x:c r="J156" s="90"/>
+      <x:c r="K156" s="90"/>
+      <x:c r="L156" s="90"/>
+      <x:c r="M156" s="90"/>
+    </x:row>
+    <x:row r="157" spans="2:13">
+      <x:c r="B157" s="46" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="C157" s="46"/>
+      <x:c r="D157" s="46"/>
+      <x:c r="E157" s="46"/>
+      <x:c r="F157" s="46"/>
+      <x:c r="G157" s="46"/>
+      <x:c r="H157" s="46"/>
+      <x:c r="I157" s="46"/>
+      <x:c r="J157" s="46"/>
+      <x:c r="K157" s="46"/>
+      <x:c r="L157" s="90"/>
+      <x:c r="M157" s="90"/>
+    </x:row>
+    <x:row r="158" spans="2:13">
+      <x:c r="B158" s="46" t="s">
+        <x:v>250</x:v>
+      </x:c>
+      <x:c r="C158" s="46"/>
+      <x:c r="D158" s="46"/>
+      <x:c r="E158" s="46"/>
+      <x:c r="F158" s="46"/>
+      <x:c r="G158" s="46"/>
+      <x:c r="H158" s="46"/>
+      <x:c r="I158" s="46"/>
+      <x:c r="J158" s="46"/>
+      <x:c r="K158" s="46"/>
+      <x:c r="L158" s="46"/>
+      <x:c r="M158" s="46"/>
+    </x:row>
+    <x:row r="159" spans="2:13">
+      <x:c r="B159" s="46" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="C159" s="46"/>
+      <x:c r="D159" s="46"/>
+      <x:c r="E159" s="46"/>
+      <x:c r="F159" s="46"/>
+      <x:c r="G159" s="46"/>
+      <x:c r="H159" s="46"/>
+      <x:c r="I159" s="46"/>
+      <x:c r="J159" s="46"/>
+      <x:c r="K159" s="46"/>
+      <x:c r="L159" s="46"/>
+      <x:c r="M159" s="90"/>
+    </x:row>
+    <x:row r="160" spans="2:13">
+      <x:c r="B160" s="46" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="C160" s="46"/>
+      <x:c r="D160" s="46"/>
+      <x:c r="E160" s="46"/>
+      <x:c r="F160" s="46"/>
+      <x:c r="G160" s="46"/>
+      <x:c r="H160" s="46"/>
+      <x:c r="I160" s="46"/>
+      <x:c r="J160" s="46"/>
+      <x:c r="K160" s="46"/>
+      <x:c r="L160" s="46"/>
+      <x:c r="M160" s="46"/>
+    </x:row>
+    <x:row r="161" spans="2:13">
+      <x:c r="B161"/>
+      <x:c r="K161"/>
+      <x:c r="L161"/>
+      <x:c r="M161"/>
+    </x:row>
+    <x:row r="162" spans="2:15">
+      <x:c r="B162" s="45" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="C162" s="45"/>
+      <x:c r="K162"/>
+      <x:c r="L162"/>
+      <x:c r="M162"/>
+      <x:c r="O162"/>
+    </x:row>
+    <x:row r="163" spans="2:15">
+      <x:c r="B163"/>
+      <x:c r="K163"/>
+      <x:c r="L163"/>
+      <x:c r="M163"/>
+      <x:c r="O163"/>
+    </x:row>
+    <x:row r="164" spans="2:15">
+      <x:c r="B164"/>
+      <x:c r="K164"/>
+      <x:c r="L164"/>
+      <x:c r="M164"/>
+      <x:c r="O164"/>
+    </x:row>
+    <x:row r="165" spans="2:15">
+      <x:c r="B165"/>
+      <x:c r="K165"/>
+      <x:c r="L165"/>
+      <x:c r="M165"/>
+      <x:c r="O165"/>
+    </x:row>
+    <x:row r="166" spans="2:18">
+      <x:c r="B166"/>
+      <x:c r="K166" s="22" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="L166" s="41" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="M166" s="41"/>
+      <x:c r="N166" s="41"/>
+      <x:c r="O166" s="41"/>
+      <x:c r="P166" s="41" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="Q166" s="41"/>
+      <x:c r="R166" s="41"/>
+    </x:row>
+    <x:row r="167" spans="2:19">
+      <x:c r="B167"/>
+      <x:c r="K167" s="19">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L167" s="41" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="M167" s="41"/>
+      <x:c r="N167" s="41"/>
+      <x:c r="O167" s="41"/>
+      <x:c r="P167" s="41" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="Q167" s="41"/>
+      <x:c r="R167" s="41"/>
+      <x:c r="S167" t="s">
+        <x:v>158</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="168" spans="2:19">
+      <x:c r="B168"/>
+      <x:c r="K168" s="19">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L168" s="41" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="M168" s="41"/>
+      <x:c r="N168" s="41"/>
+      <x:c r="O168" s="41"/>
+      <x:c r="P168" s="41" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="Q168" s="41"/>
+      <x:c r="R168" s="41"/>
+      <x:c r="S168" t="s">
+        <x:v>163</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="169" spans="2:19">
+      <x:c r="B169"/>
+      <x:c r="K169" s="19">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L169" s="41" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="M169" s="41"/>
+      <x:c r="N169" s="41"/>
+      <x:c r="O169" s="41"/>
+      <x:c r="P169" s="41" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="Q169" s="41"/>
+      <x:c r="R169" s="41"/>
+      <x:c r="S169" t="s">
+        <x:v>158</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="170" spans="2:19">
+      <x:c r="B170"/>
+      <x:c r="K170" s="19">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L170" s="41" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="M170" s="41"/>
+      <x:c r="N170" s="41"/>
+      <x:c r="O170" s="41"/>
+      <x:c r="P170" s="41" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="Q170" s="41"/>
+      <x:c r="R170" s="41"/>
+      <x:c r="S170" t="s">
+        <x:v>158</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="171" spans="2:19">
+      <x:c r="B171"/>
+      <x:c r="K171" s="19">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="L171" s="41" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="M171" s="41"/>
+      <x:c r="N171" s="41"/>
+      <x:c r="O171" s="41"/>
+      <x:c r="P171" s="41" t="s">
         <x:v>133</x:v>
       </x:c>
-      <x:c r="L139" s="41" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="M139" s="41"/>
-      <x:c r="N139" s="41"/>
-      <x:c r="O139" s="41"/>
-      <x:c r="P139" s="41" t="s">
-        <x:v>166</x:v>
-      </x:c>
-      <x:c r="Q139" s="41"/>
-      <x:c r="R139" s="41"/>
-    </x:row>
-    <x:row r="140" spans="11:19">
-      <x:c r="K140" s="19">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="L140" s="41" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="M140" s="41"/>
-      <x:c r="N140" s="41"/>
-      <x:c r="O140" s="41"/>
-      <x:c r="P140" s="41" t="s">
-        <x:v>191</x:v>
-      </x:c>
-      <x:c r="Q140" s="41"/>
-      <x:c r="R140" s="41"/>
-      <x:c r="S140" s="1" t="s">
-        <x:v>131</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="141" spans="11:19">
-      <x:c r="K141" s="19">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="L141" s="41" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="M141" s="41"/>
-      <x:c r="N141" s="41"/>
-      <x:c r="O141" s="41"/>
-      <x:c r="P141" s="41" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="Q141" s="41"/>
-      <x:c r="R141" s="41"/>
-      <x:c r="S141" s="1" t="s">
-        <x:v>136</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="142" spans="11:19">
-      <x:c r="K142" s="19">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L142" s="41" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="M142" s="41"/>
-      <x:c r="N142" s="41"/>
-      <x:c r="O142" s="41"/>
-      <x:c r="P142" s="41" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="Q142" s="41"/>
-      <x:c r="R142" s="41"/>
-      <x:c r="S142" s="1" t="s">
-        <x:v>131</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="143" spans="11:19">
-      <x:c r="K143" s="19">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L143" s="41" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="M143" s="41"/>
-      <x:c r="N143" s="41"/>
-      <x:c r="O143" s="41"/>
-      <x:c r="P143" s="41" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="Q143" s="41"/>
-      <x:c r="R143" s="41"/>
-      <x:c r="S143" s="1" t="s">
-        <x:v>131</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="144" spans="11:19">
-      <x:c r="K144" s="19">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="L144" s="41" t="s">
+      <x:c r="Q171" s="41"/>
+      <x:c r="R171" s="41"/>
+      <x:c r="S171" t="s">
+        <x:v>158</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="172" spans="2:19">
+      <x:c r="B172"/>
+      <x:c r="K172" s="19">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="L172" s="41" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="M172" s="41"/>
+      <x:c r="N172" s="41"/>
+      <x:c r="O172" s="41"/>
+      <x:c r="P172" s="41" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="Q172" s="41"/>
+      <x:c r="R172" s="41"/>
+      <x:c r="S172" t="s">
+        <x:v>163</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="173" spans="2:19">
+      <x:c r="B173"/>
+      <x:c r="K173" s="19">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="L173" s="41" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="M173" s="41"/>
+      <x:c r="N173" s="41"/>
+      <x:c r="O173" s="41"/>
+      <x:c r="P173" s="41" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="Q173" s="41"/>
+      <x:c r="R173" s="41"/>
+      <x:c r="S173" t="s">
+        <x:v>163</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="174" spans="2:19">
+      <x:c r="B174"/>
+      <x:c r="K174" s="19">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="L174" s="41" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="M174" s="41"/>
+      <x:c r="N174" s="41"/>
+      <x:c r="O174" s="41"/>
+      <x:c r="P174" s="41" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="Q174" s="41"/>
+      <x:c r="R174" s="41"/>
+      <x:c r="S174" t="s">
+        <x:v>158</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="175" spans="2:15">
+      <x:c r="B175"/>
+      <x:c r="K175"/>
+      <x:c r="L175"/>
+      <x:c r="M175"/>
+      <x:c r="O175"/>
+    </x:row>
+    <x:row r="176" spans="2:15">
+      <x:c r="B176"/>
+      <x:c r="K176"/>
+      <x:c r="L176"/>
+      <x:c r="M176"/>
+      <x:c r="O176"/>
+    </x:row>
+    <x:row r="177" spans="2:15">
+      <x:c r="B177"/>
+      <x:c r="K177"/>
+      <x:c r="L177"/>
+      <x:c r="M177"/>
+      <x:c r="O177"/>
+    </x:row>
+    <x:row r="178" spans="2:15">
+      <x:c r="B178"/>
+      <x:c r="K178"/>
+      <x:c r="L178"/>
+      <x:c r="M178"/>
+      <x:c r="O178"/>
+    </x:row>
+    <x:row r="179" spans="2:15">
+      <x:c r="B179"/>
+      <x:c r="K179"/>
+      <x:c r="L179"/>
+      <x:c r="M179"/>
+      <x:c r="O179"/>
+    </x:row>
+    <x:row r="180" spans="2:17">
+      <x:c r="B180" s="45" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C180" s="45"/>
+      <x:c r="D180" s="45"/>
+      <x:c r="E180" s="45"/>
+      <x:c r="F180" s="45"/>
+      <x:c r="G180" s="45"/>
+      <x:c r="H180" s="45"/>
+      <x:c r="K180" s="45" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="L180" s="45"/>
+      <x:c r="M180" s="45"/>
+      <x:c r="N180" s="45"/>
+      <x:c r="O180" s="45"/>
+      <x:c r="P180" s="45"/>
+      <x:c r="Q180" s="45"/>
+    </x:row>
+    <x:row r="181" spans="2:17">
+      <x:c r="B181" s="45" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C181" s="45"/>
+      <x:c r="D181" s="45"/>
+      <x:c r="E181" s="45"/>
+      <x:c r="F181" s="45"/>
+      <x:c r="G181" s="45"/>
+      <x:c r="H181" s="45"/>
+      <x:c r="K181" s="45" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="L181" s="45"/>
+      <x:c r="M181" s="45"/>
+      <x:c r="N181" s="45"/>
+      <x:c r="O181" s="45"/>
+      <x:c r="P181" s="45"/>
+      <x:c r="Q181" s="45"/>
+    </x:row>
+    <x:row r="182" spans="2:17">
+      <x:c r="B182" s="45" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C182" s="45"/>
+      <x:c r="D182" s="45"/>
+      <x:c r="E182" s="45"/>
+      <x:c r="F182" s="45"/>
+      <x:c r="G182" s="45"/>
+      <x:c r="H182" s="45"/>
+      <x:c r="K182" s="45" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="L182" s="45"/>
+      <x:c r="M182" s="45"/>
+      <x:c r="N182" s="45"/>
+      <x:c r="O182" s="45"/>
+      <x:c r="P182" s="45"/>
+      <x:c r="Q182" s="45"/>
+    </x:row>
+    <x:row r="183" spans="2:17">
+      <x:c r="B183" s="45" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C183" s="45"/>
+      <x:c r="D183" s="45"/>
+      <x:c r="E183" s="45"/>
+      <x:c r="F183" s="45"/>
+      <x:c r="G183" s="45"/>
+      <x:c r="H183" s="45"/>
+      <x:c r="K183" s="45" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="L183" s="45"/>
+      <x:c r="M183" s="45"/>
+      <x:c r="N183" s="45"/>
+      <x:c r="O183" s="45"/>
+      <x:c r="P183" s="45"/>
+      <x:c r="Q183" s="45"/>
+    </x:row>
+    <x:row r="184" spans="2:15">
+      <x:c r="B184" s="45" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C184" s="45"/>
+      <x:c r="D184" s="45"/>
+      <x:c r="E184" s="45"/>
+      <x:c r="F184" s="45"/>
+      <x:c r="G184" s="45"/>
+      <x:c r="H184" s="45"/>
+      <x:c r="K184"/>
+      <x:c r="L184"/>
+      <x:c r="M184"/>
+      <x:c r="O184"/>
+    </x:row>
+    <x:row r="185" spans="2:15">
+      <x:c r="B185" s="45" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C185" s="45"/>
+      <x:c r="D185" s="45"/>
+      <x:c r="E185" s="45"/>
+      <x:c r="F185" s="45"/>
+      <x:c r="G185" s="45"/>
+      <x:c r="H185" s="45"/>
+      <x:c r="K185" s="21">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L185"/>
+      <x:c r="M185" s="21">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="O185" s="21">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="186" spans="2:15">
+      <x:c r="B186" s="45" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C186" s="45"/>
+      <x:c r="D186" s="45"/>
+      <x:c r="E186" s="45"/>
+      <x:c r="F186" s="45"/>
+      <x:c r="G186" s="45"/>
+      <x:c r="H186" s="45"/>
+      <x:c r="K186"/>
+      <x:c r="L186"/>
+      <x:c r="M186"/>
+      <x:c r="O186"/>
+    </x:row>
+    <x:row r="187" spans="2:15">
+      <x:c r="B187" s="45" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="M144" s="41"/>
-      <x:c r="N144" s="41"/>
-      <x:c r="O144" s="41"/>
-      <x:c r="P144" s="41" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="Q144" s="41"/>
-      <x:c r="R144" s="41"/>
-      <x:c r="S144" s="1" t="s">
-        <x:v>131</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="145" spans="11:19">
-      <x:c r="K145" s="19">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="L145" s="41" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="M145" s="41"/>
-      <x:c r="N145" s="41"/>
-      <x:c r="O145" s="41"/>
-      <x:c r="P145" s="41" t="s">
-        <x:v>167</x:v>
-      </x:c>
-      <x:c r="Q145" s="41"/>
-      <x:c r="R145" s="41"/>
-      <x:c r="S145" s="1" t="s">
-        <x:v>136</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="146" spans="11:19">
-      <x:c r="K146" s="19">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="L146" s="41" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="M146" s="41"/>
-      <x:c r="N146" s="41"/>
-      <x:c r="O146" s="41"/>
-      <x:c r="P146" s="41" t="s">
-        <x:v>184</x:v>
-      </x:c>
-      <x:c r="Q146" s="41"/>
-      <x:c r="R146" s="41"/>
-      <x:c r="S146" s="1" t="s">
-        <x:v>136</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="147" spans="11:19">
-      <x:c r="K147" s="19">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="L147" s="41" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="M147" s="41"/>
-      <x:c r="N147" s="41"/>
-      <x:c r="O147" s="41"/>
-      <x:c r="P147" s="41" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="Q147" s="41"/>
-      <x:c r="R147" s="41"/>
-      <x:c r="S147" s="1" t="s">
-        <x:v>131</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="153" spans="2:17">
-      <x:c r="B153" s="45" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C153" s="45"/>
-      <x:c r="D153" s="45"/>
-      <x:c r="E153" s="45"/>
-      <x:c r="F153" s="45"/>
-      <x:c r="G153" s="45"/>
-      <x:c r="H153" s="45"/>
-      <x:c r="K153" s="45" t="s">
-        <x:v>195</x:v>
-      </x:c>
-      <x:c r="L153" s="45"/>
-      <x:c r="M153" s="45"/>
-      <x:c r="N153" s="45"/>
-      <x:c r="O153" s="45"/>
-      <x:c r="P153" s="45"/>
-      <x:c r="Q153" s="45"/>
-    </x:row>
-    <x:row r="154" spans="2:17">
-      <x:c r="B154" s="45" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C154" s="45"/>
-      <x:c r="D154" s="45"/>
-      <x:c r="E154" s="45"/>
-      <x:c r="F154" s="45"/>
-      <x:c r="G154" s="45"/>
-      <x:c r="H154" s="45"/>
-      <x:c r="K154" s="45" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="L154" s="45"/>
-      <x:c r="M154" s="45"/>
-      <x:c r="N154" s="45"/>
-      <x:c r="O154" s="45"/>
-      <x:c r="P154" s="45"/>
-      <x:c r="Q154" s="45"/>
-    </x:row>
-    <x:row r="155" spans="2:17">
-      <x:c r="B155" s="45" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C155" s="45"/>
-      <x:c r="D155" s="45"/>
-      <x:c r="E155" s="45"/>
-      <x:c r="F155" s="45"/>
-      <x:c r="G155" s="45"/>
-      <x:c r="H155" s="45"/>
-      <x:c r="K155" s="45" t="s">
-        <x:v>199</x:v>
-      </x:c>
-      <x:c r="L155" s="45"/>
-      <x:c r="M155" s="45"/>
-      <x:c r="N155" s="45"/>
-      <x:c r="O155" s="45"/>
-      <x:c r="P155" s="45"/>
-      <x:c r="Q155" s="45"/>
-    </x:row>
-    <x:row r="156" spans="2:17">
-      <x:c r="B156" s="45" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C156" s="45"/>
-      <x:c r="D156" s="45"/>
-      <x:c r="E156" s="45"/>
-      <x:c r="F156" s="45"/>
-      <x:c r="G156" s="45"/>
-      <x:c r="H156" s="45"/>
-      <x:c r="K156" s="45" t="s">
-        <x:v>194</x:v>
-      </x:c>
-      <x:c r="L156" s="45"/>
-      <x:c r="M156" s="45"/>
-      <x:c r="N156" s="45"/>
-      <x:c r="O156" s="45"/>
-      <x:c r="P156" s="45"/>
-      <x:c r="Q156" s="45"/>
-    </x:row>
-    <x:row r="157" spans="2:8">
-      <x:c r="B157" s="45" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C157" s="45"/>
-      <x:c r="D157" s="45"/>
-      <x:c r="E157" s="45"/>
-      <x:c r="F157" s="45"/>
-      <x:c r="G157" s="45"/>
-      <x:c r="H157" s="45"/>
-    </x:row>
-    <x:row r="158" spans="2:15">
-      <x:c r="B158" s="45" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C158" s="45"/>
-      <x:c r="D158" s="45"/>
-      <x:c r="E158" s="45"/>
-      <x:c r="F158" s="45"/>
-      <x:c r="G158" s="45"/>
-      <x:c r="H158" s="45"/>
-      <x:c r="K158" s="21">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M158" s="21">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="O158" s="21">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="159" spans="2:8">
-      <x:c r="B159" s="45" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C159" s="45"/>
-      <x:c r="D159" s="45"/>
-      <x:c r="E159" s="45"/>
-      <x:c r="F159" s="45"/>
-      <x:c r="G159" s="45"/>
-      <x:c r="H159" s="45"/>
-    </x:row>
-    <x:row r="160" spans="2:8">
-      <x:c r="B160" s="45" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C160" s="45"/>
-      <x:c r="D160" s="45"/>
-      <x:c r="E160" s="45"/>
-      <x:c r="F160" s="45"/>
-      <x:c r="G160" s="45"/>
-      <x:c r="H160" s="45"/>
-    </x:row>
-    <x:row r="165" spans="2:3">
-      <x:c r="B165" s="45" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C165" s="45"/>
-    </x:row>
-    <x:row r="166" spans="2:8">
-      <x:c r="B166" s="45" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C166" s="45"/>
-      <x:c r="D166" s="45"/>
-      <x:c r="E166" s="45"/>
-      <x:c r="F166" s="45"/>
-      <x:c r="G166" s="45"/>
-      <x:c r="H166" s="45"/>
-    </x:row>
-    <x:row r="167" spans="2:8">
-      <x:c r="B167" s="45" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C167" s="45"/>
-      <x:c r="D167" s="45"/>
-      <x:c r="E167" s="45"/>
-      <x:c r="F167" s="45"/>
-      <x:c r="G167" s="45"/>
-      <x:c r="H167" s="45"/>
-    </x:row>
-    <x:row r="168" spans="2:8">
-      <x:c r="B168" s="45" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C168" s="45"/>
-      <x:c r="D168" s="45"/>
-      <x:c r="E168" s="45"/>
-      <x:c r="F168" s="45"/>
-      <x:c r="G168" s="45"/>
-      <x:c r="H168" s="45"/>
-    </x:row>
-    <x:row r="169" spans="2:8">
-      <x:c r="B169" s="45" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="C169" s="45"/>
-      <x:c r="D169" s="45"/>
-      <x:c r="E169" s="45"/>
-      <x:c r="F169" s="45"/>
-      <x:c r="G169" s="45"/>
-      <x:c r="H169" s="45"/>
-    </x:row>
-    <x:row r="171" spans="2:3">
-      <x:c r="B171" s="45" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="C171" s="45"/>
-    </x:row>
-    <x:row r="172" spans="2:8">
-      <x:c r="B172" s="45"/>
-      <x:c r="C172" s="45"/>
-      <x:c r="D172" s="45"/>
-      <x:c r="E172" s="45"/>
-      <x:c r="F172" s="45"/>
-      <x:c r="G172" s="45"/>
-      <x:c r="H172" s="45"/>
+      <x:c r="C187" s="45"/>
+      <x:c r="D187" s="45"/>
+      <x:c r="E187" s="45"/>
+      <x:c r="F187" s="45"/>
+      <x:c r="G187" s="45"/>
+      <x:c r="H187" s="45"/>
+      <x:c r="K187"/>
+      <x:c r="L187"/>
+      <x:c r="M187"/>
+      <x:c r="O187"/>
+    </x:row>
+    <x:row r="188" spans="2:15">
+      <x:c r="B188"/>
+      <x:c r="K188"/>
+      <x:c r="L188"/>
+      <x:c r="M188"/>
+      <x:c r="O188"/>
+    </x:row>
+    <x:row r="189" spans="2:15">
+      <x:c r="B189"/>
+      <x:c r="K189"/>
+      <x:c r="L189"/>
+      <x:c r="M189"/>
+      <x:c r="O189"/>
+    </x:row>
+    <x:row r="190" spans="2:15">
+      <x:c r="B190"/>
+      <x:c r="K190"/>
+      <x:c r="L190"/>
+      <x:c r="M190"/>
+      <x:c r="O190"/>
+    </x:row>
+    <x:row r="191" spans="2:15">
+      <x:c r="B191"/>
+      <x:c r="K191"/>
+      <x:c r="L191"/>
+      <x:c r="M191"/>
+      <x:c r="O191"/>
+    </x:row>
+    <x:row r="192" spans="2:15">
+      <x:c r="B192"/>
+      <x:c r="K192"/>
+      <x:c r="L192"/>
+      <x:c r="M192"/>
+      <x:c r="O192"/>
+    </x:row>
+    <x:row r="193" spans="2:15">
+      <x:c r="B193" s="45" t="s">
+        <x:v>251</x:v>
+      </x:c>
+      <x:c r="C193" s="45"/>
+      <x:c r="K193"/>
+      <x:c r="L193"/>
+      <x:c r="M193"/>
+      <x:c r="O193"/>
+    </x:row>
+    <x:row r="194" spans="2:15">
+      <x:c r="B194" s="45" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="C194" s="45"/>
+      <x:c r="D194" s="45"/>
+      <x:c r="E194" s="45"/>
+      <x:c r="F194" s="45"/>
+      <x:c r="G194" s="45"/>
+      <x:c r="H194" s="45"/>
+      <x:c r="K194"/>
+      <x:c r="L194"/>
+      <x:c r="M194"/>
+      <x:c r="O194"/>
+    </x:row>
+    <x:row r="195" spans="2:15">
+      <x:c r="B195" s="45" t="s">
+        <x:v>242</x:v>
+      </x:c>
+      <x:c r="C195" s="45"/>
+      <x:c r="D195" s="45"/>
+      <x:c r="E195" s="45"/>
+      <x:c r="F195" s="45"/>
+      <x:c r="G195" s="45"/>
+      <x:c r="H195" s="45"/>
+      <x:c r="K195"/>
+      <x:c r="L195"/>
+      <x:c r="M195"/>
+      <x:c r="O195"/>
+    </x:row>
+    <x:row r="196" spans="2:15">
+      <x:c r="B196" s="45"/>
+      <x:c r="C196" s="45"/>
+      <x:c r="D196" s="45"/>
+      <x:c r="E196" s="45"/>
+      <x:c r="F196" s="45"/>
+      <x:c r="G196" s="45"/>
+      <x:c r="H196" s="45"/>
+      <x:c r="K196"/>
+      <x:c r="L196"/>
+      <x:c r="M196"/>
+      <x:c r="O196"/>
+    </x:row>
+    <x:row r="197" spans="11:15">
+      <x:c r="K197"/>
+      <x:c r="L197"/>
+      <x:c r="M197"/>
+      <x:c r="O197"/>
+    </x:row>
+    <x:row r="198" spans="11:15">
+      <x:c r="K198"/>
+      <x:c r="L198"/>
+      <x:c r="M198"/>
+      <x:c r="O198"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="143">
+  <x:mergeCells count="175">
     <x:mergeCell ref="L7:M7"/>
     <x:mergeCell ref="L8:M8"/>
     <x:mergeCell ref="L9:M9"/>
@@ -4442,44 +5339,6 @@
     <x:mergeCell ref="L118:M118"/>
     <x:mergeCell ref="N118:P118"/>
     <x:mergeCell ref="B132:H132"/>
-    <x:mergeCell ref="B135:C135"/>
-    <x:mergeCell ref="L140:O140"/>
-    <x:mergeCell ref="L141:O141"/>
-    <x:mergeCell ref="L142:O142"/>
-    <x:mergeCell ref="L139:O139"/>
-    <x:mergeCell ref="P139:R139"/>
-    <x:mergeCell ref="P140:R140"/>
-    <x:mergeCell ref="P141:R141"/>
-    <x:mergeCell ref="P142:R142"/>
-    <x:mergeCell ref="L144:O144"/>
-    <x:mergeCell ref="L145:O145"/>
-    <x:mergeCell ref="L146:O146"/>
-    <x:mergeCell ref="L143:O143"/>
-    <x:mergeCell ref="P143:R143"/>
-    <x:mergeCell ref="P144:R144"/>
-    <x:mergeCell ref="P145:R145"/>
-    <x:mergeCell ref="P146:R146"/>
-    <x:mergeCell ref="L147:O147"/>
-    <x:mergeCell ref="P147:R147"/>
-    <x:mergeCell ref="B153:H153"/>
-    <x:mergeCell ref="B154:H154"/>
-    <x:mergeCell ref="B155:H155"/>
-    <x:mergeCell ref="B156:H156"/>
-    <x:mergeCell ref="B157:H157"/>
-    <x:mergeCell ref="B158:H158"/>
-    <x:mergeCell ref="B159:H159"/>
-    <x:mergeCell ref="B160:H160"/>
-    <x:mergeCell ref="K153:Q153"/>
-    <x:mergeCell ref="K154:Q154"/>
-    <x:mergeCell ref="K155:Q155"/>
-    <x:mergeCell ref="K156:Q156"/>
-    <x:mergeCell ref="B165:C165"/>
-    <x:mergeCell ref="B166:H166"/>
-    <x:mergeCell ref="B167:H167"/>
-    <x:mergeCell ref="B168:H168"/>
-    <x:mergeCell ref="B171:C171"/>
-    <x:mergeCell ref="B169:H169"/>
-    <x:mergeCell ref="B172:H172"/>
     <x:mergeCell ref="B63:L63"/>
     <x:mergeCell ref="R38:U38"/>
     <x:mergeCell ref="R39:U39"/>
@@ -4488,6 +5347,76 @@
     <x:mergeCell ref="B24:N24"/>
     <x:mergeCell ref="L77:T77"/>
     <x:mergeCell ref="L79:T79"/>
+    <x:mergeCell ref="K59:M59"/>
+    <x:mergeCell ref="S60:U60"/>
+    <x:mergeCell ref="S61:U61"/>
+    <x:mergeCell ref="S62:U62"/>
+    <x:mergeCell ref="C134:E134"/>
+    <x:mergeCell ref="L137:N137"/>
+    <x:mergeCell ref="L138:N138"/>
+    <x:mergeCell ref="L139:N139"/>
+    <x:mergeCell ref="L140:N140"/>
+    <x:mergeCell ref="L141:N141"/>
+    <x:mergeCell ref="L142:N142"/>
+    <x:mergeCell ref="L143:N143"/>
+    <x:mergeCell ref="L144:N144"/>
+    <x:mergeCell ref="L145:N145"/>
+    <x:mergeCell ref="O137:P137"/>
+    <x:mergeCell ref="O138:P138"/>
+    <x:mergeCell ref="O139:P139"/>
+    <x:mergeCell ref="O140:P140"/>
+    <x:mergeCell ref="O141:P141"/>
+    <x:mergeCell ref="O142:P142"/>
+    <x:mergeCell ref="O143:P143"/>
+    <x:mergeCell ref="O144:P144"/>
+    <x:mergeCell ref="O145:P145"/>
+    <x:mergeCell ref="L136:N136"/>
+    <x:mergeCell ref="O136:P136"/>
+    <x:mergeCell ref="B155:H155"/>
+    <x:mergeCell ref="B156:H156"/>
+    <x:mergeCell ref="B157:K157"/>
+    <x:mergeCell ref="B158:M158"/>
+    <x:mergeCell ref="B154:M154"/>
+    <x:mergeCell ref="B152:M152"/>
+    <x:mergeCell ref="B153:L153"/>
+    <x:mergeCell ref="B159:L159"/>
+    <x:mergeCell ref="K147:Q147"/>
+    <x:mergeCell ref="B160:M160"/>
+    <x:mergeCell ref="B162:C162"/>
+    <x:mergeCell ref="L167:O167"/>
+    <x:mergeCell ref="L168:O168"/>
+    <x:mergeCell ref="L169:O169"/>
+    <x:mergeCell ref="L166:O166"/>
+    <x:mergeCell ref="P166:R166"/>
+    <x:mergeCell ref="P167:R167"/>
+    <x:mergeCell ref="P168:R168"/>
+    <x:mergeCell ref="P169:R169"/>
+    <x:mergeCell ref="L171:O171"/>
+    <x:mergeCell ref="L172:O172"/>
+    <x:mergeCell ref="L173:O173"/>
+    <x:mergeCell ref="L170:O170"/>
+    <x:mergeCell ref="P170:R170"/>
+    <x:mergeCell ref="P171:R171"/>
+    <x:mergeCell ref="P172:R172"/>
+    <x:mergeCell ref="P173:R173"/>
+    <x:mergeCell ref="L174:O174"/>
+    <x:mergeCell ref="P174:R174"/>
+    <x:mergeCell ref="B180:H180"/>
+    <x:mergeCell ref="B181:H181"/>
+    <x:mergeCell ref="B182:H182"/>
+    <x:mergeCell ref="B183:H183"/>
+    <x:mergeCell ref="B184:H184"/>
+    <x:mergeCell ref="B185:H185"/>
+    <x:mergeCell ref="B186:H186"/>
+    <x:mergeCell ref="B187:H187"/>
+    <x:mergeCell ref="K180:Q180"/>
+    <x:mergeCell ref="K181:Q181"/>
+    <x:mergeCell ref="K182:Q182"/>
+    <x:mergeCell ref="K183:Q183"/>
+    <x:mergeCell ref="B193:C193"/>
+    <x:mergeCell ref="B194:H194"/>
+    <x:mergeCell ref="B195:H195"/>
+    <x:mergeCell ref="B196:H196"/>
   </x:mergeCells>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -4500,20 +5429,20 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="A1:AN100"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" topLeftCell="A55" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="Y59" activeCellId="0" sqref="Y59:Z60"/>
+    <x:sheetView showGridLines="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="B11" activeCellId="0" sqref="B11:J11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="13" t="s">
-        <x:v>150</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="2:6">
       <x:c r="B2" s="49" t="s">
-        <x:v>96</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C2" s="49"/>
       <x:c r="D2" s="49"/>
@@ -4529,7 +5458,7 @@
     </x:row>
     <x:row r="4" spans="2:10">
       <x:c r="B4" s="45" t="s">
-        <x:v>7</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C4" s="45"/>
       <x:c r="D4" s="45"/>
@@ -4542,7 +5471,7 @@
     </x:row>
     <x:row r="5" spans="2:10">
       <x:c r="B5" s="45" t="s">
-        <x:v>15</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C5" s="45"/>
       <x:c r="D5" s="45"/>
@@ -4555,7 +5484,7 @@
     </x:row>
     <x:row r="6" spans="2:10">
       <x:c r="B6" s="45" t="s">
-        <x:v>74</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C6" s="45"/>
       <x:c r="D6" s="45"/>
@@ -4579,7 +5508,7 @@
     </x:row>
     <x:row r="9" spans="2:10">
       <x:c r="B9" s="45" t="s">
-        <x:v>12</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C9" s="45"/>
       <x:c r="D9" s="45"/>
@@ -4592,7 +5521,7 @@
     </x:row>
     <x:row r="11" spans="2:10">
       <x:c r="B11" s="45" t="s">
-        <x:v>14</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C11" s="45"/>
       <x:c r="D11" s="45"/>
@@ -4607,7 +5536,7 @@
       <x:c r="S19" s="33"/>
       <x:c r="T19" s="34"/>
       <x:c r="U19" s="67" t="s">
-        <x:v>151</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="V19" s="68"/>
       <x:c r="W19" s="68"/>
@@ -4615,7 +5544,7 @@
       <x:c r="AA19" s="33"/>
       <x:c r="AB19" s="34"/>
       <x:c r="AC19" s="67" t="s">
-        <x:v>83</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="AD19" s="68"/>
       <x:c r="AE19" s="68"/>
@@ -4623,7 +5552,7 @@
       <x:c r="AI19" s="33"/>
       <x:c r="AJ19" s="34"/>
       <x:c r="AK19" s="67" t="s">
-        <x:v>78</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="AL19" s="68"/>
       <x:c r="AM19" s="68"/>
@@ -4653,7 +5582,7 @@
       <x:c r="S21" s="35"/>
       <x:c r="T21" s="36"/>
       <x:c r="U21" s="72" t="s">
-        <x:v>145</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="V21" s="72"/>
       <x:c r="W21" s="72"/>
@@ -4661,7 +5590,7 @@
       <x:c r="AA21" s="35"/>
       <x:c r="AB21" s="36"/>
       <x:c r="AC21" s="72" t="s">
-        <x:v>198</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="AD21" s="72"/>
       <x:c r="AE21" s="72"/>
@@ -4669,7 +5598,7 @@
       <x:c r="AI21" s="35"/>
       <x:c r="AJ21" s="36"/>
       <x:c r="AK21" s="72" t="s">
-        <x:v>198</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="AL21" s="72"/>
       <x:c r="AM21" s="72"/>
@@ -4697,7 +5626,7 @@
     </x:row>
     <x:row r="23" spans="19:40">
       <x:c r="S23" s="62" t="s">
-        <x:v>109</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="T23" s="58"/>
       <x:c r="U23" s="36"/>
@@ -4705,13 +5634,13 @@
       <x:c r="W23" s="36"/>
       <x:c r="X23" s="37"/>
       <x:c r="Y23" s="74" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="Z23" s="59" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AA23" s="62" t="s">
-        <x:v>79</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="AB23" s="58"/>
       <x:c r="AC23" s="36"/>
@@ -4719,13 +5648,13 @@
       <x:c r="AE23" s="36"/>
       <x:c r="AF23" s="37"/>
       <x:c r="AG23" s="74" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AH23" s="59" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AI23" s="62" t="s">
-        <x:v>80</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="AJ23" s="58"/>
       <x:c r="AK23" s="36"/>
@@ -4741,10 +5670,10 @@
       <x:c r="W24" s="36"/>
       <x:c r="X24" s="37"/>
       <x:c r="Y24" s="75" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="Z24" s="59" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AA24" s="63"/>
       <x:c r="AB24" s="64"/>
@@ -4753,10 +5682,10 @@
       <x:c r="AE24" s="36"/>
       <x:c r="AF24" s="37"/>
       <x:c r="AG24" s="75" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AH24" s="59" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AI24" s="63"/>
       <x:c r="AJ24" s="64"/>
@@ -4827,10 +5756,10 @@
     </x:row>
     <x:row r="28" spans="17:40">
       <x:c r="Q28" s="76" t="s">
-        <x:v>129</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="R28" s="45" t="s">
-        <x:v>129</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="S28" s="38"/>
       <x:c r="T28" s="39"/>
@@ -4853,25 +5782,25 @@
     </x:row>
     <x:row r="29" spans="17:18">
       <x:c r="Q29" s="45" t="s">
-        <x:v>129</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="R29" s="45" t="s">
-        <x:v>129</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="17:18">
       <x:c r="Q30" s="45" t="s">
-        <x:v>129</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="R30" s="45" t="s">
-        <x:v>129</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="11:40">
       <x:c r="K31" s="27"/>
       <x:c r="L31" s="28"/>
       <x:c r="M31" s="56" t="s">
-        <x:v>119</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="N31" s="57"/>
       <x:c r="O31" s="57"/>
@@ -4879,7 +5808,7 @@
       <x:c r="S31" s="33"/>
       <x:c r="T31" s="34"/>
       <x:c r="U31" s="67" t="s">
-        <x:v>120</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="V31" s="68"/>
       <x:c r="W31" s="68"/>
@@ -4887,7 +5816,7 @@
       <x:c r="AA31" s="33"/>
       <x:c r="AB31" s="34"/>
       <x:c r="AC31" s="67" t="s">
-        <x:v>62</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="AD31" s="68"/>
       <x:c r="AE31" s="68"/>
@@ -4895,7 +5824,7 @@
       <x:c r="AI31" s="33"/>
       <x:c r="AJ31" s="34"/>
       <x:c r="AK31" s="67" t="s">
-        <x:v>149</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="AL31" s="68"/>
       <x:c r="AM31" s="68"/>
@@ -4931,7 +5860,7 @@
       <x:c r="K33" s="29"/>
       <x:c r="L33" s="20"/>
       <x:c r="M33" s="60" t="s">
-        <x:v>20</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="N33" s="60"/>
       <x:c r="O33" s="60"/>
@@ -4939,7 +5868,7 @@
       <x:c r="S33" s="35"/>
       <x:c r="T33" s="36"/>
       <x:c r="U33" s="72" t="s">
-        <x:v>140</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="V33" s="72"/>
       <x:c r="W33" s="72"/>
@@ -4947,7 +5876,7 @@
       <x:c r="AA33" s="35"/>
       <x:c r="AB33" s="36"/>
       <x:c r="AC33" s="72" t="s">
-        <x:v>52</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="AD33" s="72"/>
       <x:c r="AE33" s="72"/>
@@ -4955,7 +5884,7 @@
       <x:c r="AI33" s="35"/>
       <x:c r="AJ33" s="36"/>
       <x:c r="AK33" s="72" t="s">
-        <x:v>92</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="AL33" s="72"/>
       <x:c r="AM33" s="72"/>
@@ -4989,7 +5918,7 @@
     </x:row>
     <x:row r="35" spans="11:40">
       <x:c r="K35" s="62" t="s">
-        <x:v>181</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L35" s="58"/>
       <x:c r="M35" s="20"/>
@@ -4997,13 +5926,13 @@
       <x:c r="O35" s="20"/>
       <x:c r="P35" s="26"/>
       <x:c r="Q35" s="74" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="R35" s="59" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="S35" s="62" t="s">
-        <x:v>65</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="T35" s="58"/>
       <x:c r="U35" s="36"/>
@@ -5011,13 +5940,13 @@
       <x:c r="W35" s="36"/>
       <x:c r="X35" s="37"/>
       <x:c r="Y35" s="74" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="Z35" s="59" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AA35" s="62" t="s">
-        <x:v>68</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="AB35" s="58"/>
       <x:c r="AC35" s="36"/>
@@ -5025,13 +5954,13 @@
       <x:c r="AE35" s="36"/>
       <x:c r="AF35" s="37"/>
       <x:c r="AG35" s="74" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AH35" s="59" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AI35" s="62" t="s">
-        <x:v>82</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="AJ35" s="58"/>
       <x:c r="AK35" s="36"/>
@@ -5047,10 +5976,10 @@
       <x:c r="O36" s="20"/>
       <x:c r="P36" s="26"/>
       <x:c r="Q36" s="75" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="R36" s="59" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="S36" s="63"/>
       <x:c r="T36" s="64"/>
@@ -5059,10 +5988,10 @@
       <x:c r="W36" s="36"/>
       <x:c r="X36" s="37"/>
       <x:c r="Y36" s="75" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="Z36" s="59" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AA36" s="63"/>
       <x:c r="AB36" s="64"/>
@@ -5071,10 +6000,10 @@
       <x:c r="AE36" s="36"/>
       <x:c r="AF36" s="37"/>
       <x:c r="AG36" s="75" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AH36" s="59" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AI36" s="63"/>
       <x:c r="AJ36" s="64"/>
@@ -5189,18 +6118,18 @@
     </x:row>
     <x:row r="41" spans="17:18">
       <x:c r="Q41" s="76" t="s">
-        <x:v>135</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="R41" s="45" t="s">
-        <x:v>135</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="17:18">
       <x:c r="Q42" s="45" t="s">
-        <x:v>135</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="R42" s="45" t="s">
-        <x:v>135</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="13:40">
@@ -5213,7 +6142,7 @@
       <x:c r="S43" s="33"/>
       <x:c r="T43" s="34"/>
       <x:c r="U43" s="67" t="s">
-        <x:v>163</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="V43" s="68"/>
       <x:c r="W43" s="68"/>
@@ -5221,7 +6150,7 @@
       <x:c r="AA43" s="33"/>
       <x:c r="AB43" s="34"/>
       <x:c r="AC43" s="67" t="s">
-        <x:v>173</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="AD43" s="68"/>
       <x:c r="AE43" s="68"/>
@@ -5229,7 +6158,7 @@
       <x:c r="AI43" s="33"/>
       <x:c r="AJ43" s="34"/>
       <x:c r="AK43" s="67" t="s">
-        <x:v>179</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="AL43" s="68"/>
       <x:c r="AM43" s="68"/>
@@ -5271,7 +6200,7 @@
       <x:c r="S45" s="35"/>
       <x:c r="T45" s="36"/>
       <x:c r="U45" s="72" t="s">
-        <x:v>141</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="V45" s="72"/>
       <x:c r="W45" s="72"/>
@@ -5279,7 +6208,7 @@
       <x:c r="AA45" s="35"/>
       <x:c r="AB45" s="36"/>
       <x:c r="AC45" s="72" t="s">
-        <x:v>202</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="AD45" s="72"/>
       <x:c r="AE45" s="72"/>
@@ -5287,7 +6216,7 @@
       <x:c r="AI45" s="35"/>
       <x:c r="AJ45" s="36"/>
       <x:c r="AK45" s="72" t="s">
-        <x:v>202</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="AL45" s="72"/>
       <x:c r="AM45" s="72"/>
@@ -5321,10 +6250,10 @@
     </x:row>
     <x:row r="47" spans="9:40">
       <x:c r="I47" s="76" t="s">
-        <x:v>129</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="J47" s="45" t="s">
-        <x:v>129</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="M47" s="66"/>
       <x:c r="N47" s="45"/>
@@ -5333,7 +6262,7 @@
       <x:c r="Q47" s="20"/>
       <x:c r="R47" s="20"/>
       <x:c r="S47" s="62" t="s">
-        <x:v>109</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="T47" s="58"/>
       <x:c r="U47" s="36"/>
@@ -5341,13 +6270,13 @@
       <x:c r="W47" s="36"/>
       <x:c r="X47" s="37"/>
       <x:c r="Y47" s="74" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="Z47" s="59" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AA47" s="62" t="s">
-        <x:v>79</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="AB47" s="58"/>
       <x:c r="AC47" s="36"/>
@@ -5355,13 +6284,13 @@
       <x:c r="AE47" s="36"/>
       <x:c r="AF47" s="37"/>
       <x:c r="AG47" s="74" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AH47" s="59" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AI47" s="62" t="s">
-        <x:v>80</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="AJ47" s="58"/>
       <x:c r="AK47" s="36"/>
@@ -5371,10 +6300,10 @@
     </x:row>
     <x:row r="48" spans="9:40">
       <x:c r="I48" s="45" t="s">
-        <x:v>129</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="J48" s="45" t="s">
-        <x:v>129</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="M48" s="45"/>
       <x:c r="N48" s="45"/>
@@ -5389,10 +6318,10 @@
       <x:c r="W48" s="36"/>
       <x:c r="X48" s="37"/>
       <x:c r="Y48" s="75" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="Z48" s="59" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AA48" s="63"/>
       <x:c r="AB48" s="64"/>
@@ -5401,10 +6330,10 @@
       <x:c r="AE48" s="36"/>
       <x:c r="AF48" s="37"/>
       <x:c r="AG48" s="75" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AH48" s="59" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AI48" s="63"/>
       <x:c r="AJ48" s="64"/>
@@ -5415,10 +6344,10 @@
     </x:row>
     <x:row r="49" spans="9:40">
       <x:c r="I49" s="45" t="s">
-        <x:v>129</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="J49" s="45" t="s">
-        <x:v>129</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="M49" s="20"/>
       <x:c r="N49" s="20"/>
@@ -5527,7 +6456,7 @@
       <x:c r="C55" s="27"/>
       <x:c r="D55" s="28"/>
       <x:c r="E55" s="56" t="s">
-        <x:v>177</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F55" s="57"/>
       <x:c r="G55" s="57"/>
@@ -5535,7 +6464,7 @@
       <x:c r="K55" s="27"/>
       <x:c r="L55" s="28"/>
       <x:c r="M55" s="56" t="s">
-        <x:v>159</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="N55" s="57"/>
       <x:c r="O55" s="57"/>
@@ -5543,7 +6472,7 @@
       <x:c r="S55" s="33"/>
       <x:c r="T55" s="34"/>
       <x:c r="U55" s="67" t="s">
-        <x:v>123</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="V55" s="68"/>
       <x:c r="W55" s="68"/>
@@ -5551,7 +6480,7 @@
       <x:c r="AA55" s="33"/>
       <x:c r="AB55" s="34"/>
       <x:c r="AC55" s="67" t="s">
-        <x:v>122</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="AD55" s="68"/>
       <x:c r="AE55" s="68"/>
@@ -5559,7 +6488,7 @@
       <x:c r="AI55" s="33"/>
       <x:c r="AJ55" s="34"/>
       <x:c r="AK55" s="67" t="s">
-        <x:v>149</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="AL55" s="68"/>
       <x:c r="AM55" s="68"/>
@@ -5601,7 +6530,7 @@
       <x:c r="C57" s="29"/>
       <x:c r="D57" s="20"/>
       <x:c r="E57" s="60" t="s">
-        <x:v>26</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F57" s="60"/>
       <x:c r="G57" s="60"/>
@@ -5609,7 +6538,7 @@
       <x:c r="K57" s="29"/>
       <x:c r="L57" s="20"/>
       <x:c r="M57" s="60" t="s">
-        <x:v>89</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="N57" s="60"/>
       <x:c r="O57" s="60"/>
@@ -5617,7 +6546,7 @@
       <x:c r="S57" s="35"/>
       <x:c r="T57" s="36"/>
       <x:c r="U57" s="72" t="s">
-        <x:v>97</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="V57" s="72"/>
       <x:c r="W57" s="72"/>
@@ -5625,7 +6554,7 @@
       <x:c r="AA57" s="35"/>
       <x:c r="AB57" s="36"/>
       <x:c r="AC57" s="72" t="s">
-        <x:v>102</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="AD57" s="72"/>
       <x:c r="AE57" s="72"/>
@@ -5633,7 +6562,7 @@
       <x:c r="AI57" s="35"/>
       <x:c r="AJ57" s="36"/>
       <x:c r="AK57" s="72" t="s">
-        <x:v>85</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="AL57" s="72"/>
       <x:c r="AM57" s="72"/>
@@ -5679,13 +6608,13 @@
       <x:c r="G59" s="20"/>
       <x:c r="H59" s="25"/>
       <x:c r="I59" s="74" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="J59" s="59" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="K59" s="62" t="s">
-        <x:v>181</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L59" s="58"/>
       <x:c r="M59" s="20"/>
@@ -5693,13 +6622,13 @@
       <x:c r="O59" s="20"/>
       <x:c r="P59" s="26"/>
       <x:c r="Q59" s="74" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="R59" s="59" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="S59" s="62" t="s">
-        <x:v>65</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="T59" s="58"/>
       <x:c r="U59" s="36"/>
@@ -5707,13 +6636,13 @@
       <x:c r="W59" s="36"/>
       <x:c r="X59" s="37"/>
       <x:c r="Y59" s="74" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="Z59" s="59" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AA59" s="62" t="s">
-        <x:v>68</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="AB59" s="58"/>
       <x:c r="AC59" s="36"/>
@@ -5721,13 +6650,13 @@
       <x:c r="AE59" s="36"/>
       <x:c r="AF59" s="37"/>
       <x:c r="AG59" s="74" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AH59" s="59" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AI59" s="62" t="s">
-        <x:v>82</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="AJ59" s="58"/>
       <x:c r="AK59" s="36"/>
@@ -5743,10 +6672,10 @@
       <x:c r="G60" s="20"/>
       <x:c r="H60" s="25"/>
       <x:c r="I60" s="75" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="J60" s="59" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="K60" s="63"/>
       <x:c r="L60" s="64"/>
@@ -5755,10 +6684,10 @@
       <x:c r="O60" s="20"/>
       <x:c r="P60" s="26"/>
       <x:c r="Q60" s="75" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="R60" s="59" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="S60" s="63"/>
       <x:c r="T60" s="64"/>
@@ -5767,10 +6696,10 @@
       <x:c r="W60" s="36"/>
       <x:c r="X60" s="37"/>
       <x:c r="Y60" s="75" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="Z60" s="59" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AA60" s="63"/>
       <x:c r="AB60" s="64"/>
@@ -5779,10 +6708,10 @@
       <x:c r="AE60" s="36"/>
       <x:c r="AF60" s="37"/>
       <x:c r="AG60" s="75" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AH60" s="59" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AI60" s="63"/>
       <x:c r="AJ60" s="64"/>
@@ -5921,25 +6850,25 @@
     </x:row>
     <x:row r="65" spans="17:18">
       <x:c r="Q65" s="76" t="s">
-        <x:v>135</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="R65" s="45" t="s">
-        <x:v>135</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="17:18">
       <x:c r="Q66" s="45" t="s">
-        <x:v>135</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="R66" s="45" t="s">
-        <x:v>135</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="19:40">
       <x:c r="S67" s="33"/>
       <x:c r="T67" s="34"/>
       <x:c r="U67" s="67" t="s">
-        <x:v>154</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="V67" s="68"/>
       <x:c r="W67" s="68"/>
@@ -5947,7 +6876,7 @@
       <x:c r="AA67" s="33"/>
       <x:c r="AB67" s="34"/>
       <x:c r="AC67" s="67" t="s">
-        <x:v>155</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="AD67" s="68"/>
       <x:c r="AE67" s="68"/>
@@ -5955,7 +6884,7 @@
       <x:c r="AI67" s="33"/>
       <x:c r="AJ67" s="34"/>
       <x:c r="AK67" s="67" t="s">
-        <x:v>162</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="AL67" s="68"/>
       <x:c r="AM67" s="68"/>
@@ -5985,7 +6914,7 @@
       <x:c r="S69" s="35"/>
       <x:c r="T69" s="36"/>
       <x:c r="U69" s="72" t="s">
-        <x:v>143</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="V69" s="72"/>
       <x:c r="W69" s="72"/>
@@ -5993,7 +6922,7 @@
       <x:c r="AA69" s="35"/>
       <x:c r="AB69" s="36"/>
       <x:c r="AC69" s="72" t="s">
-        <x:v>192</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="AD69" s="72"/>
       <x:c r="AE69" s="72"/>
@@ -6001,7 +6930,7 @@
       <x:c r="AI69" s="35"/>
       <x:c r="AJ69" s="36"/>
       <x:c r="AK69" s="72" t="s">
-        <x:v>192</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="AL69" s="72"/>
       <x:c r="AM69" s="72"/>
@@ -6029,13 +6958,13 @@
     </x:row>
     <x:row r="71" spans="9:40">
       <x:c r="I71" s="76" t="s">
-        <x:v>135</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="J71" s="45" t="s">
-        <x:v>135</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="S71" s="62" t="s">
-        <x:v>109</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="T71" s="58"/>
       <x:c r="U71" s="36"/>
@@ -6043,13 +6972,13 @@
       <x:c r="W71" s="36"/>
       <x:c r="X71" s="37"/>
       <x:c r="Y71" s="74" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="Z71" s="59" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AA71" s="62" t="s">
-        <x:v>79</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="AB71" s="58"/>
       <x:c r="AC71" s="36"/>
@@ -6057,13 +6986,13 @@
       <x:c r="AE71" s="36"/>
       <x:c r="AF71" s="37"/>
       <x:c r="AG71" s="74" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AH71" s="59" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AI71" s="62" t="s">
-        <x:v>80</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="AJ71" s="58"/>
       <x:c r="AK71" s="36"/>
@@ -6073,10 +7002,10 @@
     </x:row>
     <x:row r="72" spans="9:40">
       <x:c r="I72" s="45" t="s">
-        <x:v>135</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="J72" s="45" t="s">
-        <x:v>135</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="S72" s="63"/>
       <x:c r="T72" s="64"/>
@@ -6085,10 +7014,10 @@
       <x:c r="W72" s="36"/>
       <x:c r="X72" s="37"/>
       <x:c r="Y72" s="75" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="Z72" s="59" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AA72" s="63"/>
       <x:c r="AB72" s="64"/>
@@ -6097,10 +7026,10 @@
       <x:c r="AE72" s="36"/>
       <x:c r="AF72" s="37"/>
       <x:c r="AG72" s="75" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AH72" s="59" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AI72" s="63"/>
       <x:c r="AJ72" s="64"/>
@@ -6193,7 +7122,7 @@
       <x:c r="K79" s="27"/>
       <x:c r="L79" s="28"/>
       <x:c r="M79" s="56" t="s">
-        <x:v>60</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="N79" s="57"/>
       <x:c r="O79" s="57"/>
@@ -6201,7 +7130,7 @@
       <x:c r="S79" s="33"/>
       <x:c r="T79" s="34"/>
       <x:c r="U79" s="67" t="s">
-        <x:v>69</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="V79" s="68"/>
       <x:c r="W79" s="68"/>
@@ -6209,7 +7138,7 @@
       <x:c r="AA79" s="33"/>
       <x:c r="AB79" s="34"/>
       <x:c r="AC79" s="67" t="s">
-        <x:v>29</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="AD79" s="68"/>
       <x:c r="AE79" s="68"/>
@@ -6217,7 +7146,7 @@
       <x:c r="AI79" s="33"/>
       <x:c r="AJ79" s="34"/>
       <x:c r="AK79" s="67" t="s">
-        <x:v>149</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="AL79" s="68"/>
       <x:c r="AM79" s="68"/>
@@ -6253,7 +7182,7 @@
       <x:c r="K81" s="29"/>
       <x:c r="L81" s="20"/>
       <x:c r="M81" s="60" t="s">
-        <x:v>139</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="N81" s="60"/>
       <x:c r="O81" s="60"/>
@@ -6261,7 +7190,7 @@
       <x:c r="S81" s="35"/>
       <x:c r="T81" s="36"/>
       <x:c r="U81" s="72" t="s">
-        <x:v>23</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="V81" s="72"/>
       <x:c r="W81" s="72"/>
@@ -6269,7 +7198,7 @@
       <x:c r="AA81" s="35"/>
       <x:c r="AB81" s="36"/>
       <x:c r="AC81" s="72" t="s">
-        <x:v>28</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="AD81" s="72"/>
       <x:c r="AE81" s="72"/>
@@ -6277,7 +7206,7 @@
       <x:c r="AI81" s="35"/>
       <x:c r="AJ81" s="36"/>
       <x:c r="AK81" s="72" t="s">
-        <x:v>85</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="AL81" s="72"/>
       <x:c r="AM81" s="72"/>
@@ -6311,7 +7240,7 @@
     </x:row>
     <x:row r="83" spans="11:40">
       <x:c r="K83" s="62" t="s">
-        <x:v>181</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="L83" s="58"/>
       <x:c r="M83" s="20"/>
@@ -6319,13 +7248,13 @@
       <x:c r="O83" s="20"/>
       <x:c r="P83" s="26"/>
       <x:c r="Q83" s="74" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="R83" s="59" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="S83" s="62" t="s">
-        <x:v>65</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="T83" s="58"/>
       <x:c r="U83" s="36"/>
@@ -6333,13 +7262,13 @@
       <x:c r="W83" s="36"/>
       <x:c r="X83" s="37"/>
       <x:c r="Y83" s="74" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="Z83" s="59" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AA83" s="62" t="s">
-        <x:v>68</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="AB83" s="58"/>
       <x:c r="AC83" s="36"/>
@@ -6347,13 +7276,13 @@
       <x:c r="AE83" s="36"/>
       <x:c r="AF83" s="37"/>
       <x:c r="AG83" s="74" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AH83" s="59" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AI83" s="62" t="s">
-        <x:v>82</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="AJ83" s="58"/>
       <x:c r="AK83" s="36"/>
@@ -6369,10 +7298,10 @@
       <x:c r="O84" s="20"/>
       <x:c r="P84" s="26"/>
       <x:c r="Q84" s="75" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="R84" s="59" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="S84" s="63"/>
       <x:c r="T84" s="64"/>
@@ -6381,10 +7310,10 @@
       <x:c r="W84" s="36"/>
       <x:c r="X84" s="37"/>
       <x:c r="Y84" s="75" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="Z84" s="59" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AA84" s="63"/>
       <x:c r="AB84" s="64"/>
@@ -6393,10 +7322,10 @@
       <x:c r="AE84" s="36"/>
       <x:c r="AF84" s="37"/>
       <x:c r="AG84" s="75" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AH84" s="59" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AI84" s="63"/>
       <x:c r="AJ84" s="64"/>
@@ -6511,25 +7440,25 @@
     </x:row>
     <x:row r="89" spans="17:18">
       <x:c r="Q89" s="76" t="s">
-        <x:v>135</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="R89" s="45" t="s">
-        <x:v>135</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="17:18">
       <x:c r="Q90" s="45" t="s">
-        <x:v>135</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="R90" s="45" t="s">
-        <x:v>135</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="19:40">
       <x:c r="S91" s="33"/>
       <x:c r="T91" s="34"/>
       <x:c r="U91" s="67" t="s">
-        <x:v>165</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="V91" s="68"/>
       <x:c r="W91" s="68"/>
@@ -6537,7 +7466,7 @@
       <x:c r="AA91" s="33"/>
       <x:c r="AB91" s="34"/>
       <x:c r="AC91" s="67" t="s">
-        <x:v>77</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="AD91" s="68"/>
       <x:c r="AE91" s="68"/>
@@ -6545,7 +7474,7 @@
       <x:c r="AI91" s="33"/>
       <x:c r="AJ91" s="34"/>
       <x:c r="AK91" s="67" t="s">
-        <x:v>81</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="AL91" s="68"/>
       <x:c r="AM91" s="68"/>
@@ -6575,7 +7504,7 @@
       <x:c r="S93" s="35"/>
       <x:c r="T93" s="36"/>
       <x:c r="U93" s="72" t="s">
-        <x:v>50</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="V93" s="72"/>
       <x:c r="W93" s="72"/>
@@ -6583,7 +7512,7 @@
       <x:c r="AA93" s="35"/>
       <x:c r="AB93" s="36"/>
       <x:c r="AC93" s="72" t="s">
-        <x:v>197</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="AD93" s="72"/>
       <x:c r="AE93" s="72"/>
@@ -6591,7 +7520,7 @@
       <x:c r="AI93" s="35"/>
       <x:c r="AJ93" s="36"/>
       <x:c r="AK93" s="72" t="s">
-        <x:v>197</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="AL93" s="72"/>
       <x:c r="AM93" s="72"/>
@@ -6619,7 +7548,7 @@
     </x:row>
     <x:row r="95" spans="19:40">
       <x:c r="S95" s="62" t="s">
-        <x:v>109</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="T95" s="58"/>
       <x:c r="U95" s="36"/>
@@ -6627,13 +7556,13 @@
       <x:c r="W95" s="36"/>
       <x:c r="X95" s="37"/>
       <x:c r="Y95" s="74" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="Z95" s="59" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AA95" s="62" t="s">
-        <x:v>79</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="AB95" s="58"/>
       <x:c r="AC95" s="36"/>
@@ -6641,13 +7570,13 @@
       <x:c r="AE95" s="36"/>
       <x:c r="AF95" s="37"/>
       <x:c r="AG95" s="74" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AH95" s="59" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AI95" s="62" t="s">
-        <x:v>80</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="AJ95" s="58"/>
       <x:c r="AK95" s="36"/>
@@ -6663,10 +7592,10 @@
       <x:c r="W96" s="36"/>
       <x:c r="X96" s="37"/>
       <x:c r="Y96" s="75" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="Z96" s="59" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AA96" s="63"/>
       <x:c r="AB96" s="64"/>
@@ -6675,10 +7604,10 @@
       <x:c r="AE96" s="36"/>
       <x:c r="AF96" s="37"/>
       <x:c r="AG96" s="75" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AH96" s="59" t="s">
-        <x:v>127</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="AI96" s="63"/>
       <x:c r="AJ96" s="64"/>
@@ -6882,4 +7811,382 @@
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet5"/>
+  <x:dimension ref="B2:N26"/>
+  <x:sheetViews>
+    <x:sheetView showGridLines="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="C14" activeCellId="0" sqref="C14:F14"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="1" max="1" width="2.5" customWidth="1"/>
+    <x:col min="10" max="10" width="3" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="2" spans="2:14">
+      <x:c r="B2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="K2" s="47" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="L2" s="47"/>
+      <x:c r="M2" s="47"/>
+      <x:c r="N2" s="14"/>
+    </x:row>
+    <x:row r="3" spans="2:14">
+      <x:c r="B3" s="77"/>
+      <x:c r="C3" s="77" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D3" s="77" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E3" s="77" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="F3" s="77" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="G3" s="77" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="H3" s="77" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="I3" s="77" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="K3" s="78" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="L3" s="78"/>
+      <x:c r="M3" s="78"/>
+      <x:c r="N3" s="78"/>
+    </x:row>
+    <x:row r="4" spans="2:14">
+      <x:c r="B4" s="77" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C4" s="77">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D4" s="77">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E4" s="77">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F4" s="77">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G4" s="77">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H4" s="77">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I4" s="77">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="K4" s="78"/>
+      <x:c r="L4" s="78"/>
+      <x:c r="M4" s="78"/>
+      <x:c r="N4" s="78"/>
+    </x:row>
+    <x:row r="5" spans="2:14">
+      <x:c r="B5" s="77" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="C5" s="77">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D5" s="77">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E5" s="77">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F5" s="77">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G5" s="77">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H5" s="77">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="I5" s="77">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K5" s="78"/>
+      <x:c r="L5" s="78"/>
+      <x:c r="M5" s="78"/>
+      <x:c r="N5" s="78"/>
+    </x:row>
+    <x:row r="6" spans="2:14">
+      <x:c r="B6" s="77" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C6" s="77">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D6" s="77">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="E6" s="77">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F6" s="77">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="G6" s="79">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="H6" s="79">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="I6" s="79">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="K6" s="78"/>
+      <x:c r="L6" s="78"/>
+      <x:c r="M6" s="78"/>
+      <x:c r="N6" s="78"/>
+    </x:row>
+    <x:row r="7" spans="11:14" ht="16.800000000000001" customHeight="1">
+      <x:c r="K7" s="78"/>
+      <x:c r="L7" s="78"/>
+      <x:c r="M7" s="78"/>
+      <x:c r="N7" s="78"/>
+    </x:row>
+    <x:row r="8" spans="2:14">
+      <x:c r="B8" s="77" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C8" s="80" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="D8" s="81"/>
+      <x:c r="E8" s="81"/>
+      <x:c r="F8" s="82"/>
+      <x:c r="K8" s="78"/>
+      <x:c r="L8" s="78"/>
+      <x:c r="M8" s="78"/>
+      <x:c r="N8" s="78"/>
+    </x:row>
+    <x:row r="9" spans="2:14">
+      <x:c r="B9" s="83">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C9" s="80" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D9" s="81"/>
+      <x:c r="E9" s="81"/>
+      <x:c r="F9" s="82"/>
+      <x:c r="K9" s="78"/>
+      <x:c r="L9" s="78"/>
+      <x:c r="M9" s="78"/>
+      <x:c r="N9" s="78"/>
+    </x:row>
+    <x:row r="10" spans="2:14">
+      <x:c r="B10" s="83">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C10" s="80" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="D10" s="81"/>
+      <x:c r="E10" s="81"/>
+      <x:c r="F10" s="82"/>
+      <x:c r="K10" s="78"/>
+      <x:c r="L10" s="78"/>
+      <x:c r="M10" s="78"/>
+      <x:c r="N10" s="78"/>
+    </x:row>
+    <x:row r="11" spans="2:6">
+      <x:c r="B11" s="83">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C11" s="80" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D11" s="81"/>
+      <x:c r="E11" s="81"/>
+      <x:c r="F11" s="82"/>
+    </x:row>
+    <x:row r="12" spans="2:6">
+      <x:c r="B12" s="83">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C12" s="80" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="D12" s="81"/>
+      <x:c r="E12" s="81"/>
+      <x:c r="F12" s="82"/>
+    </x:row>
+    <x:row r="13" spans="2:6">
+      <x:c r="B13" s="83">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C13" s="80" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D13" s="81"/>
+      <x:c r="E13" s="81"/>
+      <x:c r="F13" s="82"/>
+    </x:row>
+    <x:row r="14" spans="2:6">
+      <x:c r="B14" s="83">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C14" s="80" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="D14" s="81"/>
+      <x:c r="E14" s="81"/>
+      <x:c r="F14" s="82"/>
+    </x:row>
+    <x:row r="15" spans="2:6">
+      <x:c r="B15" s="83">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C15" s="80"/>
+      <x:c r="D15" s="81"/>
+      <x:c r="E15" s="81"/>
+      <x:c r="F15" s="82"/>
+    </x:row>
+    <x:row r="16" spans="2:6">
+      <x:c r="B16" s="83">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C16" s="80"/>
+      <x:c r="D16" s="81"/>
+      <x:c r="E16" s="81"/>
+      <x:c r="F16" s="82"/>
+    </x:row>
+    <x:row r="17" spans="2:6">
+      <x:c r="B17" s="83">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C17" s="80"/>
+      <x:c r="D17" s="81"/>
+      <x:c r="E17" s="81"/>
+      <x:c r="F17" s="82"/>
+    </x:row>
+    <x:row r="18" spans="2:6">
+      <x:c r="B18" s="83">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C18" s="80"/>
+      <x:c r="D18" s="81"/>
+      <x:c r="E18" s="81"/>
+      <x:c r="F18" s="82"/>
+    </x:row>
+    <x:row r="19" spans="2:6">
+      <x:c r="B19" s="83">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C19" s="80"/>
+      <x:c r="D19" s="81"/>
+      <x:c r="E19" s="81"/>
+      <x:c r="F19" s="82"/>
+    </x:row>
+    <x:row r="20" spans="2:6">
+      <x:c r="B20" s="83">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C20" s="80"/>
+      <x:c r="D20" s="81"/>
+      <x:c r="E20" s="81"/>
+      <x:c r="F20" s="82"/>
+    </x:row>
+    <x:row r="21" spans="2:6">
+      <x:c r="B21" s="83">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C21" s="80"/>
+      <x:c r="D21" s="81"/>
+      <x:c r="E21" s="81"/>
+      <x:c r="F21" s="82"/>
+    </x:row>
+    <x:row r="22" spans="2:6">
+      <x:c r="B22" s="83">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C22" s="80"/>
+      <x:c r="D22" s="81"/>
+      <x:c r="E22" s="81"/>
+      <x:c r="F22" s="82"/>
+    </x:row>
+    <x:row r="23" spans="2:6">
+      <x:c r="B23" s="83">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C23" s="80"/>
+      <x:c r="D23" s="81"/>
+      <x:c r="E23" s="81"/>
+      <x:c r="F23" s="82"/>
+    </x:row>
+    <x:row r="24" spans="2:6">
+      <x:c r="B24" s="83">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C24" s="80"/>
+      <x:c r="D24" s="81"/>
+      <x:c r="E24" s="81"/>
+      <x:c r="F24" s="82"/>
+    </x:row>
+    <x:row r="25" spans="2:6">
+      <x:c r="B25" s="83">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C25" s="80"/>
+      <x:c r="D25" s="81"/>
+      <x:c r="E25" s="81"/>
+      <x:c r="F25" s="82"/>
+    </x:row>
+    <x:row r="26" spans="2:6">
+      <x:c r="B26" s="83">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C26" s="80"/>
+      <x:c r="D26" s="81"/>
+      <x:c r="E26" s="81"/>
+      <x:c r="F26" s="82"/>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="21">
+    <x:mergeCell ref="C16:F16"/>
+    <x:mergeCell ref="K2:M2"/>
+    <x:mergeCell ref="K3:N10"/>
+    <x:mergeCell ref="C9:F9"/>
+    <x:mergeCell ref="C8:F8"/>
+    <x:mergeCell ref="C10:F10"/>
+    <x:mergeCell ref="C11:F11"/>
+    <x:mergeCell ref="C12:F12"/>
+    <x:mergeCell ref="C13:F13"/>
+    <x:mergeCell ref="C14:F14"/>
+    <x:mergeCell ref="C15:F15"/>
+    <x:mergeCell ref="C23:F23"/>
+    <x:mergeCell ref="C24:F24"/>
+    <x:mergeCell ref="C25:F25"/>
+    <x:mergeCell ref="C26:F26"/>
+    <x:mergeCell ref="C17:F17"/>
+    <x:mergeCell ref="C18:F18"/>
+    <x:mergeCell ref="C19:F19"/>
+    <x:mergeCell ref="C20:F20"/>
+    <x:mergeCell ref="C21:F21"/>
+    <x:mergeCell ref="C22:F22"/>
+  </x:mergeCells>
+  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
 </file>
--- a/Design/UI기획서.xlsx
+++ b/Design/UI기획서.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram\Documents\GitHub\PlumTowerDefecne\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8520" tabRatio="500" activeTab="1"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8520" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="VerCon" sheetId="1" r:id="rId4"/>
@@ -21,85 +21,168 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="217">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="235">
+  <x:si>
+    <x:t>체력바 부분은 단위 체력바로 만들수있다면 시인성이 좋아보임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9. StringUI/Money 자신이 현재 가지고 있는 돈을 보여준다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19. StringUI/Game_Over 는 게임이 끝났다고 알려주는 글자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22. StringUI/Xp_Reset 지금까지 사용했던 Xp를 전부 리셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26. StringUI/Upgrade_Contents 어떻게 강화되는지 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20. StringUI/Main_Menu 는 메인 화면으로 돌아가는 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. StringUI/Upgrade 버튼을 누르면 1.3 강화 화면으로 넘어감</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. 캐릭터 속성을 이미지로 보여준다.(물, 불, 흙, 전기 이미지 필요)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ex. 스테이지 3,6,9,...를 클리어하는 순간 증강체 화면이 공개되어야됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포맷식 {0}의 초기값은 1, 몬스터의 웨이브가 끝났을때 1씩 증가된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16. StringUI/Select 는 증강체를 선택하는 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일시정지 UI 는 esc 버튼으로 열고 닫을수 있도록 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25. StringUI/Upgrade_Title 강화의 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14, 15 사이에는 그림 에셋이 들어갈 예정(추후 추가)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10, 11의 StringUI/Expand, StringUI/Stage_Start는 밑의 흐름을 통해</x:t>
+  </x:si>
   <x:si>
     <x:t>35. StringUI/Tower_Range는 타워의 범위를 나타내는 글자, 수치는 타워 기획 문서 참고</x:t>
   </x:si>
   <x:si>
+    <x:t>3. 현재 몬스터의 상태를 나타낸다.(ex, 버프나 디버프가 걸려있으면 표시)(몬스터 자체 효과 부여)</x:t>
+  </x:si>
+  <x:si>
     <x:t>24. StringUI/Tower_Resource_Passive_Select 타워, 자원, 패시브 선택</x:t>
   </x:si>
   <x:si>
-    <x:t>10, 11의 StringUI/Expand, StringUI/Stage_Start는 밑의 흐름을 통해</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">
-몬스터 관련 UI 구현 필요
-환경설정 UI 구현 필요
-프로토타입 이후 요구되는 정보들 UI 구현
-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7. StringUI/Xp_Point 는 이번 게임동안 벌어들인 Xp를 보여준다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32번은 왼쪽, 오른쪽 버튼을 둬 다양한 우선 선택 사항들을 볼 수 있게 구현할 계획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 환경 설정 부분에서 몬스터 UI부분을 안 보여줄 수 있도록 설정할 것인지?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. StringUI/Game_Start 버튼을 누르면 1.2 인게임 화면으로 넘어감</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14. StringUI/In_Game_Upgrade_Title 은 인게임 증강체 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31. StringUI/Tower_Priority는 우선적 선택 화면임을 알려주는 글자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4. StringUI/Option 버튼을 누르면 환경 설정 화면으로 넘어감(구현 필요)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 몬스터의 캐릭터 특성 1, 2과 이름을 나타낸다. (ex. 거대한 강화된 흡혈박쥐)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15. StringUI/In_Game_Upgrade_Content 는 인게임 증강체 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29. StringUI/Tower_Level 은 타워의 레벨을 알려주는 글자, 레벨에 관련된 것은 타워 기획 문서 참고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36. StringUI/Tower_Fire_Rate는 타워의 공격속도를 나타내는 글자, 수치는 타워 기획 문서 참고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28. StringUI/Tower_Mover 는 타워를 이동하게 해주는 버튼, 이동에 필요한 돈은 타워 기획 문서 참고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6. StringUI/Stage_Level 은 현재 스테이지의 Level(단계)를 표시해준다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32. StringUI/Tower_Priority_Type는 우선적 선택 타입을 알려주는 글자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추후에 환경설정 UI가 구현되면 일시정지 UI에서 환경설정 UI로 넘어갈 수 있도록 설계할 예정임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8. StringUI/HP 는 (현재 자신의 체력 / 최대 체력 : 10(임의)) 을 보여준다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33. StingUI/Tower_Damage 는 타워 데미지를 알려주는 글자, 데미지 숫자는 타워 기획 문서 참고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중간 보스 몬스터급에게는 1, 4(특성, 속성)을 구현시키는 것이 보스로서의 시인성이 좋아보일 것이라고 생각함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워는 모든 타워의 종류를 보여줌, 타워 에셋을 확보하여 12,13 중간 부분에 타워 그림을 넣는 작업 필요.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23. StringUI/Tower_Resource_Passive_Category 타워, 자원, 패시브의 종류</x:t>
+    <x:t>21. StringUI/Xp 는 총 Xp를 나타낸다. 포맷식 {0}에는 총 모은 Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40. StringUI/Music 은 배경음악을 끌지 안끌지 설정해주는 글자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1 메인 화면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StringUI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Over</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.3 강화 화면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GAME OVER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp_Reset</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 증강체 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 증강체 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우선적 선택 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Required_Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Cost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2 인게임 화면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Hp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_Menu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인 메뉴로 돌아가기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우선적 선택 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">공격 속도 : </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">타워 데미지 : </x:t>
+  </x:si>
+  <x:si>
+    <x:t>버튼을 누른다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 정보 UI 제작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">타워 레벨 : </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_End</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4 현재 진행상황</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Range</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 업그레이드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Move</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임이 진행된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환경설정 UI 제작</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -175,79 +258,175 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>20. StringUI/Main_Menu 는 메인 화면으로 돌아가는 버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. 현재 몬스터의 상태를 나타낸다.(ex, 버프나 디버프가 걸려있으면 표시)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ex. 스테이지 3,6,9,...를 클리어하는 순간 증강체 화면이 공개되어야됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4. 캐릭터 속성을 이미지로 보여준다.(물, 불, 흙, 전기 이미지 필요)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Level이 증가하는 기준은 몬스터의 웨이브가 다 끝났을때 1 증가시킨다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9. StringUI/Money 자신이 현재 가지고 있는 돈을 보여준다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19. StringUI/Game_Over 는 게임이 끝났다고 알려주는 글자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26. StringUI/Upgrade_Contents 어떻게 강화되는지 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. StringUI/Upgrade 버튼을 누르면 1.3 강화 화면으로 넘어감</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22. StringUI/Xp_Reset 지금까지 사용했던 Xp를 전부 리셋</x:t>
+    <x:t>Contents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14, 15가 포함된 길쭉한 네모는 증강체를 표현, 하나의 버튼임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5. StringUI/Game_End 버튼을 누르면 게임이 종료됨</x:t>
   </x:si>
   <x:si>
     <x:t>18. StringUI/Resume 은 다시 인게임으로 돌아가는 버튼</x:t>
   </x:si>
   <x:si>
-    <x:t>14, 15가 포함된 길쭉한 네모는 증강체를 표현, 하나의 버튼임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5. StringUI/Game_End 버튼을 누르면 게임이 종료됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13. StringUI/Tower_Cost 타워의 비용을 보여준다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보스 몬스터가 들어올때는 체력이 1보다 더 감소할지는 몬스터 기획이</x:t>
+    <x:t>12. StringUI/Tower_Name 타워의 이름을 보여준다.</x:t>
   </x:si>
   <x:si>
     <x:t>17. StringUI/PAUSE 는 게임이 멈춰있다고 알려주는 글자</x:t>
   </x:si>
   <x:si>
-    <x:t>12. StringUI/Tower_Name 타워의 이름을 보여준다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27. StringUI/Required_Xp 요구되는 Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16. StringUI/Select 는 증강체를 선택하는 버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25. StringUI/Upgrade_Title 강화의 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작시 Xp : 0, Xp를 수급하는 조건은 레벨 단위로 수급함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14, 15 사이에는 그림 에셋이 들어갈 예정(추후 추가)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일시정지 UI 는 esc 버튼으로 열고 닫을수 있도록 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터가 마을 안으로 들어왔을 때 체력이 1씩 감소되는지와,</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하나의 몬스터에 너무 많은 정보가 담겨져 있음, 수백마리의 몬스터가 지나간다면 게임 화면에 지나치게 몬스터의 정보가 많아져 오히려 필요한 정보를 보지 못하게 될 경우</x:t>
+    <x:t>34. StingUI/Tower_Upgrade는 타워를 업그레이드 해 줄수 있는 버튼, 업그레이드에 필요한 재화는 타워 기획 문서 참고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30. StringUI/Tower_Demolish 는 타워를 부술 수 있게 해주는 버튼, 얼마의 돈을 돌려받는지는 타워 기획 문서 참고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>담당자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23. StringUI/Tower_Resource_Passive_Category 타워, 자원, 패시브의 종류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워는 모든 타워의 종류를 보여줌, 타워 에셋을 확보하여 12,13 중간 부분에 타워 그림을 넣는 작업 필요.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33. StingUI/Tower_Damage 는 타워 데미지를 알려주는 글자, 데미지 숫자는 타워 기획 문서 참고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Version Control</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Version</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ver1.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ver1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ver1.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ver1.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ver1.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12,13 사이에는 그림 들어감(에셋 필요)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Upgrade_Contents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포맷식 {0}의 초기값은 100으로 설정한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>효과음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>확장하기 버튼을 누르게 된다면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 사서 현재 적용이 되는 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작하기 버튼을 누르게 된다면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLUM TOWER DEFESNSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Contents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.2 인게임 증강체 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워, 자원, 패시브 카테고리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>되고, 이 버튼은 비활성화 상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.1 증강체의 기본적인 개요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임 흐름도 -&gt; (이쪽 방향)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Xp_Point</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터테이블 포맷 형식으로 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일시정지 UI에 환경설정 버튼 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. 사지 않았고 현재 살 수 없는 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16 버튼을 클릭하면 증강체가 적용됨.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 사지 않았지만 살 수 있는 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중앙에 있는 정사각형은 타워를 나타냄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12,13이 같이 들어있는 네모는 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인, 인게임, 강화 화면 UI기본 틀구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인, 인게임, 강화 화면 UI 제작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화 카드는 크게 3가지로 나눌수 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Upgrade_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UI 인게임 배속버튼, 일시정지 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 UI의 확장, 타워정보 UI 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Target_Priority_Type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Target_Priority_Button</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 몬스터의 체력과 방어구를 나타낸다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>웨이브가 시작되고, 버튼은</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.3 일시정지 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Money</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Title</x:t>
   </x:si>
   <x:si>
     <x:t>1.2.5 타워정보 UI</x:t>
@@ -256,496 +435,374 @@
     <x:t>Tower_Upgrade</x:t>
   </x:si>
   <x:si>
-    <x:t>1.2.6 몬스터 UI 초안</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30. StringUI/Tower_Demolish 는 타워를 부술 수 있게 해주는 버튼, 얼마의 돈을 돌려받는지는 타워 기획 문서 참고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34. StingUI/Tower_Upgrade는 타워를 업그레이드 해 줄수 있는 버튼, 업그레이드에 필요한 재화는 타워 기획 문서 참고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contents</x:t>
+    <x:t>Tower_Damage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Fire_Rate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.4 게임오버 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이므로 클릭할 수 없다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 UI 초안 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Target_Priority</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">맵을 밝히기 위해 확장하기 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워, 자원, 패시브 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 정보 UI 제작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.6 몬스터 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Demolish</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">확장하기 버튼이 시작하기 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>버튼으로 바뀌게 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1 인게임 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>확장하기 버튼으로 바뀌게</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4 현재 진행 상황</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UI 기획서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp 리셋하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임시작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 부수기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Option</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.8.21</x:t>
   </x:si>
   <x:si>
     <x:t>개발 일정</x:t>
   </x:si>
   <x:si>
+    <x:t>1. UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임종료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>확장하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>돌아가기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pause</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우선적 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워의 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Resume</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PAUSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화 제목</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">범위 : </x:t>
   </x:si>
   <x:si>
+    <x:t>강화 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환경설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인 메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Expand</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문서 개요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>To Do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김시우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>예시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>→</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HP : {0} / {1}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.8.22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Week3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Week2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Week1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.8.23</x:t>
+  </x:si>
+  <x:si>
     <x:t>22.8.25</x:t>
   </x:si>
   <x:si>
-    <x:t>Week2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Version</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ver1.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.8.22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 부수기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Week1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문서 개요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Week3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.8.23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.8.21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우선적 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pause</x:t>
-  </x:si>
-  <x:si>
-    <x:t>To Do</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ver1.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ver1.0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UI 기획서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Resume</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp 리셋하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PAUSE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확장하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임시작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ver1.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">HP : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워의 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Option</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임종료</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Xp : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>돌아가기</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">XP : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워의 비용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인 메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Expand</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환경설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인게임 증강체 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인게임 증강체 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_Start</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Required_Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp_Reset</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2 인게임 화면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인 메뉴로 돌아가기</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Level : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_Level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Hp</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Money : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Start</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_Menu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우선적 선택 타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Cost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Over</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.3 강화 화면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>StringUI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GAME OVER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.1 메인 화면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Money의 초기 시작 자금 : 100(임의)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Upgrade_Contents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12,13 사이에는 그림 들어감(에셋 필요)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Money</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Fire_Rate</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">맵을 밝히기 위해 확장하기 </x:t>
+    <x:t>월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>토</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워의 비용 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monster_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 몬스터의 캐릭터 특성 1, 2과 이름을 나타낸다. (ex. 거대한 강화된 흡혈박쥐)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38. StringUI/Option_String 은 환경설정 화면임을 알려주는 환경설정 글자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31. StringUI/Tower_Priority는 우선적 선택 화면임을 알려주는 글자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15. StringUI/In_Game_Upgrade_Content 는 인게임 증강체 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27. StringUI/Required_Xp 요구되는 Xp, 포맷식 {0}에는 요구되는 Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39. StringUI/Show_Monster_UI 는 몬스터UI표시를 할지 안할지 설정해주는 글자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13. StringUI/Tower_Cost 타워의 비용을 보여준다. 포맷식 {0}에는 타워마다의 비용이 들어간다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8. StringUI/HP 는 자신의 체력을 나타낸다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Resource_Passive_Category</x:t>
   </x:si>
   <x:si>
     <x:t>스테이지를 3번 클리어할 때마다 증강체 화면UI를 공개</x:t>
   </x:si>
   <x:si>
-    <x:t>이 문제를 해결하기 위해 현재 UI로서 구상중인 계획은</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Resource_Passive_Category</x:t>
-  </x:si>
-  <x:si>
     <x:t>StringUI 1~27에 해당하는 UI부분 작업중</x:t>
   </x:si>
   <x:si>
-    <x:t>21. StringUI/Xp 는 총 Xp를 나타낸다.</x:t>
+    <x:t>14, 15가 포함된 네모를 클릭하면 16의 버튼이 나옴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Resource_Passive_Select</x:t>
   </x:si>
   <x:si>
     <x:t>UI파트 개발자와 지속적인 커뮤니케이션을 통해 구현중</x:t>
   </x:si>
   <x:si>
-    <x:t>Tower_Resource_Passive_Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. 안 보여줄 수 있다면 어디까지 안보여줄 것인지?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일반 몬스터한테는 2, 3만 구현(특성, 속성 없음)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 몬스터에게 들어가는 딜량을 수치로 보여줄 것인지?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14, 15가 포함된 네모를 클릭하면 16의 버튼이 나옴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Damage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.3 일시정지 UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이므로 클릭할 수 없다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터 UI 초안 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Demolish</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.6 몬스터 UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Target_Priority</x:t>
-  </x:si>
-  <x:si>
-    <x:t>웨이브가 시작되고, 버튼은</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터 정보 UI 제작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.4 현재 진행 상황</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우선적 선택 버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아직 안 정해진것들</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">공격 속도 : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임이 진행된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_End</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">타워 레벨 : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Move</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 업그레이드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Range</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">타워 데미지 : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.4 현재 진행상황</x:t>
-  </x:si>
-  <x:si>
-    <x:t>버튼을 누른다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환경설정 UI 제작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 정보 UI 제작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>버튼으로 바뀌게 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Version Control</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.4 게임오버 UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확장하기 버튼으로 바뀌게</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">확장하기 버튼이 시작하기 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1 인게임 UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워, 자원, 패시브 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확장하기 버튼을 누르게 된다면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>되고, 이 버튼은 비활성화 상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작하기 버튼을 누르게 된다면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임 흐름도 -&gt; (이쪽 방향)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Contents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이후 요구되는 정보들 UI 제작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.1 증강체의 기본적인 개요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Xp_Point</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 사서 현재 적용이 되는 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워, 자원, 패시브 카테고리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PLUM TOWER DEFESNSE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.2 인게임 증강체 UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>담당자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>토</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>→</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김시우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중앙에 있는 정사각형은 타워를 나타냄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 카드는 크게 3가지로 나눌수 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인게임 UI의 확장, 타워정보 UI 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 사지 않았지만 살 수 있는 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인, 인게임, 강화 화면 UI기본 틀구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인, 인게임, 강화 화면 UI 제작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 몬스터의 체력과 방어구를 나타낸다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12,13이 같이 들어있는 네모는 버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Target_Priority_Button</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16 버튼을 클릭하면 증강체가 적용됨.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Target_Priority_Type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UI 인게임 배속버튼, 일시정지 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. 사지 않았고 현재 살 수 없는 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Upgrade_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Select</x:t>
+    <x:t>7. StringUI/Xp_Point 는 이번 게임동안 벌어들인 Xp를 보여준다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. StringUI/Game_Start 버튼을 누르면 1.2 인게임 화면으로 넘어감</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32번은 왼쪽, 오른쪽 버튼을 둬 다양한 우선 선택 사항들을 볼 수 있게 구현할 계획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14. StringUI/In_Game_Upgrade_Title 은 인게임 증강체 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>XP : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 레벨 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37. StringUI/Monster_Name 은 몬스터의 캐릭터 특성을 나타내는 글자, 특성은 특성부여 알고리즘에 따라 부여된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. StringUI/Option 버튼을 누르면 환경 설정 화면으로 넘어감</x:t>
+  </x:si>
+  <x:si>
+    <x:t>버프, 디버프 부분은 될 수 있으면 몬스터 주변의 이펙트로 나타내게 할 것</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41. StringUI/Sound 는 효과음을 끌지 안끌지 설정해주는 글자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28. StringUI/Tower_Mover 는 타워를 이동하게 해주는 버튼, 이동에 필요한 돈은 타워 기획 문서 참고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36. StringUI/Tower_Fire_Rate는 타워의 공격속도를 나타내는 글자, 수치는 타워 기획 문서 참고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29. StringUI/Tower_Level 은 타워의 레벨을 알려주는 글자, 레벨에 관련된 것은 타워 기획 문서 참고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 UI 제작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추후에 환경설정 UI가 구현되면 일시정지 UI에서 환경설정 UI로 넘어갈 수 있도록 설계할 예정임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6. StringUI/Stage_Level 은 현재 스테이지의 Level(단계)를 표시해준다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32. StringUI/Tower_Priority_Type는 우선적 선택 타입을 알려주는 글자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격 속도 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배경음악</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Music</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.8.27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.7 환경설정 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 정보 UI 시인성있게 재구현</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>1.2.5 타워정보 UI</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>Level : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Money : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>1.2.3 일시정지 UI</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>Option_String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 데미지 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Show_Monster_UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포맷식 {0}의 초기값은 0, 몬스터의 웨이브가 끝나면 '그 레벨'만큼 증가함.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포맷식 {0}은 현재 체력,{1}은 최대 체력을 나타낸다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터UI표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">
+타워정보UI 새로구현
+프로토타입이후 요구되는 정보들 구현
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터의 속성을 이미지로 보여줌</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -783,33 +840,94 @@
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff1f4e79"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="14"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ffff0000"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff1f4e79"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff1f4e79"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="14"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="14"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ffff0000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ffff0000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
       <x:b val="1"/>
     </x:font>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="16"/>
-      <x:color rgb="ff000000"/>
-      <x:b val="1"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="16"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="16"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -1048,7 +1166,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="57">
+  <x:cellXfs count="61">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -1170,20 +1288,26 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="bottom"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="top" wrapText="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
@@ -1236,29 +1360,35 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="bottom"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="top" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
@@ -1270,6 +1400,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1352,6 +1483,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1386,6 +1518,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1430,6 +1563,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1473,6 +1607,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1557,6 +1692,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1577,6 +1713,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1607,6 +1744,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1659,7 +1797,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1689,8 +1827,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="833437" y="523875"/>
-          <a:ext cx="7274718" cy="4191000"/>
+          <a:off x="841374" y="508000"/>
+          <a:ext cx="7334249" cy="4064000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1727,46 +1865,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="833437" y="17085470"/>
-          <a:ext cx="7274718" cy="4191000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic macro="" fPublished="0">
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="그림 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="833437" y="23895842"/>
-          <a:ext cx="7274718" cy="4191000"/>
+          <a:off x="841374" y="16573499"/>
+          <a:ext cx="7334249" cy="4064000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1796,15 +1896,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId4"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="833437" y="29658470"/>
-          <a:ext cx="7274718" cy="4191000"/>
+          <a:off x="841374" y="28765498"/>
+          <a:ext cx="7334249" cy="4064000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1834,15 +1934,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId5"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8382000" y="13263563"/>
-          <a:ext cx="2286000" cy="1654968"/>
+          <a:off x="8461375" y="12858749"/>
+          <a:ext cx="2301874" cy="1619250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1872,15 +1972,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId6"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11644312" y="13263563"/>
-          <a:ext cx="2381250" cy="1654968"/>
+          <a:off x="11747499" y="12858749"/>
+          <a:ext cx="2397124" cy="1619250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1910,15 +2010,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId7"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15001875" y="13263563"/>
-          <a:ext cx="2286000" cy="1654968"/>
+          <a:off x="15144749" y="12858749"/>
+          <a:ext cx="2301874" cy="1619250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1948,15 +2048,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId8"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="845343" y="7346156"/>
-          <a:ext cx="7262812" cy="4083843"/>
+          <a:off x="857250" y="7127874"/>
+          <a:ext cx="7318374" cy="3952874"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1986,15 +2086,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId9"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="833437" y="35230596"/>
-          <a:ext cx="7155656" cy="4155281"/>
+          <a:off x="841374" y="34162996"/>
+          <a:ext cx="7207249" cy="4032249"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2024,7 +2124,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId10"/>
+        <a:blip r:embed="rId9"/>
         <a:srcRect l="29110" t="28930" r="29930" b="29220"/>
         <a:stretch>
           <a:fillRect/>
@@ -2032,8 +2132,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11787188" y="39921656"/>
-          <a:ext cx="2964656" cy="1726406"/>
+          <a:off x="11890375" y="38719124"/>
+          <a:ext cx="2984499" cy="1682749"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2063,6 +2163,44 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1635124" y="41306748"/>
+          <a:ext cx="5746750" cy="4730750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic macro="" fPublished="0">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="그림 59"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
         <a:blip r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
@@ -2070,8 +2208,84 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1631156" y="42576748"/>
-          <a:ext cx="5691187" cy="4881562"/>
+          <a:off x="857250" y="23193376"/>
+          <a:ext cx="7318374" cy="3968750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic macro="" fPublished="0">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="그림 60"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10588625" y="41290876"/>
+          <a:ext cx="6508750" cy="4667249"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic macro="" fPublished="0">
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="그림 65"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="888999" y="48720372"/>
+          <a:ext cx="7413624" cy="4048124"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2084,32 +2298,32 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:row>216</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>207</xdr:row>
+      <xdr:row>232</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic macro="" fPublished="0">
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="그림 54"/>
+        <xdr:cNvPr id="66" name="그림 66"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId12"/>
+        <a:blip r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="833437" y="50089596"/>
-          <a:ext cx="7274718" cy="4191000"/>
+          <a:off x="841374" y="54927500"/>
+          <a:ext cx="7334249" cy="4064000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2122,32 +2336,32 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>214</xdr:row>
+      <xdr:row>239</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>624839</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>243</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:pic macro="" fPublished="0">
       <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="그림 55"/>
+        <xdr:cNvPr id="67" name="그림 67"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId13"/>
+        <a:blip r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7643812" y="56161780"/>
-          <a:ext cx="1476375" cy="1059656"/>
+          <a:off x="7715249" y="60817120"/>
+          <a:ext cx="1476375" cy="1031874"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2160,32 +2374,32 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>214</xdr:row>
+      <xdr:row>239</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>243</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic macro="" fPublished="0">
       <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="그림 56"/>
+        <xdr:cNvPr id="68" name="그림 68"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId14"/>
+        <a:blip r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9274969" y="56161780"/>
-          <a:ext cx="1571625" cy="1012031"/>
+          <a:off x="9366250" y="60817120"/>
+          <a:ext cx="1587499" cy="984249"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2198,32 +2412,32 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>214</xdr:row>
+      <xdr:row>239</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>243</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:pic macro="" fPublished="0">
       <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="그림 57"/>
+        <xdr:cNvPr id="69" name="그림 69"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip r:embed="rId15"/>
+        <a:blip r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10977563" y="56161780"/>
-          <a:ext cx="1607343" cy="1059656"/>
+          <a:off x="11080749" y="60817120"/>
+          <a:ext cx="1619250" cy="1031874"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2492,8 +2706,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:J18"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="H8" activeCellId="0" sqref="H8:H8"/>
+    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="C13" activeCellId="0" sqref="C13:C13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -2504,36 +2718,36 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="23.5">
-      <x:c r="A1" s="43" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="B1" s="43"/>
+      <x:c r="A1" s="45" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B1" s="45"/>
       <x:c r="C1" s="8"/>
-      <x:c r="F1" s="44" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="G1" s="44"/>
-      <x:c r="H1" s="44"/>
-      <x:c r="I1" s="44"/>
-      <x:c r="J1" s="44"/>
+      <x:c r="F1" s="46" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="G1" s="46"/>
+      <x:c r="H1" s="46"/>
+      <x:c r="I1" s="46"/>
+      <x:c r="J1" s="46"/>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="42" t="s">
-        <x:v>168</x:v>
-      </x:c>
-      <x:c r="B2" s="42"/>
+      <x:c r="A2" s="44" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B2" s="44"/>
       <x:c r="C2" s="8"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="16.75">
       <x:c r="A3" s="9" t="s">
-        <x:v>187</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B3" s="9" t="s">
-        <x:v>201</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C3" s="9"/>
       <x:c r="F3" s="10" t="s">
-        <x:v>90</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="G3" s="11"/>
       <x:c r="H3" s="11"/>
@@ -2542,184 +2756,198 @@
     </x:row>
     <x:row r="4" spans="1:10">
       <x:c r="A4" s="13" t="s">
-        <x:v>62</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B4" s="13" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C4" s="13" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F4" s="14"/>
-      <x:c r="G4" s="45" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="H4" s="45"/>
-      <x:c r="I4" s="45"/>
-      <x:c r="J4" s="46"/>
+      <x:c r="G4" s="47" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="H4" s="47"/>
+      <x:c r="I4" s="47"/>
+      <x:c r="J4" s="48"/>
     </x:row>
     <x:row r="5" spans="1:10">
       <x:c r="A5" s="15" t="s">
-        <x:v>79</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B5" s="15" t="s">
-        <x:v>206</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C5" s="15" t="s">
-        <x:v>72</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="F5" s="14"/>
-      <x:c r="G5" s="45" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="H5" s="45"/>
-      <x:c r="I5" s="45"/>
-      <x:c r="J5" s="46"/>
+      <x:c r="G5" s="47" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="H5" s="47"/>
+      <x:c r="I5" s="47"/>
+      <x:c r="J5" s="48"/>
     </x:row>
     <x:row r="6" spans="1:10">
       <x:c r="A6" s="15" t="s">
-        <x:v>77</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B6" s="15" t="s">
-        <x:v>213</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C6" s="15" t="s">
-        <x:v>65</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="F6" s="16"/>
       <x:c r="G6" s="17"/>
       <x:c r="H6" s="35" t="s">
-        <x:v>172</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="I6" s="17"/>
       <x:c r="J6" s="18"/>
     </x:row>
     <x:row r="7" spans="1:10">
       <x:c r="A7" s="17" t="s">
-        <x:v>63</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B7" s="35" t="s">
-        <x:v>204</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C7" s="15" t="s">
-        <x:v>71</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F7" s="16"/>
       <x:c r="G7" s="17"/>
       <x:c r="H7" s="17" t="s">
-        <x:v>185</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="I7" s="17"/>
       <x:c r="J7" s="18"/>
     </x:row>
     <x:row r="8" spans="1:10">
       <x:c r="A8" s="17" t="s">
-        <x:v>86</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B8" s="15" t="s">
-        <x:v>145</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C8" s="15" t="s">
-        <x:v>59</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="F8" s="16"/>
       <x:c r="G8" s="17"/>
-      <x:c r="H8" s="17" t="s">
-        <x:v>143</x:v>
+      <x:c r="H8" s="57" t="s">
+        <x:v>226</x:v>
       </x:c>
       <x:c r="I8" s="17"/>
       <x:c r="J8" s="18"/>
     </x:row>
     <x:row r="9" spans="1:10">
-      <x:c r="A9" s="17"/>
-      <x:c r="B9" s="17"/>
+      <x:c r="A9" s="17" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B9" s="17" t="s">
+        <x:v>53</x:v>
+      </x:c>
       <x:c r="C9" s="17"/>
       <x:c r="F9" s="16"/>
       <x:c r="G9" s="17"/>
       <x:c r="H9" s="17" t="s">
-        <x:v>169</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="I9" s="17"/>
       <x:c r="J9" s="18"/>
     </x:row>
     <x:row r="10" spans="1:10">
       <x:c r="A10" s="17"/>
-      <x:c r="B10" s="17"/>
+      <x:c r="B10" s="17" t="s">
+        <x:v>93</x:v>
+      </x:c>
       <x:c r="C10" s="17"/>
       <x:c r="F10" s="16"/>
       <x:c r="G10" s="31"/>
-      <x:c r="H10" s="31" t="s">
-        <x:v>51</x:v>
+      <x:c r="H10" s="33" t="s">
+        <x:v>222</x:v>
       </x:c>
       <x:c r="I10" s="31"/>
       <x:c r="J10" s="32"/>
     </x:row>
     <x:row r="11" spans="1:10">
       <x:c r="A11" s="17"/>
-      <x:c r="B11" s="17"/>
+      <x:c r="B11" s="17" t="s">
+        <x:v>210</x:v>
+      </x:c>
       <x:c r="C11" s="17"/>
       <x:c r="F11" s="16"/>
       <x:c r="G11" s="31"/>
       <x:c r="H11" s="33" t="s">
-        <x:v>147</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="I11" s="31"/>
       <x:c r="J11" s="32"/>
     </x:row>
     <x:row r="12" spans="1:10">
       <x:c r="A12" s="17"/>
-      <x:c r="B12" s="17"/>
-      <x:c r="C12" s="17"/>
+      <x:c r="B12" s="17" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C12" s="17" t="s">
+        <x:v>219</x:v>
+      </x:c>
       <x:c r="F12" s="16"/>
-      <x:c r="G12" s="40" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="H12" s="40"/>
-      <x:c r="I12" s="40"/>
-      <x:c r="J12" s="49"/>
+      <x:c r="G12" s="31"/>
+      <x:c r="H12" s="33" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="I12" s="31"/>
+      <x:c r="J12" s="32"/>
     </x:row>
     <x:row r="13" spans="1:10">
       <x:c r="A13" s="17"/>
       <x:c r="B13" s="17"/>
       <x:c r="C13" s="17"/>
       <x:c r="F13" s="16"/>
-      <x:c r="G13" s="40" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="H13" s="40"/>
-      <x:c r="I13" s="40"/>
-      <x:c r="J13" s="49"/>
+      <x:c r="G13" s="51" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="H13" s="51"/>
+      <x:c r="I13" s="51"/>
+      <x:c r="J13" s="52"/>
     </x:row>
     <x:row r="14" spans="1:10">
       <x:c r="A14" s="17"/>
       <x:c r="B14" s="17"/>
       <x:c r="C14" s="17"/>
-      <x:c r="F14" s="16" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="G14" s="47"/>
-      <x:c r="H14" s="47"/>
-      <x:c r="I14" s="47"/>
-      <x:c r="J14" s="48"/>
+      <x:c r="F14" s="16"/>
+      <x:c r="G14" s="51" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="H14" s="51"/>
+      <x:c r="I14" s="51"/>
+      <x:c r="J14" s="52"/>
     </x:row>
     <x:row r="15" spans="1:10">
       <x:c r="A15" s="17"/>
       <x:c r="B15" s="17"/>
       <x:c r="C15" s="17"/>
-      <x:c r="F15" s="16"/>
-      <x:c r="G15" s="47" t="s">
-        <x:v>180</x:v>
-      </x:c>
-      <x:c r="H15" s="47"/>
-      <x:c r="I15" s="47"/>
-      <x:c r="J15" s="48"/>
+      <x:c r="F15" s="16" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="G15" s="49"/>
+      <x:c r="H15" s="49"/>
+      <x:c r="I15" s="49"/>
+      <x:c r="J15" s="50"/>
     </x:row>
     <x:row r="16" spans="6:10">
       <x:c r="F16" s="16"/>
-      <x:c r="G16" s="17"/>
-      <x:c r="H16" s="17"/>
-      <x:c r="I16" s="17"/>
-      <x:c r="J16" s="18"/>
+      <x:c r="G16" s="49" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="H16" s="49"/>
+      <x:c r="I16" s="49"/>
+      <x:c r="J16" s="50"/>
     </x:row>
     <x:row r="17" spans="6:10">
       <x:c r="F17" s="16"/>
@@ -2742,10 +2970,10 @@
     <x:mergeCell ref="F1:J1"/>
     <x:mergeCell ref="G4:J4"/>
     <x:mergeCell ref="G5:J5"/>
+    <x:mergeCell ref="G15:J15"/>
+    <x:mergeCell ref="G16:J16"/>
     <x:mergeCell ref="G14:J14"/>
-    <x:mergeCell ref="G15:J15"/>
     <x:mergeCell ref="G13:J13"/>
-    <x:mergeCell ref="G12:J12"/>
   </x:mergeCells>
   <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -2755,10 +2983,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet2"/>
-  <x:dimension ref="A1:AA225"/>
+  <x:dimension ref="A1:AB249"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="L99" activeCellId="0" sqref="L99:M99"/>
+    <x:sheetView showGridLines="0" topLeftCell="A136" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="U153" activeCellId="0" sqref="U153:U153"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -2766,422 +2994,423 @@
     <x:col min="2" max="2" width="8.796875" style="6" bestFit="1" customWidth="1"/>
     <x:col min="11" max="13" width="8.796875" style="6" bestFit="1" customWidth="1"/>
     <x:col min="15" max="15" width="8.796875" style="6" bestFit="1" customWidth="1"/>
+    <x:col min="22" max="22" width="8.796875" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="6" t="s">
-        <x:v>90</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="2:3">
-      <x:c r="B2" s="54" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="C2" s="54"/>
+      <x:c r="B2" s="41" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C2" s="41"/>
     </x:row>
     <x:row r="7" spans="11:16">
       <x:c r="K7" s="25" t="s">
-        <x:v>197</x:v>
-      </x:c>
-      <x:c r="L7" s="50" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="M7" s="50"/>
-      <x:c r="N7" s="51" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="O7" s="52"/>
-      <x:c r="P7" s="53"/>
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="L7" s="37" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M7" s="37"/>
+      <x:c r="N7" s="38" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="O7" s="39"/>
+      <x:c r="P7" s="40"/>
     </x:row>
     <x:row r="8" spans="11:17">
       <x:c r="K8" s="22">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="L8" s="50" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="M8" s="50"/>
-      <x:c r="N8" s="50" t="s">
-        <x:v>184</x:v>
-      </x:c>
-      <x:c r="O8" s="50"/>
-      <x:c r="P8" s="50"/>
+      <x:c r="L8" s="37" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="M8" s="37"/>
+      <x:c r="N8" s="37" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="O8" s="37"/>
+      <x:c r="P8" s="37"/>
       <x:c r="Q8" s="4" t="s">
-        <x:v>190</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="11:17">
       <x:c r="K9" s="22">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="L9" s="50" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="M9" s="50"/>
-      <x:c r="N9" s="50" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="O9" s="50"/>
-      <x:c r="P9" s="50"/>
+      <x:c r="L9" s="37" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="M9" s="37"/>
+      <x:c r="N9" s="37" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="O9" s="37"/>
+      <x:c r="P9" s="37"/>
       <x:c r="Q9" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="11:17">
       <x:c r="K10" s="22">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="L10" s="50" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="M10" s="50"/>
-      <x:c r="N10" s="50" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="O10" s="50"/>
-      <x:c r="P10" s="50"/>
+      <x:c r="L10" s="37" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="M10" s="37"/>
+      <x:c r="N10" s="37" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="O10" s="37"/>
+      <x:c r="P10" s="37"/>
       <x:c r="Q10" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="11:17">
       <x:c r="K11" s="22">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="L11" s="50" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="M11" s="50"/>
-      <x:c r="N11" s="50" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="O11" s="50"/>
-      <x:c r="P11" s="50"/>
+      <x:c r="L11" s="37" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="M11" s="37"/>
+      <x:c r="N11" s="37" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="O11" s="37"/>
+      <x:c r="P11" s="37"/>
       <x:c r="Q11" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="11:17">
       <x:c r="K12" s="22">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="L12" s="50" t="s">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="M12" s="50"/>
-      <x:c r="N12" s="50" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="O12" s="50"/>
-      <x:c r="P12" s="50"/>
+      <x:c r="L12" s="37" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="M12" s="37"/>
+      <x:c r="N12" s="37" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="O12" s="37"/>
+      <x:c r="P12" s="37"/>
       <x:c r="Q12" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:8">
-      <x:c r="B20" s="54" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C20" s="54"/>
-      <x:c r="D20" s="54"/>
-      <x:c r="E20" s="54"/>
-      <x:c r="F20" s="54"/>
-      <x:c r="G20" s="54"/>
-      <x:c r="H20" s="54"/>
+      <x:c r="B20" s="41" t="s">
+        <x:v>198</x:v>
+      </x:c>
+      <x:c r="C20" s="41"/>
+      <x:c r="D20" s="41"/>
+      <x:c r="E20" s="41"/>
+      <x:c r="F20" s="41"/>
+      <x:c r="G20" s="41"/>
+      <x:c r="H20" s="41"/>
     </x:row>
     <x:row r="21" spans="2:8">
-      <x:c r="B21" s="54" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C21" s="54"/>
-      <x:c r="D21" s="54"/>
-      <x:c r="E21" s="54"/>
-      <x:c r="F21" s="54"/>
-      <x:c r="G21" s="54"/>
-      <x:c r="H21" s="54"/>
+      <x:c r="B21" s="41" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C21" s="41"/>
+      <x:c r="D21" s="41"/>
+      <x:c r="E21" s="41"/>
+      <x:c r="F21" s="41"/>
+      <x:c r="G21" s="41"/>
+      <x:c r="H21" s="41"/>
     </x:row>
     <x:row r="22" spans="2:8">
-      <x:c r="B22" s="54" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C22" s="54"/>
-      <x:c r="D22" s="54"/>
-      <x:c r="E22" s="54"/>
-      <x:c r="F22" s="54"/>
-      <x:c r="G22" s="54"/>
-      <x:c r="H22" s="54"/>
+      <x:c r="B22" s="41" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="C22" s="41"/>
+      <x:c r="D22" s="41"/>
+      <x:c r="E22" s="41"/>
+      <x:c r="F22" s="41"/>
+      <x:c r="G22" s="41"/>
+      <x:c r="H22" s="41"/>
     </x:row>
     <x:row r="23" spans="2:8">
-      <x:c r="B23" s="54" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C23" s="54"/>
-      <x:c r="D23" s="54"/>
-      <x:c r="E23" s="54"/>
-      <x:c r="F23" s="54"/>
-      <x:c r="G23" s="54"/>
-      <x:c r="H23" s="54"/>
+      <x:c r="B23" s="41" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C23" s="41"/>
+      <x:c r="D23" s="41"/>
+      <x:c r="E23" s="41"/>
+      <x:c r="F23" s="41"/>
+      <x:c r="G23" s="41"/>
+      <x:c r="H23" s="41"/>
     </x:row>
     <x:row r="24" spans="2:14">
-      <x:c r="B24" s="55" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C24" s="54"/>
-      <x:c r="D24" s="54"/>
-      <x:c r="E24" s="54"/>
-      <x:c r="F24" s="54"/>
-      <x:c r="G24" s="54"/>
-      <x:c r="H24" s="54"/>
-      <x:c r="I24" s="54"/>
-      <x:c r="J24" s="54"/>
-      <x:c r="K24" s="54"/>
-      <x:c r="L24" s="54"/>
-      <x:c r="M24" s="54"/>
-      <x:c r="N24" s="54"/>
+      <x:c r="B24" s="42" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C24" s="41"/>
+      <x:c r="D24" s="41"/>
+      <x:c r="E24" s="41"/>
+      <x:c r="F24" s="41"/>
+      <x:c r="G24" s="41"/>
+      <x:c r="H24" s="41"/>
+      <x:c r="I24" s="41"/>
+      <x:c r="J24" s="41"/>
+      <x:c r="K24" s="41"/>
+      <x:c r="L24" s="41"/>
+      <x:c r="M24" s="41"/>
+      <x:c r="N24" s="41"/>
     </x:row>
     <x:row r="25" spans="2:14">
-      <x:c r="B25" s="55"/>
-      <x:c r="C25" s="54"/>
-      <x:c r="D25" s="54"/>
-      <x:c r="E25" s="54"/>
-      <x:c r="F25" s="54"/>
-      <x:c r="G25" s="54"/>
-      <x:c r="H25" s="54"/>
-      <x:c r="I25" s="54"/>
-      <x:c r="J25" s="54"/>
-      <x:c r="K25" s="54"/>
-      <x:c r="L25" s="54"/>
-      <x:c r="M25" s="54"/>
-      <x:c r="N25" s="54"/>
+      <x:c r="B25" s="42"/>
+      <x:c r="C25" s="41"/>
+      <x:c r="D25" s="41"/>
+      <x:c r="E25" s="41"/>
+      <x:c r="F25" s="41"/>
+      <x:c r="G25" s="41"/>
+      <x:c r="H25" s="41"/>
+      <x:c r="I25" s="41"/>
+      <x:c r="J25" s="41"/>
+      <x:c r="K25" s="41"/>
+      <x:c r="L25" s="41"/>
+      <x:c r="M25" s="41"/>
+      <x:c r="N25" s="41"/>
     </x:row>
     <x:row r="27" spans="2:3">
-      <x:c r="B27" s="54" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="C27" s="54"/>
+      <x:c r="B27" s="41" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C27" s="41"/>
     </x:row>
     <x:row r="28" spans="2:4">
       <x:c r="B28" s="23"/>
-      <x:c r="C28" s="54" t="s">
-        <x:v>172</x:v>
-      </x:c>
-      <x:c r="D28" s="54"/>
+      <x:c r="C28" s="41" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D28" s="41"/>
     </x:row>
     <x:row r="31" spans="11:16">
       <x:c r="K31" s="25" t="s">
-        <x:v>197</x:v>
-      </x:c>
-      <x:c r="L31" s="50" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="M31" s="50"/>
-      <x:c r="N31" s="51" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="O31" s="52"/>
-      <x:c r="P31" s="53"/>
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="L31" s="37" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M31" s="37"/>
+      <x:c r="N31" s="38" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="O31" s="39"/>
+      <x:c r="P31" s="40"/>
     </x:row>
     <x:row r="32" spans="11:17">
       <x:c r="K32" s="22">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="L32" s="50" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="M32" s="50"/>
-      <x:c r="N32" s="50" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="O32" s="50"/>
-      <x:c r="P32" s="50"/>
+      <x:c r="L32" s="37" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="M32" s="37"/>
+      <x:c r="N32" s="37" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="O32" s="37"/>
+      <x:c r="P32" s="37"/>
       <x:c r="Q32" s="4" t="s">
-        <x:v>190</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="11:17">
       <x:c r="K33" s="22">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L33" s="50" t="s">
-        <x:v>181</x:v>
-      </x:c>
-      <x:c r="M33" s="50" t="s">
-        <x:v>181</x:v>
-      </x:c>
-      <x:c r="N33" s="50" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="O33" s="50"/>
-      <x:c r="P33" s="50"/>
+      <x:c r="L33" s="37" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="M33" s="37" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="N33" s="37" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="O33" s="37"/>
+      <x:c r="P33" s="37"/>
       <x:c r="Q33" s="4" t="s">
-        <x:v>190</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="11:17">
       <x:c r="K34" s="22">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="L34" s="50" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="M34" s="50" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="N34" s="50" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="O34" s="50"/>
-      <x:c r="P34" s="50"/>
+      <x:c r="L34" s="37" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="M34" s="37" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="N34" s="37" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="O34" s="37"/>
+      <x:c r="P34" s="37"/>
       <x:c r="Q34" s="4" t="s">
-        <x:v>190</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="11:17">
       <x:c r="K35" s="22">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="L35" s="50" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="M35" s="50" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="N35" s="50" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="O35" s="50"/>
-      <x:c r="P35" s="50"/>
+      <x:c r="L35" s="37" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="M35" s="37" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="N35" s="37" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="O35" s="37"/>
+      <x:c r="P35" s="37"/>
       <x:c r="Q35" s="4" t="s">
-        <x:v>190</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="11:17">
       <x:c r="K36" s="22">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L36" s="50" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="M36" s="50"/>
-      <x:c r="N36" s="50" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="O36" s="50"/>
-      <x:c r="P36" s="50"/>
+      <x:c r="L36" s="37" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="M36" s="37"/>
+      <x:c r="N36" s="37" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="O36" s="37"/>
+      <x:c r="P36" s="37"/>
       <x:c r="Q36" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="11:17">
       <x:c r="K37" s="22">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="L37" s="50" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="M37" s="50"/>
-      <x:c r="N37" s="50" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="O37" s="50"/>
-      <x:c r="P37" s="50"/>
+      <x:c r="L37" s="37" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="M37" s="37"/>
+      <x:c r="N37" s="37" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="O37" s="37"/>
+      <x:c r="P37" s="37"/>
       <x:c r="Q37" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="11:21">
       <x:c r="K38" s="22">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="L38" s="50" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="M38" s="50"/>
-      <x:c r="N38" s="50" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="O38" s="50"/>
-      <x:c r="P38" s="50"/>
+      <x:c r="L38" s="37" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="M38" s="37"/>
+      <x:c r="N38" s="37" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="O38" s="37"/>
+      <x:c r="P38" s="37"/>
       <x:c r="Q38" s="4" t="s">
-        <x:v>190</x:v>
-      </x:c>
-      <x:c r="R38" s="54" t="s">
-        <x:v>209</x:v>
-      </x:c>
-      <x:c r="S38" s="54"/>
-      <x:c r="T38" s="54"/>
-      <x:c r="U38" s="54"/>
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="R38" s="41" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="S38" s="41"/>
+      <x:c r="T38" s="41"/>
+      <x:c r="U38" s="41"/>
     </x:row>
     <x:row r="39" spans="11:21">
       <x:c r="K39" s="22">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="L39" s="50" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="M39" s="50"/>
-      <x:c r="N39" s="50" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="O39" s="50"/>
-      <x:c r="P39" s="50"/>
+      <x:c r="L39" s="37" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="M39" s="37"/>
+      <x:c r="N39" s="37" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="O39" s="37"/>
+      <x:c r="P39" s="37"/>
       <x:c r="Q39" s="4" t="s">
-        <x:v>190</x:v>
-      </x:c>
-      <x:c r="R39" s="54" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="S39" s="54"/>
-      <x:c r="T39" s="54"/>
-      <x:c r="U39" s="54"/>
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="R39" s="41" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="S39" s="41"/>
+      <x:c r="T39" s="41"/>
+      <x:c r="U39" s="41"/>
     </x:row>
     <x:row r="46" spans="2:21">
-      <x:c r="B46" s="54" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C46" s="54"/>
-      <x:c r="D46" s="54"/>
-      <x:c r="E46" s="54"/>
-      <x:c r="F46" s="54"/>
-      <x:c r="G46" s="54"/>
-      <x:c r="H46" s="54"/>
+      <x:c r="B46" s="41" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="C46" s="41"/>
+      <x:c r="D46" s="41"/>
+      <x:c r="E46" s="41"/>
+      <x:c r="F46" s="41"/>
+      <x:c r="G46" s="41"/>
+      <x:c r="H46" s="41"/>
       <x:c r="I46" s="36"/>
       <x:c r="J46" s="36"/>
-      <x:c r="K46" s="54" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L46" s="54"/>
-      <x:c r="M46" s="54"/>
-      <x:c r="N46" s="54"/>
-      <x:c r="O46" s="54"/>
-      <x:c r="P46" s="54"/>
-      <x:c r="Q46" s="54"/>
+      <x:c r="K46" s="41" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="L46" s="41"/>
+      <x:c r="M46" s="41"/>
+      <x:c r="N46" s="41"/>
+      <x:c r="O46" s="41"/>
+      <x:c r="P46" s="41"/>
+      <x:c r="Q46" s="41"/>
       <x:c r="R46" s="36"/>
       <x:c r="S46" s="36"/>
       <x:c r="T46" s="36"/>
       <x:c r="U46" s="36"/>
     </x:row>
     <x:row r="47" spans="2:21">
-      <x:c r="B47" s="54" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C47" s="54"/>
-      <x:c r="D47" s="54"/>
-      <x:c r="E47" s="54"/>
-      <x:c r="F47" s="54"/>
-      <x:c r="G47" s="54"/>
-      <x:c r="H47" s="54"/>
+      <x:c r="B47" s="41" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C47" s="41"/>
+      <x:c r="D47" s="41"/>
+      <x:c r="E47" s="41"/>
+      <x:c r="F47" s="41"/>
+      <x:c r="G47" s="41"/>
+      <x:c r="H47" s="41"/>
       <x:c r="I47" s="36"/>
       <x:c r="J47" s="36"/>
-      <x:c r="K47" s="54" t="s">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="L47" s="54"/>
-      <x:c r="M47" s="54"/>
-      <x:c r="N47" s="54"/>
-      <x:c r="O47" s="54"/>
-      <x:c r="P47" s="54"/>
-      <x:c r="Q47" s="54"/>
+      <x:c r="K47" s="41" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="L47" s="41"/>
+      <x:c r="M47" s="41"/>
+      <x:c r="N47" s="41"/>
+      <x:c r="O47" s="41"/>
+      <x:c r="P47" s="41"/>
+      <x:c r="Q47" s="41"/>
       <x:c r="R47" s="36"/>
       <x:c r="S47" s="36"/>
       <x:c r="T47" s="36"/>
@@ -3210,41 +3439,41 @@
       <x:c r="U48" s="36"/>
     </x:row>
     <x:row r="49" spans="2:21">
-      <x:c r="B49" s="54" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C49" s="54"/>
-      <x:c r="D49" s="54"/>
-      <x:c r="E49" s="54"/>
-      <x:c r="F49" s="54"/>
-      <x:c r="G49" s="54"/>
-      <x:c r="H49" s="54"/>
+      <x:c r="B49" s="41" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="C49" s="41"/>
+      <x:c r="D49" s="41"/>
+      <x:c r="E49" s="41"/>
+      <x:c r="F49" s="41"/>
+      <x:c r="G49" s="41"/>
+      <x:c r="H49" s="41"/>
       <x:c r="I49" s="36"/>
       <x:c r="J49" s="36"/>
-      <x:c r="K49" s="54" t="s">
-        <x:v>177</x:v>
-      </x:c>
-      <x:c r="L49" s="54"/>
-      <x:c r="M49" s="54"/>
-      <x:c r="N49" s="54"/>
-      <x:c r="O49" s="54"/>
-      <x:c r="P49" s="54"/>
-      <x:c r="Q49" s="54"/>
+      <x:c r="K49" s="41" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="L49" s="41"/>
+      <x:c r="M49" s="41"/>
+      <x:c r="N49" s="41"/>
+      <x:c r="O49" s="41"/>
+      <x:c r="P49" s="41"/>
+      <x:c r="Q49" s="41"/>
       <x:c r="R49" s="36"/>
       <x:c r="S49" s="36"/>
       <x:c r="T49" s="36"/>
       <x:c r="U49" s="36"/>
     </x:row>
     <x:row r="50" spans="2:21">
-      <x:c r="B50" s="54" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C50" s="54"/>
-      <x:c r="D50" s="54"/>
-      <x:c r="E50" s="54"/>
-      <x:c r="F50" s="54"/>
-      <x:c r="G50" s="54"/>
-      <x:c r="H50" s="54"/>
+      <x:c r="B50" s="41" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="C50" s="41"/>
+      <x:c r="D50" s="41"/>
+      <x:c r="E50" s="41"/>
+      <x:c r="F50" s="41"/>
+      <x:c r="G50" s="41"/>
+      <x:c r="H50" s="41"/>
       <x:c r="I50" s="36"/>
       <x:c r="J50" s="36"/>
       <x:c r="K50" s="36"/>
@@ -3282,15 +3511,15 @@
       <x:c r="U51" s="36"/>
     </x:row>
     <x:row r="52" spans="2:21">
-      <x:c r="B52" s="54" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C52" s="54"/>
-      <x:c r="D52" s="54"/>
-      <x:c r="E52" s="54"/>
-      <x:c r="F52" s="54"/>
-      <x:c r="G52" s="54"/>
-      <x:c r="H52" s="54"/>
+      <x:c r="B52" s="41" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="C52" s="41"/>
+      <x:c r="D52" s="41"/>
+      <x:c r="E52" s="41"/>
+      <x:c r="F52" s="41"/>
+      <x:c r="G52" s="41"/>
+      <x:c r="H52" s="41"/>
       <x:c r="I52" s="36"/>
       <x:c r="J52" s="36"/>
       <x:c r="K52" s="36"/>
@@ -3306,15 +3535,15 @@
       <x:c r="U52" s="36"/>
     </x:row>
     <x:row r="53" spans="2:21">
-      <x:c r="B53" s="54" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C53" s="54"/>
-      <x:c r="D53" s="54"/>
-      <x:c r="E53" s="54"/>
-      <x:c r="F53" s="54"/>
-      <x:c r="G53" s="54"/>
-      <x:c r="H53" s="54"/>
+      <x:c r="B53" s="41" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="C53" s="41"/>
+      <x:c r="D53" s="41"/>
+      <x:c r="E53" s="41"/>
+      <x:c r="F53" s="41"/>
+      <x:c r="G53" s="41"/>
+      <x:c r="H53" s="41"/>
       <x:c r="I53" s="36"/>
       <x:c r="J53" s="36"/>
       <x:c r="K53" s="36"/>
@@ -3330,28 +3559,26 @@
       <x:c r="U53" s="36"/>
     </x:row>
     <x:row r="54" spans="2:22" ht="20.649999999999999">
-      <x:c r="B54" s="54" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C54" s="54"/>
-      <x:c r="D54" s="54"/>
-      <x:c r="E54" s="54"/>
-      <x:c r="F54" s="54"/>
-      <x:c r="G54" s="54"/>
-      <x:c r="H54" s="54"/>
+      <x:c r="B54" s="41"/>
+      <x:c r="C54" s="41"/>
+      <x:c r="D54" s="41"/>
+      <x:c r="E54" s="41"/>
+      <x:c r="F54" s="41"/>
+      <x:c r="G54" s="41"/>
+      <x:c r="H54" s="41"/>
       <x:c r="I54" s="36"/>
       <x:c r="J54" s="36"/>
       <x:c r="K54" s="36"/>
       <x:c r="L54" s="36"/>
       <x:c r="M54" s="36"/>
       <x:c r="N54" s="26" t="s">
-        <x:v>191</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="O54" s="36"/>
       <x:c r="P54" s="36"/>
       <x:c r="Q54" s="36"/>
       <x:c r="R54" s="27" t="s">
-        <x:v>191</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="S54" s="36"/>
       <x:c r="T54" s="36"/>
@@ -3381,15 +3608,15 @@
       <x:c r="U55" s="36"/>
     </x:row>
     <x:row r="56" spans="2:21">
-      <x:c r="B56" s="54" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C56" s="54"/>
-      <x:c r="D56" s="54"/>
-      <x:c r="E56" s="54"/>
-      <x:c r="F56" s="54"/>
-      <x:c r="G56" s="54"/>
-      <x:c r="H56" s="54"/>
+      <x:c r="B56" s="41" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C56" s="41"/>
+      <x:c r="D56" s="41"/>
+      <x:c r="E56" s="41"/>
+      <x:c r="F56" s="41"/>
+      <x:c r="G56" s="41"/>
+      <x:c r="H56" s="41"/>
       <x:c r="I56" s="36"/>
       <x:c r="J56" s="36"/>
       <x:c r="K56" s="36"/>
@@ -3405,15 +3632,15 @@
       <x:c r="U56" s="36"/>
     </x:row>
     <x:row r="57" spans="2:21">
-      <x:c r="B57" s="54" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="C57" s="54"/>
-      <x:c r="D57" s="54"/>
-      <x:c r="E57" s="54"/>
-      <x:c r="F57" s="54"/>
-      <x:c r="G57" s="54"/>
-      <x:c r="H57" s="54"/>
+      <x:c r="B57" s="41" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C57" s="41"/>
+      <x:c r="D57" s="41"/>
+      <x:c r="E57" s="41"/>
+      <x:c r="F57" s="41"/>
+      <x:c r="G57" s="41"/>
+      <x:c r="H57" s="41"/>
       <x:c r="I57" s="36"/>
       <x:c r="J57" s="36"/>
       <x:c r="K57" s="36"/>
@@ -3438,26 +3665,26 @@
       <x:c r="H58" s="36"/>
       <x:c r="I58" s="36"/>
       <x:c r="J58" s="36"/>
-      <x:c r="K58" s="54" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="L58" s="54"/>
-      <x:c r="M58" s="54"/>
+      <x:c r="K58" s="41" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="L58" s="41"/>
+      <x:c r="M58" s="41"/>
       <x:c r="N58" s="36"/>
-      <x:c r="O58" s="54" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="P58" s="54"/>
-      <x:c r="Q58" s="54"/>
+      <x:c r="O58" s="41" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="P58" s="41"/>
+      <x:c r="Q58" s="41"/>
       <x:c r="R58" s="36"/>
-      <x:c r="S58" s="54" t="s">
-        <x:v>176</x:v>
-      </x:c>
-      <x:c r="T58" s="54"/>
-      <x:c r="U58" s="54"/>
-      <x:c r="W58" s="54"/>
-      <x:c r="X58" s="54"/>
-      <x:c r="Y58" s="54"/>
+      <x:c r="S58" s="41" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="T58" s="41"/>
+      <x:c r="U58" s="41"/>
+      <x:c r="W58" s="41"/>
+      <x:c r="X58" s="41"/>
+      <x:c r="Y58" s="41"/>
     </x:row>
     <x:row r="59" spans="2:25">
       <x:c r="B59" s="36"/>
@@ -3469,26 +3696,26 @@
       <x:c r="H59" s="36"/>
       <x:c r="I59" s="36"/>
       <x:c r="J59" s="36"/>
-      <x:c r="K59" s="54" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="L59" s="54"/>
-      <x:c r="M59" s="54"/>
+      <x:c r="K59" s="41" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="L59" s="41"/>
+      <x:c r="M59" s="41"/>
       <x:c r="N59" s="36"/>
-      <x:c r="O59" s="54" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="P59" s="54"/>
-      <x:c r="Q59" s="54"/>
+      <x:c r="O59" s="41" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="P59" s="41"/>
+      <x:c r="Q59" s="41"/>
       <x:c r="R59" s="36"/>
-      <x:c r="S59" s="54" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="T59" s="54"/>
-      <x:c r="U59" s="54"/>
-      <x:c r="W59" s="54"/>
-      <x:c r="X59" s="54"/>
-      <x:c r="Y59" s="54"/>
+      <x:c r="S59" s="41" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="T59" s="41"/>
+      <x:c r="U59" s="41"/>
+      <x:c r="W59" s="41"/>
+      <x:c r="X59" s="41"/>
+      <x:c r="Y59" s="41"/>
     </x:row>
     <x:row r="60" spans="2:21">
       <x:c r="B60" s="36"/>
@@ -3504,28 +3731,28 @@
       <x:c r="L60" s="36"/>
       <x:c r="M60" s="36"/>
       <x:c r="N60" s="36"/>
-      <x:c r="O60" s="54" t="s">
-        <x:v>167</x:v>
-      </x:c>
-      <x:c r="P60" s="54"/>
-      <x:c r="Q60" s="54"/>
+      <x:c r="O60" s="41" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="P60" s="41"/>
+      <x:c r="Q60" s="41"/>
       <x:c r="R60" s="36"/>
-      <x:c r="S60" s="54" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="T60" s="54"/>
-      <x:c r="U60" s="54"/>
+      <x:c r="S60" s="41" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="T60" s="41"/>
+      <x:c r="U60" s="41"/>
     </x:row>
     <x:row r="61" spans="2:21">
-      <x:c r="B61" s="54" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="C61" s="54"/>
-      <x:c r="D61" s="54"/>
-      <x:c r="E61" s="54"/>
-      <x:c r="F61" s="54"/>
-      <x:c r="G61" s="54"/>
-      <x:c r="H61" s="54"/>
+      <x:c r="B61" s="41" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C61" s="41"/>
+      <x:c r="D61" s="41"/>
+      <x:c r="E61" s="41"/>
+      <x:c r="F61" s="41"/>
+      <x:c r="G61" s="41"/>
+      <x:c r="H61" s="41"/>
       <x:c r="I61" s="36"/>
       <x:c r="J61" s="36"/>
       <x:c r="K61" s="36"/>
@@ -3536,52 +3763,52 @@
       <x:c r="P61" s="36"/>
       <x:c r="Q61" s="36"/>
       <x:c r="R61" s="36"/>
-      <x:c r="S61" s="54" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="T61" s="54"/>
-      <x:c r="U61" s="54"/>
+      <x:c r="S61" s="41" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="T61" s="41"/>
+      <x:c r="U61" s="41"/>
     </x:row>
     <x:row r="62" spans="2:21">
-      <x:c r="B62" s="54" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C62" s="54"/>
-      <x:c r="D62" s="54"/>
-      <x:c r="E62" s="54"/>
-      <x:c r="F62" s="54"/>
-      <x:c r="G62" s="54"/>
-      <x:c r="H62" s="54"/>
-      <x:c r="I62" s="36"/>
-      <x:c r="J62" s="36"/>
-      <x:c r="K62" s="36"/>
-      <x:c r="L62" s="36"/>
+      <x:c r="B62" s="41" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="C62" s="41"/>
+      <x:c r="D62" s="41"/>
+      <x:c r="E62" s="41"/>
+      <x:c r="F62" s="41"/>
+      <x:c r="G62" s="41"/>
+      <x:c r="H62" s="41"/>
+      <x:c r="I62" s="41"/>
+      <x:c r="J62" s="41"/>
+      <x:c r="K62" s="41"/>
+      <x:c r="L62" s="41"/>
       <x:c r="M62" s="36"/>
       <x:c r="N62" s="36"/>
       <x:c r="O62" s="36"/>
       <x:c r="P62" s="36"/>
       <x:c r="Q62" s="36"/>
       <x:c r="R62" s="36"/>
-      <x:c r="S62" s="54" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="T62" s="54"/>
-      <x:c r="U62" s="54"/>
+      <x:c r="S62" s="41" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="T62" s="41"/>
+      <x:c r="U62" s="41"/>
     </x:row>
     <x:row r="63" spans="2:21">
-      <x:c r="B63" s="54" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C63" s="54"/>
-      <x:c r="D63" s="54"/>
-      <x:c r="E63" s="54"/>
-      <x:c r="F63" s="54"/>
-      <x:c r="G63" s="54"/>
-      <x:c r="H63" s="54"/>
-      <x:c r="I63" s="54"/>
-      <x:c r="J63" s="54"/>
-      <x:c r="K63" s="54"/>
-      <x:c r="L63" s="54"/>
+      <x:c r="B63" s="41" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C63" s="41"/>
+      <x:c r="D63" s="41"/>
+      <x:c r="E63" s="41"/>
+      <x:c r="F63" s="41"/>
+      <x:c r="G63" s="41"/>
+      <x:c r="H63" s="41"/>
+      <x:c r="I63" s="41"/>
+      <x:c r="J63" s="41"/>
+      <x:c r="K63" s="41"/>
+      <x:c r="L63" s="41"/>
       <x:c r="M63" s="36"/>
       <x:c r="N63" s="36"/>
       <x:c r="O63" s="36"/>
@@ -3599,83 +3826,83 @@
       <x:c r="M64" s="5"/>
     </x:row>
     <x:row r="65" spans="3:5">
-      <x:c r="C65" s="54" t="s">
-        <x:v>185</x:v>
-      </x:c>
-      <x:c r="D65" s="54"/>
-      <x:c r="E65" s="54"/>
+      <x:c r="C65" s="41" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D65" s="41"/>
+      <x:c r="E65" s="41"/>
     </x:row>
     <x:row r="70" spans="12:19">
       <x:c r="L70" s="25" t="s">
-        <x:v>197</x:v>
-      </x:c>
-      <x:c r="M70" s="50" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="N70" s="50"/>
-      <x:c r="O70" s="50"/>
-      <x:c r="P70" s="50"/>
-      <x:c r="Q70" s="50" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="R70" s="50"/>
-      <x:c r="S70" s="50"/>
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="M70" s="37" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="N70" s="37"/>
+      <x:c r="O70" s="37"/>
+      <x:c r="P70" s="37"/>
+      <x:c r="Q70" s="37" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="R70" s="37"/>
+      <x:c r="S70" s="37"/>
     </x:row>
     <x:row r="71" spans="12:20">
       <x:c r="L71" s="22">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="M71" s="50" t="s">
-        <x:v>215</x:v>
-      </x:c>
-      <x:c r="N71" s="50"/>
-      <x:c r="O71" s="50"/>
-      <x:c r="P71" s="50"/>
-      <x:c r="Q71" s="50" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="R71" s="50"/>
-      <x:c r="S71" s="50"/>
+      <x:c r="M71" s="37" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="N71" s="37"/>
+      <x:c r="O71" s="37"/>
+      <x:c r="P71" s="37"/>
+      <x:c r="Q71" s="37" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="R71" s="37"/>
+      <x:c r="S71" s="37"/>
       <x:c r="T71" s="4" t="s">
-        <x:v>190</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="12:20">
       <x:c r="L72" s="22">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="M72" s="50" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="N72" s="50"/>
-      <x:c r="O72" s="50"/>
-      <x:c r="P72" s="50"/>
-      <x:c r="Q72" s="50" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="R72" s="50"/>
-      <x:c r="S72" s="50"/>
+      <x:c r="M72" s="37" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="N72" s="37"/>
+      <x:c r="O72" s="37"/>
+      <x:c r="P72" s="37"/>
+      <x:c r="Q72" s="37" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="R72" s="37"/>
+      <x:c r="S72" s="37"/>
       <x:c r="T72" s="4" t="s">
-        <x:v>190</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="12:20">
       <x:c r="L73" s="22">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="M73" s="50" t="s">
-        <x:v>216</x:v>
-      </x:c>
-      <x:c r="N73" s="50"/>
-      <x:c r="O73" s="50"/>
-      <x:c r="P73" s="50"/>
-      <x:c r="Q73" s="50" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="R73" s="50"/>
-      <x:c r="S73" s="50"/>
+      <x:c r="M73" s="37" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="N73" s="37"/>
+      <x:c r="O73" s="37"/>
+      <x:c r="P73" s="37"/>
+      <x:c r="Q73" s="37" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="R73" s="37"/>
+      <x:c r="S73" s="37"/>
       <x:c r="T73" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="11:15">
@@ -3686,360 +3913,393 @@
     </x:row>
     <x:row r="75" spans="11:20">
       <x:c r="K75" s="4"/>
-      <x:c r="L75" s="54" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="M75" s="54"/>
-      <x:c r="N75" s="54"/>
-      <x:c r="O75" s="54"/>
-      <x:c r="P75" s="54"/>
-      <x:c r="Q75" s="54"/>
-      <x:c r="R75" s="54"/>
-      <x:c r="S75" s="54"/>
-      <x:c r="T75" s="54"/>
+      <x:c r="L75" s="41" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="M75" s="41"/>
+      <x:c r="N75" s="41"/>
+      <x:c r="O75" s="41"/>
+      <x:c r="P75" s="41"/>
+      <x:c r="Q75" s="41"/>
+      <x:c r="R75" s="41"/>
+      <x:c r="S75" s="41"/>
+      <x:c r="T75" s="41"/>
     </x:row>
     <x:row r="76" spans="11:20">
       <x:c r="K76" s="4"/>
-      <x:c r="L76" s="54" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="M76" s="54"/>
-      <x:c r="N76" s="54"/>
-      <x:c r="O76" s="54"/>
-      <x:c r="P76" s="54"/>
-      <x:c r="Q76" s="54"/>
-      <x:c r="R76" s="54"/>
-      <x:c r="S76" s="54"/>
-      <x:c r="T76" s="54"/>
+      <x:c r="L76" s="41" t="s">
+        <x:v>194</x:v>
+      </x:c>
+      <x:c r="M76" s="41"/>
+      <x:c r="N76" s="41"/>
+      <x:c r="O76" s="41"/>
+      <x:c r="P76" s="41"/>
+      <x:c r="Q76" s="41"/>
+      <x:c r="R76" s="41"/>
+      <x:c r="S76" s="41"/>
+      <x:c r="T76" s="41"/>
     </x:row>
     <x:row r="77" spans="12:20">
-      <x:c r="L77" s="54" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="M77" s="54"/>
-      <x:c r="N77" s="54"/>
-      <x:c r="O77" s="54"/>
-      <x:c r="P77" s="54"/>
-      <x:c r="Q77" s="54"/>
-      <x:c r="R77" s="54"/>
-      <x:c r="S77" s="54"/>
-      <x:c r="T77" s="54"/>
+      <x:c r="L77" s="41" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="M77" s="41"/>
+      <x:c r="N77" s="41"/>
+      <x:c r="O77" s="41"/>
+      <x:c r="P77" s="41"/>
+      <x:c r="Q77" s="41"/>
+      <x:c r="R77" s="41"/>
+      <x:c r="S77" s="41"/>
+      <x:c r="T77" s="41"/>
     </x:row>
     <x:row r="79" spans="12:20">
-      <x:c r="L79" s="54" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="M79" s="54"/>
-      <x:c r="N79" s="54"/>
-      <x:c r="O79" s="54"/>
-      <x:c r="P79" s="54"/>
-      <x:c r="Q79" s="54"/>
-      <x:c r="R79" s="54"/>
-      <x:c r="S79" s="54"/>
-      <x:c r="T79" s="54"/>
+      <x:c r="L79" s="41" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="M79" s="41"/>
+      <x:c r="N79" s="41"/>
+      <x:c r="O79" s="41"/>
+      <x:c r="P79" s="41"/>
+      <x:c r="Q79" s="41"/>
+      <x:c r="R79" s="41"/>
+      <x:c r="S79" s="41"/>
+      <x:c r="T79" s="41"/>
     </x:row>
     <x:row r="83" spans="2:8">
-      <x:c r="B83" s="54" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="C83" s="54"/>
-      <x:c r="D83" s="54"/>
-      <x:c r="E83" s="54"/>
-      <x:c r="F83" s="54"/>
-      <x:c r="G83" s="54"/>
-      <x:c r="H83" s="54"/>
+      <x:c r="B83" s="41" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="C83" s="41"/>
+      <x:c r="D83" s="41"/>
+      <x:c r="E83" s="41"/>
+      <x:c r="F83" s="41"/>
+      <x:c r="G83" s="41"/>
+      <x:c r="H83" s="41"/>
     </x:row>
     <x:row r="84" spans="2:8">
-      <x:c r="B84" s="54" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C84" s="54"/>
-      <x:c r="D84" s="54"/>
-      <x:c r="E84" s="54"/>
-      <x:c r="F84" s="54"/>
-      <x:c r="G84" s="54"/>
-      <x:c r="H84" s="54"/>
+      <x:c r="B84" s="41" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C84" s="41"/>
+      <x:c r="D84" s="41"/>
+      <x:c r="E84" s="41"/>
+      <x:c r="F84" s="41"/>
+      <x:c r="G84" s="41"/>
+      <x:c r="H84" s="41"/>
     </x:row>
     <x:row r="85" spans="2:8">
-      <x:c r="B85" s="54"/>
-      <x:c r="C85" s="54"/>
-      <x:c r="D85" s="54"/>
-      <x:c r="E85" s="54"/>
-      <x:c r="F85" s="54"/>
-      <x:c r="G85" s="54"/>
-      <x:c r="H85" s="54"/>
+      <x:c r="B85" s="41"/>
+      <x:c r="C85" s="41"/>
+      <x:c r="D85" s="41"/>
+      <x:c r="E85" s="41"/>
+      <x:c r="F85" s="41"/>
+      <x:c r="G85" s="41"/>
+      <x:c r="H85" s="41"/>
     </x:row>
     <x:row r="86" spans="2:8">
-      <x:c r="B86" s="54"/>
-      <x:c r="C86" s="54"/>
-      <x:c r="D86" s="54"/>
-      <x:c r="E86" s="54"/>
-      <x:c r="F86" s="54"/>
-      <x:c r="G86" s="54"/>
-      <x:c r="H86" s="54"/>
+      <x:c r="B86" s="41"/>
+      <x:c r="C86" s="41"/>
+      <x:c r="D86" s="41"/>
+      <x:c r="E86" s="41"/>
+      <x:c r="F86" s="41"/>
+      <x:c r="G86" s="41"/>
+      <x:c r="H86" s="41"/>
     </x:row>
     <x:row r="87" spans="2:8">
-      <x:c r="B87" s="54" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C87" s="54"/>
-      <x:c r="D87" s="54"/>
-      <x:c r="E87" s="54"/>
-      <x:c r="F87" s="54"/>
-      <x:c r="G87" s="54"/>
-      <x:c r="H87" s="54"/>
+      <x:c r="B87" s="41" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="C87" s="41"/>
+      <x:c r="D87" s="41"/>
+      <x:c r="E87" s="41"/>
+      <x:c r="F87" s="41"/>
+      <x:c r="G87" s="41"/>
+      <x:c r="H87" s="41"/>
     </x:row>
     <x:row r="88" spans="2:8">
-      <x:c r="B88" s="54" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C88" s="54"/>
-      <x:c r="D88" s="54"/>
-      <x:c r="E88" s="54"/>
-      <x:c r="F88" s="54"/>
-      <x:c r="G88" s="54"/>
-      <x:c r="H88" s="54"/>
+      <x:c r="B88" s="41" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="C88" s="41"/>
+      <x:c r="D88" s="41"/>
+      <x:c r="E88" s="41"/>
+      <x:c r="F88" s="41"/>
+      <x:c r="G88" s="41"/>
+      <x:c r="H88" s="41"/>
     </x:row>
     <x:row r="89" spans="2:8">
-      <x:c r="B89" s="54" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C89" s="54"/>
-      <x:c r="D89" s="54"/>
-      <x:c r="E89" s="54"/>
-      <x:c r="F89" s="54"/>
-      <x:c r="G89" s="54"/>
-      <x:c r="H89" s="54"/>
+      <x:c r="B89" s="41" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C89" s="41"/>
+      <x:c r="D89" s="41"/>
+      <x:c r="E89" s="41"/>
+      <x:c r="F89" s="41"/>
+      <x:c r="G89" s="41"/>
+      <x:c r="H89" s="41"/>
     </x:row>
     <x:row r="91" spans="3:5">
-      <x:c r="C91" s="54" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="D91" s="54"/>
-      <x:c r="E91" s="54"/>
+      <x:c r="C91" s="42" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="D91" s="42"/>
+      <x:c r="E91" s="42"/>
     </x:row>
     <x:row r="96" spans="11:16">
       <x:c r="K96" s="25" t="s">
-        <x:v>197</x:v>
-      </x:c>
-      <x:c r="L96" s="50" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="M96" s="50"/>
-      <x:c r="N96" s="51" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="O96" s="52"/>
-      <x:c r="P96" s="53"/>
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="L96" s="37" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M96" s="37"/>
+      <x:c r="N96" s="38" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="O96" s="39"/>
+      <x:c r="P96" s="40"/>
     </x:row>
     <x:row r="97" spans="11:17">
       <x:c r="K97" s="22">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="L97" s="50" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="M97" s="50"/>
-      <x:c r="N97" s="50" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="O97" s="50"/>
-      <x:c r="P97" s="50"/>
+      <x:c r="L97" s="37" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="M97" s="37"/>
+      <x:c r="N97" s="37" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="O97" s="37"/>
+      <x:c r="P97" s="37"/>
       <x:c r="Q97" s="4" t="s">
-        <x:v>190</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="11:17">
       <x:c r="K98" s="22">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="L98" s="50" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="M98" s="50"/>
-      <x:c r="N98" s="50" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="O98" s="50"/>
-      <x:c r="P98" s="50"/>
+      <x:c r="L98" s="37" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="M98" s="37"/>
+      <x:c r="N98" s="37" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="O98" s="37"/>
+      <x:c r="P98" s="37"/>
       <x:c r="Q98" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="11:17">
       <x:c r="K99" s="22">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="L99" s="37" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="M99" s="37"/>
+      <x:c r="N99" s="37" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="O99" s="37"/>
+      <x:c r="P99" s="37"/>
+      <x:c r="Q99" s="4" t="s">
+        <x:v>162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="11:17">
+      <x:c r="K100" s="22">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="L99" s="50" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="M99" s="50"/>
-      <x:c r="N99" s="50" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="O99" s="50"/>
-      <x:c r="P99" s="50"/>
-      <x:c r="Q99" s="4" t="s">
-        <x:v>186</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="100" spans="11:15">
-      <x:c r="K100" s="2"/>
-      <x:c r="L100" s="2"/>
-      <x:c r="M100" s="2"/>
-      <x:c r="O100" s="2"/>
+      <x:c r="L100" s="37" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="M100" s="37"/>
+      <x:c r="N100" s="37" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="O100" s="37"/>
+      <x:c r="P100" s="37"/>
+      <x:c r="Q100" t="s">
+        <x:v>162</x:v>
+      </x:c>
     </x:row>
     <x:row r="101" spans="11:20">
-      <x:c r="K101" s="55" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="L101" s="54"/>
-      <x:c r="M101" s="54"/>
-      <x:c r="N101" s="54"/>
-      <x:c r="O101" s="54"/>
-      <x:c r="P101" s="54"/>
-      <x:c r="Q101" s="54"/>
-      <x:c r="R101" s="54"/>
-      <x:c r="S101" s="54"/>
-      <x:c r="T101" s="54"/>
+      <x:c r="K101" s="42"/>
+      <x:c r="L101" s="41"/>
+      <x:c r="M101" s="41"/>
+      <x:c r="N101" s="41"/>
+      <x:c r="O101" s="41"/>
+      <x:c r="P101" s="41"/>
+      <x:c r="Q101" s="41"/>
+      <x:c r="R101" s="41"/>
+      <x:c r="S101" s="41"/>
+      <x:c r="T101" s="41"/>
     </x:row>
     <x:row r="102" spans="11:20">
-      <x:c r="K102" s="55" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="L102" s="54"/>
-      <x:c r="M102" s="54"/>
-      <x:c r="N102" s="54"/>
-      <x:c r="O102" s="54"/>
-      <x:c r="P102" s="54"/>
-      <x:c r="Q102" s="54"/>
-      <x:c r="R102" s="54"/>
-      <x:c r="S102" s="54"/>
-      <x:c r="T102" s="54"/>
-    </x:row>
-    <x:row r="103" spans="11:15">
-      <x:c r="K103" s="2"/>
-      <x:c r="L103" s="2"/>
-      <x:c r="M103" s="2"/>
-      <x:c r="O103" s="2"/>
-    </x:row>
-    <x:row r="109" spans="2:8">
-      <x:c r="B109" s="54" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C109" s="54"/>
-      <x:c r="D109" s="54"/>
-      <x:c r="E109" s="54"/>
-      <x:c r="F109" s="54"/>
-      <x:c r="G109" s="54"/>
-      <x:c r="H109" s="54"/>
-    </x:row>
-    <x:row r="110" spans="2:8">
-      <x:c r="B110" s="54" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C110" s="54"/>
-      <x:c r="D110" s="54"/>
-      <x:c r="E110" s="54"/>
-      <x:c r="F110" s="54"/>
-      <x:c r="G110" s="54"/>
-      <x:c r="H110" s="54"/>
+      <x:c r="K102" s="42" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="L102" s="41"/>
+      <x:c r="M102" s="41"/>
+      <x:c r="N102" s="41"/>
+      <x:c r="O102" s="41"/>
+      <x:c r="P102" s="41"/>
+      <x:c r="Q102" s="41"/>
+      <x:c r="R102" s="41"/>
+      <x:c r="S102" s="41"/>
+      <x:c r="T102" s="41"/>
+    </x:row>
+    <x:row r="103" spans="11:20">
+      <x:c r="K103" s="42" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="L103" s="41"/>
+      <x:c r="M103" s="41"/>
+      <x:c r="N103" s="41"/>
+      <x:c r="O103" s="41"/>
+      <x:c r="P103" s="41"/>
+      <x:c r="Q103" s="41"/>
+      <x:c r="R103" s="41"/>
+      <x:c r="S103" s="41"/>
+      <x:c r="T103" s="41"/>
+    </x:row>
+    <x:row r="109" spans="2:15">
+      <x:c r="B109" s="41" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C109" s="41"/>
+      <x:c r="D109" s="41"/>
+      <x:c r="E109" s="41"/>
+      <x:c r="F109" s="41"/>
+      <x:c r="G109" s="41"/>
+      <x:c r="H109" s="41"/>
+      <x:c r="I109" s="41" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="J109" s="41"/>
+      <x:c r="K109" s="41"/>
+      <x:c r="L109" s="41"/>
+      <x:c r="M109" s="41"/>
+      <x:c r="N109" s="41"/>
+      <x:c r="O109" s="41"/>
+    </x:row>
+    <x:row r="110" spans="2:15">
+      <x:c r="B110" s="41" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C110" s="41"/>
+      <x:c r="D110" s="41"/>
+      <x:c r="E110" s="41"/>
+      <x:c r="F110" s="41"/>
+      <x:c r="G110" s="41"/>
+      <x:c r="H110" s="41"/>
+      <x:c r="I110" s="41" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="J110" s="41"/>
+      <x:c r="K110" s="41"/>
+      <x:c r="L110" s="41"/>
+      <x:c r="M110" s="41"/>
+      <x:c r="N110" s="41"/>
+      <x:c r="O110" s="41"/>
     </x:row>
     <x:row r="111" spans="2:8">
-      <x:c r="B111" s="54" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C111" s="54"/>
-      <x:c r="D111" s="54"/>
-      <x:c r="E111" s="54"/>
-      <x:c r="F111" s="54"/>
-      <x:c r="G111" s="54"/>
-      <x:c r="H111" s="54"/>
+      <x:c r="B111" s="41"/>
+      <x:c r="C111" s="41"/>
+      <x:c r="D111" s="41"/>
+      <x:c r="E111" s="41"/>
+      <x:c r="F111" s="41"/>
+      <x:c r="G111" s="41"/>
+      <x:c r="H111" s="41"/>
     </x:row>
     <x:row r="113" spans="3:5">
-      <x:c r="C113" s="54" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="D113" s="54"/>
-      <x:c r="E113" s="54"/>
+      <x:c r="C113" s="41" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="D113" s="41"/>
+      <x:c r="E113" s="41"/>
     </x:row>
     <x:row r="116" spans="11:16">
       <x:c r="K116" s="25" t="s">
-        <x:v>197</x:v>
-      </x:c>
-      <x:c r="L116" s="50" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="M116" s="50"/>
-      <x:c r="N116" s="51" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="O116" s="52"/>
-      <x:c r="P116" s="53"/>
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="L116" s="37" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M116" s="37"/>
+      <x:c r="N116" s="38" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="O116" s="39"/>
+      <x:c r="P116" s="40"/>
     </x:row>
     <x:row r="117" spans="11:17">
       <x:c r="K117" s="22">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="L117" s="50" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="M117" s="50"/>
-      <x:c r="N117" s="50" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="O117" s="50"/>
-      <x:c r="P117" s="50"/>
+      <x:c r="L117" s="37" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="M117" s="37"/>
+      <x:c r="N117" s="37" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="O117" s="37"/>
+      <x:c r="P117" s="37"/>
       <x:c r="Q117" s="4" t="s">
-        <x:v>190</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="11:17">
       <x:c r="K118" s="22">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="L118" s="50" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="M118" s="50"/>
-      <x:c r="N118" s="50" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="O118" s="50"/>
-      <x:c r="P118" s="50"/>
+      <x:c r="L118" s="37" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="M118" s="37"/>
+      <x:c r="N118" s="37" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="O118" s="37"/>
+      <x:c r="P118" s="37"/>
       <x:c r="Q118" s="4" t="s">
-        <x:v>186</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="2:8">
-      <x:c r="B131" s="54" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C131" s="54"/>
-      <x:c r="D131" s="54"/>
-      <x:c r="E131" s="54"/>
-      <x:c r="F131" s="54"/>
-      <x:c r="G131" s="54"/>
-      <x:c r="H131" s="54"/>
+      <x:c r="B131" s="41" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C131" s="41"/>
+      <x:c r="D131" s="41"/>
+      <x:c r="E131" s="41"/>
+      <x:c r="F131" s="41"/>
+      <x:c r="G131" s="41"/>
+      <x:c r="H131" s="41"/>
     </x:row>
     <x:row r="132" spans="2:8">
-      <x:c r="B132" s="54" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C132" s="54"/>
-      <x:c r="D132" s="54"/>
-      <x:c r="E132" s="54"/>
-      <x:c r="F132" s="54"/>
-      <x:c r="G132" s="54"/>
-      <x:c r="H132" s="54"/>
+      <x:c r="B132" s="41" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C132" s="41"/>
+      <x:c r="D132" s="41"/>
+      <x:c r="E132" s="41"/>
+      <x:c r="F132" s="41"/>
+      <x:c r="G132" s="41"/>
+      <x:c r="H132" s="41"/>
     </x:row>
     <x:row r="134" spans="2:22">
       <x:c r="B134" s="36"/>
-      <x:c r="C134" s="54" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D134" s="54"/>
-      <x:c r="E134" s="54"/>
+      <x:c r="C134" s="41" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="D134" s="41"/>
+      <x:c r="E134" s="41"/>
       <x:c r="F134" s="36"/>
       <x:c r="G134" s="36"/>
       <x:c r="H134" s="36"/>
@@ -4092,22 +4352,22 @@
       <x:c r="I136" s="36"/>
       <x:c r="J136" s="36"/>
       <x:c r="K136" s="25" t="s">
-        <x:v>197</x:v>
-      </x:c>
-      <x:c r="L136" s="50" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="M136" s="50" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="N136" s="50" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="O136" s="50" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="P136" s="50" t="s">
-        <x:v>73</x:v>
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="L136" s="37" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M136" s="37" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="N136" s="37" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="O136" s="37" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="P136" s="37" t="s">
+        <x:v>170</x:v>
       </x:c>
       <x:c r="Q136" s="36"/>
       <x:c r="R136" s="36"/>
@@ -4129,23 +4389,23 @@
       <x:c r="K137" s="22">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="L137" s="50" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="M137" s="50" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="N137" s="50" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="O137" s="50" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="P137" s="50" t="s">
-        <x:v>73</x:v>
+      <x:c r="L137" s="37" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="M137" s="37" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="N137" s="37" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="O137" s="37" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="P137" s="37" t="s">
+        <x:v>170</x:v>
       </x:c>
       <x:c r="Q137" s="36" t="s">
-        <x:v>186</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="R137" s="36"/>
       <x:c r="S137" s="36"/>
@@ -4166,23 +4426,23 @@
       <x:c r="K138" s="22">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="L138" s="50" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="M138" s="50" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="N138" s="50" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="O138" s="50" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="P138" s="50" t="s">
-        <x:v>157</x:v>
+      <x:c r="L138" s="37" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="M138" s="37" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="N138" s="37" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="O138" s="37" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="P138" s="37" t="s">
+        <x:v>46</x:v>
       </x:c>
       <x:c r="Q138" s="36" t="s">
-        <x:v>190</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="R138" s="36"/>
       <x:c r="S138" s="36"/>
@@ -4203,23 +4463,23 @@
       <x:c r="K139" s="22">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="L139" s="50" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="M139" s="50" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="N139" s="50" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="O139" s="50" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="P139" s="50" t="s">
-        <x:v>66</x:v>
+      <x:c r="L139" s="37" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="M139" s="37" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="N139" s="37" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="O139" s="37" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="P139" s="37" t="s">
+        <x:v>135</x:v>
       </x:c>
       <x:c r="Q139" s="36" t="s">
-        <x:v>186</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="R139" s="36"/>
       <x:c r="S139" s="36"/>
@@ -4240,23 +4500,23 @@
       <x:c r="K140" s="22">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="L140" s="50" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="M140" s="50" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="N140" s="50" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="O140" s="50" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="P140" s="50" t="s">
-        <x:v>74</x:v>
+      <x:c r="L140" s="37" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="M140" s="37" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="N140" s="37" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="O140" s="37" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="P140" s="37" t="s">
+        <x:v>144</x:v>
       </x:c>
       <x:c r="Q140" s="36" t="s">
-        <x:v>190</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="R140" s="36"/>
       <x:c r="S140" s="36"/>
@@ -4277,23 +4537,23 @@
       <x:c r="K141" s="22">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="L141" s="50" t="s">
-        <x:v>212</x:v>
-      </x:c>
-      <x:c r="M141" s="50" t="s">
-        <x:v>210</x:v>
-      </x:c>
-      <x:c r="N141" s="50" t="s">
-        <x:v>210</x:v>
-      </x:c>
-      <x:c r="O141" s="50" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="P141" s="50" t="s">
-        <x:v>152</x:v>
+      <x:c r="L141" s="37" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="M141" s="37" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="N141" s="37" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="O141" s="37" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="P141" s="37" t="s">
+        <x:v>40</x:v>
       </x:c>
       <x:c r="Q141" s="36" t="s">
-        <x:v>190</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="R141" s="36"/>
       <x:c r="S141" s="36"/>
@@ -4314,23 +4574,23 @@
       <x:c r="K142" s="22">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="L142" s="50" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="M142" s="50" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="N142" s="50" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="O142" s="50" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="P142" s="50" t="s">
-        <x:v>161</x:v>
+      <x:c r="L142" s="37" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="M142" s="37" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="N142" s="37" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="O142" s="37" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="P142" s="37" t="s">
+        <x:v>42</x:v>
       </x:c>
       <x:c r="Q142" s="36" t="s">
-        <x:v>190</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="R142" s="36"/>
       <x:c r="S142" s="36"/>
@@ -4351,23 +4611,23 @@
       <x:c r="K143" s="22">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="L143" s="50" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="M143" s="50" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="N143" s="50" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="O143" s="50" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="P143" s="50" t="s">
-        <x:v>159</x:v>
+      <x:c r="L143" s="37" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="M143" s="37" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="N143" s="37" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="O143" s="37" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="P143" s="37" t="s">
+        <x:v>50</x:v>
       </x:c>
       <x:c r="Q143" s="36" t="s">
-        <x:v>186</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="R143" s="36"/>
       <x:c r="S143" s="36"/>
@@ -4388,23 +4648,23 @@
       <x:c r="K144" s="22">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="L144" s="50" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="M144" s="50" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="N144" s="50" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="O144" s="50" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="P144" s="50" t="s">
-        <x:v>58</x:v>
+      <x:c r="L144" s="37" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="M144" s="37" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="N144" s="37" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="O144" s="37" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="P144" s="37" t="s">
+        <x:v>149</x:v>
       </x:c>
       <x:c r="Q144" s="36" t="s">
-        <x:v>190</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="R144" s="36"/>
       <x:c r="S144" s="36"/>
@@ -4425,23 +4685,23 @@
       <x:c r="K145" s="22">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="L145" s="50" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="M145" s="50" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="N145" s="50" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="O145" s="50" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="P145" s="50" t="s">
-        <x:v>154</x:v>
+      <x:c r="L145" s="37" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="M145" s="37" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="N145" s="37" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="O145" s="37" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="P145" s="37" t="s">
+        <x:v>41</x:v>
       </x:c>
       <x:c r="Q145" s="36" t="s">
-        <x:v>190</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="R145" s="36"/>
       <x:c r="S145" s="36"/>
@@ -4482,15 +4742,15 @@
       <x:c r="H147" s="36"/>
       <x:c r="I147" s="36"/>
       <x:c r="J147" s="36"/>
-      <x:c r="K147" s="56" t="s">
-        <x:v>202</x:v>
-      </x:c>
-      <x:c r="L147" s="56"/>
-      <x:c r="M147" s="56"/>
-      <x:c r="N147" s="56"/>
-      <x:c r="O147" s="56"/>
-      <x:c r="P147" s="56"/>
-      <x:c r="Q147" s="56"/>
+      <x:c r="K147" s="43" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="L147" s="43"/>
+      <x:c r="M147" s="43"/>
+      <x:c r="N147" s="43"/>
+      <x:c r="O147" s="43"/>
+      <x:c r="P147" s="43"/>
+      <x:c r="Q147" s="43"/>
       <x:c r="R147" s="36"/>
       <x:c r="S147" s="36"/>
       <x:c r="T147" s="36"/>
@@ -4581,7 +4841,7 @@
       <x:c r="M151" s="36"/>
       <x:c r="N151" s="36"/>
       <x:c r="O151" s="36" t="s">
-        <x:v>5</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="P151" s="36"/>
       <x:c r="Q151" s="36"/>
@@ -4592,23 +4852,23 @@
       <x:c r="V151" s="36"/>
     </x:row>
     <x:row r="152" spans="2:22">
-      <x:c r="B152" s="54" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C152" s="54"/>
-      <x:c r="D152" s="54"/>
-      <x:c r="E152" s="54"/>
-      <x:c r="F152" s="54"/>
-      <x:c r="G152" s="54"/>
-      <x:c r="H152" s="54"/>
-      <x:c r="I152" s="54"/>
-      <x:c r="J152" s="54"/>
-      <x:c r="K152" s="54"/>
-      <x:c r="L152" s="54"/>
-      <x:c r="M152" s="54"/>
+      <x:c r="B152" s="41" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="C152" s="41"/>
+      <x:c r="D152" s="41"/>
+      <x:c r="E152" s="41"/>
+      <x:c r="F152" s="41"/>
+      <x:c r="G152" s="41"/>
+      <x:c r="H152" s="41"/>
+      <x:c r="I152" s="41"/>
+      <x:c r="J152" s="41"/>
+      <x:c r="K152" s="41"/>
+      <x:c r="L152" s="41"/>
+      <x:c r="M152" s="41"/>
       <x:c r="N152" s="36"/>
       <x:c r="O152" s="36" t="s">
-        <x:v>198</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="P152" s="36"/>
       <x:c r="Q152" s="36"/>
@@ -4619,19 +4879,19 @@
       <x:c r="V152" s="36"/>
     </x:row>
     <x:row r="153" spans="2:22">
-      <x:c r="B153" s="54" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C153" s="54"/>
-      <x:c r="D153" s="54"/>
-      <x:c r="E153" s="54"/>
-      <x:c r="F153" s="54"/>
-      <x:c r="G153" s="54"/>
-      <x:c r="H153" s="54"/>
-      <x:c r="I153" s="54"/>
-      <x:c r="J153" s="54"/>
-      <x:c r="K153" s="54"/>
-      <x:c r="L153" s="54"/>
+      <x:c r="B153" s="41" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="C153" s="41"/>
+      <x:c r="D153" s="41"/>
+      <x:c r="E153" s="41"/>
+      <x:c r="F153" s="41"/>
+      <x:c r="G153" s="41"/>
+      <x:c r="H153" s="41"/>
+      <x:c r="I153" s="41"/>
+      <x:c r="J153" s="41"/>
+      <x:c r="K153" s="41"/>
+      <x:c r="L153" s="41"/>
       <x:c r="M153" s="36"/>
       <x:c r="N153" s="36"/>
       <x:c r="O153" s="36"/>
@@ -4644,20 +4904,20 @@
       <x:c r="V153" s="36"/>
     </x:row>
     <x:row r="154" spans="2:22">
-      <x:c r="B154" s="54" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C154" s="54"/>
-      <x:c r="D154" s="54"/>
-      <x:c r="E154" s="54"/>
-      <x:c r="F154" s="54"/>
-      <x:c r="G154" s="54"/>
-      <x:c r="H154" s="54"/>
-      <x:c r="I154" s="54"/>
-      <x:c r="J154" s="54"/>
-      <x:c r="K154" s="54"/>
-      <x:c r="L154" s="54"/>
-      <x:c r="M154" s="54"/>
+      <x:c r="B154" s="41" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C154" s="41"/>
+      <x:c r="D154" s="41"/>
+      <x:c r="E154" s="41"/>
+      <x:c r="F154" s="41"/>
+      <x:c r="G154" s="41"/>
+      <x:c r="H154" s="41"/>
+      <x:c r="I154" s="41"/>
+      <x:c r="J154" s="41"/>
+      <x:c r="K154" s="41"/>
+      <x:c r="L154" s="41"/>
+      <x:c r="M154" s="41"/>
       <x:c r="N154" s="36"/>
       <x:c r="O154" s="36"/>
       <x:c r="P154" s="36"/>
@@ -4669,15 +4929,15 @@
       <x:c r="V154" s="36"/>
     </x:row>
     <x:row r="155" spans="2:22">
-      <x:c r="B155" s="54" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C155" s="54"/>
-      <x:c r="D155" s="54"/>
-      <x:c r="E155" s="54"/>
-      <x:c r="F155" s="54"/>
-      <x:c r="G155" s="54"/>
-      <x:c r="H155" s="54"/>
+      <x:c r="B155" s="41" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="C155" s="41"/>
+      <x:c r="D155" s="41"/>
+      <x:c r="E155" s="41"/>
+      <x:c r="F155" s="41"/>
+      <x:c r="G155" s="41"/>
+      <x:c r="H155" s="41"/>
       <x:c r="I155" s="36"/>
       <x:c r="J155" s="36"/>
       <x:c r="K155" s="36"/>
@@ -4694,15 +4954,15 @@
       <x:c r="V155" s="36"/>
     </x:row>
     <x:row r="156" spans="2:22">
-      <x:c r="B156" s="54" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C156" s="54"/>
-      <x:c r="D156" s="54"/>
-      <x:c r="E156" s="54"/>
-      <x:c r="F156" s="54"/>
-      <x:c r="G156" s="54"/>
-      <x:c r="H156" s="54"/>
+      <x:c r="B156" s="41" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="C156" s="41"/>
+      <x:c r="D156" s="41"/>
+      <x:c r="E156" s="41"/>
+      <x:c r="F156" s="41"/>
+      <x:c r="G156" s="41"/>
+      <x:c r="H156" s="41"/>
       <x:c r="I156" s="36"/>
       <x:c r="J156" s="36"/>
       <x:c r="K156" s="36"/>
@@ -4719,18 +4979,18 @@
       <x:c r="V156" s="36"/>
     </x:row>
     <x:row r="157" spans="2:22">
-      <x:c r="B157" s="54" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C157" s="54"/>
-      <x:c r="D157" s="54"/>
-      <x:c r="E157" s="54"/>
-      <x:c r="F157" s="54"/>
-      <x:c r="G157" s="54"/>
-      <x:c r="H157" s="54"/>
-      <x:c r="I157" s="54"/>
-      <x:c r="J157" s="54"/>
-      <x:c r="K157" s="54"/>
+      <x:c r="B157" s="41" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C157" s="41"/>
+      <x:c r="D157" s="41"/>
+      <x:c r="E157" s="41"/>
+      <x:c r="F157" s="41"/>
+      <x:c r="G157" s="41"/>
+      <x:c r="H157" s="41"/>
+      <x:c r="I157" s="41"/>
+      <x:c r="J157" s="41"/>
+      <x:c r="K157" s="41"/>
       <x:c r="L157" s="36"/>
       <x:c r="M157" s="36"/>
       <x:c r="N157" s="36"/>
@@ -4744,20 +5004,20 @@
       <x:c r="V157" s="36"/>
     </x:row>
     <x:row r="158" spans="2:22">
-      <x:c r="B158" s="54" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C158" s="54"/>
-      <x:c r="D158" s="54"/>
-      <x:c r="E158" s="54"/>
-      <x:c r="F158" s="54"/>
-      <x:c r="G158" s="54"/>
-      <x:c r="H158" s="54"/>
-      <x:c r="I158" s="54"/>
-      <x:c r="J158" s="54"/>
-      <x:c r="K158" s="54"/>
-      <x:c r="L158" s="54"/>
-      <x:c r="M158" s="54"/>
+      <x:c r="B158" s="41" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C158" s="41"/>
+      <x:c r="D158" s="41"/>
+      <x:c r="E158" s="41"/>
+      <x:c r="F158" s="41"/>
+      <x:c r="G158" s="41"/>
+      <x:c r="H158" s="41"/>
+      <x:c r="I158" s="41"/>
+      <x:c r="J158" s="41"/>
+      <x:c r="K158" s="41"/>
+      <x:c r="L158" s="41"/>
+      <x:c r="M158" s="41"/>
       <x:c r="N158" s="36"/>
       <x:c r="O158" s="36"/>
       <x:c r="P158" s="36"/>
@@ -4769,19 +5029,19 @@
       <x:c r="V158" s="36"/>
     </x:row>
     <x:row r="159" spans="2:22">
-      <x:c r="B159" s="54" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C159" s="54"/>
-      <x:c r="D159" s="54"/>
-      <x:c r="E159" s="54"/>
-      <x:c r="F159" s="54"/>
-      <x:c r="G159" s="54"/>
-      <x:c r="H159" s="54"/>
-      <x:c r="I159" s="54"/>
-      <x:c r="J159" s="54"/>
-      <x:c r="K159" s="54"/>
-      <x:c r="L159" s="54"/>
+      <x:c r="B159" s="41" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C159" s="41"/>
+      <x:c r="D159" s="41"/>
+      <x:c r="E159" s="41"/>
+      <x:c r="F159" s="41"/>
+      <x:c r="G159" s="41"/>
+      <x:c r="H159" s="41"/>
+      <x:c r="I159" s="41"/>
+      <x:c r="J159" s="41"/>
+      <x:c r="K159" s="41"/>
+      <x:c r="L159" s="41"/>
       <x:c r="M159" s="36"/>
       <x:c r="N159" s="36"/>
       <x:c r="O159" s="36"/>
@@ -4794,20 +5054,20 @@
       <x:c r="V159" s="36"/>
     </x:row>
     <x:row r="160" spans="2:22">
-      <x:c r="B160" s="54" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C160" s="54"/>
-      <x:c r="D160" s="54"/>
-      <x:c r="E160" s="54"/>
-      <x:c r="F160" s="54"/>
-      <x:c r="G160" s="54"/>
-      <x:c r="H160" s="54"/>
-      <x:c r="I160" s="54"/>
-      <x:c r="J160" s="54"/>
-      <x:c r="K160" s="54"/>
-      <x:c r="L160" s="54"/>
-      <x:c r="M160" s="54"/>
+      <x:c r="B160" s="41" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="C160" s="41"/>
+      <x:c r="D160" s="41"/>
+      <x:c r="E160" s="41"/>
+      <x:c r="F160" s="41"/>
+      <x:c r="G160" s="41"/>
+      <x:c r="H160" s="41"/>
+      <x:c r="I160" s="41"/>
+      <x:c r="J160" s="41"/>
+      <x:c r="K160" s="41"/>
+      <x:c r="L160" s="41"/>
+      <x:c r="M160" s="41"/>
       <x:c r="N160" s="36"/>
       <x:c r="O160" s="36"/>
       <x:c r="P160" s="36"/>
@@ -4825,11 +5085,11 @@
       <x:c r="M161" s="3"/>
     </x:row>
     <x:row r="162" spans="3:5">
-      <x:c r="C162" s="55" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="D162" s="54"/>
-      <x:c r="E162" s="54"/>
+      <x:c r="C162" s="42" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="D162" s="41"/>
+      <x:c r="E162" s="41"/>
     </x:row>
     <x:row r="167" spans="11:15">
       <x:c r="K167" s="2"/>
@@ -4837,108 +5097,48 @@
       <x:c r="M167" s="2"/>
       <x:c r="O167" s="2"/>
     </x:row>
-    <x:row r="168" spans="11:27">
-      <x:c r="K168" s="55" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="L168" s="55"/>
-      <x:c r="M168" s="55"/>
-      <x:c r="N168" s="55"/>
-      <x:c r="O168" s="55"/>
-      <x:c r="P168" s="55"/>
-      <x:c r="Q168" s="55"/>
-      <x:c r="R168" s="55"/>
-      <x:c r="S168" s="55"/>
-      <x:c r="T168" s="55"/>
-      <x:c r="U168" s="55"/>
-      <x:c r="V168" s="55"/>
-      <x:c r="W168" s="55"/>
-      <x:c r="X168" s="55"/>
-      <x:c r="Y168" s="55"/>
-      <x:c r="Z168" s="55"/>
-      <x:c r="AA168" s="55"/>
-    </x:row>
-    <x:row r="169" spans="11:27">
-      <x:c r="K169" s="34"/>
-      <x:c r="L169" s="34"/>
-      <x:c r="M169" s="34"/>
-      <x:c r="N169" s="34"/>
-      <x:c r="O169" s="34"/>
-      <x:c r="P169" s="34"/>
-      <x:c r="Q169" s="34"/>
-      <x:c r="R169" s="34"/>
-      <x:c r="S169" s="34"/>
-      <x:c r="T169" s="34"/>
-      <x:c r="U169" s="34"/>
-      <x:c r="V169" s="34"/>
-      <x:c r="W169" s="34"/>
-      <x:c r="X169" s="34"/>
-      <x:c r="Y169" s="34"/>
-      <x:c r="Z169" s="34"/>
-      <x:c r="AA169" s="34"/>
-    </x:row>
-    <x:row r="170" spans="11:27">
-      <x:c r="K170" s="55" t="s">
-        <x:v>132</x:v>
-      </x:c>
-      <x:c r="L170" s="55"/>
-      <x:c r="M170" s="55"/>
-      <x:c r="N170" s="55"/>
-      <x:c r="O170" s="55"/>
-      <x:c r="P170" s="55"/>
-      <x:c r="Q170" s="55"/>
-      <x:c r="R170" s="55"/>
-      <x:c r="S170" s="55"/>
-      <x:c r="T170" s="55"/>
-      <x:c r="U170" s="55"/>
-      <x:c r="V170" s="34"/>
-      <x:c r="W170" s="34"/>
-      <x:c r="X170" s="34"/>
-      <x:c r="Y170" s="34"/>
-      <x:c r="Z170" s="34"/>
-      <x:c r="AA170" s="34"/>
-    </x:row>
-    <x:row r="171" spans="11:27">
-      <x:c r="K171" s="55" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="L171" s="55"/>
-      <x:c r="M171" s="55"/>
-      <x:c r="N171" s="55"/>
-      <x:c r="O171" s="55"/>
-      <x:c r="P171" s="55"/>
-      <x:c r="Q171" s="55"/>
-      <x:c r="R171" s="55"/>
-      <x:c r="S171" s="55"/>
-      <x:c r="T171" s="55"/>
-      <x:c r="U171" s="55"/>
-      <x:c r="V171" s="34"/>
-      <x:c r="W171" s="34"/>
-      <x:c r="X171" s="34"/>
-      <x:c r="Y171" s="34"/>
-      <x:c r="Z171" s="34"/>
-      <x:c r="AA171" s="34"/>
-    </x:row>
-    <x:row r="172" spans="11:27">
-      <x:c r="K172" s="55" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L172" s="55"/>
-      <x:c r="M172" s="55"/>
-      <x:c r="N172" s="55"/>
-      <x:c r="O172" s="55"/>
-      <x:c r="P172" s="55"/>
-      <x:c r="Q172" s="55"/>
-      <x:c r="R172" s="55"/>
-      <x:c r="S172" s="55"/>
-      <x:c r="T172" s="55"/>
-      <x:c r="U172" s="55"/>
-      <x:c r="V172" s="34"/>
-      <x:c r="W172" s="34"/>
-      <x:c r="X172" s="34"/>
-      <x:c r="Y172" s="34"/>
-      <x:c r="Z172" s="34"/>
-      <x:c r="AA172" s="34"/>
+    <x:row r="169" spans="22:27">
+      <x:c r="V169" s="58" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="W169" s="59" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="X169" s="59" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="Y169" s="59" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="Z169" s="59" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="AA169" s="59" t="s">
+        <x:v>170</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="170" spans="22:28">
+      <x:c r="V170" s="60">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="W170" s="59" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="X170" s="59" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="Y170" s="59" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="Z170" s="59" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="AA170" s="59" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="AB170" t="s">
+        <x:v>164</x:v>
+      </x:c>
     </x:row>
     <x:row r="173" spans="11:27">
       <x:c r="K173" s="34"/>
@@ -4960,19 +5160,17 @@
       <x:c r="AA173" s="34"/>
     </x:row>
     <x:row r="174" spans="11:27">
-      <x:c r="K174" s="55" t="s">
-        <x:v>153</x:v>
-      </x:c>
-      <x:c r="L174" s="55"/>
-      <x:c r="M174" s="55"/>
-      <x:c r="N174" s="55"/>
-      <x:c r="O174" s="55"/>
-      <x:c r="P174" s="55"/>
-      <x:c r="Q174" s="55"/>
-      <x:c r="R174" s="55"/>
-      <x:c r="S174" s="55"/>
-      <x:c r="T174" s="55"/>
-      <x:c r="U174" s="55"/>
+      <x:c r="K174" s="42"/>
+      <x:c r="L174" s="42"/>
+      <x:c r="M174" s="42"/>
+      <x:c r="N174" s="42"/>
+      <x:c r="O174" s="42"/>
+      <x:c r="P174" s="42"/>
+      <x:c r="Q174" s="42"/>
+      <x:c r="R174" s="42"/>
+      <x:c r="S174" s="42"/>
+      <x:c r="T174" s="42"/>
+      <x:c r="U174" s="42"/>
       <x:c r="V174" s="34"/>
       <x:c r="W174" s="34"/>
       <x:c r="X174" s="34"/>
@@ -4981,19 +5179,17 @@
       <x:c r="AA174" s="34"/>
     </x:row>
     <x:row r="175" spans="11:27">
-      <x:c r="K175" s="55" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="L175" s="55"/>
-      <x:c r="M175" s="55"/>
-      <x:c r="N175" s="55"/>
-      <x:c r="O175" s="55"/>
-      <x:c r="P175" s="55"/>
-      <x:c r="Q175" s="55"/>
-      <x:c r="R175" s="55"/>
-      <x:c r="S175" s="55"/>
-      <x:c r="T175" s="55"/>
-      <x:c r="U175" s="55"/>
+      <x:c r="K175" s="42"/>
+      <x:c r="L175" s="42"/>
+      <x:c r="M175" s="42"/>
+      <x:c r="N175" s="42"/>
+      <x:c r="O175" s="42"/>
+      <x:c r="P175" s="42"/>
+      <x:c r="Q175" s="42"/>
+      <x:c r="R175" s="42"/>
+      <x:c r="S175" s="42"/>
+      <x:c r="T175" s="42"/>
+      <x:c r="U175" s="42"/>
       <x:c r="V175" s="34"/>
       <x:c r="W175" s="34"/>
       <x:c r="X175" s="34"/>
@@ -5002,19 +5198,17 @@
       <x:c r="AA175" s="34"/>
     </x:row>
     <x:row r="176" spans="11:27">
-      <x:c r="K176" s="55" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="L176" s="55"/>
-      <x:c r="M176" s="55"/>
-      <x:c r="N176" s="55"/>
-      <x:c r="O176" s="55"/>
-      <x:c r="P176" s="55"/>
-      <x:c r="Q176" s="55"/>
-      <x:c r="R176" s="55"/>
-      <x:c r="S176" s="55"/>
-      <x:c r="T176" s="55"/>
-      <x:c r="U176" s="55"/>
+      <x:c r="K176" s="42"/>
+      <x:c r="L176" s="42"/>
+      <x:c r="M176" s="42"/>
+      <x:c r="N176" s="42"/>
+      <x:c r="O176" s="42"/>
+      <x:c r="P176" s="42"/>
+      <x:c r="Q176" s="42"/>
+      <x:c r="R176" s="42"/>
+      <x:c r="S176" s="42"/>
+      <x:c r="T176" s="42"/>
+      <x:c r="U176" s="42"/>
       <x:c r="V176" s="34"/>
       <x:c r="W176" s="34"/>
       <x:c r="X176" s="34"/>
@@ -5023,19 +5217,17 @@
       <x:c r="AA176" s="34"/>
     </x:row>
     <x:row r="177" spans="11:27">
-      <x:c r="K177" s="55" t="s">
-        <x:v>138</x:v>
-      </x:c>
-      <x:c r="L177" s="55"/>
-      <x:c r="M177" s="55"/>
-      <x:c r="N177" s="55"/>
-      <x:c r="O177" s="55"/>
-      <x:c r="P177" s="55"/>
-      <x:c r="Q177" s="55"/>
-      <x:c r="R177" s="55"/>
-      <x:c r="S177" s="55"/>
-      <x:c r="T177" s="55"/>
-      <x:c r="U177" s="55"/>
+      <x:c r="K177" s="42"/>
+      <x:c r="L177" s="42"/>
+      <x:c r="M177" s="42"/>
+      <x:c r="N177" s="42"/>
+      <x:c r="O177" s="42"/>
+      <x:c r="P177" s="42"/>
+      <x:c r="Q177" s="42"/>
+      <x:c r="R177" s="42"/>
+      <x:c r="S177" s="42"/>
+      <x:c r="T177" s="42"/>
+      <x:c r="U177" s="42"/>
       <x:c r="V177" s="34"/>
       <x:c r="W177" s="34"/>
       <x:c r="X177" s="34"/>
@@ -5044,570 +5236,1118 @@
       <x:c r="AA177" s="34"/>
     </x:row>
     <x:row r="178" spans="11:21">
-      <x:c r="K178" s="54"/>
-      <x:c r="L178" s="54"/>
-      <x:c r="M178" s="54"/>
-      <x:c r="N178" s="54"/>
-      <x:c r="O178" s="54"/>
-      <x:c r="P178" s="54"/>
-      <x:c r="Q178" s="54"/>
-      <x:c r="R178" s="54"/>
-      <x:c r="S178" s="54"/>
-      <x:c r="T178" s="54"/>
-      <x:c r="U178" s="54"/>
+      <x:c r="K178" s="41"/>
+      <x:c r="L178" s="41"/>
+      <x:c r="M178" s="41"/>
+      <x:c r="N178" s="41"/>
+      <x:c r="O178" s="41"/>
+      <x:c r="P178" s="41"/>
+      <x:c r="Q178" s="41"/>
+      <x:c r="R178" s="41"/>
+      <x:c r="S178" s="41"/>
+      <x:c r="T178" s="41"/>
+      <x:c r="U178" s="41"/>
     </x:row>
     <x:row r="180" spans="11:21">
-      <x:c r="K180" s="54"/>
-      <x:c r="L180" s="54"/>
-      <x:c r="M180" s="54"/>
-      <x:c r="N180" s="54"/>
-      <x:c r="O180" s="54"/>
-      <x:c r="P180" s="54"/>
-      <x:c r="Q180" s="54"/>
-      <x:c r="R180" s="54"/>
-      <x:c r="S180" s="54"/>
-      <x:c r="T180" s="54"/>
-      <x:c r="U180" s="54"/>
-    </x:row>
-    <x:row r="185" spans="2:13">
-      <x:c r="B185" s="55" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C185" s="55"/>
-      <x:c r="D185" s="55"/>
-      <x:c r="E185" s="55"/>
-      <x:c r="F185" s="55"/>
-      <x:c r="G185" s="55"/>
-      <x:c r="H185" s="55"/>
-      <x:c r="I185" s="55"/>
-      <x:c r="J185" s="55"/>
-      <x:c r="K185" s="55"/>
-      <x:c r="L185" s="55"/>
-      <x:c r="M185" s="55"/>
-    </x:row>
-    <x:row r="186" spans="2:13">
-      <x:c r="B186" s="55" t="s">
-        <x:v>208</x:v>
-      </x:c>
-      <x:c r="C186" s="55"/>
-      <x:c r="D186" s="55"/>
-      <x:c r="E186" s="55"/>
-      <x:c r="F186" s="55"/>
-      <x:c r="G186" s="55"/>
-      <x:c r="H186" s="55"/>
-      <x:c r="I186" s="55"/>
-      <x:c r="J186" s="55"/>
-      <x:c r="K186" s="55"/>
-      <x:c r="L186" s="55"/>
-      <x:c r="M186" s="55"/>
-    </x:row>
-    <x:row r="187" spans="2:13">
-      <x:c r="B187" s="55" t="s">
+      <x:c r="K180" s="41"/>
+      <x:c r="L180" s="41"/>
+      <x:c r="M180" s="41"/>
+      <x:c r="N180" s="41"/>
+      <x:c r="O180" s="41"/>
+      <x:c r="P180" s="41"/>
+      <x:c r="Q180" s="41"/>
+      <x:c r="R180" s="41"/>
+      <x:c r="S180" s="41"/>
+      <x:c r="T180" s="41"/>
+      <x:c r="U180" s="41"/>
+    </x:row>
+    <x:row r="185" spans="2:25">
+      <x:c r="B185" s="42" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="C185" s="42"/>
+      <x:c r="D185" s="42"/>
+      <x:c r="E185" s="42"/>
+      <x:c r="F185" s="42"/>
+      <x:c r="G185" s="42"/>
+      <x:c r="H185" s="42"/>
+      <x:c r="I185" s="42"/>
+      <x:c r="J185" s="42"/>
+      <x:c r="K185" s="42"/>
+      <x:c r="L185" s="42"/>
+      <x:c r="M185" s="42"/>
+      <x:c r="N185" s="42" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="O185" s="42"/>
+      <x:c r="P185" s="42"/>
+      <x:c r="Q185" s="42"/>
+      <x:c r="R185" s="42"/>
+      <x:c r="S185" s="42"/>
+      <x:c r="T185" s="42"/>
+      <x:c r="U185" s="42"/>
+      <x:c r="V185" s="42"/>
+      <x:c r="W185" s="42"/>
+      <x:c r="X185" s="42"/>
+      <x:c r="Y185" s="42"/>
+    </x:row>
+    <x:row r="186" spans="2:25">
+      <x:c r="B186" s="42" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C186" s="42"/>
+      <x:c r="D186" s="42"/>
+      <x:c r="E186" s="42"/>
+      <x:c r="F186" s="42"/>
+      <x:c r="G186" s="42"/>
+      <x:c r="H186" s="42"/>
+      <x:c r="I186" s="42"/>
+      <x:c r="J186" s="42"/>
+      <x:c r="K186" s="42"/>
+      <x:c r="L186" s="42"/>
+      <x:c r="M186" s="42"/>
+      <x:c r="N186" s="42" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="O186" s="42"/>
+      <x:c r="P186" s="42"/>
+      <x:c r="Q186" s="42"/>
+      <x:c r="R186" s="42"/>
+      <x:c r="S186" s="42"/>
+      <x:c r="T186" s="42"/>
+      <x:c r="U186" s="42"/>
+      <x:c r="V186" s="42"/>
+      <x:c r="W186" s="42"/>
+      <x:c r="X186" s="42"/>
+      <x:c r="Y186" s="42"/>
+    </x:row>
+    <x:row r="187" spans="2:25">
+      <x:c r="B187" s="42" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C187" s="42"/>
+      <x:c r="D187" s="42"/>
+      <x:c r="E187" s="42"/>
+      <x:c r="F187" s="42"/>
+      <x:c r="G187" s="42"/>
+      <x:c r="H187" s="42"/>
+      <x:c r="I187" s="42"/>
+      <x:c r="J187" s="42"/>
+      <x:c r="K187" s="42"/>
+      <x:c r="L187" s="42"/>
+      <x:c r="M187" s="42"/>
+      <x:c r="N187" s="42" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="O187" s="42"/>
+      <x:c r="P187" s="42"/>
+      <x:c r="Q187" s="42"/>
+      <x:c r="R187" s="42"/>
+      <x:c r="S187" s="42"/>
+      <x:c r="T187" s="42"/>
+      <x:c r="U187" s="42"/>
+      <x:c r="V187" s="42"/>
+      <x:c r="W187" s="42"/>
+      <x:c r="X187" s="42"/>
+      <x:c r="Y187" s="42"/>
+    </x:row>
+    <x:row r="188" spans="2:25">
+      <x:c r="B188" s="42" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C188" s="42"/>
+      <x:c r="D188" s="42"/>
+      <x:c r="E188" s="42"/>
+      <x:c r="F188" s="42"/>
+      <x:c r="G188" s="42"/>
+      <x:c r="H188" s="42"/>
+      <x:c r="I188" s="42"/>
+      <x:c r="J188" s="42"/>
+      <x:c r="K188" s="42"/>
+      <x:c r="L188" s="42"/>
+      <x:c r="M188" s="42"/>
+      <x:c r="N188" s="42" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="O188" s="42"/>
+      <x:c r="P188" s="42"/>
+      <x:c r="Q188" s="42"/>
+      <x:c r="R188" s="42"/>
+      <x:c r="S188" s="42"/>
+      <x:c r="T188" s="42"/>
+      <x:c r="U188" s="42"/>
+      <x:c r="V188" s="42"/>
+      <x:c r="W188" s="42"/>
+      <x:c r="X188" s="42"/>
+      <x:c r="Y188" s="42"/>
+    </x:row>
+    <x:row r="191" spans="2:17">
+      <x:c r="B191" s="34"/>
+      <x:c r="C191" s="42" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="D191" s="42"/>
+      <x:c r="E191" s="42"/>
+      <x:c r="F191" s="34"/>
+      <x:c r="G191" s="34"/>
+      <x:c r="H191" s="34"/>
+      <x:c r="I191" s="34"/>
+      <x:c r="J191" s="34"/>
+      <x:c r="K191" s="34"/>
+      <x:c r="L191" s="34"/>
+      <x:c r="M191" s="34"/>
+      <x:c r="N191" s="34"/>
+      <x:c r="O191" s="34"/>
+      <x:c r="P191" s="34"/>
+      <x:c r="Q191" s="34"/>
+    </x:row>
+    <x:row r="192" spans="2:17">
+      <x:c r="B192" s="34"/>
+      <x:c r="C192" s="34"/>
+      <x:c r="D192" s="34"/>
+      <x:c r="E192" s="34"/>
+      <x:c r="F192" s="34"/>
+      <x:c r="G192" s="34"/>
+      <x:c r="H192" s="34"/>
+      <x:c r="I192" s="34"/>
+      <x:c r="J192" s="34"/>
+      <x:c r="K192" s="34"/>
+      <x:c r="L192" s="34"/>
+      <x:c r="M192" s="34"/>
+      <x:c r="N192" s="34"/>
+      <x:c r="O192" s="34"/>
+      <x:c r="P192" s="34"/>
+      <x:c r="Q192" s="34"/>
+    </x:row>
+    <x:row r="193" spans="2:17">
+      <x:c r="B193" s="34"/>
+      <x:c r="C193" s="34"/>
+      <x:c r="D193" s="34"/>
+      <x:c r="E193" s="34"/>
+      <x:c r="F193" s="34"/>
+      <x:c r="G193" s="34"/>
+      <x:c r="H193" s="34"/>
+      <x:c r="I193" s="34"/>
+      <x:c r="J193" s="34"/>
+      <x:c r="K193" s="34"/>
+      <x:c r="L193" s="34"/>
+      <x:c r="M193" s="34"/>
+      <x:c r="N193" s="34"/>
+      <x:c r="O193" s="34"/>
+      <x:c r="P193" s="34"/>
+      <x:c r="Q193" s="34"/>
+    </x:row>
+    <x:row r="194" spans="2:17">
+      <x:c r="B194" s="34"/>
+      <x:c r="C194" s="34"/>
+      <x:c r="D194" s="34"/>
+      <x:c r="E194" s="34"/>
+      <x:c r="F194" s="34"/>
+      <x:c r="G194" s="34"/>
+      <x:c r="H194" s="34"/>
+      <x:c r="I194" s="34"/>
+      <x:c r="J194" s="34"/>
+      <x:c r="K194" s="58" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="L194" s="59" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M194" s="59" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="N194" s="59" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="O194" s="59" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="P194" s="59" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="Q194" s="34"/>
+    </x:row>
+    <x:row r="195" spans="2:17">
+      <x:c r="B195" s="34"/>
+      <x:c r="C195" s="34"/>
+      <x:c r="D195" s="34"/>
+      <x:c r="E195" s="34"/>
+      <x:c r="F195" s="34"/>
+      <x:c r="G195" s="34"/>
+      <x:c r="H195" s="34"/>
+      <x:c r="I195" s="34"/>
+      <x:c r="J195" s="34"/>
+      <x:c r="K195" s="60">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="L195" s="59" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="M195" s="59" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="N195" s="59" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="O195" s="59" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="P195" s="59" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="Q195" s="34" t="s">
+        <x:v>164</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="196" spans="2:17">
+      <x:c r="B196" s="34"/>
+      <x:c r="C196" s="34"/>
+      <x:c r="D196" s="34"/>
+      <x:c r="E196" s="34"/>
+      <x:c r="F196" s="34"/>
+      <x:c r="G196" s="34"/>
+      <x:c r="H196" s="34"/>
+      <x:c r="I196" s="34"/>
+      <x:c r="J196" s="34"/>
+      <x:c r="K196" s="60">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="L196" s="59" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="M196" s="59" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="N196" s="59" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="O196" s="59" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="P196" s="59" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="Q196" s="34" t="s">
+        <x:v>164</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="197" spans="2:17">
+      <x:c r="B197" s="34"/>
+      <x:c r="C197" s="34"/>
+      <x:c r="D197" s="34"/>
+      <x:c r="E197" s="34"/>
+      <x:c r="F197" s="34"/>
+      <x:c r="G197" s="34"/>
+      <x:c r="H197" s="34"/>
+      <x:c r="I197" s="34"/>
+      <x:c r="J197" s="34"/>
+      <x:c r="K197" s="60">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L197" s="59" t="s">
+        <x:v>216</x:v>
+      </x:c>
+      <x:c r="M197" s="59" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="N197" s="59" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="O197" s="59" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="P197" s="59" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="Q197" s="34" t="s">
+        <x:v>164</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="198" spans="2:17">
+      <x:c r="B198" s="34"/>
+      <x:c r="C198" s="34"/>
+      <x:c r="D198" s="34"/>
+      <x:c r="E198" s="34"/>
+      <x:c r="F198" s="34"/>
+      <x:c r="G198" s="34"/>
+      <x:c r="H198" s="34"/>
+      <x:c r="I198" s="34"/>
+      <x:c r="J198" s="34"/>
+      <x:c r="K198" s="60">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="L198" s="59" t="s">
+        <x:v>217</x:v>
+      </x:c>
+      <x:c r="M198" s="59" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="N198" s="59" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="O198" s="59" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="P198" s="59" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="Q198" s="34" t="s">
+        <x:v>164</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="199" spans="2:17">
+      <x:c r="B199" s="34"/>
+      <x:c r="C199" s="34"/>
+      <x:c r="D199" s="34"/>
+      <x:c r="E199" s="34"/>
+      <x:c r="F199" s="34"/>
+      <x:c r="G199" s="34"/>
+      <x:c r="H199" s="34"/>
+      <x:c r="I199" s="34"/>
+      <x:c r="J199" s="34"/>
+      <x:c r="K199" s="34"/>
+      <x:c r="L199" s="34"/>
+      <x:c r="M199" s="34"/>
+      <x:c r="N199" s="34"/>
+      <x:c r="O199" s="34"/>
+      <x:c r="P199" s="34"/>
+      <x:c r="Q199" s="34"/>
+    </x:row>
+    <x:row r="200" spans="2:17">
+      <x:c r="B200" s="34"/>
+      <x:c r="C200" s="34"/>
+      <x:c r="D200" s="34"/>
+      <x:c r="E200" s="34"/>
+      <x:c r="F200" s="34"/>
+      <x:c r="G200" s="34"/>
+      <x:c r="H200" s="34"/>
+      <x:c r="I200" s="34"/>
+      <x:c r="J200" s="34"/>
+      <x:c r="K200" s="34"/>
+      <x:c r="L200" s="34"/>
+      <x:c r="M200" s="34"/>
+      <x:c r="N200" s="34"/>
+      <x:c r="O200" s="34"/>
+      <x:c r="P200" s="34"/>
+      <x:c r="Q200" s="34"/>
+    </x:row>
+    <x:row r="201" spans="2:17">
+      <x:c r="B201" s="34"/>
+      <x:c r="C201" s="34"/>
+      <x:c r="D201" s="34"/>
+      <x:c r="E201" s="34"/>
+      <x:c r="F201" s="34"/>
+      <x:c r="G201" s="34"/>
+      <x:c r="H201" s="34"/>
+      <x:c r="I201" s="34"/>
+      <x:c r="J201" s="34"/>
+      <x:c r="K201" s="34"/>
+      <x:c r="L201" s="34"/>
+      <x:c r="M201" s="34"/>
+      <x:c r="N201" s="34"/>
+      <x:c r="O201" s="34"/>
+      <x:c r="P201" s="34"/>
+      <x:c r="Q201" s="34"/>
+    </x:row>
+    <x:row r="202" spans="2:17">
+      <x:c r="B202" s="34"/>
+      <x:c r="C202" s="34"/>
+      <x:c r="D202" s="34"/>
+      <x:c r="E202" s="34"/>
+      <x:c r="F202" s="34"/>
+      <x:c r="G202" s="34"/>
+      <x:c r="H202" s="34"/>
+      <x:c r="I202" s="34"/>
+      <x:c r="J202" s="34"/>
+      <x:c r="K202" s="34"/>
+      <x:c r="L202" s="34"/>
+      <x:c r="M202" s="34"/>
+      <x:c r="N202" s="34"/>
+      <x:c r="O202" s="34"/>
+      <x:c r="P202" s="34"/>
+      <x:c r="Q202" s="34"/>
+    </x:row>
+    <x:row r="203" spans="2:17">
+      <x:c r="B203" s="34"/>
+      <x:c r="C203" s="34"/>
+      <x:c r="D203" s="34"/>
+      <x:c r="E203" s="34"/>
+      <x:c r="F203" s="34"/>
+      <x:c r="G203" s="34"/>
+      <x:c r="H203" s="34"/>
+      <x:c r="I203" s="34"/>
+      <x:c r="J203" s="34"/>
+      <x:c r="K203" s="34"/>
+      <x:c r="L203" s="34"/>
+      <x:c r="M203" s="34"/>
+      <x:c r="N203" s="34"/>
+      <x:c r="O203" s="34"/>
+      <x:c r="P203" s="34"/>
+      <x:c r="Q203" s="34"/>
+    </x:row>
+    <x:row r="204" spans="2:17">
+      <x:c r="B204" s="34"/>
+      <x:c r="C204" s="34"/>
+      <x:c r="D204" s="34"/>
+      <x:c r="E204" s="34"/>
+      <x:c r="F204" s="34"/>
+      <x:c r="G204" s="34"/>
+      <x:c r="H204" s="34"/>
+      <x:c r="I204" s="34"/>
+      <x:c r="J204" s="34"/>
+      <x:c r="K204" s="34"/>
+      <x:c r="L204" s="34"/>
+      <x:c r="M204" s="34"/>
+      <x:c r="N204" s="34"/>
+      <x:c r="O204" s="34"/>
+      <x:c r="P204" s="34"/>
+      <x:c r="Q204" s="34"/>
+    </x:row>
+    <x:row r="205" spans="2:17">
+      <x:c r="B205" s="34"/>
+      <x:c r="C205" s="34"/>
+      <x:c r="D205" s="34"/>
+      <x:c r="E205" s="34"/>
+      <x:c r="F205" s="34"/>
+      <x:c r="G205" s="34"/>
+      <x:c r="H205" s="34"/>
+      <x:c r="I205" s="34"/>
+      <x:c r="J205" s="34"/>
+      <x:c r="K205" s="34"/>
+      <x:c r="L205" s="34"/>
+      <x:c r="M205" s="34"/>
+      <x:c r="N205" s="34"/>
+      <x:c r="O205" s="34"/>
+      <x:c r="P205" s="34"/>
+      <x:c r="Q205" s="34"/>
+    </x:row>
+    <x:row r="206" spans="2:17">
+      <x:c r="B206" s="34"/>
+      <x:c r="C206" s="34"/>
+      <x:c r="D206" s="34"/>
+      <x:c r="E206" s="34"/>
+      <x:c r="F206" s="34"/>
+      <x:c r="G206" s="34"/>
+      <x:c r="H206" s="34"/>
+      <x:c r="I206" s="34"/>
+      <x:c r="J206" s="34"/>
+      <x:c r="K206" s="34"/>
+      <x:c r="L206" s="34"/>
+      <x:c r="M206" s="34"/>
+      <x:c r="N206" s="34"/>
+      <x:c r="O206" s="34"/>
+      <x:c r="P206" s="34"/>
+      <x:c r="Q206" s="34"/>
+    </x:row>
+    <x:row r="207" spans="2:17">
+      <x:c r="B207" s="34"/>
+      <x:c r="C207" s="34"/>
+      <x:c r="D207" s="34"/>
+      <x:c r="E207" s="34"/>
+      <x:c r="F207" s="34"/>
+      <x:c r="G207" s="34"/>
+      <x:c r="H207" s="34"/>
+      <x:c r="I207" s="34"/>
+      <x:c r="J207" s="34"/>
+      <x:c r="K207" s="34"/>
+      <x:c r="L207" s="34"/>
+      <x:c r="M207" s="34"/>
+      <x:c r="N207" s="34"/>
+      <x:c r="O207" s="34"/>
+      <x:c r="P207" s="34"/>
+      <x:c r="Q207" s="34"/>
+    </x:row>
+    <x:row r="208" spans="2:17">
+      <x:c r="B208" s="34"/>
+      <x:c r="C208" s="34"/>
+      <x:c r="D208" s="34"/>
+      <x:c r="E208" s="34"/>
+      <x:c r="F208" s="34"/>
+      <x:c r="G208" s="34"/>
+      <x:c r="H208" s="34"/>
+      <x:c r="I208" s="34"/>
+      <x:c r="J208" s="34"/>
+      <x:c r="K208" s="34"/>
+      <x:c r="L208" s="34"/>
+      <x:c r="M208" s="34"/>
+      <x:c r="N208" s="34"/>
+      <x:c r="O208" s="34"/>
+      <x:c r="P208" s="34"/>
+      <x:c r="Q208" s="34"/>
+    </x:row>
+    <x:row r="209" spans="2:17">
+      <x:c r="B209" s="34"/>
+      <x:c r="C209" s="34"/>
+      <x:c r="D209" s="34"/>
+      <x:c r="E209" s="34"/>
+      <x:c r="F209" s="34"/>
+      <x:c r="G209" s="34"/>
+      <x:c r="H209" s="34"/>
+      <x:c r="I209" s="34"/>
+      <x:c r="J209" s="34"/>
+      <x:c r="K209" s="34"/>
+      <x:c r="L209" s="34"/>
+      <x:c r="M209" s="34"/>
+      <x:c r="N209" s="34"/>
+      <x:c r="O209" s="34"/>
+      <x:c r="P209" s="34"/>
+      <x:c r="Q209" s="34"/>
+    </x:row>
+    <x:row r="210" spans="2:17">
+      <x:c r="B210" s="42" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="C210" s="42"/>
+      <x:c r="D210" s="42"/>
+      <x:c r="E210" s="42"/>
+      <x:c r="F210" s="42"/>
+      <x:c r="G210" s="42"/>
+      <x:c r="H210" s="42"/>
+      <x:c r="I210" s="42"/>
+      <x:c r="J210" s="42"/>
+      <x:c r="K210" s="42"/>
+      <x:c r="L210" s="42"/>
+      <x:c r="M210" s="42"/>
+      <x:c r="N210" s="34"/>
+      <x:c r="O210" s="34"/>
+      <x:c r="P210" s="34"/>
+      <x:c r="Q210" s="34"/>
+    </x:row>
+    <x:row r="211" spans="2:17">
+      <x:c r="B211" s="42" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="C211" s="42"/>
+      <x:c r="D211" s="42"/>
+      <x:c r="E211" s="42"/>
+      <x:c r="F211" s="42"/>
+      <x:c r="G211" s="42"/>
+      <x:c r="H211" s="42"/>
+      <x:c r="I211" s="42"/>
+      <x:c r="J211" s="42"/>
+      <x:c r="K211" s="42"/>
+      <x:c r="L211" s="42"/>
+      <x:c r="M211" s="34"/>
+      <x:c r="N211" s="34"/>
+      <x:c r="O211" s="34"/>
+      <x:c r="P211" s="34"/>
+      <x:c r="Q211" s="34"/>
+    </x:row>
+    <x:row r="212" spans="2:17">
+      <x:c r="B212" s="42" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C212" s="42"/>
+      <x:c r="D212" s="42"/>
+      <x:c r="E212" s="42"/>
+      <x:c r="F212" s="42"/>
+      <x:c r="G212" s="42"/>
+      <x:c r="H212" s="42"/>
+      <x:c r="I212" s="42"/>
+      <x:c r="J212" s="42"/>
+      <x:c r="K212" s="42"/>
+      <x:c r="L212" s="42"/>
+      <x:c r="M212" s="42"/>
+      <x:c r="N212" s="34"/>
+      <x:c r="O212" s="34"/>
+      <x:c r="P212" s="34"/>
+      <x:c r="Q212" s="34"/>
+    </x:row>
+    <x:row r="213" spans="2:17">
+      <x:c r="B213" s="42" t="s">
+        <x:v>206</x:v>
+      </x:c>
+      <x:c r="C213" s="42"/>
+      <x:c r="D213" s="42"/>
+      <x:c r="E213" s="42"/>
+      <x:c r="F213" s="42"/>
+      <x:c r="G213" s="42"/>
+      <x:c r="H213" s="42"/>
+      <x:c r="I213" s="34"/>
+      <x:c r="J213" s="34"/>
+      <x:c r="K213" s="34"/>
+      <x:c r="L213" s="34"/>
+      <x:c r="M213" s="34"/>
+      <x:c r="N213" s="34"/>
+      <x:c r="O213" s="34"/>
+      <x:c r="P213" s="34"/>
+      <x:c r="Q213" s="34"/>
+    </x:row>
+    <x:row r="215" spans="2:8">
+      <x:c r="B215" s="41"/>
+      <x:c r="C215" s="41"/>
+      <x:c r="D215" s="41"/>
+      <x:c r="E215" s="41"/>
+      <x:c r="F215" s="41"/>
+      <x:c r="G215" s="41"/>
+      <x:c r="H215" s="41"/>
+    </x:row>
+    <x:row r="216" spans="2:15">
+      <x:c r="B216" s="41" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C216" s="41"/>
+      <x:c r="K216"/>
+      <x:c r="L216"/>
+      <x:c r="M216"/>
+      <x:c r="O216"/>
+    </x:row>
+    <x:row r="217" spans="2:15">
+      <x:c r="B217"/>
+      <x:c r="K217"/>
+      <x:c r="L217"/>
+      <x:c r="M217"/>
+      <x:c r="O217"/>
+    </x:row>
+    <x:row r="218" spans="2:15">
+      <x:c r="B218"/>
+      <x:c r="K218"/>
+      <x:c r="L218"/>
+      <x:c r="M218"/>
+      <x:c r="O218"/>
+    </x:row>
+    <x:row r="219" spans="2:15">
+      <x:c r="B219"/>
+      <x:c r="K219"/>
+      <x:c r="L219"/>
+      <x:c r="M219"/>
+      <x:c r="O219"/>
+    </x:row>
+    <x:row r="220" spans="2:18">
+      <x:c r="B220"/>
+      <x:c r="K220" s="25" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="L220" s="37" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="M220" s="37"/>
+      <x:c r="N220" s="37"/>
+      <x:c r="O220" s="37"/>
+      <x:c r="P220" s="37" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="Q220" s="37"/>
+      <x:c r="R220" s="37"/>
+    </x:row>
+    <x:row r="221" spans="2:19">
+      <x:c r="B221"/>
+      <x:c r="K221" s="22">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L221" s="37" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="M221" s="37"/>
+      <x:c r="N221" s="37"/>
+      <x:c r="O221" s="37"/>
+      <x:c r="P221" s="37" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="Q221" s="37"/>
+      <x:c r="R221" s="37"/>
+      <x:c r="S221" t="s">
+        <x:v>162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="222" spans="2:19">
+      <x:c r="B222"/>
+      <x:c r="K222" s="22">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="L222" s="37" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="M222" s="37"/>
+      <x:c r="N222" s="37"/>
+      <x:c r="O222" s="37"/>
+      <x:c r="P222" s="37" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="Q222" s="37"/>
+      <x:c r="R222" s="37"/>
+      <x:c r="S222" t="s">
+        <x:v>164</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="223" spans="2:19">
+      <x:c r="B223"/>
+      <x:c r="K223" s="22">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="L223" s="37" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="M223" s="37"/>
+      <x:c r="N223" s="37"/>
+      <x:c r="O223" s="37"/>
+      <x:c r="P223" s="37" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="Q223" s="37"/>
+      <x:c r="R223" s="37"/>
+      <x:c r="S223" t="s">
+        <x:v>162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="224" spans="2:19">
+      <x:c r="B224"/>
+      <x:c r="K224" s="22">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="L224" s="37" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="M224" s="37"/>
+      <x:c r="N224" s="37"/>
+      <x:c r="O224" s="37"/>
+      <x:c r="P224" s="37" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="Q224" s="37"/>
+      <x:c r="R224" s="37"/>
+      <x:c r="S224" t="s">
+        <x:v>162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="225" spans="2:19">
+      <x:c r="B225"/>
+      <x:c r="K225" s="22">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="L225" s="37" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="M225" s="37"/>
+      <x:c r="N225" s="37"/>
+      <x:c r="O225" s="37"/>
+      <x:c r="P225" s="37" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="Q225" s="37"/>
+      <x:c r="R225" s="37"/>
+      <x:c r="S225" t="s">
+        <x:v>162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="226" spans="2:19">
+      <x:c r="B226"/>
+      <x:c r="K226" s="22">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="L226" s="37" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="M226" s="37"/>
+      <x:c r="N226" s="37"/>
+      <x:c r="O226" s="37"/>
+      <x:c r="P226" s="37" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="Q226" s="37"/>
+      <x:c r="R226" s="37"/>
+      <x:c r="S226" t="s">
+        <x:v>164</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="227" spans="2:19">
+      <x:c r="B227"/>
+      <x:c r="K227" s="22">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="L227" s="37" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="M227" s="37"/>
+      <x:c r="N227" s="37"/>
+      <x:c r="O227" s="37"/>
+      <x:c r="P227" s="37" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="Q227" s="37"/>
+      <x:c r="R227" s="37"/>
+      <x:c r="S227" t="s">
+        <x:v>164</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="228" spans="2:19">
+      <x:c r="B228"/>
+      <x:c r="K228" s="22">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C187" s="55"/>
-      <x:c r="D187" s="55"/>
-      <x:c r="E187" s="55"/>
-      <x:c r="F187" s="55"/>
-      <x:c r="G187" s="55"/>
-      <x:c r="H187" s="55"/>
-      <x:c r="I187" s="55"/>
-      <x:c r="J187" s="55"/>
-      <x:c r="K187" s="55"/>
-      <x:c r="L187" s="55"/>
-      <x:c r="M187" s="55"/>
-    </x:row>
-    <x:row r="188" spans="2:13">
-      <x:c r="B188" s="55" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C188" s="55"/>
-      <x:c r="D188" s="55"/>
-      <x:c r="E188" s="55"/>
-      <x:c r="F188" s="55"/>
-      <x:c r="G188" s="55"/>
-      <x:c r="H188" s="55"/>
-      <x:c r="I188" s="55"/>
-      <x:c r="J188" s="55"/>
-      <x:c r="K188" s="55"/>
-      <x:c r="L188" s="55"/>
-      <x:c r="M188" s="55"/>
-    </x:row>
-    <x:row r="191" spans="2:15">
-      <x:c r="B191" s="54" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="C191" s="54"/>
-      <x:c r="K191" s="2"/>
-      <x:c r="L191" s="2"/>
-      <x:c r="M191" s="2"/>
-      <x:c r="O191" s="2"/>
-    </x:row>
-    <x:row r="192" spans="2:15">
-      <x:c r="B192" s="2"/>
-      <x:c r="K192" s="2"/>
-      <x:c r="L192" s="2"/>
-      <x:c r="M192" s="2"/>
-      <x:c r="O192" s="2"/>
-    </x:row>
-    <x:row r="193" spans="2:15">
-      <x:c r="B193" s="2"/>
-      <x:c r="K193" s="2"/>
-      <x:c r="L193" s="2"/>
-      <x:c r="M193" s="2"/>
-      <x:c r="O193" s="2"/>
-    </x:row>
-    <x:row r="194" spans="2:15">
-      <x:c r="B194" s="2"/>
-      <x:c r="K194" s="2"/>
-      <x:c r="L194" s="2"/>
-      <x:c r="M194" s="2"/>
-      <x:c r="O194" s="2"/>
-    </x:row>
-    <x:row r="195" spans="2:18">
-      <x:c r="B195" s="2"/>
-      <x:c r="K195" s="25" t="s">
-        <x:v>197</x:v>
-      </x:c>
-      <x:c r="L195" s="50" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="M195" s="50"/>
-      <x:c r="N195" s="50"/>
-      <x:c r="O195" s="50"/>
-      <x:c r="P195" s="50" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="Q195" s="50"/>
-      <x:c r="R195" s="50"/>
-    </x:row>
-    <x:row r="196" spans="2:19">
-      <x:c r="B196" s="2"/>
-      <x:c r="K196" s="22">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="L196" s="50" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="M196" s="50"/>
-      <x:c r="N196" s="50"/>
-      <x:c r="O196" s="50"/>
-      <x:c r="P196" s="50" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="Q196" s="50"/>
-      <x:c r="R196" s="50"/>
-      <x:c r="S196" s="2" t="s">
-        <x:v>186</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="197" spans="2:19">
-      <x:c r="B197" s="2"/>
-      <x:c r="K197" s="22">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="L197" s="50" t="s">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="M197" s="50"/>
-      <x:c r="N197" s="50"/>
-      <x:c r="O197" s="50"/>
-      <x:c r="P197" s="50" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="Q197" s="50"/>
-      <x:c r="R197" s="50"/>
-      <x:c r="S197" s="2" t="s">
-        <x:v>190</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="198" spans="2:19">
-      <x:c r="B198" s="2"/>
-      <x:c r="K198" s="22">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="L198" s="50" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="M198" s="50"/>
-      <x:c r="N198" s="50"/>
-      <x:c r="O198" s="50"/>
-      <x:c r="P198" s="50" t="s">
+      <x:c r="L228" s="37" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="M228" s="37"/>
+      <x:c r="N228" s="37"/>
+      <x:c r="O228" s="37"/>
+      <x:c r="P228" s="37" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="Q228" s="37"/>
+      <x:c r="R228" s="37"/>
+      <x:c r="S228" t="s">
+        <x:v>162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="229" spans="2:15">
+      <x:c r="B229"/>
+      <x:c r="K229"/>
+      <x:c r="L229"/>
+      <x:c r="M229"/>
+      <x:c r="O229"/>
+    </x:row>
+    <x:row r="230" spans="2:15">
+      <x:c r="B230"/>
+      <x:c r="K230"/>
+      <x:c r="L230"/>
+      <x:c r="M230"/>
+      <x:c r="O230"/>
+    </x:row>
+    <x:row r="231" spans="2:15">
+      <x:c r="B231"/>
+      <x:c r="K231"/>
+      <x:c r="L231"/>
+      <x:c r="M231"/>
+      <x:c r="O231"/>
+    </x:row>
+    <x:row r="232" spans="2:15">
+      <x:c r="B232"/>
+      <x:c r="K232"/>
+      <x:c r="L232"/>
+      <x:c r="M232"/>
+      <x:c r="O232"/>
+    </x:row>
+    <x:row r="233" spans="2:15">
+      <x:c r="B233"/>
+      <x:c r="K233"/>
+      <x:c r="L233"/>
+      <x:c r="M233"/>
+      <x:c r="O233"/>
+    </x:row>
+    <x:row r="234" spans="2:17">
+      <x:c r="B234" s="41" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C234" s="41"/>
+      <x:c r="D234" s="41"/>
+      <x:c r="E234" s="41"/>
+      <x:c r="F234" s="41"/>
+      <x:c r="G234" s="41"/>
+      <x:c r="H234" s="41"/>
+      <x:c r="K234" s="41" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="L234" s="41"/>
+      <x:c r="M234" s="41"/>
+      <x:c r="N234" s="41"/>
+      <x:c r="O234" s="41"/>
+      <x:c r="P234" s="41"/>
+      <x:c r="Q234" s="41"/>
+    </x:row>
+    <x:row r="235" spans="2:17">
+      <x:c r="B235" s="41" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C235" s="41"/>
+      <x:c r="D235" s="41"/>
+      <x:c r="E235" s="41"/>
+      <x:c r="F235" s="41"/>
+      <x:c r="G235" s="41"/>
+      <x:c r="H235" s="41"/>
+      <x:c r="K235" s="41" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="Q198" s="50"/>
-      <x:c r="R198" s="50"/>
-      <x:c r="S198" s="2" t="s">
-        <x:v>186</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="199" spans="2:19">
-      <x:c r="B199" s="2"/>
-      <x:c r="K199" s="22">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="L199" s="50" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="M199" s="50"/>
-      <x:c r="N199" s="50"/>
-      <x:c r="O199" s="50"/>
-      <x:c r="P199" s="50" t="s">
-        <x:v>183</x:v>
-      </x:c>
-      <x:c r="Q199" s="50"/>
-      <x:c r="R199" s="50"/>
-      <x:c r="S199" s="2" t="s">
-        <x:v>186</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="200" spans="2:19">
-      <x:c r="B200" s="2"/>
-      <x:c r="K200" s="22">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="L200" s="50" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="M200" s="50"/>
-      <x:c r="N200" s="50"/>
-      <x:c r="O200" s="50"/>
-      <x:c r="P200" s="50" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="Q200" s="50"/>
-      <x:c r="R200" s="50"/>
-      <x:c r="S200" s="2" t="s">
-        <x:v>186</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="201" spans="2:19">
-      <x:c r="B201" s="2"/>
-      <x:c r="K201" s="22">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="L201" s="50" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="M201" s="50"/>
-      <x:c r="N201" s="50"/>
-      <x:c r="O201" s="50"/>
-      <x:c r="P201" s="50" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="Q201" s="50"/>
-      <x:c r="R201" s="50"/>
-      <x:c r="S201" s="2" t="s">
-        <x:v>190</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="202" spans="2:19">
-      <x:c r="B202" s="2"/>
-      <x:c r="K202" s="22">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="L202" s="50" t="s">
-        <x:v>178</x:v>
-      </x:c>
-      <x:c r="M202" s="50"/>
-      <x:c r="N202" s="50"/>
-      <x:c r="O202" s="50"/>
-      <x:c r="P202" s="50" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Q202" s="50"/>
-      <x:c r="R202" s="50"/>
-      <x:c r="S202" s="2" t="s">
-        <x:v>190</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="203" spans="2:19">
-      <x:c r="B203" s="2"/>
-      <x:c r="K203" s="22">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="L203" s="50" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="M203" s="50"/>
-      <x:c r="N203" s="50"/>
-      <x:c r="O203" s="50"/>
-      <x:c r="P203" s="50" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="Q203" s="50"/>
-      <x:c r="R203" s="50"/>
-      <x:c r="S203" s="2" t="s">
-        <x:v>186</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="204" spans="2:15">
-      <x:c r="B204" s="2"/>
-      <x:c r="K204" s="2"/>
-      <x:c r="L204" s="2"/>
-      <x:c r="M204" s="2"/>
-      <x:c r="O204" s="2"/>
-    </x:row>
-    <x:row r="205" spans="2:15">
-      <x:c r="B205" s="2"/>
-      <x:c r="K205" s="2"/>
-      <x:c r="L205" s="2"/>
-      <x:c r="M205" s="2"/>
-      <x:c r="O205" s="2"/>
-    </x:row>
-    <x:row r="206" spans="2:15">
-      <x:c r="B206" s="2"/>
-      <x:c r="K206" s="2"/>
-      <x:c r="L206" s="2"/>
-      <x:c r="M206" s="2"/>
-      <x:c r="O206" s="2"/>
-    </x:row>
-    <x:row r="207" spans="2:15">
-      <x:c r="B207" s="2"/>
-      <x:c r="K207" s="2"/>
-      <x:c r="L207" s="2"/>
-      <x:c r="M207" s="2"/>
-      <x:c r="O207" s="2"/>
-    </x:row>
-    <x:row r="208" spans="2:15">
-      <x:c r="B208" s="2"/>
-      <x:c r="K208" s="2"/>
-      <x:c r="L208" s="2"/>
-      <x:c r="M208" s="2"/>
-      <x:c r="O208" s="2"/>
-    </x:row>
-    <x:row r="209" spans="2:17">
-      <x:c r="B209" s="54" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C209" s="54"/>
-      <x:c r="D209" s="54"/>
-      <x:c r="E209" s="54"/>
-      <x:c r="F209" s="54"/>
-      <x:c r="G209" s="54"/>
-      <x:c r="H209" s="54"/>
-      <x:c r="K209" s="54" t="s">
-        <x:v>203</x:v>
-      </x:c>
-      <x:c r="L209" s="54"/>
-      <x:c r="M209" s="54"/>
-      <x:c r="N209" s="54"/>
-      <x:c r="O209" s="54"/>
-      <x:c r="P209" s="54"/>
-      <x:c r="Q209" s="54"/>
-    </x:row>
-    <x:row r="210" spans="2:17">
-      <x:c r="B210" s="54" t="s">
-        <x:v>135</x:v>
-      </x:c>
-      <x:c r="C210" s="54"/>
-      <x:c r="D210" s="54"/>
-      <x:c r="E210" s="54"/>
-      <x:c r="F210" s="54"/>
-      <x:c r="G210" s="54"/>
-      <x:c r="H210" s="54"/>
-      <x:c r="K210" s="54" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="L210" s="54"/>
-      <x:c r="M210" s="54"/>
-      <x:c r="N210" s="54"/>
-      <x:c r="O210" s="54"/>
-      <x:c r="P210" s="54"/>
-      <x:c r="Q210" s="54"/>
-    </x:row>
-    <x:row r="211" spans="2:17">
-      <x:c r="B211" s="54" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C211" s="54"/>
-      <x:c r="D211" s="54"/>
-      <x:c r="E211" s="54"/>
-      <x:c r="F211" s="54"/>
-      <x:c r="G211" s="54"/>
-      <x:c r="H211" s="54"/>
-      <x:c r="K211" s="54" t="s">
-        <x:v>205</x:v>
-      </x:c>
-      <x:c r="L211" s="54"/>
-      <x:c r="M211" s="54"/>
-      <x:c r="N211" s="54"/>
-      <x:c r="O211" s="54"/>
-      <x:c r="P211" s="54"/>
-      <x:c r="Q211" s="54"/>
-    </x:row>
-    <x:row r="212" spans="2:17">
-      <x:c r="B212" s="54" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C212" s="54"/>
-      <x:c r="D212" s="54"/>
-      <x:c r="E212" s="54"/>
-      <x:c r="F212" s="54"/>
-      <x:c r="G212" s="54"/>
-      <x:c r="H212" s="54"/>
-      <x:c r="K212" s="54" t="s">
-        <x:v>214</x:v>
-      </x:c>
-      <x:c r="L212" s="54"/>
-      <x:c r="M212" s="54"/>
-      <x:c r="N212" s="54"/>
-      <x:c r="O212" s="54"/>
-      <x:c r="P212" s="54"/>
-      <x:c r="Q212" s="54"/>
-    </x:row>
-    <x:row r="213" spans="2:15">
-      <x:c r="B213" s="54" t="s">
+      <x:c r="L235" s="41"/>
+      <x:c r="M235" s="41"/>
+      <x:c r="N235" s="41"/>
+      <x:c r="O235" s="41"/>
+      <x:c r="P235" s="41"/>
+      <x:c r="Q235" s="41"/>
+    </x:row>
+    <x:row r="236" spans="2:17">
+      <x:c r="B236" s="41" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C236" s="41"/>
+      <x:c r="D236" s="41"/>
+      <x:c r="E236" s="41"/>
+      <x:c r="F236" s="41"/>
+      <x:c r="G236" s="41"/>
+      <x:c r="H236" s="41"/>
+      <x:c r="K236" s="41" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="L236" s="41"/>
+      <x:c r="M236" s="41"/>
+      <x:c r="N236" s="41"/>
+      <x:c r="O236" s="41"/>
+      <x:c r="P236" s="41"/>
+      <x:c r="Q236" s="41"/>
+    </x:row>
+    <x:row r="237" spans="2:17">
+      <x:c r="B237" s="41" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C237" s="41"/>
+      <x:c r="D237" s="41"/>
+      <x:c r="E237" s="41"/>
+      <x:c r="F237" s="41"/>
+      <x:c r="G237" s="41"/>
+      <x:c r="H237" s="41"/>
+      <x:c r="K237" s="41" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="L237" s="41"/>
+      <x:c r="M237" s="41"/>
+      <x:c r="N237" s="41"/>
+      <x:c r="O237" s="41"/>
+      <x:c r="P237" s="41"/>
+      <x:c r="Q237" s="41"/>
+    </x:row>
+    <x:row r="238" spans="2:15">
+      <x:c r="B238" s="41" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C238" s="41"/>
+      <x:c r="D238" s="41"/>
+      <x:c r="E238" s="41"/>
+      <x:c r="F238" s="41"/>
+      <x:c r="G238" s="41"/>
+      <x:c r="H238" s="41"/>
+      <x:c r="K238"/>
+      <x:c r="L238"/>
+      <x:c r="M238"/>
+      <x:c r="O238"/>
+    </x:row>
+    <x:row r="239" spans="2:15">
+      <x:c r="B239" s="41" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C239" s="41"/>
+      <x:c r="D239" s="41"/>
+      <x:c r="E239" s="41"/>
+      <x:c r="F239" s="41"/>
+      <x:c r="G239" s="41"/>
+      <x:c r="H239" s="41"/>
+      <x:c r="K239" s="24">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C213" s="54"/>
-      <x:c r="D213" s="54"/>
-      <x:c r="E213" s="54"/>
-      <x:c r="F213" s="54"/>
-      <x:c r="G213" s="54"/>
-      <x:c r="H213" s="54"/>
-      <x:c r="K213" s="2"/>
-      <x:c r="L213" s="2"/>
-      <x:c r="M213" s="2"/>
-      <x:c r="O213" s="2"/>
-    </x:row>
-    <x:row r="214" spans="2:15">
-      <x:c r="B214" s="54" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="C214" s="54"/>
-      <x:c r="D214" s="54"/>
-      <x:c r="E214" s="54"/>
-      <x:c r="F214" s="54"/>
-      <x:c r="G214" s="54"/>
-      <x:c r="H214" s="54"/>
-      <x:c r="K214" s="24">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L214" s="2"/>
-      <x:c r="M214" s="24">
+      <x:c r="L239"/>
+      <x:c r="M239" s="24">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="O214" s="24">
+      <x:c r="O239" s="24">
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="215" spans="2:15">
-      <x:c r="B215" s="54" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C215" s="54"/>
-      <x:c r="D215" s="54"/>
-      <x:c r="E215" s="54"/>
-      <x:c r="F215" s="54"/>
-      <x:c r="G215" s="54"/>
-      <x:c r="H215" s="54"/>
-      <x:c r="K215" s="2"/>
-      <x:c r="L215" s="2"/>
-      <x:c r="M215" s="2"/>
-      <x:c r="O215" s="2"/>
-    </x:row>
-    <x:row r="216" spans="2:15">
-      <x:c r="B216" s="54" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="C216" s="54"/>
-      <x:c r="D216" s="54"/>
-      <x:c r="E216" s="54"/>
-      <x:c r="F216" s="54"/>
-      <x:c r="G216" s="54"/>
-      <x:c r="H216" s="54"/>
-      <x:c r="K216" s="2"/>
-      <x:c r="L216" s="2"/>
-      <x:c r="M216" s="2"/>
-      <x:c r="O216" s="2"/>
-    </x:row>
-    <x:row r="217" spans="2:15">
-      <x:c r="B217" s="2"/>
-      <x:c r="K217" s="2"/>
-      <x:c r="L217" s="2"/>
-      <x:c r="M217" s="2"/>
-      <x:c r="O217" s="2"/>
-    </x:row>
-    <x:row r="218" spans="2:15">
-      <x:c r="B218" s="2"/>
-      <x:c r="K218" s="2"/>
-      <x:c r="L218" s="2"/>
-      <x:c r="M218" s="2"/>
-      <x:c r="O218" s="2"/>
-    </x:row>
-    <x:row r="219" spans="2:15">
-      <x:c r="B219" s="2"/>
-      <x:c r="K219" s="2"/>
-      <x:c r="L219" s="2"/>
-      <x:c r="M219" s="2"/>
-      <x:c r="O219" s="2"/>
-    </x:row>
-    <x:row r="220" spans="2:15">
-      <x:c r="B220" s="2"/>
-      <x:c r="K220" s="2"/>
-      <x:c r="L220" s="2"/>
-      <x:c r="M220" s="2"/>
-      <x:c r="O220" s="2"/>
-    </x:row>
-    <x:row r="221" spans="2:15">
-      <x:c r="B221" s="2"/>
-      <x:c r="K221" s="2"/>
-      <x:c r="L221" s="2"/>
-      <x:c r="M221" s="2"/>
-      <x:c r="O221" s="2"/>
-    </x:row>
-    <x:row r="222" spans="2:15">
-      <x:c r="B222" s="54" t="s">
-        <x:v>162</x:v>
-      </x:c>
-      <x:c r="C222" s="54"/>
-      <x:c r="K222" s="2"/>
-      <x:c r="L222" s="2"/>
-      <x:c r="M222" s="2"/>
-      <x:c r="O222" s="2"/>
-    </x:row>
-    <x:row r="223" spans="2:15">
-      <x:c r="B223" s="54" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="C223" s="54"/>
-      <x:c r="D223" s="54"/>
-      <x:c r="E223" s="54"/>
-      <x:c r="F223" s="54"/>
-      <x:c r="G223" s="54"/>
-      <x:c r="H223" s="54"/>
-      <x:c r="K223" s="2"/>
-      <x:c r="L223" s="2"/>
-      <x:c r="M223" s="2"/>
-      <x:c r="O223" s="2"/>
-    </x:row>
-    <x:row r="224" spans="2:15">
-      <x:c r="B224" s="54" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="C224" s="54"/>
-      <x:c r="D224" s="54"/>
-      <x:c r="E224" s="54"/>
-      <x:c r="F224" s="54"/>
-      <x:c r="G224" s="54"/>
-      <x:c r="H224" s="54"/>
-      <x:c r="K224" s="2"/>
-      <x:c r="L224" s="2"/>
-      <x:c r="M224" s="2"/>
-      <x:c r="O224" s="2"/>
-    </x:row>
-    <x:row r="225" spans="2:8">
-      <x:c r="B225" s="54"/>
-      <x:c r="C225" s="54"/>
-      <x:c r="D225" s="54"/>
-      <x:c r="E225" s="54"/>
-      <x:c r="F225" s="54"/>
-      <x:c r="G225" s="54"/>
-      <x:c r="H225" s="54"/>
+    <x:row r="240" spans="2:15">
+      <x:c r="B240" s="41" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C240" s="41"/>
+      <x:c r="D240" s="41"/>
+      <x:c r="E240" s="41"/>
+      <x:c r="F240" s="41"/>
+      <x:c r="G240" s="41"/>
+      <x:c r="H240" s="41"/>
+      <x:c r="K240"/>
+      <x:c r="L240"/>
+      <x:c r="M240"/>
+      <x:c r="O240"/>
+    </x:row>
+    <x:row r="241" spans="2:15">
+      <x:c r="B241" s="41" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="C241" s="41"/>
+      <x:c r="D241" s="41"/>
+      <x:c r="E241" s="41"/>
+      <x:c r="F241" s="41"/>
+      <x:c r="G241" s="41"/>
+      <x:c r="H241" s="41"/>
+      <x:c r="K241"/>
+      <x:c r="L241"/>
+      <x:c r="M241"/>
+      <x:c r="O241"/>
+    </x:row>
+    <x:row r="242" spans="2:15">
+      <x:c r="B242"/>
+      <x:c r="K242"/>
+      <x:c r="L242"/>
+      <x:c r="M242"/>
+      <x:c r="O242"/>
+    </x:row>
+    <x:row r="243" spans="2:15">
+      <x:c r="B243"/>
+      <x:c r="K243"/>
+      <x:c r="L243"/>
+      <x:c r="M243"/>
+      <x:c r="O243"/>
+    </x:row>
+    <x:row r="244" spans="2:15">
+      <x:c r="B244"/>
+      <x:c r="K244"/>
+      <x:c r="L244"/>
+      <x:c r="M244"/>
+      <x:c r="O244"/>
+    </x:row>
+    <x:row r="245" spans="2:15">
+      <x:c r="B245"/>
+      <x:c r="K245"/>
+      <x:c r="L245"/>
+      <x:c r="M245"/>
+      <x:c r="O245"/>
+    </x:row>
+    <x:row r="246" spans="2:15">
+      <x:c r="B246"/>
+      <x:c r="K246"/>
+      <x:c r="L246"/>
+      <x:c r="M246"/>
+      <x:c r="O246"/>
+    </x:row>
+    <x:row r="247" spans="2:15">
+      <x:c r="B247" s="41" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C247" s="41"/>
+      <x:c r="K247"/>
+      <x:c r="L247"/>
+      <x:c r="M247"/>
+      <x:c r="O247"/>
+    </x:row>
+    <x:row r="248" spans="2:15">
+      <x:c r="B248" s="41" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="C248" s="41"/>
+      <x:c r="D248" s="41"/>
+      <x:c r="E248" s="41"/>
+      <x:c r="F248" s="41"/>
+      <x:c r="G248" s="41"/>
+      <x:c r="H248" s="41"/>
+      <x:c r="K248"/>
+      <x:c r="L248"/>
+      <x:c r="M248"/>
+      <x:c r="O248"/>
+    </x:row>
+    <x:row r="249" spans="2:15">
+      <x:c r="B249" s="41" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="C249" s="41"/>
+      <x:c r="D249" s="41"/>
+      <x:c r="E249" s="41"/>
+      <x:c r="F249" s="41"/>
+      <x:c r="G249" s="41"/>
+      <x:c r="H249" s="41"/>
+      <x:c r="K249"/>
+      <x:c r="L249"/>
+      <x:c r="M249"/>
+      <x:c r="O249"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="192">
+  <x:mergeCells count="216">
     <x:mergeCell ref="L7:M7"/>
     <x:mergeCell ref="L8:M8"/>
     <x:mergeCell ref="L9:M9"/>
@@ -5665,7 +6405,6 @@
     <x:mergeCell ref="S59:U59"/>
     <x:mergeCell ref="W58:Y58"/>
     <x:mergeCell ref="B61:H61"/>
-    <x:mergeCell ref="B62:H62"/>
     <x:mergeCell ref="C65:E65"/>
     <x:mergeCell ref="M71:P71"/>
     <x:mergeCell ref="M72:P72"/>
@@ -5688,10 +6427,8 @@
     <x:mergeCell ref="L96:M96"/>
     <x:mergeCell ref="L97:M97"/>
     <x:mergeCell ref="L98:M98"/>
-    <x:mergeCell ref="L99:M99"/>
     <x:mergeCell ref="N97:P97"/>
     <x:mergeCell ref="N98:P98"/>
-    <x:mergeCell ref="N99:P99"/>
     <x:mergeCell ref="N96:P96"/>
     <x:mergeCell ref="B109:H109"/>
     <x:mergeCell ref="B110:H110"/>
@@ -5754,52 +6491,79 @@
     <x:mergeCell ref="B187:M187"/>
     <x:mergeCell ref="B188:M188"/>
     <x:mergeCell ref="K101:T101"/>
-    <x:mergeCell ref="K102:T102"/>
-    <x:mergeCell ref="K170:U170"/>
-    <x:mergeCell ref="K171:U171"/>
-    <x:mergeCell ref="K172:U172"/>
     <x:mergeCell ref="K174:U174"/>
     <x:mergeCell ref="K175:U175"/>
     <x:mergeCell ref="K176:U176"/>
     <x:mergeCell ref="K178:U178"/>
     <x:mergeCell ref="K180:U180"/>
     <x:mergeCell ref="K177:U177"/>
-    <x:mergeCell ref="K168:AA168"/>
-    <x:mergeCell ref="B191:C191"/>
-    <x:mergeCell ref="L196:O196"/>
-    <x:mergeCell ref="L197:O197"/>
-    <x:mergeCell ref="L198:O198"/>
-    <x:mergeCell ref="L195:O195"/>
-    <x:mergeCell ref="P195:R195"/>
-    <x:mergeCell ref="P196:R196"/>
-    <x:mergeCell ref="P197:R197"/>
-    <x:mergeCell ref="P198:R198"/>
-    <x:mergeCell ref="L200:O200"/>
-    <x:mergeCell ref="L201:O201"/>
-    <x:mergeCell ref="L202:O202"/>
-    <x:mergeCell ref="L199:O199"/>
-    <x:mergeCell ref="P199:R199"/>
-    <x:mergeCell ref="P200:R200"/>
-    <x:mergeCell ref="P201:R201"/>
-    <x:mergeCell ref="P202:R202"/>
-    <x:mergeCell ref="L203:O203"/>
-    <x:mergeCell ref="P203:R203"/>
-    <x:mergeCell ref="B209:H209"/>
-    <x:mergeCell ref="B210:H210"/>
-    <x:mergeCell ref="B211:H211"/>
-    <x:mergeCell ref="B212:H212"/>
+    <x:mergeCell ref="L99:M99"/>
+    <x:mergeCell ref="N99:P99"/>
+    <x:mergeCell ref="K102:T102"/>
+    <x:mergeCell ref="K103:T103"/>
+    <x:mergeCell ref="L100:M100"/>
+    <x:mergeCell ref="N100:P100"/>
+    <x:mergeCell ref="I109:O109"/>
+    <x:mergeCell ref="I110:O110"/>
+    <x:mergeCell ref="W170:Y170"/>
+    <x:mergeCell ref="Z170:AA170"/>
+    <x:mergeCell ref="W169:Y169"/>
+    <x:mergeCell ref="Z169:AA169"/>
+    <x:mergeCell ref="C191:E191"/>
+    <x:mergeCell ref="L195:N195"/>
+    <x:mergeCell ref="L196:N196"/>
+    <x:mergeCell ref="L197:N197"/>
+    <x:mergeCell ref="L198:N198"/>
+    <x:mergeCell ref="O195:P195"/>
+    <x:mergeCell ref="O196:P196"/>
+    <x:mergeCell ref="O197:P197"/>
+    <x:mergeCell ref="O198:P198"/>
+    <x:mergeCell ref="L194:N194"/>
+    <x:mergeCell ref="O194:P194"/>
     <x:mergeCell ref="B213:H213"/>
-    <x:mergeCell ref="B214:H214"/>
+    <x:mergeCell ref="B212:M212"/>
+    <x:mergeCell ref="B210:M210"/>
+    <x:mergeCell ref="B211:L211"/>
     <x:mergeCell ref="B215:H215"/>
-    <x:mergeCell ref="B216:H216"/>
-    <x:mergeCell ref="K209:Q209"/>
-    <x:mergeCell ref="K210:Q210"/>
-    <x:mergeCell ref="K211:Q211"/>
-    <x:mergeCell ref="K212:Q212"/>
-    <x:mergeCell ref="B222:C222"/>
-    <x:mergeCell ref="B223:H223"/>
-    <x:mergeCell ref="B224:H224"/>
-    <x:mergeCell ref="B225:H225"/>
+    <x:mergeCell ref="N185:Y185"/>
+    <x:mergeCell ref="N186:Y186"/>
+    <x:mergeCell ref="N187:Y187"/>
+    <x:mergeCell ref="N188:Y188"/>
+    <x:mergeCell ref="B216:C216"/>
+    <x:mergeCell ref="L221:O221"/>
+    <x:mergeCell ref="L222:O222"/>
+    <x:mergeCell ref="L223:O223"/>
+    <x:mergeCell ref="L220:O220"/>
+    <x:mergeCell ref="P220:R220"/>
+    <x:mergeCell ref="P221:R221"/>
+    <x:mergeCell ref="P222:R222"/>
+    <x:mergeCell ref="P223:R223"/>
+    <x:mergeCell ref="L225:O225"/>
+    <x:mergeCell ref="L226:O226"/>
+    <x:mergeCell ref="L227:O227"/>
+    <x:mergeCell ref="L224:O224"/>
+    <x:mergeCell ref="P224:R224"/>
+    <x:mergeCell ref="P225:R225"/>
+    <x:mergeCell ref="P226:R226"/>
+    <x:mergeCell ref="P227:R227"/>
+    <x:mergeCell ref="L228:O228"/>
+    <x:mergeCell ref="P228:R228"/>
+    <x:mergeCell ref="B234:H234"/>
+    <x:mergeCell ref="B235:H235"/>
+    <x:mergeCell ref="B236:H236"/>
+    <x:mergeCell ref="B237:H237"/>
+    <x:mergeCell ref="B238:H238"/>
+    <x:mergeCell ref="B239:H239"/>
+    <x:mergeCell ref="B240:H240"/>
+    <x:mergeCell ref="B241:H241"/>
+    <x:mergeCell ref="K234:Q234"/>
+    <x:mergeCell ref="K235:Q235"/>
+    <x:mergeCell ref="K236:Q236"/>
+    <x:mergeCell ref="K237:Q237"/>
+    <x:mergeCell ref="B247:C247"/>
+    <x:mergeCell ref="B248:H248"/>
+    <x:mergeCell ref="B249:H249"/>
+    <x:mergeCell ref="B62:L62"/>
   </x:mergeCells>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -5813,7 +6577,7 @@
   <x:dimension ref="B2:N26"/>
   <x:sheetViews>
     <x:sheetView showGridLines="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C17" activeCellId="0" sqref="C17:F17"/>
+      <x:selection activeCell="K3" activeCellId="0" sqref="K3:N10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -5824,48 +6588,48 @@
   <x:sheetData>
     <x:row r="2" spans="2:14">
       <x:c r="B2" s="3" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="K2" s="40" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="L2" s="40"/>
-      <x:c r="M2" s="40"/>
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="K2" s="51" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="L2" s="51"/>
+      <x:c r="M2" s="51"/>
       <x:c r="N2" s="17"/>
     </x:row>
     <x:row r="3" spans="2:14">
       <x:c r="B3" s="28"/>
       <x:c r="C3" s="28" t="s">
-        <x:v>193</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="D3" s="28" t="s">
-        <x:v>195</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="E3" s="28" t="s">
-        <x:v>189</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="F3" s="28" t="s">
-        <x:v>194</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="G3" s="28" t="s">
-        <x:v>199</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="H3" s="28" t="s">
-        <x:v>188</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="I3" s="28" t="s">
-        <x:v>192</x:v>
-      </x:c>
-      <x:c r="K3" s="41" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="L3" s="41"/>
-      <x:c r="M3" s="41"/>
-      <x:c r="N3" s="41"/>
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="K3" s="56" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="L3" s="56"/>
+      <x:c r="M3" s="56"/>
+      <x:c r="N3" s="56"/>
     </x:row>
     <x:row r="4" spans="2:14">
       <x:c r="B4" s="28" t="s">
-        <x:v>67</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C4" s="28">
         <x:v>22</x:v>
@@ -5888,14 +6652,14 @@
       <x:c r="I4" s="28">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="K4" s="41"/>
-      <x:c r="L4" s="41"/>
-      <x:c r="M4" s="41"/>
-      <x:c r="N4" s="41"/>
+      <x:c r="K4" s="56"/>
+      <x:c r="L4" s="56"/>
+      <x:c r="M4" s="56"/>
+      <x:c r="N4" s="56"/>
     </x:row>
     <x:row r="5" spans="2:14">
       <x:c r="B5" s="28" t="s">
-        <x:v>60</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C5" s="28">
         <x:v>29</x:v>
@@ -5918,14 +6682,14 @@
       <x:c r="I5" s="28">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="K5" s="41"/>
-      <x:c r="L5" s="41"/>
-      <x:c r="M5" s="41"/>
-      <x:c r="N5" s="41"/>
+      <x:c r="K5" s="56"/>
+      <x:c r="L5" s="56"/>
+      <x:c r="M5" s="56"/>
+      <x:c r="N5" s="56"/>
     </x:row>
     <x:row r="6" spans="2:14">
       <x:c r="B6" s="28" t="s">
-        <x:v>70</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="C6" s="28">
         <x:v>5</x:v>
@@ -5948,211 +6712,211 @@
       <x:c r="I6" s="29">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="K6" s="41"/>
-      <x:c r="L6" s="41"/>
-      <x:c r="M6" s="41"/>
-      <x:c r="N6" s="41"/>
+      <x:c r="K6" s="56"/>
+      <x:c r="L6" s="56"/>
+      <x:c r="M6" s="56"/>
+      <x:c r="N6" s="56"/>
     </x:row>
     <x:row r="7" spans="11:14" ht="16.800000000000001" customHeight="1">
-      <x:c r="K7" s="41"/>
-      <x:c r="L7" s="41"/>
-      <x:c r="M7" s="41"/>
-      <x:c r="N7" s="41"/>
+      <x:c r="K7" s="56"/>
+      <x:c r="L7" s="56"/>
+      <x:c r="M7" s="56"/>
+      <x:c r="N7" s="56"/>
     </x:row>
     <x:row r="8" spans="2:14">
       <x:c r="B8" s="28" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="C8" s="37" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="D8" s="38"/>
-      <x:c r="E8" s="38"/>
-      <x:c r="F8" s="39"/>
-      <x:c r="K8" s="41"/>
-      <x:c r="L8" s="41"/>
-      <x:c r="M8" s="41"/>
-      <x:c r="N8" s="41"/>
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C8" s="53" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="D8" s="54"/>
+      <x:c r="E8" s="54"/>
+      <x:c r="F8" s="55"/>
+      <x:c r="K8" s="56"/>
+      <x:c r="L8" s="56"/>
+      <x:c r="M8" s="56"/>
+      <x:c r="N8" s="56"/>
     </x:row>
     <x:row r="9" spans="2:14">
       <x:c r="B9" s="30">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C9" s="37" t="s">
-        <x:v>207</x:v>
-      </x:c>
-      <x:c r="D9" s="38"/>
-      <x:c r="E9" s="38"/>
-      <x:c r="F9" s="39"/>
-      <x:c r="K9" s="41"/>
-      <x:c r="L9" s="41"/>
-      <x:c r="M9" s="41"/>
-      <x:c r="N9" s="41"/>
+      <x:c r="C9" s="53" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D9" s="54"/>
+      <x:c r="E9" s="54"/>
+      <x:c r="F9" s="55"/>
+      <x:c r="K9" s="56"/>
+      <x:c r="L9" s="56"/>
+      <x:c r="M9" s="56"/>
+      <x:c r="N9" s="56"/>
     </x:row>
     <x:row r="10" spans="2:14">
       <x:c r="B10" s="30">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C10" s="37" t="s">
-        <x:v>166</x:v>
-      </x:c>
-      <x:c r="D10" s="38"/>
-      <x:c r="E10" s="38"/>
-      <x:c r="F10" s="39"/>
-      <x:c r="K10" s="41"/>
-      <x:c r="L10" s="41"/>
-      <x:c r="M10" s="41"/>
-      <x:c r="N10" s="41"/>
+      <x:c r="C10" s="53" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D10" s="54"/>
+      <x:c r="E10" s="54"/>
+      <x:c r="F10" s="55"/>
+      <x:c r="K10" s="56"/>
+      <x:c r="L10" s="56"/>
+      <x:c r="M10" s="56"/>
+      <x:c r="N10" s="56"/>
     </x:row>
     <x:row r="11" spans="2:6">
       <x:c r="B11" s="30">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C11" s="37"/>
-      <x:c r="D11" s="38"/>
-      <x:c r="E11" s="38"/>
-      <x:c r="F11" s="39"/>
+      <x:c r="C11" s="53"/>
+      <x:c r="D11" s="54"/>
+      <x:c r="E11" s="54"/>
+      <x:c r="F11" s="55"/>
     </x:row>
     <x:row r="12" spans="2:6">
       <x:c r="B12" s="30">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C12" s="37" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="D12" s="38"/>
-      <x:c r="E12" s="38"/>
-      <x:c r="F12" s="39"/>
+      <x:c r="C12" s="53" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D12" s="54"/>
+      <x:c r="E12" s="54"/>
+      <x:c r="F12" s="55"/>
     </x:row>
     <x:row r="13" spans="2:6">
       <x:c r="B13" s="30">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C13" s="37"/>
-      <x:c r="D13" s="38"/>
-      <x:c r="E13" s="38"/>
-      <x:c r="F13" s="39"/>
+      <x:c r="C13" s="53"/>
+      <x:c r="D13" s="54"/>
+      <x:c r="E13" s="54"/>
+      <x:c r="F13" s="55"/>
     </x:row>
     <x:row r="14" spans="2:6">
       <x:c r="B14" s="30">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C14" s="37" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="D14" s="38"/>
-      <x:c r="E14" s="38"/>
-      <x:c r="F14" s="39"/>
+      <x:c r="C14" s="53" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D14" s="54"/>
+      <x:c r="E14" s="54"/>
+      <x:c r="F14" s="55"/>
     </x:row>
     <x:row r="15" spans="2:6">
       <x:c r="B15" s="30">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C15" s="37"/>
-      <x:c r="D15" s="38"/>
-      <x:c r="E15" s="38"/>
-      <x:c r="F15" s="39"/>
+      <x:c r="C15" s="53"/>
+      <x:c r="D15" s="54"/>
+      <x:c r="E15" s="54"/>
+      <x:c r="F15" s="55"/>
     </x:row>
     <x:row r="16" spans="2:6">
       <x:c r="B16" s="30">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C16" s="37" t="s">
-        <x:v>179</x:v>
-      </x:c>
-      <x:c r="D16" s="38"/>
-      <x:c r="E16" s="38"/>
-      <x:c r="F16" s="39"/>
+      <x:c r="C16" s="53" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="D16" s="54"/>
+      <x:c r="E16" s="54"/>
+      <x:c r="F16" s="55"/>
     </x:row>
     <x:row r="17" spans="2:6">
       <x:c r="B17" s="30">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C17" s="37"/>
-      <x:c r="D17" s="38"/>
-      <x:c r="E17" s="38"/>
-      <x:c r="F17" s="39"/>
+      <x:c r="C17" s="53"/>
+      <x:c r="D17" s="54"/>
+      <x:c r="E17" s="54"/>
+      <x:c r="F17" s="55"/>
     </x:row>
     <x:row r="18" spans="2:6">
       <x:c r="B18" s="30">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="C18" s="37"/>
-      <x:c r="D18" s="38"/>
-      <x:c r="E18" s="38"/>
-      <x:c r="F18" s="39"/>
+      <x:c r="C18" s="53"/>
+      <x:c r="D18" s="54"/>
+      <x:c r="E18" s="54"/>
+      <x:c r="F18" s="55"/>
     </x:row>
     <x:row r="19" spans="2:6">
       <x:c r="B19" s="30">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C19" s="37"/>
-      <x:c r="D19" s="38"/>
-      <x:c r="E19" s="38"/>
-      <x:c r="F19" s="39"/>
+      <x:c r="C19" s="53"/>
+      <x:c r="D19" s="54"/>
+      <x:c r="E19" s="54"/>
+      <x:c r="F19" s="55"/>
     </x:row>
     <x:row r="20" spans="2:6">
       <x:c r="B20" s="30">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C20" s="37"/>
-      <x:c r="D20" s="38"/>
-      <x:c r="E20" s="38"/>
-      <x:c r="F20" s="39"/>
+      <x:c r="C20" s="53"/>
+      <x:c r="D20" s="54"/>
+      <x:c r="E20" s="54"/>
+      <x:c r="F20" s="55"/>
     </x:row>
     <x:row r="21" spans="2:6">
       <x:c r="B21" s="30">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C21" s="37"/>
-      <x:c r="D21" s="38"/>
-      <x:c r="E21" s="38"/>
-      <x:c r="F21" s="39"/>
+      <x:c r="C21" s="53"/>
+      <x:c r="D21" s="54"/>
+      <x:c r="E21" s="54"/>
+      <x:c r="F21" s="55"/>
     </x:row>
     <x:row r="22" spans="2:6">
       <x:c r="B22" s="30">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C22" s="37"/>
-      <x:c r="D22" s="38"/>
-      <x:c r="E22" s="38"/>
-      <x:c r="F22" s="39"/>
+      <x:c r="C22" s="53"/>
+      <x:c r="D22" s="54"/>
+      <x:c r="E22" s="54"/>
+      <x:c r="F22" s="55"/>
     </x:row>
     <x:row r="23" spans="2:6">
       <x:c r="B23" s="30">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C23" s="37"/>
-      <x:c r="D23" s="38"/>
-      <x:c r="E23" s="38"/>
-      <x:c r="F23" s="39"/>
+      <x:c r="C23" s="53"/>
+      <x:c r="D23" s="54"/>
+      <x:c r="E23" s="54"/>
+      <x:c r="F23" s="55"/>
     </x:row>
     <x:row r="24" spans="2:6">
       <x:c r="B24" s="30">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C24" s="37"/>
-      <x:c r="D24" s="38"/>
-      <x:c r="E24" s="38"/>
-      <x:c r="F24" s="39"/>
+      <x:c r="C24" s="53"/>
+      <x:c r="D24" s="54"/>
+      <x:c r="E24" s="54"/>
+      <x:c r="F24" s="55"/>
     </x:row>
     <x:row r="25" spans="2:6">
       <x:c r="B25" s="30">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C25" s="37"/>
-      <x:c r="D25" s="38"/>
-      <x:c r="E25" s="38"/>
-      <x:c r="F25" s="39"/>
+      <x:c r="C25" s="53"/>
+      <x:c r="D25" s="54"/>
+      <x:c r="E25" s="54"/>
+      <x:c r="F25" s="55"/>
     </x:row>
     <x:row r="26" spans="2:6">
       <x:c r="B26" s="30">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C26" s="37"/>
-      <x:c r="D26" s="38"/>
-      <x:c r="E26" s="38"/>
-      <x:c r="F26" s="39"/>
+      <x:c r="C26" s="53"/>
+      <x:c r="D26" s="54"/>
+      <x:c r="E26" s="54"/>
+      <x:c r="F26" s="55"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="21">

--- a/Design/UI기획서.xlsx
+++ b/Design/UI기획서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8520" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8520" tabRatio="500" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="VerCon" sheetId="1" r:id="rId4"/>
@@ -21,54 +21,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="246">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="249">
+  <x:si>
+    <x:t>왼쪽 상단의 배속 버튼을 누르면 배속이 되게 하도록 설계, 어떤 매커니즘으로 배속을 시킬지 명확하게 적어야됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. 현재 몬스터의 상태를 나타낸다.(ex, 버프나 디버프가 걸려있으면 표시)(몬스터 자체 효과 부여)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14, 15 사이에는 그림 에셋이 들어갈 예정(추후 추가)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16. StringUI/Select 는 증강체를 선택하는 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18. StringUI/Back 은 이전으로 돌아가는 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일시정지 UI 는 esc 버튼으로 열고 닫을수 있도록 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체력바 부분은 단위 체력바로 만들수있다면 시인성이 좋아보임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25. StringUI/Upgrade_Title 강화의 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 주변으로 Range를 보여줘서 타워의 공격 범위를 보여줌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포맷식 {0}은 현재 체력,{1}은 최대 체력을 나타낸다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15. StringUI/In_Game_Upgrade_Content 는 인게임 증강체 설명</x:t>
+  </x:si>
   <x:si>
     <x:t>27. StringUI/Required_Xp 요구되는 Xp, 포맷식 {0}에는 요구되는 Xp</x:t>
   </x:si>
   <x:si>
+    <x:t>38. StringUI/Option_String 은 환경설정 화면임을 알려주는 환경설정 글자</x:t>
+  </x:si>
+  <x:si>
     <x:t>1. 몬스터의 캐릭터 특성 1, 2과 이름을 나타낸다. (ex. 거대한 강화된 흡혈박쥐)</x:t>
   </x:si>
   <x:si>
-    <x:t>15. StringUI/In_Game_Upgrade_Content 는 인게임 증강체 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38. StringUI/Option_String 은 환경설정 화면임을 알려주는 환경설정 글자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14, 15가 포함된 길쭉한 네모는 증강체를 표현, 하나의 버튼임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12. StringUI/Tower_Name 타워의 이름을 보여준다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5. StringUI/Game_End 버튼을 누르면 게임이 종료됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17. StringUI/PAUSE 는 게임이 멈춰있다고 알려주는 글자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21. StringUI/Xp 는 총 Xp를 나타낸다. 포맷식 {0}에는 총 모은 Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32. StringUI/Tower_Priority_String은 타겟 지정을 알려주는</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. StringUI/Game_Start 버튼을 누르면 1.2 인게임 화면으로 넘어감</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7. StringUI/Xp_Point 는 이번 게임동안 벌어들인 Xp를 보여준다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포맷식 {0}의 초기값은 0, 몬스터의 웨이브가 끝나면 '그 레벨'만큼 증가함.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14. StringUI/In_Game_Upgrade_Title 은 인게임 증강체 제목</x:t>
+    <x:t>37. StringUI/Monster_Name 은 몬스터의 캐릭터 특성을 나타내는 글자, 특성은 특성부여 알고리즘에 따라 부여된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34. StingUI/Tower_Upgrade는 타워를 업그레이드 해 줄수 있는 버튼, {0}은 업그레이드에 필요한 재화</x:t>
   </x:si>
   <x:si>
     <x:t>30. StingUI/Tower_Damage 는 타워 데미지를 알려주는 글자, {0}에는 그 타워의 데미지 수치를 나타냄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36. StringUI/Tower_Demolish는 타워를 부수게 해주는 버튼, {0}은 부수고 나서 돌려받는 재화</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
@@ -77,19 +80,52 @@
 타워 정보 UI의 타겟지정 UI 구현필요</x:t>
   </x:si>
   <x:si>
-    <x:t>34. StingUI/Tower_Upgrade는 타워를 업그레이드 해 줄수 있는 버튼, {0}은 업그레이드에 필요한 재화</x:t>
+    <x:t>36. StringUI/Tower_Demolish는 타워를 부수게 해주는 버튼, {0}은 부수고 나서 돌려받는 재화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6. StringUI/Stage_Level 은 현재 스테이지의 Level(단계)를 표시해준다.</x:t>
   </x:si>
   <x:si>
     <x:t>추후에 환경설정 UI가 구현되면 일시정지 UI에서 환경설정 UI로 넘어갈 수 있도록 설계할 예정임</x:t>
   </x:si>
   <x:si>
-    <x:t>6. StringUI/Stage_Level 은 현재 스테이지의 Level(단계)를 표시해준다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>39. StringUI/Show_Monster_UI 는 몬스터UI표시를 할지 안할지 설정해주는 글자</x:t>
   </x:si>
   <x:si>
-    <x:t>37. StringUI/Monster_Name 은 몬스터의 캐릭터 특성을 나타내는 글자, 특성은 특성부여 알고리즘에 따라 부여된다.</x:t>
+    <x:t>3. StringUI/Upgrade 버튼을 누르면 1.3 강화 화면으로 넘어감</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포맷식 {0}의 초기값은 1, 몬스터의 웨이브가 끝났을때 1씩 증가된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20. StringUI/Main_Menu 는 메인 화면으로 돌아가는 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28. StringUI/Tower_UI_Name 은 타워의 이름을 나타냄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40. StringUI/Music 은 배경음악을 끌지 안끌지 설정해주는 글자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포맷식 {0}의 초기값은 100으로 설정한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Upgrade_Contents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12,13 사이에는 그림 들어감(에셋 필요)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12. StringUI/Tower_Name 타워의 이름을 보여준다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5. StringUI/Game_End 버튼을 누르면 게임이 종료됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17. StringUI/PAUSE 는 게임이 멈춰있다고 알려주는 글자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14, 15가 포함된 길쭉한 네모는 증강체를 표현, 하나의 버튼임</x:t>
   </x:si>
   <x:si>
     <x:t>33. StingUI/Select_Target_Priority 는 타겟이 현재 이걸로 지정되어있다는 것을 알려줌.</x:t>
@@ -102,6 +138,54 @@
   </x:si>
   <x:si>
     <x:t>13. StringUI/Tower_Cost 타워의 비용을 보여준다. 포맷식 {0}에는 타워마다의 비용이 들어간다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLUM TOWER DEFESNSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일시정지 UI에 환경설정 버튼 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>되고, 이 버튼은 비활성화 상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작하기 버튼을 누르게 된다면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.2 인게임 증강체 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 정보 UI 시인성있게 재구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.1 증강체의 기본적인 개요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Contents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 사서 현재 적용이 되는 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Xp_Point</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워, 자원, 패시브 카테고리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>확장하기 버튼을 누르게 된다면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임 흐름도 -&gt; (이쪽 방향)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터의 속성을 이미지로 보여줌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터테이블 포맷 형식으로 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전체적인 UI들 시인성있게 재구현</x:t>
   </x:si>
   <x:si>
     <x:t>29. StringUI/Tower_Level 은 타워의 레벨을 알려주는 글자, {0}에는 타워의 레벨 수치가 들어감. 초기값 1</x:t>
@@ -183,99 +267,396 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>타워 주변으로 Range를 보여줘서 타워의 공격 범위를 보여줌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16. StringUI/Select 는 증강체를 선택하는 버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체력바 부분은 단위 체력바로 만들수있다면 시인성이 좋아보임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일시정지 UI 는 esc 버튼으로 열고 닫을수 있도록 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25. StringUI/Upgrade_Title 강화의 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포맷식 {0}은 현재 체력,{1}은 최대 체력을 나타낸다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14, 15 사이에는 그림 에셋이 들어갈 예정(추후 추가)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18. StringUI/Back 은 이전으로 돌아가는 버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. StringUI/Upgrade 버튼을 누르면 1.3 강화 화면으로 넘어감</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포맷식 {0}의 초기값은 1, 몬스터의 웨이브가 끝났을때 1씩 증가된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20. StringUI/Main_Menu 는 메인 화면으로 돌아가는 버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40. StringUI/Music 은 배경음악을 끌지 안끌지 설정해주는 글자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28. StringUI/Tower_UI_Name 은 타워의 이름을 나타냄</x:t>
+    <x:t>타워 정보 UI 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GAME OVER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>버튼을 누른다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">타워 데미지 : </x:t>
+  </x:si>
+  <x:si>
+    <x:t>환경설정 UI 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 UI 제작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우선적 선택 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4 현재 진행상황</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 업그레이드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2 인게임 화면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 정보 UI 제작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Range</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">타워 레벨 : </x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임이 진행된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일시정지 UI 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환경설정 UI 제작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1 메인 화면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.3 강화 화면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 UI 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>XP : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 증강체 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_Menu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Required_Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StringUI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Cost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp_Reset</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격 속도 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Hp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 증강체 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Move</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 레벨 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Over</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_End</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 이동 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Money : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Level : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인 메뉴로 돌아가기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7. StringUI/Xp_Point 는 이번 게임동안 벌어들인 Xp를 보여준다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32. StringUI/Tower_Priority_String은 타겟 지정을 알려주는</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21. StringUI/Xp 는 총 Xp를 나타낸다. 포맷식 {0}에는 총 모은 Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. StringUI/Game_Start 버튼을 누르면 1.2 인게임 화면으로 넘어감</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포맷식 {0}의 초기값은 0, 몬스터의 웨이브가 끝나면 '그 레벨'만큼 증가함.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14. StringUI/In_Game_Upgrade_Title 은 인게임 증강체 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. 캐릭터 속성을 이미지로 보여준다.(물, 불, 흙, 전기 이미지 필요)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22. StringUI/Xp_Reset 지금까지 사용했던 Xp를 전부 리셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9. StringUI/Money 자신이 현재 가지고 있는 돈을 보여준다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41. StringUI/Sound 는 효과음을 끌지 안끌지 설정해주는 글자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. StringUI/Option 버튼을 누르면 환경 설정 화면으로 넘어감</x:t>
   </x:si>
   <x:si>
     <x:t>26. StringUI/Upgrade_Contents 어떻게 강화되는지 설명</x:t>
   </x:si>
   <x:si>
-    <x:t>4. StringUI/Option 버튼을 누르면 환경 설정 화면으로 넘어감</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4. 캐릭터 속성을 이미지로 보여준다.(물, 불, 흙, 전기 이미지 필요)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9. StringUI/Money 자신이 현재 가지고 있는 돈을 보여준다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>19. StringUI/Game_Over 는 게임이 끝났다고 알려주는 글자</x:t>
   </x:si>
   <x:si>
     <x:t>ex. 스테이지 3,6,9,...를 클리어하는 순간 증강체 화면이 공개되어야됨</x:t>
   </x:si>
   <x:si>
-    <x:t>41. StringUI/Sound 는 효과음을 끌지 안끌지 설정해주는 글자</x:t>
-  </x:si>
-  <x:si>
     <x:t>버프, 디버프 부분은 될 수 있으면 몬스터 주변의 이펙트로 나타내게 할 것</x:t>
   </x:si>
   <x:si>
-    <x:t>22. StringUI/Xp_Reset 지금까지 사용했던 Xp를 전부 리셋</x:t>
+    <x:t>35. StringUI/Tower_Move는 타워를 이동하게 해주는 버튼, {0}은 이동에 필요한 재화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10, 11의 StringUI/Expand, StringUI/Stage_Start는 밑의 흐름을 통해</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24. StringUI/Tower_Resource_Passive_Select 타워, 자원, 패시브 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Show_Monster_UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>확장하기 버튼으로 바뀌게</x:t>
+  </x:si>
+  <x:si>
+    <x:t>웨이브가 시작되고, 버튼은</x:t>
+  </x:si>
+  <x:si>
+    <x:t>버튼으로 바뀌게 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1 인게임 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Version Control</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Target_Priority</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_UI_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.5 타워정보 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 데미지 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 정보 UI 제작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Money</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Damage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워의 비용 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.6 몬스터 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 UI 초안 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4 현재 진행 상황</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">확장하기 버튼이 시작하기 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Upgrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">맵을 밝히기 위해 확장하기 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Option_String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Fire_Rate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 업그레이드 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 부수기 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.7 환경설정 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워, 자원, 패시브 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.3 일시정지 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Demolish</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HP : {0} / {1}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이므로 클릭할 수 없다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.4 게임오버 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monster_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8. StringUI/HP 는 자신의 체력을 나타낸다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Resource_Passive_Category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14, 15가 포함된 네모를 클릭하면 16의 버튼이 나옴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StringUI 1~27에 해당하는 UI부분 작업중</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스테이지를 3번 클리어할 때마다 증강체 화면UI를 공개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Resource_Passive_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UI파트 개발자와 지속적인 커뮤니케이션을 통해 구현중</x:t>
+  </x:si>
+  <x:si>
+    <x:t>토</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타겟들</x:t>
+  </x:si>
+  <x:si>
+    <x:t>버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김시우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>→</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>효과음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>담당자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound</x:t>
   </x:si>
   <x:si>
     <x:t>돌아가기</x:t>
   </x:si>
   <x:si>
-    <x:t>Sound</x:t>
+    <x:t>타겟 지정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ver1.4</x:t>
   </x:si>
   <x:si>
     <x:t>Upgrade</x:t>
   </x:si>
   <x:si>
-    <x:t>타겟 지정</x:t>
-  </x:si>
-  <x:si>
     <x:t>22.8.25</x:t>
   </x:si>
   <x:si>
+    <x:t>Week1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우선적 선택</x:t>
+  </x:si>
+  <x:si>
     <x:t>ver1.6</x:t>
   </x:si>
   <x:si>
-    <x:t>우선적 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ver1.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Week1</x:t>
-  </x:si>
-  <x:si>
     <x:t>1. UI</x:t>
   </x:si>
   <x:si>
@@ -285,553 +666,181 @@
     <x:t>개발 일정</x:t>
   </x:si>
   <x:si>
+    <x:t>게임시작</x:t>
+  </x:si>
+  <x:si>
     <x:t>To Do</x:t>
   </x:si>
   <x:si>
+    <x:t>강화 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Option</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ver1.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임종료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문서 개요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.8.31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.8.29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Back</x:t>
+  </x:si>
+  <x:si>
     <x:t>Version</x:t>
   </x:si>
   <x:si>
-    <x:t>게임종료</x:t>
+    <x:t>배경음악</x:t>
   </x:si>
   <x:si>
     <x:t>Week3</x:t>
   </x:si>
   <x:si>
-    <x:t>22.8.31</x:t>
+    <x:t>22.8.22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.8.27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.8.21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ver1.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UI 기획서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.8.23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PAUSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워의 이름</x:t>
   </x:si>
   <x:si>
     <x:t>타워 부수기</x:t>
   </x:si>
   <x:si>
-    <x:t>Date</x:t>
+    <x:t>ver1.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ver1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ver1.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>확장하기</x:t>
   </x:si>
   <x:si>
     <x:t>Week2</x:t>
   </x:si>
   <x:si>
-    <x:t>22.8.27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ver1.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ver1.5</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">범위 : </x:t>
   </x:si>
   <x:si>
-    <x:t>22.8.21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ver1.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.8.29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UI 기획서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문서 개요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ver1.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.8.22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.8.23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ver1.0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PAUSE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워의 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Option</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확장하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임시작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Back</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배경음악</x:t>
+    <x:t>몬스터UI표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pause</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환경설정</x:t>
   </x:si>
   <x:si>
     <x:t>String</x:t>
   </x:si>
   <x:si>
+    <x:t>Expand</x:t>
+  </x:si>
+  <x:si>
     <x:t>Xp 리셋하기</x:t>
   </x:si>
   <x:si>
     <x:t>Music</x:t>
   </x:si>
   <x:si>
-    <x:t>환경설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Expand</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택하기</x:t>
-  </x:si>
-  <x:si>
     <x:t>시작하기</x:t>
   </x:si>
   <x:si>
-    <x:t>몬스터UI표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pause</x:t>
-  </x:si>
-  <x:si>
     <x:t>강화 제목</x:t>
   </x:si>
   <x:si>
-    <x:t>타워 정보 UI 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GAME OVER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우선적 선택 버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터 UI 제작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.4 현재 진행상황</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">타워 데미지 : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>버튼을 누른다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환경설정 UI 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.3 강화 화면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인게임 UI 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일시정지 UI 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.1 메인 화면</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">타워 레벨 : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>XP : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Range</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임이 진행된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 업그레이드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2 인게임 화면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 정보 UI 제작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환경설정 UI 제작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Upgrade_Contents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12,13 사이에는 그림 들어감(에셋 필요)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포맷식 {0}의 초기값은 100으로 설정한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타겟들</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>담당자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>토</x:t>
-  </x:si>
-  <x:si>
-    <x:t>효과음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김시우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>→</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Version Control</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Target_Priority</x:t>
-  </x:si>
-  <x:si>
-    <x:t>웨이브가 시작되고, 버튼은</x:t>
-  </x:si>
-  <x:si>
-    <x:t>버튼으로 바뀌게 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1 인게임 UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. 현재 몬스터의 상태를 나타낸다.(ex, 버프나 디버프가 걸려있으면 표시)(몬스터 자체 효과 부여)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35. StringUI/Tower_Move는 타워를 이동하게 해주는 버튼, {0}은 이동에 필요한 재화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10, 11의 StringUI/Expand, StringUI/Stage_Start는 밑의 흐름을 통해</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24. StringUI/Tower_Resource_Passive_Select 타워, 자원, 패시브 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UI파트 개발자와 지속적인 커뮤니케이션을 통해 구현중</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Resource_Passive_Category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>StringUI 1~27에 해당하는 UI부분 작업중</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14, 15가 포함된 네모를 클릭하면 16의 버튼이 나옴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스테이지를 3번 클리어할 때마다 증강체 화면UI를 공개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Resource_Passive_Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8. StringUI/HP 는 자신의 체력을 나타낸다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_UI_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Show_Monster_UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확장하기 버튼으로 바뀌게</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 데미지 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터 정보 UI 제작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.6 몬스터 UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.5 타워정보 UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Money</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Damage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워의 비용 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Option_String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.4 현재 진행 상황</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 업그레이드 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">확장하기 버튼이 시작하기 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Fire_Rate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.7 환경설정 UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터 UI 초안 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Upgrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">맵을 밝히기 위해 확장하기 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 부수기 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이므로 클릭할 수 없다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HP : {0} / {1}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Demolish</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워, 자원, 패시브 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.3 일시정지 UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Monster_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.4 게임오버 UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_Level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인게임 증강체 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Required_Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인게임 증강체 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Over</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Move</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 이동 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Hp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>StringUI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 레벨 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Cost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp_Reset</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_End</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_Start</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_Menu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격 속도 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Level : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Start</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인 메뉴로 돌아가기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Money : {0}</x:t>
+    <x:t>Target_Priority_Button</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 몬스터의 체력과 방어구를 나타낸다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화 카드는 크게 3가지로 나눌수 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16 버튼을 클릭하면 증강체가 적용됨.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 사지 않았지만 살 수 있는 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중앙에 있는 정사각형은 타워를 나타냄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인, 인게임, 강화 화면 UI 제작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select_Target_Priority</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12,13이 같이 들어있는 네모는 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. 사지 않았고 현재 살 수 없는 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 UI의 확장, 타워정보 UI 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인, 인게임, 강화 화면 UI기본 틀구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Upgrade_Title</x:t>
   </x:si>
   <x:si>
     <x:t>몬스터 UI의 공격로 버프 이펙트 구현</x:t>
   </x:si>
   <x:si>
-    <x:t>In_Game_Upgrade_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Target_Priority_Button</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 카드는 크게 3가지로 나눌수 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인게임 UI의 확장, 타워정보 UI 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 몬스터의 체력과 방어구를 나타낸다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중앙에 있는 정사각형은 타워를 나타냄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12,13이 같이 들어있는 네모는 버튼</x:t>
-  </x:si>
-  <x:si>
     <x:t>Target_Priority_String</x:t>
   </x:si>
   <x:si>
-    <x:t>메인, 인게임, 강화 화면 UI 제작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인, 인게임, 강화 화면 UI기본 틀구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 사지 않았지만 살 수 있는 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select_Target_Priority</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. 사지 않았고 현재 살 수 없는 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16 버튼을 클릭하면 증강체가 적용됨.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.1 증강체의 기본적인 개요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PLUM TOWER DEFESNSE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.2 인게임 증강체 UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Xp_Point</x:t>
-  </x:si>
-  <x:si>
-    <x:t>되고, 이 버튼은 비활성화 상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작하기 버튼을 누르게 된다면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임 흐름도 -&gt; (이쪽 방향)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 정보 UI 시인성있게 재구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워, 자원, 패시브 카테고리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터의 속성을 이미지로 보여줌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Contents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 사서 현재 적용이 되는 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확장하기 버튼을 누르게 된다면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일시정지 UI에 환경설정 버튼 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터테이블 포맷 형식으로 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전체적인 UI들 시인성있게 재구현</x:t>
+    <x:t>왼쪽 상단의 일시정지 버튼을 누르면 1.2.3의 일시정지 UI화면이 나옴, esc버튼을 눌렀을때도 나오게 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오른쪽 상단의 톱니바퀴 버튼을 누르면 1.2.7의 환경설정 UI가 나오도록 설계</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1271,30 +1280,6 @@
     <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
@@ -1352,6 +1337,30 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
@@ -1374,6 +1383,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1456,6 +1466,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1490,6 +1501,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1534,6 +1546,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1577,6 +1590,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1661,6 +1675,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1681,6 +1696,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1711,6 +1727,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -2633,7 +2650,7 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:J18"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView showGridLines="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="B15" activeCellId="0" sqref="B15:B15"/>
     </x:sheetView>
   </x:sheetViews>
@@ -2645,36 +2662,36 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="23.5">
-      <x:c r="A1" s="51" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="B1" s="51"/>
+      <x:c r="A1" s="43" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="B1" s="43"/>
       <x:c r="C1" s="10"/>
-      <x:c r="F1" s="52" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G1" s="52"/>
-      <x:c r="H1" s="52"/>
-      <x:c r="I1" s="52"/>
-      <x:c r="J1" s="52"/>
+      <x:c r="F1" s="44" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="G1" s="44"/>
+      <x:c r="H1" s="44"/>
+      <x:c r="I1" s="44"/>
+      <x:c r="J1" s="44"/>
     </x:row>
     <x:row r="2" spans="1:3">
-      <x:c r="A2" s="50" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="B2" s="50"/>
+      <x:c r="A2" s="42" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="B2" s="42"/>
       <x:c r="C2" s="10"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="16.75">
       <x:c r="A3" s="11" t="s">
-        <x:v>134</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B3" s="11" t="s">
-        <x:v>144</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C3" s="11"/>
       <x:c r="F3" s="12" t="s">
-        <x:v>60</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="G3" s="13"/>
       <x:c r="H3" s="13"/>
@@ -2683,106 +2700,106 @@
     </x:row>
     <x:row r="4" spans="1:10">
       <x:c r="A4" s="15" t="s">
-        <x:v>64</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="B4" s="15" t="s">
-        <x:v>113</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C4" s="15" t="s">
-        <x:v>69</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="F4" s="16"/>
-      <x:c r="G4" s="53" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="H4" s="53"/>
-      <x:c r="I4" s="53"/>
-      <x:c r="J4" s="54"/>
+      <x:c r="G4" s="45" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="H4" s="45"/>
+      <x:c r="I4" s="45"/>
+      <x:c r="J4" s="46"/>
     </x:row>
     <x:row r="5" spans="1:10">
       <x:c r="A5" s="17" t="s">
-        <x:v>85</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="B5" s="17" t="s">
-        <x:v>225</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="C5" s="17" t="s">
-        <x:v>75</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="F5" s="16"/>
-      <x:c r="G5" s="53" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="H5" s="53"/>
-      <x:c r="I5" s="53"/>
-      <x:c r="J5" s="54"/>
+      <x:c r="G5" s="45" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H5" s="45"/>
+      <x:c r="I5" s="45"/>
+      <x:c r="J5" s="46"/>
     </x:row>
     <x:row r="6" spans="1:10">
       <x:c r="A6" s="17" t="s">
-        <x:v>76</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="B6" s="17" t="s">
-        <x:v>116</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C6" s="17" t="s">
-        <x:v>82</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="F6" s="18"/>
       <x:c r="G6" s="19"/>
       <x:c r="H6" s="41" t="s">
-        <x:v>150</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="I6" s="19"/>
       <x:c r="J6" s="20"/>
     </x:row>
     <x:row r="7" spans="1:10">
       <x:c r="A7" s="19" t="s">
-        <x:v>81</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B7" s="37" t="s">
-        <x:v>219</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="C7" s="17" t="s">
-        <x:v>83</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="F7" s="18"/>
       <x:c r="G7" s="19"/>
       <x:c r="H7" s="19" t="s">
-        <x:v>232</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="I7" s="19"/>
       <x:c r="J7" s="20"/>
     </x:row>
     <x:row r="8" spans="1:10">
       <x:c r="A8" s="19" t="s">
-        <x:v>72</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B8" s="17" t="s">
-        <x:v>178</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C8" s="17" t="s">
-        <x:v>55</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="F8" s="18"/>
       <x:c r="G8" s="19"/>
       <x:c r="H8" s="37" t="s">
-        <x:v>187</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="I8" s="19"/>
       <x:c r="J8" s="20"/>
     </x:row>
     <x:row r="9" spans="1:10">
       <x:c r="A9" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B9" s="19" t="s">
-        <x:v>125</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C9" s="19"/>
       <x:c r="F9" s="18"/>
       <x:c r="G9" s="19"/>
       <x:c r="H9" s="19" t="s">
-        <x:v>190</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="I9" s="19"/>
       <x:c r="J9" s="20"/>
@@ -2790,13 +2807,13 @@
     <x:row r="10" spans="1:10">
       <x:c r="A10" s="19"/>
       <x:c r="B10" s="19" t="s">
-        <x:v>243</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C10" s="19"/>
       <x:c r="F10" s="18"/>
       <x:c r="G10" s="33"/>
       <x:c r="H10" s="35" t="s">
-        <x:v>168</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="I10" s="33"/>
       <x:c r="J10" s="34"/>
@@ -2804,13 +2821,13 @@
     <x:row r="11" spans="1:10">
       <x:c r="A11" s="19"/>
       <x:c r="B11" s="19" t="s">
-        <x:v>108</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C11" s="19"/>
       <x:c r="F11" s="18"/>
       <x:c r="G11" s="33"/>
       <x:c r="H11" s="33" t="s">
-        <x:v>167</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="I11" s="33"/>
       <x:c r="J11" s="34"/>
@@ -2818,81 +2835,81 @@
     <x:row r="12" spans="1:10">
       <x:c r="A12" s="19"/>
       <x:c r="B12" s="19" t="s">
-        <x:v>244</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C12" s="19" t="s">
-        <x:v>71</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="F12" s="18"/>
       <x:c r="G12" s="33"/>
       <x:c r="H12" s="35" t="s">
-        <x:v>177</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="I12" s="33"/>
       <x:c r="J12" s="34"/>
     </x:row>
     <x:row r="13" spans="1:10">
       <x:c r="A13" s="19" t="s">
-        <x:v>73</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B13" s="19" t="s">
-        <x:v>105</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C13" s="19" t="s">
-        <x:v>77</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="F13" s="18"/>
-      <x:c r="G13" s="57" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="H13" s="57"/>
-      <x:c r="I13" s="57"/>
-      <x:c r="J13" s="58"/>
+      <x:c r="G13" s="49" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="H13" s="49"/>
+      <x:c r="I13" s="49"/>
+      <x:c r="J13" s="50"/>
     </x:row>
     <x:row r="14" spans="1:10">
       <x:c r="A14" s="19" t="s">
-        <x:v>56</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="B14" s="19" t="s">
-        <x:v>115</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C14" s="19"/>
       <x:c r="F14" s="18"/>
-      <x:c r="G14" s="57" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="H14" s="57"/>
-      <x:c r="I14" s="57"/>
-      <x:c r="J14" s="58"/>
+      <x:c r="G14" s="49" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="H14" s="49"/>
+      <x:c r="I14" s="49"/>
+      <x:c r="J14" s="50"/>
     </x:row>
     <x:row r="15" spans="1:10">
       <x:c r="A15" s="19"/>
       <x:c r="B15" s="19" t="s">
-        <x:v>105</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C15" s="19"/>
       <x:c r="F15" s="18" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="G15" s="55"/>
-      <x:c r="H15" s="55"/>
-      <x:c r="I15" s="55"/>
-      <x:c r="J15" s="56"/>
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="G15" s="47"/>
+      <x:c r="H15" s="47"/>
+      <x:c r="I15" s="47"/>
+      <x:c r="J15" s="48"/>
     </x:row>
     <x:row r="16" spans="2:10">
       <x:c r="B16" s="3" t="s">
-        <x:v>112</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="F16" s="18"/>
-      <x:c r="G16" s="55" t="s">
-        <x:v>230</x:v>
-      </x:c>
-      <x:c r="H16" s="55"/>
-      <x:c r="I16" s="55"/>
-      <x:c r="J16" s="56"/>
+      <x:c r="G16" s="47" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="H16" s="47"/>
+      <x:c r="I16" s="47"/>
+      <x:c r="J16" s="48"/>
     </x:row>
     <x:row r="17" spans="6:10">
       <x:c r="F17" s="18"/>
@@ -2930,8 +2947,8 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="A1:AB249"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" topLeftCell="A133" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B211" activeCellId="0" sqref="B211:L211"/>
+    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="Q48" activeCellId="0" sqref="Q48:Q48"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -2944,418 +2961,472 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="8" t="s">
-        <x:v>60</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="2:3">
-      <x:c r="B2" s="46" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="C2" s="46"/>
+      <x:c r="B2" s="55" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C2" s="55"/>
     </x:row>
     <x:row r="7" spans="11:16">
       <x:c r="K7" s="27" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="L7" s="42" t="s">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="M7" s="42"/>
-      <x:c r="N7" s="43" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="O7" s="44"/>
-      <x:c r="P7" s="45"/>
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="L7" s="51" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="M7" s="51"/>
+      <x:c r="N7" s="52" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="O7" s="53"/>
+      <x:c r="P7" s="54"/>
     </x:row>
     <x:row r="8" spans="11:17">
       <x:c r="K8" s="24">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="L8" s="42" t="s">
-        <x:v>213</x:v>
-      </x:c>
-      <x:c r="M8" s="42"/>
-      <x:c r="N8" s="42" t="s">
-        <x:v>231</x:v>
-      </x:c>
-      <x:c r="O8" s="42"/>
-      <x:c r="P8" s="42"/>
+      <x:c r="L8" s="51" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="M8" s="51"/>
+      <x:c r="N8" s="51" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="O8" s="51"/>
+      <x:c r="P8" s="51"/>
       <x:c r="Q8" s="6" t="s">
-        <x:v>143</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="11:17">
       <x:c r="K9" s="24">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="L9" s="42" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="M9" s="42"/>
-      <x:c r="N9" s="42" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="O9" s="42"/>
-      <x:c r="P9" s="42"/>
+      <x:c r="L9" s="51" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="M9" s="51"/>
+      <x:c r="N9" s="51" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="O9" s="51"/>
+      <x:c r="P9" s="51"/>
       <x:c r="Q9" s="6" t="s">
-        <x:v>142</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="11:17">
       <x:c r="K10" s="24">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="L10" s="42" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="M10" s="42"/>
-      <x:c r="N10" s="42" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="O10" s="42"/>
-      <x:c r="P10" s="42"/>
+      <x:c r="L10" s="51" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="M10" s="51"/>
+      <x:c r="N10" s="51" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="O10" s="51"/>
+      <x:c r="P10" s="51"/>
       <x:c r="Q10" s="6" t="s">
-        <x:v>142</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="11:17">
       <x:c r="K11" s="24">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="L11" s="42" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="M11" s="42"/>
-      <x:c r="N11" s="42" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="O11" s="42"/>
-      <x:c r="P11" s="42"/>
+      <x:c r="L11" s="51" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="M11" s="51"/>
+      <x:c r="N11" s="51" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="O11" s="51"/>
+      <x:c r="P11" s="51"/>
       <x:c r="Q11" s="6" t="s">
-        <x:v>142</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="11:17">
       <x:c r="K12" s="24">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="L12" s="42" t="s">
-        <x:v>204</x:v>
-      </x:c>
-      <x:c r="M12" s="42"/>
-      <x:c r="N12" s="42" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="O12" s="42"/>
-      <x:c r="P12" s="42"/>
+      <x:c r="L12" s="51" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="M12" s="51"/>
+      <x:c r="N12" s="51" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="O12" s="51"/>
+      <x:c r="P12" s="51"/>
       <x:c r="Q12" s="6" t="s">
-        <x:v>142</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:8">
-      <x:c r="B20" s="46" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C20" s="46"/>
-      <x:c r="D20" s="46"/>
-      <x:c r="E20" s="46"/>
-      <x:c r="F20" s="46"/>
-      <x:c r="G20" s="46"/>
-      <x:c r="H20" s="46"/>
+      <x:c r="B20" s="55" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C20" s="55"/>
+      <x:c r="D20" s="55"/>
+      <x:c r="E20" s="55"/>
+      <x:c r="F20" s="55"/>
+      <x:c r="G20" s="55"/>
+      <x:c r="H20" s="55"/>
     </x:row>
     <x:row r="21" spans="2:8">
-      <x:c r="B21" s="46" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C21" s="46"/>
-      <x:c r="D21" s="46"/>
-      <x:c r="E21" s="46"/>
-      <x:c r="F21" s="46"/>
-      <x:c r="G21" s="46"/>
-      <x:c r="H21" s="46"/>
+      <x:c r="B21" s="55" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C21" s="55"/>
+      <x:c r="D21" s="55"/>
+      <x:c r="E21" s="55"/>
+      <x:c r="F21" s="55"/>
+      <x:c r="G21" s="55"/>
+      <x:c r="H21" s="55"/>
     </x:row>
     <x:row r="22" spans="2:8">
-      <x:c r="B22" s="46" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="C22" s="46"/>
-      <x:c r="D22" s="46"/>
-      <x:c r="E22" s="46"/>
-      <x:c r="F22" s="46"/>
-      <x:c r="G22" s="46"/>
-      <x:c r="H22" s="46"/>
+      <x:c r="B22" s="55" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C22" s="55"/>
+      <x:c r="D22" s="55"/>
+      <x:c r="E22" s="55"/>
+      <x:c r="F22" s="55"/>
+      <x:c r="G22" s="55"/>
+      <x:c r="H22" s="55"/>
     </x:row>
     <x:row r="23" spans="2:8">
-      <x:c r="B23" s="46" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C23" s="46"/>
-      <x:c r="D23" s="46"/>
-      <x:c r="E23" s="46"/>
-      <x:c r="F23" s="46"/>
-      <x:c r="G23" s="46"/>
-      <x:c r="H23" s="46"/>
+      <x:c r="B23" s="55" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C23" s="55"/>
+      <x:c r="D23" s="55"/>
+      <x:c r="E23" s="55"/>
+      <x:c r="F23" s="55"/>
+      <x:c r="G23" s="55"/>
+      <x:c r="H23" s="55"/>
     </x:row>
     <x:row r="24" spans="2:14">
-      <x:c r="B24" s="47" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C24" s="46"/>
-      <x:c r="D24" s="46"/>
-      <x:c r="E24" s="46"/>
-      <x:c r="F24" s="46"/>
-      <x:c r="G24" s="46"/>
-      <x:c r="H24" s="46"/>
-      <x:c r="I24" s="46"/>
-      <x:c r="J24" s="46"/>
-      <x:c r="K24" s="46"/>
-      <x:c r="L24" s="46"/>
-      <x:c r="M24" s="46"/>
-      <x:c r="N24" s="46"/>
+      <x:c r="B24" s="56" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C24" s="55"/>
+      <x:c r="D24" s="55"/>
+      <x:c r="E24" s="55"/>
+      <x:c r="F24" s="55"/>
+      <x:c r="G24" s="55"/>
+      <x:c r="H24" s="55"/>
+      <x:c r="I24" s="55"/>
+      <x:c r="J24" s="55"/>
+      <x:c r="K24" s="55"/>
+      <x:c r="L24" s="55"/>
+      <x:c r="M24" s="55"/>
+      <x:c r="N24" s="55"/>
     </x:row>
     <x:row r="25" spans="2:14">
-      <x:c r="B25" s="47"/>
-      <x:c r="C25" s="46"/>
-      <x:c r="D25" s="46"/>
-      <x:c r="E25" s="46"/>
-      <x:c r="F25" s="46"/>
-      <x:c r="G25" s="46"/>
-      <x:c r="H25" s="46"/>
-      <x:c r="I25" s="46"/>
-      <x:c r="J25" s="46"/>
-      <x:c r="K25" s="46"/>
-      <x:c r="L25" s="46"/>
-      <x:c r="M25" s="46"/>
-      <x:c r="N25" s="46"/>
+      <x:c r="B25" s="56"/>
+      <x:c r="C25" s="55"/>
+      <x:c r="D25" s="55"/>
+      <x:c r="E25" s="55"/>
+      <x:c r="F25" s="55"/>
+      <x:c r="G25" s="55"/>
+      <x:c r="H25" s="55"/>
+      <x:c r="I25" s="55"/>
+      <x:c r="J25" s="55"/>
+      <x:c r="K25" s="55"/>
+      <x:c r="L25" s="55"/>
+      <x:c r="M25" s="55"/>
+      <x:c r="N25" s="55"/>
     </x:row>
     <x:row r="27" spans="2:3">
-      <x:c r="B27" s="46" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="C27" s="46"/>
+      <x:c r="B27" s="55" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C27" s="55"/>
     </x:row>
     <x:row r="28" spans="2:4">
       <x:c r="B28" s="25"/>
-      <x:c r="C28" s="46" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="D28" s="46"/>
+      <x:c r="C28" s="55" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="D28" s="55"/>
     </x:row>
     <x:row r="31" spans="11:16">
       <x:c r="K31" s="27" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="L31" s="42" t="s">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="M31" s="42"/>
-      <x:c r="N31" s="43" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="O31" s="44"/>
-      <x:c r="P31" s="45"/>
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="L31" s="51" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="M31" s="51"/>
+      <x:c r="N31" s="52" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="O31" s="53"/>
+      <x:c r="P31" s="54"/>
     </x:row>
     <x:row r="32" spans="11:17">
       <x:c r="K32" s="24">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="L32" s="42" t="s">
-        <x:v>191</x:v>
-      </x:c>
-      <x:c r="M32" s="42"/>
-      <x:c r="N32" s="42" t="s">
-        <x:v>209</x:v>
-      </x:c>
-      <x:c r="O32" s="42"/>
-      <x:c r="P32" s="42"/>
+      <x:c r="L32" s="51" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="M32" s="51"/>
+      <x:c r="N32" s="51" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="O32" s="51"/>
+      <x:c r="P32" s="51"/>
       <x:c r="Q32" s="6" t="s">
-        <x:v>143</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="11:17">
       <x:c r="K33" s="24">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="L33" s="42" t="s">
-        <x:v>233</x:v>
-      </x:c>
-      <x:c r="M33" s="42" t="s">
-        <x:v>233</x:v>
-      </x:c>
-      <x:c r="N33" s="42" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="O33" s="42"/>
-      <x:c r="P33" s="42"/>
+      <x:c r="L33" s="51" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="M33" s="51" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="N33" s="51" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="O33" s="51"/>
+      <x:c r="P33" s="51"/>
       <x:c r="Q33" s="6" t="s">
-        <x:v>143</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="11:17">
       <x:c r="K34" s="24">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="L34" s="42" t="s">
-        <x:v>199</x:v>
-      </x:c>
-      <x:c r="M34" s="42" t="s">
-        <x:v>199</x:v>
-      </x:c>
-      <x:c r="N34" s="42" t="s">
-        <x:v>183</x:v>
-      </x:c>
-      <x:c r="O34" s="42"/>
-      <x:c r="P34" s="42"/>
+      <x:c r="L34" s="51" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="M34" s="51" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="N34" s="51" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="O34" s="51"/>
+      <x:c r="P34" s="51"/>
       <x:c r="Q34" s="6" t="s">
-        <x:v>143</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="11:17">
       <x:c r="K35" s="24">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="L35" s="42" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="M35" s="42" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="N35" s="42" t="s">
-        <x:v>214</x:v>
-      </x:c>
-      <x:c r="O35" s="42"/>
-      <x:c r="P35" s="42"/>
+      <x:c r="L35" s="51" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="M35" s="51" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="N35" s="51" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="O35" s="51"/>
+      <x:c r="P35" s="51"/>
       <x:c r="Q35" s="6" t="s">
-        <x:v>143</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="11:17">
       <x:c r="K36" s="24">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L36" s="42" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="M36" s="42"/>
-      <x:c r="N36" s="42" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="O36" s="42"/>
-      <x:c r="P36" s="42"/>
+      <x:c r="L36" s="51" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="M36" s="51"/>
+      <x:c r="N36" s="51" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="O36" s="51"/>
+      <x:c r="P36" s="51"/>
       <x:c r="Q36" s="6" t="s">
-        <x:v>142</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="11:17">
       <x:c r="K37" s="24">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="L37" s="42" t="s">
-        <x:v>205</x:v>
-      </x:c>
-      <x:c r="M37" s="42"/>
-      <x:c r="N37" s="42" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="O37" s="42"/>
-      <x:c r="P37" s="42"/>
+      <x:c r="L37" s="51" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="M37" s="51"/>
+      <x:c r="N37" s="51" t="s">
+        <x:v>230</x:v>
+      </x:c>
+      <x:c r="O37" s="51"/>
+      <x:c r="P37" s="51"/>
       <x:c r="Q37" s="6" t="s">
-        <x:v>142</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="11:21">
       <x:c r="K38" s="24">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="L38" s="42" t="s">
-        <x:v>210</x:v>
-      </x:c>
-      <x:c r="M38" s="42"/>
-      <x:c r="N38" s="42" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="O38" s="42"/>
-      <x:c r="P38" s="42"/>
+      <x:c r="L38" s="51" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="M38" s="51"/>
+      <x:c r="N38" s="51" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="O38" s="51"/>
+      <x:c r="P38" s="51"/>
       <x:c r="Q38" s="6" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="R38" s="46" t="s">
-        <x:v>222</x:v>
-      </x:c>
-      <x:c r="S38" s="46"/>
-      <x:c r="T38" s="46"/>
-      <x:c r="U38" s="46"/>
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="R38" s="55" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="S38" s="55"/>
+      <x:c r="T38" s="55"/>
+      <x:c r="U38" s="55"/>
     </x:row>
     <x:row r="39" spans="11:21">
       <x:c r="K39" s="24">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="L39" s="42" t="s">
-        <x:v>202</x:v>
-      </x:c>
-      <x:c r="M39" s="42"/>
-      <x:c r="N39" s="42" t="s">
-        <x:v>171</x:v>
-      </x:c>
-      <x:c r="O39" s="42"/>
-      <x:c r="P39" s="42"/>
+      <x:c r="L39" s="51" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="M39" s="51"/>
+      <x:c r="N39" s="51" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="O39" s="51"/>
+      <x:c r="P39" s="51"/>
       <x:c r="Q39" s="6" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="R39" s="46" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="S39" s="46"/>
-      <x:c r="T39" s="46"/>
-      <x:c r="U39" s="46"/>
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="R39" s="55" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="S39" s="55"/>
+      <x:c r="T39" s="55"/>
+      <x:c r="U39" s="55"/>
+    </x:row>
+    <x:row r="40" spans="11:22">
+      <x:c r="K40"/>
+      <x:c r="L40"/>
+      <x:c r="M40"/>
+      <x:c r="O40"/>
+      <x:c r="V40"/>
+    </x:row>
+    <x:row r="41" spans="11:22">
+      <x:c r="K41" s="55" t="s">
+        <x:v>247</x:v>
+      </x:c>
+      <x:c r="L41" s="55"/>
+      <x:c r="M41" s="55"/>
+      <x:c r="N41" s="55"/>
+      <x:c r="O41" s="55"/>
+      <x:c r="P41" s="55"/>
+      <x:c r="Q41" s="55"/>
+      <x:c r="R41" s="55"/>
+      <x:c r="S41" s="55"/>
+      <x:c r="T41" s="55"/>
+      <x:c r="U41" s="55"/>
+      <x:c r="V41"/>
+    </x:row>
+    <x:row r="42" spans="11:22">
+      <x:c r="K42" s="55" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L42" s="55"/>
+      <x:c r="M42" s="55"/>
+      <x:c r="N42" s="55"/>
+      <x:c r="O42" s="55"/>
+      <x:c r="P42" s="55"/>
+      <x:c r="Q42" s="55"/>
+      <x:c r="R42" s="55"/>
+      <x:c r="S42" s="55"/>
+      <x:c r="T42" s="55"/>
+      <x:c r="U42" s="55"/>
+      <x:c r="V42"/>
+    </x:row>
+    <x:row r="43" spans="11:21">
+      <x:c r="K43" s="55" t="s">
+        <x:v>248</x:v>
+      </x:c>
+      <x:c r="L43" s="55"/>
+      <x:c r="M43" s="55"/>
+      <x:c r="N43" s="55"/>
+      <x:c r="O43" s="55"/>
+      <x:c r="P43" s="55"/>
+      <x:c r="Q43" s="55"/>
+      <x:c r="R43" s="55"/>
+      <x:c r="S43" s="55"/>
+      <x:c r="T43" s="55"/>
+      <x:c r="U43" s="55"/>
     </x:row>
     <x:row r="46" spans="2:21">
-      <x:c r="B46" s="46" t="s">
+      <x:c r="B46" s="55" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C46" s="46"/>
-      <x:c r="D46" s="46"/>
-      <x:c r="E46" s="46"/>
-      <x:c r="F46" s="46"/>
-      <x:c r="G46" s="46"/>
-      <x:c r="H46" s="46"/>
+      <x:c r="C46" s="55"/>
+      <x:c r="D46" s="55"/>
+      <x:c r="E46" s="55"/>
+      <x:c r="F46" s="55"/>
+      <x:c r="G46" s="55"/>
+      <x:c r="H46" s="55"/>
       <x:c r="I46" s="38"/>
       <x:c r="J46" s="38"/>
-      <x:c r="K46" s="46" t="s">
-        <x:v>153</x:v>
-      </x:c>
-      <x:c r="L46" s="46"/>
-      <x:c r="M46" s="46"/>
-      <x:c r="N46" s="46"/>
-      <x:c r="O46" s="46"/>
-      <x:c r="P46" s="46"/>
-      <x:c r="Q46" s="46"/>
+      <x:c r="K46" s="55" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="L46" s="55"/>
+      <x:c r="M46" s="55"/>
+      <x:c r="N46" s="55"/>
+      <x:c r="O46" s="55"/>
+      <x:c r="P46" s="55"/>
+      <x:c r="Q46" s="55"/>
       <x:c r="R46" s="38"/>
       <x:c r="S46" s="38"/>
       <x:c r="T46" s="38"/>
       <x:c r="U46" s="38"/>
     </x:row>
     <x:row r="47" spans="2:21">
-      <x:c r="B47" s="46" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C47" s="46"/>
-      <x:c r="D47" s="46"/>
-      <x:c r="E47" s="46"/>
-      <x:c r="F47" s="46"/>
-      <x:c r="G47" s="46"/>
-      <x:c r="H47" s="46"/>
+      <x:c r="B47" s="55" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C47" s="55"/>
+      <x:c r="D47" s="55"/>
+      <x:c r="E47" s="55"/>
+      <x:c r="F47" s="55"/>
+      <x:c r="G47" s="55"/>
+      <x:c r="H47" s="55"/>
       <x:c r="I47" s="38"/>
       <x:c r="J47" s="38"/>
-      <x:c r="K47" s="46" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="L47" s="46"/>
-      <x:c r="M47" s="46"/>
-      <x:c r="N47" s="46"/>
-      <x:c r="O47" s="46"/>
-      <x:c r="P47" s="46"/>
-      <x:c r="Q47" s="46"/>
+      <x:c r="K47" s="55" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="L47" s="55"/>
+      <x:c r="M47" s="55"/>
+      <x:c r="N47" s="55"/>
+      <x:c r="O47" s="55"/>
+      <x:c r="P47" s="55"/>
+      <x:c r="Q47" s="55"/>
       <x:c r="R47" s="38"/>
       <x:c r="S47" s="38"/>
       <x:c r="T47" s="38"/>
@@ -3384,41 +3455,41 @@
       <x:c r="U48" s="38"/>
     </x:row>
     <x:row r="49" spans="2:21">
-      <x:c r="B49" s="46" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C49" s="46"/>
-      <x:c r="D49" s="46"/>
-      <x:c r="E49" s="46"/>
-      <x:c r="F49" s="46"/>
-      <x:c r="G49" s="46"/>
-      <x:c r="H49" s="46"/>
+      <x:c r="B49" s="55" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C49" s="55"/>
+      <x:c r="D49" s="55"/>
+      <x:c r="E49" s="55"/>
+      <x:c r="F49" s="55"/>
+      <x:c r="G49" s="55"/>
+      <x:c r="H49" s="55"/>
       <x:c r="I49" s="38"/>
       <x:c r="J49" s="38"/>
-      <x:c r="K49" s="46" t="s">
-        <x:v>236</x:v>
-      </x:c>
-      <x:c r="L49" s="46"/>
-      <x:c r="M49" s="46"/>
-      <x:c r="N49" s="46"/>
-      <x:c r="O49" s="46"/>
-      <x:c r="P49" s="46"/>
-      <x:c r="Q49" s="46"/>
+      <x:c r="K49" s="55" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="L49" s="55"/>
+      <x:c r="M49" s="55"/>
+      <x:c r="N49" s="55"/>
+      <x:c r="O49" s="55"/>
+      <x:c r="P49" s="55"/>
+      <x:c r="Q49" s="55"/>
       <x:c r="R49" s="38"/>
       <x:c r="S49" s="38"/>
       <x:c r="T49" s="38"/>
       <x:c r="U49" s="38"/>
     </x:row>
     <x:row r="50" spans="2:21">
-      <x:c r="B50" s="46" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C50" s="46"/>
-      <x:c r="D50" s="46"/>
-      <x:c r="E50" s="46"/>
-      <x:c r="F50" s="46"/>
-      <x:c r="G50" s="46"/>
-      <x:c r="H50" s="46"/>
+      <x:c r="B50" s="55" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C50" s="55"/>
+      <x:c r="D50" s="55"/>
+      <x:c r="E50" s="55"/>
+      <x:c r="F50" s="55"/>
+      <x:c r="G50" s="55"/>
+      <x:c r="H50" s="55"/>
       <x:c r="I50" s="38"/>
       <x:c r="J50" s="38"/>
       <x:c r="K50" s="38"/>
@@ -3456,15 +3527,15 @@
       <x:c r="U51" s="38"/>
     </x:row>
     <x:row r="52" spans="2:21">
-      <x:c r="B52" s="46" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="C52" s="46"/>
-      <x:c r="D52" s="46"/>
-      <x:c r="E52" s="46"/>
-      <x:c r="F52" s="46"/>
-      <x:c r="G52" s="46"/>
-      <x:c r="H52" s="46"/>
+      <x:c r="B52" s="55" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="C52" s="55"/>
+      <x:c r="D52" s="55"/>
+      <x:c r="E52" s="55"/>
+      <x:c r="F52" s="55"/>
+      <x:c r="G52" s="55"/>
+      <x:c r="H52" s="55"/>
       <x:c r="I52" s="38"/>
       <x:c r="J52" s="38"/>
       <x:c r="K52" s="38"/>
@@ -3480,15 +3551,15 @@
       <x:c r="U52" s="38"/>
     </x:row>
     <x:row r="53" spans="2:21">
-      <x:c r="B53" s="46" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C53" s="46"/>
-      <x:c r="D53" s="46"/>
-      <x:c r="E53" s="46"/>
-      <x:c r="F53" s="46"/>
-      <x:c r="G53" s="46"/>
-      <x:c r="H53" s="46"/>
+      <x:c r="B53" s="55" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C53" s="55"/>
+      <x:c r="D53" s="55"/>
+      <x:c r="E53" s="55"/>
+      <x:c r="F53" s="55"/>
+      <x:c r="G53" s="55"/>
+      <x:c r="H53" s="55"/>
       <x:c r="I53" s="38"/>
       <x:c r="J53" s="38"/>
       <x:c r="K53" s="38"/>
@@ -3504,26 +3575,26 @@
       <x:c r="U53" s="38"/>
     </x:row>
     <x:row r="54" spans="2:22" ht="20.649999999999999">
-      <x:c r="B54" s="46"/>
-      <x:c r="C54" s="46"/>
-      <x:c r="D54" s="46"/>
-      <x:c r="E54" s="46"/>
-      <x:c r="F54" s="46"/>
-      <x:c r="G54" s="46"/>
-      <x:c r="H54" s="46"/>
+      <x:c r="B54" s="55"/>
+      <x:c r="C54" s="55"/>
+      <x:c r="D54" s="55"/>
+      <x:c r="E54" s="55"/>
+      <x:c r="F54" s="55"/>
+      <x:c r="G54" s="55"/>
+      <x:c r="H54" s="55"/>
       <x:c r="I54" s="38"/>
       <x:c r="J54" s="38"/>
       <x:c r="K54" s="38"/>
       <x:c r="L54" s="38"/>
       <x:c r="M54" s="38"/>
       <x:c r="N54" s="28" t="s">
-        <x:v>145</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="O54" s="38"/>
       <x:c r="P54" s="38"/>
       <x:c r="Q54" s="38"/>
       <x:c r="R54" s="29" t="s">
-        <x:v>145</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="S54" s="38"/>
       <x:c r="T54" s="38"/>
@@ -3531,13 +3602,15 @@
       <x:c r="V54" s="29"/>
     </x:row>
     <x:row r="55" spans="2:21">
-      <x:c r="B55" s="38"/>
-      <x:c r="C55" s="38"/>
-      <x:c r="D55" s="38"/>
-      <x:c r="E55" s="38"/>
-      <x:c r="F55" s="38"/>
-      <x:c r="G55" s="38"/>
-      <x:c r="H55" s="38"/>
+      <x:c r="B55" s="55" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C55" s="55"/>
+      <x:c r="D55" s="55"/>
+      <x:c r="E55" s="55"/>
+      <x:c r="F55" s="55"/>
+      <x:c r="G55" s="55"/>
+      <x:c r="H55" s="55"/>
       <x:c r="I55" s="38"/>
       <x:c r="J55" s="38"/>
       <x:c r="K55" s="38"/>
@@ -3553,15 +3626,15 @@
       <x:c r="U55" s="38"/>
     </x:row>
     <x:row r="56" spans="2:21">
-      <x:c r="B56" s="46" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="C56" s="46"/>
-      <x:c r="D56" s="46"/>
-      <x:c r="E56" s="46"/>
-      <x:c r="F56" s="46"/>
-      <x:c r="G56" s="46"/>
-      <x:c r="H56" s="46"/>
+      <x:c r="B56" s="55" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C56" s="55"/>
+      <x:c r="D56" s="55"/>
+      <x:c r="E56" s="55"/>
+      <x:c r="F56" s="55"/>
+      <x:c r="G56" s="55"/>
+      <x:c r="H56" s="55"/>
       <x:c r="I56" s="38"/>
       <x:c r="J56" s="38"/>
       <x:c r="K56" s="38"/>
@@ -3577,15 +3650,13 @@
       <x:c r="U56" s="38"/>
     </x:row>
     <x:row r="57" spans="2:21">
-      <x:c r="B57" s="46" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="C57" s="46"/>
-      <x:c r="D57" s="46"/>
-      <x:c r="E57" s="46"/>
-      <x:c r="F57" s="46"/>
-      <x:c r="G57" s="46"/>
-      <x:c r="H57" s="46"/>
+      <x:c r="B57" s="55"/>
+      <x:c r="C57" s="55"/>
+      <x:c r="D57" s="55"/>
+      <x:c r="E57" s="55"/>
+      <x:c r="F57" s="55"/>
+      <x:c r="G57" s="55"/>
+      <x:c r="H57" s="55"/>
       <x:c r="I57" s="38"/>
       <x:c r="J57" s="38"/>
       <x:c r="K57" s="38"/>
@@ -3610,26 +3681,26 @@
       <x:c r="H58" s="38"/>
       <x:c r="I58" s="38"/>
       <x:c r="J58" s="38"/>
-      <x:c r="K58" s="46" t="s">
-        <x:v>180</x:v>
-      </x:c>
-      <x:c r="L58" s="46"/>
-      <x:c r="M58" s="46"/>
+      <x:c r="K58" s="55" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="L58" s="55"/>
+      <x:c r="M58" s="55"/>
       <x:c r="N58" s="38"/>
-      <x:c r="O58" s="46" t="s">
-        <x:v>242</x:v>
-      </x:c>
-      <x:c r="P58" s="46"/>
-      <x:c r="Q58" s="46"/>
+      <x:c r="O58" s="55" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="P58" s="55"/>
+      <x:c r="Q58" s="55"/>
       <x:c r="R58" s="38"/>
-      <x:c r="S58" s="46" t="s">
-        <x:v>235</x:v>
-      </x:c>
-      <x:c r="T58" s="46"/>
-      <x:c r="U58" s="46"/>
-      <x:c r="W58" s="46"/>
-      <x:c r="X58" s="46"/>
-      <x:c r="Y58" s="46"/>
+      <x:c r="S58" s="55" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="T58" s="55"/>
+      <x:c r="U58" s="55"/>
+      <x:c r="W58" s="55"/>
+      <x:c r="X58" s="55"/>
+      <x:c r="Y58" s="55"/>
     </x:row>
     <x:row r="59" spans="2:25">
       <x:c r="B59" s="38"/>
@@ -3641,26 +3712,26 @@
       <x:c r="H59" s="38"/>
       <x:c r="I59" s="38"/>
       <x:c r="J59" s="38"/>
-      <x:c r="K59" s="46" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="L59" s="46"/>
-      <x:c r="M59" s="46"/>
+      <x:c r="K59" s="55" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="L59" s="55"/>
+      <x:c r="M59" s="55"/>
       <x:c r="N59" s="38"/>
-      <x:c r="O59" s="46" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="P59" s="46"/>
-      <x:c r="Q59" s="46"/>
+      <x:c r="O59" s="55" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="P59" s="55"/>
+      <x:c r="Q59" s="55"/>
       <x:c r="R59" s="38"/>
-      <x:c r="S59" s="46" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="T59" s="46"/>
-      <x:c r="U59" s="46"/>
-      <x:c r="W59" s="46"/>
-      <x:c r="X59" s="46"/>
-      <x:c r="Y59" s="46"/>
+      <x:c r="S59" s="55" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="T59" s="55"/>
+      <x:c r="U59" s="55"/>
+      <x:c r="W59" s="55"/>
+      <x:c r="X59" s="55"/>
+      <x:c r="Y59" s="55"/>
     </x:row>
     <x:row r="60" spans="2:21">
       <x:c r="B60" s="38"/>
@@ -3676,28 +3747,28 @@
       <x:c r="L60" s="38"/>
       <x:c r="M60" s="38"/>
       <x:c r="N60" s="38"/>
-      <x:c r="O60" s="46" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="P60" s="46"/>
-      <x:c r="Q60" s="46"/>
+      <x:c r="O60" s="55" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="P60" s="55"/>
+      <x:c r="Q60" s="55"/>
       <x:c r="R60" s="38"/>
-      <x:c r="S60" s="46" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="T60" s="46"/>
-      <x:c r="U60" s="46"/>
+      <x:c r="S60" s="55" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="T60" s="55"/>
+      <x:c r="U60" s="55"/>
     </x:row>
     <x:row r="61" spans="2:21">
-      <x:c r="B61" s="46" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C61" s="46"/>
-      <x:c r="D61" s="46"/>
-      <x:c r="E61" s="46"/>
-      <x:c r="F61" s="46"/>
-      <x:c r="G61" s="46"/>
-      <x:c r="H61" s="46"/>
+      <x:c r="B61" s="55" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C61" s="55"/>
+      <x:c r="D61" s="55"/>
+      <x:c r="E61" s="55"/>
+      <x:c r="F61" s="55"/>
+      <x:c r="G61" s="55"/>
+      <x:c r="H61" s="55"/>
       <x:c r="I61" s="38"/>
       <x:c r="J61" s="38"/>
       <x:c r="K61" s="38"/>
@@ -3708,52 +3779,52 @@
       <x:c r="P61" s="38"/>
       <x:c r="Q61" s="38"/>
       <x:c r="R61" s="38"/>
-      <x:c r="S61" s="46" t="s">
-        <x:v>234</x:v>
-      </x:c>
-      <x:c r="T61" s="46"/>
-      <x:c r="U61" s="46"/>
+      <x:c r="S61" s="55" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="T61" s="55"/>
+      <x:c r="U61" s="55"/>
     </x:row>
     <x:row r="62" spans="2:21">
-      <x:c r="B62" s="46" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C62" s="46"/>
-      <x:c r="D62" s="46"/>
-      <x:c r="E62" s="46"/>
-      <x:c r="F62" s="46"/>
-      <x:c r="G62" s="46"/>
-      <x:c r="H62" s="46"/>
-      <x:c r="I62" s="46"/>
-      <x:c r="J62" s="46"/>
-      <x:c r="K62" s="46"/>
-      <x:c r="L62" s="46"/>
+      <x:c r="B62" s="55" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C62" s="55"/>
+      <x:c r="D62" s="55"/>
+      <x:c r="E62" s="55"/>
+      <x:c r="F62" s="55"/>
+      <x:c r="G62" s="55"/>
+      <x:c r="H62" s="55"/>
+      <x:c r="I62" s="55"/>
+      <x:c r="J62" s="55"/>
+      <x:c r="K62" s="55"/>
+      <x:c r="L62" s="55"/>
       <x:c r="M62" s="38"/>
       <x:c r="N62" s="38"/>
       <x:c r="O62" s="38"/>
       <x:c r="P62" s="38"/>
       <x:c r="Q62" s="38"/>
       <x:c r="R62" s="38"/>
-      <x:c r="S62" s="46" t="s">
-        <x:v>182</x:v>
-      </x:c>
-      <x:c r="T62" s="46"/>
-      <x:c r="U62" s="46"/>
+      <x:c r="S62" s="55" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="T62" s="55"/>
+      <x:c r="U62" s="55"/>
     </x:row>
     <x:row r="63" spans="2:21">
-      <x:c r="B63" s="46" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C63" s="46"/>
-      <x:c r="D63" s="46"/>
-      <x:c r="E63" s="46"/>
-      <x:c r="F63" s="46"/>
-      <x:c r="G63" s="46"/>
-      <x:c r="H63" s="46"/>
-      <x:c r="I63" s="46"/>
-      <x:c r="J63" s="46"/>
-      <x:c r="K63" s="46"/>
-      <x:c r="L63" s="46"/>
+      <x:c r="B63" s="55" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C63" s="55"/>
+      <x:c r="D63" s="55"/>
+      <x:c r="E63" s="55"/>
+      <x:c r="F63" s="55"/>
+      <x:c r="G63" s="55"/>
+      <x:c r="H63" s="55"/>
+      <x:c r="I63" s="55"/>
+      <x:c r="J63" s="55"/>
+      <x:c r="K63" s="55"/>
+      <x:c r="L63" s="55"/>
       <x:c r="M63" s="38"/>
       <x:c r="N63" s="38"/>
       <x:c r="O63" s="38"/>
@@ -3771,83 +3842,83 @@
       <x:c r="M64" s="7"/>
     </x:row>
     <x:row r="65" spans="3:5">
-      <x:c r="C65" s="46" t="s">
-        <x:v>232</x:v>
-      </x:c>
-      <x:c r="D65" s="46"/>
-      <x:c r="E65" s="46"/>
+      <x:c r="C65" s="55" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D65" s="55"/>
+      <x:c r="E65" s="55"/>
     </x:row>
     <x:row r="70" spans="12:19">
       <x:c r="L70" s="27" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="M70" s="42" t="s">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="N70" s="42"/>
-      <x:c r="O70" s="42"/>
-      <x:c r="P70" s="42"/>
-      <x:c r="Q70" s="42" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="R70" s="42"/>
-      <x:c r="S70" s="42"/>
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="M70" s="51" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="N70" s="51"/>
+      <x:c r="O70" s="51"/>
+      <x:c r="P70" s="51"/>
+      <x:c r="Q70" s="51" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="R70" s="51"/>
+      <x:c r="S70" s="51"/>
     </x:row>
     <x:row r="71" spans="12:20">
       <x:c r="L71" s="24">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="M71" s="42" t="s">
-        <x:v>216</x:v>
-      </x:c>
-      <x:c r="N71" s="42"/>
-      <x:c r="O71" s="42"/>
-      <x:c r="P71" s="42"/>
-      <x:c r="Q71" s="42" t="s">
-        <x:v>194</x:v>
-      </x:c>
-      <x:c r="R71" s="42"/>
-      <x:c r="S71" s="42"/>
+      <x:c r="M71" s="51" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="N71" s="51"/>
+      <x:c r="O71" s="51"/>
+      <x:c r="P71" s="51"/>
+      <x:c r="Q71" s="51" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="R71" s="51"/>
+      <x:c r="S71" s="51"/>
       <x:c r="T71" s="6" t="s">
-        <x:v>143</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="12:20">
       <x:c r="L72" s="24">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="M72" s="42" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="N72" s="42"/>
-      <x:c r="O72" s="42"/>
-      <x:c r="P72" s="42"/>
-      <x:c r="Q72" s="42" t="s">
-        <x:v>192</x:v>
-      </x:c>
-      <x:c r="R72" s="42"/>
-      <x:c r="S72" s="42"/>
+      <x:c r="M72" s="51" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="N72" s="51"/>
+      <x:c r="O72" s="51"/>
+      <x:c r="P72" s="51"/>
+      <x:c r="Q72" s="51" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="R72" s="51"/>
+      <x:c r="S72" s="51"/>
       <x:c r="T72" s="6" t="s">
-        <x:v>143</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="12:20">
       <x:c r="L73" s="24">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="M73" s="42" t="s">
-        <x:v>189</x:v>
-      </x:c>
-      <x:c r="N73" s="42"/>
-      <x:c r="O73" s="42"/>
-      <x:c r="P73" s="42"/>
-      <x:c r="Q73" s="42" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="R73" s="42"/>
-      <x:c r="S73" s="42"/>
+      <x:c r="M73" s="51" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="N73" s="51"/>
+      <x:c r="O73" s="51"/>
+      <x:c r="P73" s="51"/>
+      <x:c r="Q73" s="51" t="s">
+        <x:v>223</x:v>
+      </x:c>
+      <x:c r="R73" s="51"/>
+      <x:c r="S73" s="51"/>
       <x:c r="T73" s="6" t="s">
-        <x:v>142</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="11:15">
@@ -3858,393 +3929,393 @@
     </x:row>
     <x:row r="75" spans="11:20">
       <x:c r="K75" s="6"/>
-      <x:c r="L75" s="46" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="M75" s="46"/>
-      <x:c r="N75" s="46"/>
-      <x:c r="O75" s="46"/>
-      <x:c r="P75" s="46"/>
-      <x:c r="Q75" s="46"/>
-      <x:c r="R75" s="46"/>
-      <x:c r="S75" s="46"/>
-      <x:c r="T75" s="46"/>
+      <x:c r="L75" s="55" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="M75" s="55"/>
+      <x:c r="N75" s="55"/>
+      <x:c r="O75" s="55"/>
+      <x:c r="P75" s="55"/>
+      <x:c r="Q75" s="55"/>
+      <x:c r="R75" s="55"/>
+      <x:c r="S75" s="55"/>
+      <x:c r="T75" s="55"/>
     </x:row>
     <x:row r="76" spans="11:20">
       <x:c r="K76" s="6"/>
-      <x:c r="L76" s="46" t="s">
+      <x:c r="L76" s="55" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="M76" s="55"/>
+      <x:c r="N76" s="55"/>
+      <x:c r="O76" s="55"/>
+      <x:c r="P76" s="55"/>
+      <x:c r="Q76" s="55"/>
+      <x:c r="R76" s="55"/>
+      <x:c r="S76" s="55"/>
+      <x:c r="T76" s="55"/>
+    </x:row>
+    <x:row r="77" spans="12:20">
+      <x:c r="L77" s="55" t="s">
+        <x:v>235</x:v>
+      </x:c>
+      <x:c r="M77" s="55"/>
+      <x:c r="N77" s="55"/>
+      <x:c r="O77" s="55"/>
+      <x:c r="P77" s="55"/>
+      <x:c r="Q77" s="55"/>
+      <x:c r="R77" s="55"/>
+      <x:c r="S77" s="55"/>
+      <x:c r="T77" s="55"/>
+    </x:row>
+    <x:row r="79" spans="12:20">
+      <x:c r="L79" s="55" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="M79" s="55"/>
+      <x:c r="N79" s="55"/>
+      <x:c r="O79" s="55"/>
+      <x:c r="P79" s="55"/>
+      <x:c r="Q79" s="55"/>
+      <x:c r="R79" s="55"/>
+      <x:c r="S79" s="55"/>
+      <x:c r="T79" s="55"/>
+    </x:row>
+    <x:row r="83" spans="2:8">
+      <x:c r="B83" s="55" t="s">
         <x:v>158</x:v>
       </x:c>
-      <x:c r="M76" s="46"/>
-      <x:c r="N76" s="46"/>
-      <x:c r="O76" s="46"/>
-      <x:c r="P76" s="46"/>
-      <x:c r="Q76" s="46"/>
-      <x:c r="R76" s="46"/>
-      <x:c r="S76" s="46"/>
-      <x:c r="T76" s="46"/>
-    </x:row>
-    <x:row r="77" spans="12:20">
-      <x:c r="L77" s="46" t="s">
-        <x:v>229</x:v>
-      </x:c>
-      <x:c r="M77" s="46"/>
-      <x:c r="N77" s="46"/>
-      <x:c r="O77" s="46"/>
-      <x:c r="P77" s="46"/>
-      <x:c r="Q77" s="46"/>
-      <x:c r="R77" s="46"/>
-      <x:c r="S77" s="46"/>
-      <x:c r="T77" s="46"/>
-    </x:row>
-    <x:row r="79" spans="12:20">
-      <x:c r="L79" s="46" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="M79" s="46"/>
-      <x:c r="N79" s="46"/>
-      <x:c r="O79" s="46"/>
-      <x:c r="P79" s="46"/>
-      <x:c r="Q79" s="46"/>
-      <x:c r="R79" s="46"/>
-      <x:c r="S79" s="46"/>
-      <x:c r="T79" s="46"/>
-    </x:row>
-    <x:row r="83" spans="2:8">
-      <x:c r="B83" s="46" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="C83" s="46"/>
-      <x:c r="D83" s="46"/>
-      <x:c r="E83" s="46"/>
-      <x:c r="F83" s="46"/>
-      <x:c r="G83" s="46"/>
-      <x:c r="H83" s="46"/>
+      <x:c r="C83" s="55"/>
+      <x:c r="D83" s="55"/>
+      <x:c r="E83" s="55"/>
+      <x:c r="F83" s="55"/>
+      <x:c r="G83" s="55"/>
+      <x:c r="H83" s="55"/>
     </x:row>
     <x:row r="84" spans="2:8">
-      <x:c r="B84" s="46" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C84" s="46"/>
-      <x:c r="D84" s="46"/>
-      <x:c r="E84" s="46"/>
-      <x:c r="F84" s="46"/>
-      <x:c r="G84" s="46"/>
-      <x:c r="H84" s="46"/>
+      <x:c r="B84" s="55" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C84" s="55"/>
+      <x:c r="D84" s="55"/>
+      <x:c r="E84" s="55"/>
+      <x:c r="F84" s="55"/>
+      <x:c r="G84" s="55"/>
+      <x:c r="H84" s="55"/>
     </x:row>
     <x:row r="85" spans="2:8">
-      <x:c r="B85" s="46"/>
-      <x:c r="C85" s="46"/>
-      <x:c r="D85" s="46"/>
-      <x:c r="E85" s="46"/>
-      <x:c r="F85" s="46"/>
-      <x:c r="G85" s="46"/>
-      <x:c r="H85" s="46"/>
+      <x:c r="B85" s="55"/>
+      <x:c r="C85" s="55"/>
+      <x:c r="D85" s="55"/>
+      <x:c r="E85" s="55"/>
+      <x:c r="F85" s="55"/>
+      <x:c r="G85" s="55"/>
+      <x:c r="H85" s="55"/>
     </x:row>
     <x:row r="86" spans="2:8">
-      <x:c r="B86" s="46"/>
-      <x:c r="C86" s="46"/>
-      <x:c r="D86" s="46"/>
-      <x:c r="E86" s="46"/>
-      <x:c r="F86" s="46"/>
-      <x:c r="G86" s="46"/>
-      <x:c r="H86" s="46"/>
+      <x:c r="B86" s="55"/>
+      <x:c r="C86" s="55"/>
+      <x:c r="D86" s="55"/>
+      <x:c r="E86" s="55"/>
+      <x:c r="F86" s="55"/>
+      <x:c r="G86" s="55"/>
+      <x:c r="H86" s="55"/>
     </x:row>
     <x:row r="87" spans="2:8">
-      <x:c r="B87" s="46" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C87" s="46"/>
-      <x:c r="D87" s="46"/>
-      <x:c r="E87" s="46"/>
-      <x:c r="F87" s="46"/>
-      <x:c r="G87" s="46"/>
-      <x:c r="H87" s="46"/>
+      <x:c r="B87" s="55" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C87" s="55"/>
+      <x:c r="D87" s="55"/>
+      <x:c r="E87" s="55"/>
+      <x:c r="F87" s="55"/>
+      <x:c r="G87" s="55"/>
+      <x:c r="H87" s="55"/>
     </x:row>
     <x:row r="88" spans="2:8">
-      <x:c r="B88" s="46" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C88" s="46"/>
-      <x:c r="D88" s="46"/>
-      <x:c r="E88" s="46"/>
-      <x:c r="F88" s="46"/>
-      <x:c r="G88" s="46"/>
-      <x:c r="H88" s="46"/>
+      <x:c r="B88" s="55" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C88" s="55"/>
+      <x:c r="D88" s="55"/>
+      <x:c r="E88" s="55"/>
+      <x:c r="F88" s="55"/>
+      <x:c r="G88" s="55"/>
+      <x:c r="H88" s="55"/>
     </x:row>
     <x:row r="89" spans="2:8">
-      <x:c r="B89" s="46" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C89" s="46"/>
-      <x:c r="D89" s="46"/>
-      <x:c r="E89" s="46"/>
-      <x:c r="F89" s="46"/>
-      <x:c r="G89" s="46"/>
-      <x:c r="H89" s="46"/>
+      <x:c r="B89" s="55" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C89" s="55"/>
+      <x:c r="D89" s="55"/>
+      <x:c r="E89" s="55"/>
+      <x:c r="F89" s="55"/>
+      <x:c r="G89" s="55"/>
+      <x:c r="H89" s="55"/>
     </x:row>
     <x:row r="91" spans="3:5">
-      <x:c r="C91" s="47" t="s">
-        <x:v>187</x:v>
-      </x:c>
-      <x:c r="D91" s="47"/>
-      <x:c r="E91" s="47"/>
+      <x:c r="C91" s="56" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="D91" s="56"/>
+      <x:c r="E91" s="56"/>
     </x:row>
     <x:row r="96" spans="11:16">
       <x:c r="K96" s="27" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="L96" s="42" t="s">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="M96" s="42"/>
-      <x:c r="N96" s="43" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="O96" s="44"/>
-      <x:c r="P96" s="45"/>
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="L96" s="51" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="M96" s="51"/>
+      <x:c r="N96" s="52" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="O96" s="53"/>
+      <x:c r="P96" s="54"/>
     </x:row>
     <x:row r="97" spans="11:17">
       <x:c r="K97" s="24">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="L97" s="42" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="M97" s="42"/>
-      <x:c r="N97" s="42" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="O97" s="42"/>
-      <x:c r="P97" s="42"/>
+      <x:c r="L97" s="51" t="s">
+        <x:v>224</x:v>
+      </x:c>
+      <x:c r="M97" s="51"/>
+      <x:c r="N97" s="51" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="O97" s="51"/>
+      <x:c r="P97" s="51"/>
       <x:c r="Q97" s="6" t="s">
-        <x:v>143</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="11:17">
       <x:c r="K98" s="24">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="L98" s="42" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="M98" s="42"/>
-      <x:c r="N98" s="42" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="O98" s="42"/>
-      <x:c r="P98" s="42"/>
+      <x:c r="L98" s="51" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="M98" s="51"/>
+      <x:c r="N98" s="51" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="O98" s="51"/>
+      <x:c r="P98" s="51"/>
       <x:c r="Q98" s="6" t="s">
-        <x:v>142</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="11:17">
       <x:c r="K99" s="24">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="L99" s="42" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="M99" s="42"/>
-      <x:c r="N99" s="42" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="O99" s="42"/>
-      <x:c r="P99" s="42"/>
+      <x:c r="L99" s="51" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="M99" s="51"/>
+      <x:c r="N99" s="51" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="O99" s="51"/>
+      <x:c r="P99" s="51"/>
       <x:c r="Q99" s="6" t="s">
-        <x:v>142</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="11:17">
       <x:c r="K100" s="24">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="L100" s="42" t="s">
-        <x:v>207</x:v>
-      </x:c>
-      <x:c r="M100" s="42"/>
-      <x:c r="N100" s="42" t="s">
-        <x:v>212</x:v>
-      </x:c>
-      <x:c r="O100" s="42"/>
-      <x:c r="P100" s="42"/>
+      <x:c r="L100" s="51" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="M100" s="51"/>
+      <x:c r="N100" s="51" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="O100" s="51"/>
+      <x:c r="P100" s="51"/>
       <x:c r="Q100" s="2" t="s">
-        <x:v>142</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="11:20">
-      <x:c r="K101" s="47"/>
-      <x:c r="L101" s="46"/>
-      <x:c r="M101" s="46"/>
-      <x:c r="N101" s="46"/>
-      <x:c r="O101" s="46"/>
-      <x:c r="P101" s="46"/>
-      <x:c r="Q101" s="46"/>
-      <x:c r="R101" s="46"/>
-      <x:c r="S101" s="46"/>
-      <x:c r="T101" s="46"/>
+      <x:c r="K101" s="56"/>
+      <x:c r="L101" s="55"/>
+      <x:c r="M101" s="55"/>
+      <x:c r="N101" s="55"/>
+      <x:c r="O101" s="55"/>
+      <x:c r="P101" s="55"/>
+      <x:c r="Q101" s="55"/>
+      <x:c r="R101" s="55"/>
+      <x:c r="S101" s="55"/>
+      <x:c r="T101" s="55"/>
     </x:row>
     <x:row r="102" spans="11:20">
-      <x:c r="K102" s="47" t="s">
+      <x:c r="K102" s="56" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="L102" s="55"/>
+      <x:c r="M102" s="55"/>
+      <x:c r="N102" s="55"/>
+      <x:c r="O102" s="55"/>
+      <x:c r="P102" s="55"/>
+      <x:c r="Q102" s="55"/>
+      <x:c r="R102" s="55"/>
+      <x:c r="S102" s="55"/>
+      <x:c r="T102" s="55"/>
+    </x:row>
+    <x:row r="103" spans="11:20">
+      <x:c r="K103" s="56" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="L103" s="55"/>
+      <x:c r="M103" s="55"/>
+      <x:c r="N103" s="55"/>
+      <x:c r="O103" s="55"/>
+      <x:c r="P103" s="55"/>
+      <x:c r="Q103" s="55"/>
+      <x:c r="R103" s="55"/>
+      <x:c r="S103" s="55"/>
+      <x:c r="T103" s="55"/>
+    </x:row>
+    <x:row r="109" spans="2:15">
+      <x:c r="B109" s="55" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="L102" s="46"/>
-      <x:c r="M102" s="46"/>
-      <x:c r="N102" s="46"/>
-      <x:c r="O102" s="46"/>
-      <x:c r="P102" s="46"/>
-      <x:c r="Q102" s="46"/>
-      <x:c r="R102" s="46"/>
-      <x:c r="S102" s="46"/>
-      <x:c r="T102" s="46"/>
-    </x:row>
-    <x:row r="103" spans="11:20">
-      <x:c r="K103" s="47" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="L103" s="46"/>
-      <x:c r="M103" s="46"/>
-      <x:c r="N103" s="46"/>
-      <x:c r="O103" s="46"/>
-      <x:c r="P103" s="46"/>
-      <x:c r="Q103" s="46"/>
-      <x:c r="R103" s="46"/>
-      <x:c r="S103" s="46"/>
-      <x:c r="T103" s="46"/>
-    </x:row>
-    <x:row r="109" spans="2:15">
-      <x:c r="B109" s="46" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C109" s="46"/>
-      <x:c r="D109" s="46"/>
-      <x:c r="E109" s="46"/>
-      <x:c r="F109" s="46"/>
-      <x:c r="G109" s="46"/>
-      <x:c r="H109" s="46"/>
-      <x:c r="I109" s="46" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="J109" s="46"/>
-      <x:c r="K109" s="46"/>
-      <x:c r="L109" s="46"/>
-      <x:c r="M109" s="46"/>
-      <x:c r="N109" s="46"/>
-      <x:c r="O109" s="46"/>
+      <x:c r="C109" s="55"/>
+      <x:c r="D109" s="55"/>
+      <x:c r="E109" s="55"/>
+      <x:c r="F109" s="55"/>
+      <x:c r="G109" s="55"/>
+      <x:c r="H109" s="55"/>
+      <x:c r="I109" s="55" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="J109" s="55"/>
+      <x:c r="K109" s="55"/>
+      <x:c r="L109" s="55"/>
+      <x:c r="M109" s="55"/>
+      <x:c r="N109" s="55"/>
+      <x:c r="O109" s="55"/>
     </x:row>
     <x:row r="110" spans="2:15">
-      <x:c r="B110" s="46" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C110" s="46"/>
-      <x:c r="D110" s="46"/>
-      <x:c r="E110" s="46"/>
-      <x:c r="F110" s="46"/>
-      <x:c r="G110" s="46"/>
-      <x:c r="H110" s="46"/>
-      <x:c r="I110" s="46" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="J110" s="46"/>
-      <x:c r="K110" s="46"/>
-      <x:c r="L110" s="46"/>
-      <x:c r="M110" s="46"/>
-      <x:c r="N110" s="46"/>
-      <x:c r="O110" s="46"/>
+      <x:c r="B110" s="55" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C110" s="55"/>
+      <x:c r="D110" s="55"/>
+      <x:c r="E110" s="55"/>
+      <x:c r="F110" s="55"/>
+      <x:c r="G110" s="55"/>
+      <x:c r="H110" s="55"/>
+      <x:c r="I110" s="55" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="J110" s="55"/>
+      <x:c r="K110" s="55"/>
+      <x:c r="L110" s="55"/>
+      <x:c r="M110" s="55"/>
+      <x:c r="N110" s="55"/>
+      <x:c r="O110" s="55"/>
     </x:row>
     <x:row r="111" spans="2:8">
-      <x:c r="B111" s="46"/>
-      <x:c r="C111" s="46"/>
-      <x:c r="D111" s="46"/>
-      <x:c r="E111" s="46"/>
-      <x:c r="F111" s="46"/>
-      <x:c r="G111" s="46"/>
-      <x:c r="H111" s="46"/>
+      <x:c r="B111" s="55"/>
+      <x:c r="C111" s="55"/>
+      <x:c r="D111" s="55"/>
+      <x:c r="E111" s="55"/>
+      <x:c r="F111" s="55"/>
+      <x:c r="G111" s="55"/>
+      <x:c r="H111" s="55"/>
     </x:row>
     <x:row r="113" spans="3:5">
-      <x:c r="C113" s="46" t="s">
-        <x:v>190</x:v>
-      </x:c>
-      <x:c r="D113" s="46"/>
-      <x:c r="E113" s="46"/>
+      <x:c r="C113" s="55" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="D113" s="55"/>
+      <x:c r="E113" s="55"/>
     </x:row>
     <x:row r="116" spans="11:16">
       <x:c r="K116" s="27" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="L116" s="42" t="s">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="M116" s="42"/>
-      <x:c r="N116" s="43" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="O116" s="44"/>
-      <x:c r="P116" s="45"/>
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="L116" s="51" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="M116" s="51"/>
+      <x:c r="N116" s="52" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="O116" s="53"/>
+      <x:c r="P116" s="54"/>
     </x:row>
     <x:row r="117" spans="11:17">
       <x:c r="K117" s="24">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="L117" s="42" t="s">
-        <x:v>195</x:v>
-      </x:c>
-      <x:c r="M117" s="42"/>
-      <x:c r="N117" s="42" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="O117" s="42"/>
-      <x:c r="P117" s="42"/>
+      <x:c r="L117" s="51" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="M117" s="51"/>
+      <x:c r="N117" s="51" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="O117" s="51"/>
+      <x:c r="P117" s="51"/>
       <x:c r="Q117" s="6" t="s">
-        <x:v>143</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="11:17">
       <x:c r="K118" s="24">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="L118" s="42" t="s">
-        <x:v>207</x:v>
-      </x:c>
-      <x:c r="M118" s="42"/>
-      <x:c r="N118" s="42" t="s">
-        <x:v>212</x:v>
-      </x:c>
-      <x:c r="O118" s="42"/>
-      <x:c r="P118" s="42"/>
+      <x:c r="L118" s="51" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="M118" s="51"/>
+      <x:c r="N118" s="51" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="O118" s="51"/>
+      <x:c r="P118" s="51"/>
       <x:c r="Q118" s="6" t="s">
-        <x:v>142</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="2:8">
-      <x:c r="B131" s="46" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C131" s="46"/>
-      <x:c r="D131" s="46"/>
-      <x:c r="E131" s="46"/>
-      <x:c r="F131" s="46"/>
-      <x:c r="G131" s="46"/>
-      <x:c r="H131" s="46"/>
+      <x:c r="B131" s="55" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C131" s="55"/>
+      <x:c r="D131" s="55"/>
+      <x:c r="E131" s="55"/>
+      <x:c r="F131" s="55"/>
+      <x:c r="G131" s="55"/>
+      <x:c r="H131" s="55"/>
     </x:row>
     <x:row r="132" spans="2:8">
-      <x:c r="B132" s="46" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C132" s="46"/>
-      <x:c r="D132" s="46"/>
-      <x:c r="E132" s="46"/>
-      <x:c r="F132" s="46"/>
-      <x:c r="G132" s="46"/>
-      <x:c r="H132" s="46"/>
+      <x:c r="B132" s="55" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C132" s="55"/>
+      <x:c r="D132" s="55"/>
+      <x:c r="E132" s="55"/>
+      <x:c r="F132" s="55"/>
+      <x:c r="G132" s="55"/>
+      <x:c r="H132" s="55"/>
     </x:row>
     <x:row r="134" spans="2:22">
       <x:c r="B134" s="38"/>
-      <x:c r="C134" s="46" t="s">
-        <x:v>168</x:v>
-      </x:c>
-      <x:c r="D134" s="46"/>
-      <x:c r="E134" s="46"/>
+      <x:c r="C134" s="55" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D134" s="55"/>
+      <x:c r="E134" s="55"/>
       <x:c r="F134" s="38"/>
       <x:c r="G134" s="38"/>
       <x:c r="H134" s="38"/>
@@ -4297,22 +4368,22 @@
       <x:c r="I136" s="38"/>
       <x:c r="J136" s="38"/>
       <x:c r="K136" s="27" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="L136" s="42" t="s">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="M136" s="42" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="N136" s="42" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="O136" s="42" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="P136" s="42" t="s">
-        <x:v>84</x:v>
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="L136" s="51" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="M136" s="51" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="N136" s="51" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="O136" s="51" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="P136" s="51" t="s">
+        <x:v>217</x:v>
       </x:c>
       <x:c r="Q136" s="38"/>
       <x:c r="R136" s="38"/>
@@ -4334,23 +4405,23 @@
       <x:c r="K137" s="24">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="L137" s="42" t="s">
-        <x:v>162</x:v>
-      </x:c>
-      <x:c r="M137" s="42" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="N137" s="42" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="O137" s="42" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="P137" s="42" t="s">
-        <x:v>84</x:v>
+      <x:c r="L137" s="51" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="M137" s="51" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="N137" s="51" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="O137" s="51" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="P137" s="51" t="s">
+        <x:v>217</x:v>
       </x:c>
       <x:c r="Q137" s="38" t="s">
-        <x:v>143</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="R137" s="38"/>
       <x:c r="S137" s="38"/>
@@ -4371,23 +4442,23 @@
       <x:c r="K138" s="24">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="L138" s="42" t="s">
-        <x:v>198</x:v>
-      </x:c>
-      <x:c r="M138" s="42" t="s">
-        <x:v>198</x:v>
-      </x:c>
-      <x:c r="N138" s="42" t="s">
-        <x:v>198</x:v>
-      </x:c>
-      <x:c r="O138" s="42" t="s">
-        <x:v>201</x:v>
-      </x:c>
-      <x:c r="P138" s="42" t="s">
-        <x:v>118</x:v>
+      <x:c r="L138" s="51" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="M138" s="51" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="N138" s="51" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="O138" s="51" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="P138" s="51" t="s">
+        <x:v>69</x:v>
       </x:c>
       <x:c r="Q138" s="38" t="s">
-        <x:v>143</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="R138" s="38"/>
       <x:c r="S138" s="38"/>
@@ -4408,23 +4479,23 @@
       <x:c r="K139" s="24">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="L139" s="42" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="M139" s="42" t="s">
-        <x:v>184</x:v>
-      </x:c>
-      <x:c r="N139" s="42" t="s">
-        <x:v>184</x:v>
-      </x:c>
-      <x:c r="O139" s="42" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="P139" s="42" t="s">
-        <x:v>68</x:v>
+      <x:c r="L139" s="51" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="M139" s="51" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="N139" s="51" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="O139" s="51" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="P139" s="51" t="s">
+        <x:v>214</x:v>
       </x:c>
       <x:c r="Q139" s="38" t="s">
-        <x:v>143</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="R139" s="38"/>
       <x:c r="S139" s="38"/>
@@ -4445,23 +4516,23 @@
       <x:c r="K140" s="24">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="L140" s="42" t="s">
-        <x:v>176</x:v>
-      </x:c>
-      <x:c r="M140" s="42" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="N140" s="42" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="O140" s="42" t="s">
-        <x:v>208</x:v>
-      </x:c>
-      <x:c r="P140" s="42" t="s">
-        <x:v>57</x:v>
+      <x:c r="L140" s="51" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="M140" s="51" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="N140" s="51" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="O140" s="51" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="P140" s="51" t="s">
+        <x:v>185</x:v>
       </x:c>
       <x:c r="Q140" s="38" t="s">
-        <x:v>143</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="R140" s="38"/>
       <x:c r="S140" s="38"/>
@@ -4482,23 +4553,23 @@
       <x:c r="K141" s="24">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="L141" s="42" t="s">
-        <x:v>223</x:v>
-      </x:c>
-      <x:c r="M141" s="42" t="s">
-        <x:v>217</x:v>
-      </x:c>
-      <x:c r="N141" s="42" t="s">
-        <x:v>217</x:v>
-      </x:c>
-      <x:c r="O141" s="42" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="P141" s="42" t="s">
-        <x:v>107</x:v>
+      <x:c r="L141" s="51" t="s">
+        <x:v>246</x:v>
+      </x:c>
+      <x:c r="M141" s="51" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="N141" s="51" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="O141" s="51" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="P141" s="51" t="s">
+        <x:v>63</x:v>
       </x:c>
       <x:c r="Q141" s="38" t="s">
-        <x:v>143</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="R141" s="38"/>
       <x:c r="S141" s="38"/>
@@ -4519,23 +4590,23 @@
       <x:c r="K142" s="24">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="L142" s="42" t="s">
-        <x:v>227</x:v>
-      </x:c>
-      <x:c r="M142" s="42" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="N142" s="42" t="s">
-        <x:v>170</x:v>
-      </x:c>
-      <x:c r="O142" s="42" t="s">
-        <x:v>130</x:v>
-      </x:c>
-      <x:c r="P142" s="42" t="s">
-        <x:v>110</x:v>
+      <x:c r="L142" s="51" t="s">
+        <x:v>239</x:v>
+      </x:c>
+      <x:c r="M142" s="51" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="N142" s="51" t="s">
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="O142" s="51" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="P142" s="51" t="s">
+        <x:v>60</x:v>
       </x:c>
       <x:c r="Q142" s="38" t="s">
-        <x:v>143</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="R142" s="38"/>
       <x:c r="S142" s="38"/>
@@ -4556,23 +4627,23 @@
       <x:c r="K143" s="24">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="L143" s="42" t="s">
-        <x:v>179</x:v>
-      </x:c>
-      <x:c r="M143" s="42" t="s">
-        <x:v>179</x:v>
-      </x:c>
-      <x:c r="N143" s="42" t="s">
-        <x:v>179</x:v>
-      </x:c>
-      <x:c r="O143" s="42" t="s">
-        <x:v>174</x:v>
-      </x:c>
-      <x:c r="P143" s="42" t="s">
-        <x:v>122</x:v>
+      <x:c r="L143" s="51" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="M143" s="51" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="N143" s="51" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="O143" s="51" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="P143" s="51" t="s">
+        <x:v>65</x:v>
       </x:c>
       <x:c r="Q143" s="38" t="s">
-        <x:v>142</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="R143" s="38"/>
       <x:c r="S143" s="38"/>
@@ -4593,23 +4664,23 @@
       <x:c r="K144" s="24">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="L144" s="42" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="M144" s="42" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="N144" s="42" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="O144" s="42" t="s">
-        <x:v>197</x:v>
-      </x:c>
-      <x:c r="P144" s="42" t="s">
-        <x:v>74</x:v>
+      <x:c r="L144" s="51" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="M144" s="51" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="N144" s="51" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="O144" s="51" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="P144" s="51" t="s">
+        <x:v>221</x:v>
       </x:c>
       <x:c r="Q144" s="38" t="s">
-        <x:v>142</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="R144" s="38"/>
       <x:c r="S144" s="38"/>
@@ -4630,23 +4701,23 @@
       <x:c r="K145" s="24">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="L145" s="42" t="s">
-        <x:v>184</x:v>
-      </x:c>
-      <x:c r="M145" s="42" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="N145" s="42" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="O145" s="42" t="s">
-        <x:v>181</x:v>
-      </x:c>
-      <x:c r="P145" s="42" t="s">
-        <x:v>74</x:v>
+      <x:c r="L145" s="51" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="M145" s="51" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="N145" s="51" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="O145" s="51" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="P145" s="51" t="s">
+        <x:v>221</x:v>
       </x:c>
       <x:c r="Q145" s="38" t="s">
-        <x:v>142</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="2:22">
@@ -4682,15 +4753,15 @@
       <x:c r="H147" s="38"/>
       <x:c r="I147" s="38"/>
       <x:c r="J147" s="38"/>
-      <x:c r="K147" s="48" t="s">
-        <x:v>221</x:v>
-      </x:c>
-      <x:c r="L147" s="48"/>
-      <x:c r="M147" s="48"/>
-      <x:c r="N147" s="48"/>
-      <x:c r="O147" s="48"/>
-      <x:c r="P147" s="48"/>
-      <x:c r="Q147" s="48"/>
+      <x:c r="K147" s="57" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="L147" s="57"/>
+      <x:c r="M147" s="57"/>
+      <x:c r="N147" s="57"/>
+      <x:c r="O147" s="57"/>
+      <x:c r="P147" s="57"/>
+      <x:c r="Q147" s="57"/>
       <x:c r="R147" s="38"/>
       <x:c r="S147" s="38"/>
       <x:c r="T147" s="38"/>
@@ -4782,38 +4853,38 @@
       <x:c r="N151" s="38"/>
     </x:row>
     <x:row r="152" spans="2:14">
-      <x:c r="B152" s="46" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C152" s="46"/>
-      <x:c r="D152" s="46"/>
-      <x:c r="E152" s="46"/>
-      <x:c r="F152" s="46"/>
-      <x:c r="G152" s="46"/>
-      <x:c r="H152" s="46"/>
-      <x:c r="I152" s="46"/>
-      <x:c r="J152" s="46"/>
-      <x:c r="K152" s="46"/>
-      <x:c r="L152" s="46"/>
-      <x:c r="M152" s="46"/>
+      <x:c r="B152" s="55" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C152" s="55"/>
+      <x:c r="D152" s="55"/>
+      <x:c r="E152" s="55"/>
+      <x:c r="F152" s="55"/>
+      <x:c r="G152" s="55"/>
+      <x:c r="H152" s="55"/>
+      <x:c r="I152" s="55"/>
+      <x:c r="J152" s="55"/>
+      <x:c r="K152" s="55"/>
+      <x:c r="L152" s="55"/>
+      <x:c r="M152" s="55"/>
       <x:c r="N152" s="38" t="s">
-        <x:v>29</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="2:22">
-      <x:c r="B153" s="46" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C153" s="46"/>
-      <x:c r="D153" s="46"/>
-      <x:c r="E153" s="46"/>
-      <x:c r="F153" s="46"/>
-      <x:c r="G153" s="46"/>
-      <x:c r="H153" s="46"/>
-      <x:c r="I153" s="46"/>
-      <x:c r="J153" s="46"/>
-      <x:c r="K153" s="46"/>
-      <x:c r="L153" s="46"/>
+      <x:c r="B153" s="55" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C153" s="55"/>
+      <x:c r="D153" s="55"/>
+      <x:c r="E153" s="55"/>
+      <x:c r="F153" s="55"/>
+      <x:c r="G153" s="55"/>
+      <x:c r="H153" s="55"/>
+      <x:c r="I153" s="55"/>
+      <x:c r="J153" s="55"/>
+      <x:c r="K153" s="55"/>
+      <x:c r="L153" s="55"/>
       <x:c r="M153" s="38"/>
       <x:c r="N153" s="38"/>
       <x:c r="O153" s="38"/>
@@ -4826,20 +4897,20 @@
       <x:c r="V153" s="38"/>
     </x:row>
     <x:row r="154" spans="2:22">
-      <x:c r="B154" s="46" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C154" s="46"/>
-      <x:c r="D154" s="46"/>
-      <x:c r="E154" s="46"/>
-      <x:c r="F154" s="46"/>
-      <x:c r="G154" s="46"/>
-      <x:c r="H154" s="46"/>
-      <x:c r="I154" s="46"/>
-      <x:c r="J154" s="46"/>
-      <x:c r="K154" s="46"/>
-      <x:c r="L154" s="46"/>
-      <x:c r="M154" s="46"/>
+      <x:c r="B154" s="55" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C154" s="55"/>
+      <x:c r="D154" s="55"/>
+      <x:c r="E154" s="55"/>
+      <x:c r="F154" s="55"/>
+      <x:c r="G154" s="55"/>
+      <x:c r="H154" s="55"/>
+      <x:c r="I154" s="55"/>
+      <x:c r="J154" s="55"/>
+      <x:c r="K154" s="55"/>
+      <x:c r="L154" s="55"/>
+      <x:c r="M154" s="55"/>
       <x:c r="N154" s="38"/>
       <x:c r="O154" s="38"/>
       <x:c r="P154" s="38"/>
@@ -4851,20 +4922,20 @@
       <x:c r="V154" s="38"/>
     </x:row>
     <x:row r="155" spans="2:22">
-      <x:c r="B155" s="46" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C155" s="46"/>
-      <x:c r="D155" s="46"/>
-      <x:c r="E155" s="46"/>
-      <x:c r="F155" s="46"/>
-      <x:c r="G155" s="46"/>
-      <x:c r="H155" s="46"/>
-      <x:c r="I155" s="46"/>
-      <x:c r="J155" s="46"/>
-      <x:c r="K155" s="46"/>
-      <x:c r="L155" s="46"/>
-      <x:c r="M155" s="46"/>
+      <x:c r="B155" s="55" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C155" s="55"/>
+      <x:c r="D155" s="55"/>
+      <x:c r="E155" s="55"/>
+      <x:c r="F155" s="55"/>
+      <x:c r="G155" s="55"/>
+      <x:c r="H155" s="55"/>
+      <x:c r="I155" s="55"/>
+      <x:c r="J155" s="55"/>
+      <x:c r="K155" s="55"/>
+      <x:c r="L155" s="55"/>
+      <x:c r="M155" s="55"/>
       <x:c r="N155" s="38"/>
       <x:c r="O155" s="38"/>
       <x:c r="P155" s="38"/>
@@ -4876,15 +4947,15 @@
       <x:c r="V155" s="38"/>
     </x:row>
     <x:row r="156" spans="2:22">
-      <x:c r="B156" s="46" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C156" s="46"/>
-      <x:c r="D156" s="46"/>
-      <x:c r="E156" s="46"/>
-      <x:c r="F156" s="46"/>
-      <x:c r="G156" s="46"/>
-      <x:c r="H156" s="46"/>
+      <x:c r="B156" s="55" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C156" s="55"/>
+      <x:c r="D156" s="55"/>
+      <x:c r="E156" s="55"/>
+      <x:c r="F156" s="55"/>
+      <x:c r="G156" s="55"/>
+      <x:c r="H156" s="55"/>
       <x:c r="I156" s="38"/>
       <x:c r="J156" s="38"/>
       <x:c r="K156" s="38"/>
@@ -4901,18 +4972,18 @@
       <x:c r="V156" s="38"/>
     </x:row>
     <x:row r="157" spans="2:22">
-      <x:c r="B157" s="46" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C157" s="46"/>
-      <x:c r="D157" s="46"/>
-      <x:c r="E157" s="46"/>
-      <x:c r="F157" s="46"/>
-      <x:c r="G157" s="46"/>
-      <x:c r="H157" s="46"/>
-      <x:c r="I157" s="46"/>
-      <x:c r="J157" s="46"/>
-      <x:c r="K157" s="46"/>
+      <x:c r="B157" s="55" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C157" s="55"/>
+      <x:c r="D157" s="55"/>
+      <x:c r="E157" s="55"/>
+      <x:c r="F157" s="55"/>
+      <x:c r="G157" s="55"/>
+      <x:c r="H157" s="55"/>
+      <x:c r="I157" s="55"/>
+      <x:c r="J157" s="55"/>
+      <x:c r="K157" s="55"/>
       <x:c r="L157" s="38"/>
       <x:c r="M157" s="38"/>
       <x:c r="N157" s="38"/>
@@ -4926,20 +4997,20 @@
       <x:c r="V157" s="38"/>
     </x:row>
     <x:row r="158" spans="2:22">
-      <x:c r="B158" s="46" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C158" s="46"/>
-      <x:c r="D158" s="46"/>
-      <x:c r="E158" s="46"/>
-      <x:c r="F158" s="46"/>
-      <x:c r="G158" s="46"/>
-      <x:c r="H158" s="46"/>
-      <x:c r="I158" s="46"/>
-      <x:c r="J158" s="46"/>
-      <x:c r="K158" s="46"/>
-      <x:c r="L158" s="46"/>
-      <x:c r="M158" s="46"/>
+      <x:c r="B158" s="55" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C158" s="55"/>
+      <x:c r="D158" s="55"/>
+      <x:c r="E158" s="55"/>
+      <x:c r="F158" s="55"/>
+      <x:c r="G158" s="55"/>
+      <x:c r="H158" s="55"/>
+      <x:c r="I158" s="55"/>
+      <x:c r="J158" s="55"/>
+      <x:c r="K158" s="55"/>
+      <x:c r="L158" s="55"/>
+      <x:c r="M158" s="55"/>
       <x:c r="N158" s="38"/>
       <x:c r="O158" s="38"/>
       <x:c r="P158" s="38"/>
@@ -4951,19 +5022,19 @@
       <x:c r="V158" s="38"/>
     </x:row>
     <x:row r="159" spans="2:22">
-      <x:c r="B159" s="46" t="s">
-        <x:v>152</x:v>
-      </x:c>
-      <x:c r="C159" s="46"/>
-      <x:c r="D159" s="46"/>
-      <x:c r="E159" s="46"/>
-      <x:c r="F159" s="46"/>
-      <x:c r="G159" s="46"/>
-      <x:c r="H159" s="46"/>
-      <x:c r="I159" s="46"/>
-      <x:c r="J159" s="46"/>
-      <x:c r="K159" s="46"/>
-      <x:c r="L159" s="46"/>
+      <x:c r="B159" s="55" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C159" s="55"/>
+      <x:c r="D159" s="55"/>
+      <x:c r="E159" s="55"/>
+      <x:c r="F159" s="55"/>
+      <x:c r="G159" s="55"/>
+      <x:c r="H159" s="55"/>
+      <x:c r="I159" s="55"/>
+      <x:c r="J159" s="55"/>
+      <x:c r="K159" s="55"/>
+      <x:c r="L159" s="55"/>
       <x:c r="M159" s="38"/>
       <x:c r="N159" s="38"/>
       <x:c r="O159" s="38"/>
@@ -4976,20 +5047,20 @@
       <x:c r="V159" s="38"/>
     </x:row>
     <x:row r="160" spans="2:22">
-      <x:c r="B160" s="46" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C160" s="46"/>
-      <x:c r="D160" s="46"/>
-      <x:c r="E160" s="46"/>
-      <x:c r="F160" s="46"/>
-      <x:c r="G160" s="46"/>
-      <x:c r="H160" s="46"/>
-      <x:c r="I160" s="46"/>
-      <x:c r="J160" s="46"/>
-      <x:c r="K160" s="46"/>
-      <x:c r="L160" s="46"/>
-      <x:c r="M160" s="46"/>
+      <x:c r="B160" s="55" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C160" s="55"/>
+      <x:c r="D160" s="55"/>
+      <x:c r="E160" s="55"/>
+      <x:c r="F160" s="55"/>
+      <x:c r="G160" s="55"/>
+      <x:c r="H160" s="55"/>
+      <x:c r="I160" s="55"/>
+      <x:c r="J160" s="55"/>
+      <x:c r="K160" s="55"/>
+      <x:c r="L160" s="55"/>
+      <x:c r="M160" s="55"/>
       <x:c r="N160" s="38"/>
       <x:c r="O160" s="38"/>
       <x:c r="P160" s="38"/>
@@ -5007,11 +5078,11 @@
       <x:c r="M161" s="5"/>
     </x:row>
     <x:row r="162" spans="3:5">
-      <x:c r="C162" s="47" t="s">
-        <x:v>167</x:v>
-      </x:c>
-      <x:c r="D162" s="46"/>
-      <x:c r="E162" s="46"/>
+      <x:c r="C162" s="56" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="D162" s="55"/>
+      <x:c r="E162" s="55"/>
     </x:row>
     <x:row r="167" spans="11:15">
       <x:c r="K167" s="4"/>
@@ -5021,45 +5092,45 @@
     </x:row>
     <x:row r="169" spans="22:27">
       <x:c r="V169" s="39" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="W169" s="49" t="s">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="X169" s="49" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="Y169" s="49" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="Z169" s="49" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="AA169" s="49" t="s">
-        <x:v>84</x:v>
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="W169" s="58" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="X169" s="58" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Y169" s="58" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Z169" s="58" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="AA169" s="58" t="s">
+        <x:v>217</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="22:28">
       <x:c r="V170" s="40">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="W170" s="49" t="s">
-        <x:v>188</x:v>
-      </x:c>
-      <x:c r="X170" s="49" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="Y170" s="49" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="Z170" s="49" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="AA170" s="49" t="s">
-        <x:v>84</x:v>
+      <x:c r="W170" s="58" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="X170" s="58" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Y170" s="58" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="Z170" s="58" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="AA170" s="58" t="s">
+        <x:v>217</x:v>
       </x:c>
       <x:c r="AB170" s="2" t="s">
-        <x:v>143</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="11:27">
@@ -5082,17 +5153,17 @@
       <x:c r="AA173" s="36"/>
     </x:row>
     <x:row r="174" spans="11:27">
-      <x:c r="K174" s="47"/>
-      <x:c r="L174" s="47"/>
-      <x:c r="M174" s="47"/>
-      <x:c r="N174" s="47"/>
-      <x:c r="O174" s="47"/>
-      <x:c r="P174" s="47"/>
-      <x:c r="Q174" s="47"/>
-      <x:c r="R174" s="47"/>
-      <x:c r="S174" s="47"/>
-      <x:c r="T174" s="47"/>
-      <x:c r="U174" s="47"/>
+      <x:c r="K174" s="56"/>
+      <x:c r="L174" s="56"/>
+      <x:c r="M174" s="56"/>
+      <x:c r="N174" s="56"/>
+      <x:c r="O174" s="56"/>
+      <x:c r="P174" s="56"/>
+      <x:c r="Q174" s="56"/>
+      <x:c r="R174" s="56"/>
+      <x:c r="S174" s="56"/>
+      <x:c r="T174" s="56"/>
+      <x:c r="U174" s="56"/>
       <x:c r="V174" s="36"/>
       <x:c r="W174" s="36"/>
       <x:c r="X174" s="36"/>
@@ -5101,17 +5172,17 @@
       <x:c r="AA174" s="36"/>
     </x:row>
     <x:row r="175" spans="11:27">
-      <x:c r="K175" s="47"/>
-      <x:c r="L175" s="47"/>
-      <x:c r="M175" s="47"/>
-      <x:c r="N175" s="47"/>
-      <x:c r="O175" s="47"/>
-      <x:c r="P175" s="47"/>
-      <x:c r="Q175" s="47"/>
-      <x:c r="R175" s="47"/>
-      <x:c r="S175" s="47"/>
-      <x:c r="T175" s="47"/>
-      <x:c r="U175" s="47"/>
+      <x:c r="K175" s="56"/>
+      <x:c r="L175" s="56"/>
+      <x:c r="M175" s="56"/>
+      <x:c r="N175" s="56"/>
+      <x:c r="O175" s="56"/>
+      <x:c r="P175" s="56"/>
+      <x:c r="Q175" s="56"/>
+      <x:c r="R175" s="56"/>
+      <x:c r="S175" s="56"/>
+      <x:c r="T175" s="56"/>
+      <x:c r="U175" s="56"/>
       <x:c r="V175" s="36"/>
       <x:c r="W175" s="36"/>
       <x:c r="X175" s="36"/>
@@ -5120,17 +5191,17 @@
       <x:c r="AA175" s="36"/>
     </x:row>
     <x:row r="176" spans="11:27">
-      <x:c r="K176" s="47"/>
-      <x:c r="L176" s="47"/>
-      <x:c r="M176" s="47"/>
-      <x:c r="N176" s="47"/>
-      <x:c r="O176" s="47"/>
-      <x:c r="P176" s="47"/>
-      <x:c r="Q176" s="47"/>
-      <x:c r="R176" s="47"/>
-      <x:c r="S176" s="47"/>
-      <x:c r="T176" s="47"/>
-      <x:c r="U176" s="47"/>
+      <x:c r="K176" s="56"/>
+      <x:c r="L176" s="56"/>
+      <x:c r="M176" s="56"/>
+      <x:c r="N176" s="56"/>
+      <x:c r="O176" s="56"/>
+      <x:c r="P176" s="56"/>
+      <x:c r="Q176" s="56"/>
+      <x:c r="R176" s="56"/>
+      <x:c r="S176" s="56"/>
+      <x:c r="T176" s="56"/>
+      <x:c r="U176" s="56"/>
       <x:c r="V176" s="36"/>
       <x:c r="W176" s="36"/>
       <x:c r="X176" s="36"/>
@@ -5139,17 +5210,17 @@
       <x:c r="AA176" s="36"/>
     </x:row>
     <x:row r="177" spans="11:27">
-      <x:c r="K177" s="47"/>
-      <x:c r="L177" s="47"/>
-      <x:c r="M177" s="47"/>
-      <x:c r="N177" s="47"/>
-      <x:c r="O177" s="47"/>
-      <x:c r="P177" s="47"/>
-      <x:c r="Q177" s="47"/>
-      <x:c r="R177" s="47"/>
-      <x:c r="S177" s="47"/>
-      <x:c r="T177" s="47"/>
-      <x:c r="U177" s="47"/>
+      <x:c r="K177" s="56"/>
+      <x:c r="L177" s="56"/>
+      <x:c r="M177" s="56"/>
+      <x:c r="N177" s="56"/>
+      <x:c r="O177" s="56"/>
+      <x:c r="P177" s="56"/>
+      <x:c r="Q177" s="56"/>
+      <x:c r="R177" s="56"/>
+      <x:c r="S177" s="56"/>
+      <x:c r="T177" s="56"/>
+      <x:c r="U177" s="56"/>
       <x:c r="V177" s="36"/>
       <x:c r="W177" s="36"/>
       <x:c r="X177" s="36"/>
@@ -5158,158 +5229,158 @@
       <x:c r="AA177" s="36"/>
     </x:row>
     <x:row r="178" spans="11:21">
-      <x:c r="K178" s="46"/>
-      <x:c r="L178" s="46"/>
-      <x:c r="M178" s="46"/>
-      <x:c r="N178" s="46"/>
-      <x:c r="O178" s="46"/>
-      <x:c r="P178" s="46"/>
-      <x:c r="Q178" s="46"/>
-      <x:c r="R178" s="46"/>
-      <x:c r="S178" s="46"/>
-      <x:c r="T178" s="46"/>
-      <x:c r="U178" s="46"/>
+      <x:c r="K178" s="55"/>
+      <x:c r="L178" s="55"/>
+      <x:c r="M178" s="55"/>
+      <x:c r="N178" s="55"/>
+      <x:c r="O178" s="55"/>
+      <x:c r="P178" s="55"/>
+      <x:c r="Q178" s="55"/>
+      <x:c r="R178" s="55"/>
+      <x:c r="S178" s="55"/>
+      <x:c r="T178" s="55"/>
+      <x:c r="U178" s="55"/>
     </x:row>
     <x:row r="180" spans="11:21">
-      <x:c r="K180" s="46"/>
-      <x:c r="L180" s="46"/>
-      <x:c r="M180" s="46"/>
-      <x:c r="N180" s="46"/>
-      <x:c r="O180" s="46"/>
-      <x:c r="P180" s="46"/>
-      <x:c r="Q180" s="46"/>
-      <x:c r="R180" s="46"/>
-      <x:c r="S180" s="46"/>
-      <x:c r="T180" s="46"/>
-      <x:c r="U180" s="46"/>
+      <x:c r="K180" s="55"/>
+      <x:c r="L180" s="55"/>
+      <x:c r="M180" s="55"/>
+      <x:c r="N180" s="55"/>
+      <x:c r="O180" s="55"/>
+      <x:c r="P180" s="55"/>
+      <x:c r="Q180" s="55"/>
+      <x:c r="R180" s="55"/>
+      <x:c r="S180" s="55"/>
+      <x:c r="T180" s="55"/>
+      <x:c r="U180" s="55"/>
     </x:row>
     <x:row r="185" spans="2:25">
-      <x:c r="B185" s="47" t="s">
+      <x:c r="B185" s="56" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C185" s="56"/>
+      <x:c r="D185" s="56"/>
+      <x:c r="E185" s="56"/>
+      <x:c r="F185" s="56"/>
+      <x:c r="G185" s="56"/>
+      <x:c r="H185" s="56"/>
+      <x:c r="I185" s="56"/>
+      <x:c r="J185" s="56"/>
+      <x:c r="K185" s="56"/>
+      <x:c r="L185" s="56"/>
+      <x:c r="M185" s="56"/>
+      <x:c r="N185" s="56" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="O185" s="56"/>
+      <x:c r="P185" s="56"/>
+      <x:c r="Q185" s="56"/>
+      <x:c r="R185" s="56"/>
+      <x:c r="S185" s="56"/>
+      <x:c r="T185" s="56"/>
+      <x:c r="U185" s="56"/>
+      <x:c r="V185" s="56"/>
+      <x:c r="W185" s="56"/>
+      <x:c r="X185" s="56"/>
+      <x:c r="Y185" s="56"/>
+    </x:row>
+    <x:row r="186" spans="2:25">
+      <x:c r="B186" s="56" t="s">
+        <x:v>233</x:v>
+      </x:c>
+      <x:c r="C186" s="56"/>
+      <x:c r="D186" s="56"/>
+      <x:c r="E186" s="56"/>
+      <x:c r="F186" s="56"/>
+      <x:c r="G186" s="56"/>
+      <x:c r="H186" s="56"/>
+      <x:c r="I186" s="56"/>
+      <x:c r="J186" s="56"/>
+      <x:c r="K186" s="56"/>
+      <x:c r="L186" s="56"/>
+      <x:c r="M186" s="56"/>
+      <x:c r="N186" s="56" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="O186" s="56"/>
+      <x:c r="P186" s="56"/>
+      <x:c r="Q186" s="56"/>
+      <x:c r="R186" s="56"/>
+      <x:c r="S186" s="56"/>
+      <x:c r="T186" s="56"/>
+      <x:c r="U186" s="56"/>
+      <x:c r="V186" s="56"/>
+      <x:c r="W186" s="56"/>
+      <x:c r="X186" s="56"/>
+      <x:c r="Y186" s="56"/>
+    </x:row>
+    <x:row r="187" spans="2:25">
+      <x:c r="B187" s="56" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C185" s="47"/>
-      <x:c r="D185" s="47"/>
-      <x:c r="E185" s="47"/>
-      <x:c r="F185" s="47"/>
-      <x:c r="G185" s="47"/>
-      <x:c r="H185" s="47"/>
-      <x:c r="I185" s="47"/>
-      <x:c r="J185" s="47"/>
-      <x:c r="K185" s="47"/>
-      <x:c r="L185" s="47"/>
-      <x:c r="M185" s="47"/>
-      <x:c r="N185" s="47" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="O185" s="47"/>
-      <x:c r="P185" s="47"/>
-      <x:c r="Q185" s="47"/>
-      <x:c r="R185" s="47"/>
-      <x:c r="S185" s="47"/>
-      <x:c r="T185" s="47"/>
-      <x:c r="U185" s="47"/>
-      <x:c r="V185" s="47"/>
-      <x:c r="W185" s="47"/>
-      <x:c r="X185" s="47"/>
-      <x:c r="Y185" s="47"/>
-    </x:row>
-    <x:row r="186" spans="2:25">
-      <x:c r="B186" s="47" t="s">
-        <x:v>220</x:v>
-      </x:c>
-      <x:c r="C186" s="47"/>
-      <x:c r="D186" s="47"/>
-      <x:c r="E186" s="47"/>
-      <x:c r="F186" s="47"/>
-      <x:c r="G186" s="47"/>
-      <x:c r="H186" s="47"/>
-      <x:c r="I186" s="47"/>
-      <x:c r="J186" s="47"/>
-      <x:c r="K186" s="47"/>
-      <x:c r="L186" s="47"/>
-      <x:c r="M186" s="47"/>
-      <x:c r="N186" s="47" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="O186" s="47"/>
-      <x:c r="P186" s="47"/>
-      <x:c r="Q186" s="47"/>
-      <x:c r="R186" s="47"/>
-      <x:c r="S186" s="47"/>
-      <x:c r="T186" s="47"/>
-      <x:c r="U186" s="47"/>
-      <x:c r="V186" s="47"/>
-      <x:c r="W186" s="47"/>
-      <x:c r="X186" s="47"/>
-      <x:c r="Y186" s="47"/>
-    </x:row>
-    <x:row r="187" spans="2:25">
-      <x:c r="B187" s="47" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="C187" s="47"/>
-      <x:c r="D187" s="47"/>
-      <x:c r="E187" s="47"/>
-      <x:c r="F187" s="47"/>
-      <x:c r="G187" s="47"/>
-      <x:c r="H187" s="47"/>
-      <x:c r="I187" s="47"/>
-      <x:c r="J187" s="47"/>
-      <x:c r="K187" s="47"/>
-      <x:c r="L187" s="47"/>
-      <x:c r="M187" s="47"/>
-      <x:c r="N187" s="47" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="O187" s="47"/>
-      <x:c r="P187" s="47"/>
-      <x:c r="Q187" s="47"/>
-      <x:c r="R187" s="47"/>
-      <x:c r="S187" s="47"/>
-      <x:c r="T187" s="47"/>
-      <x:c r="U187" s="47"/>
-      <x:c r="V187" s="47"/>
-      <x:c r="W187" s="47"/>
-      <x:c r="X187" s="47"/>
-      <x:c r="Y187" s="47"/>
+      <x:c r="C187" s="56"/>
+      <x:c r="D187" s="56"/>
+      <x:c r="E187" s="56"/>
+      <x:c r="F187" s="56"/>
+      <x:c r="G187" s="56"/>
+      <x:c r="H187" s="56"/>
+      <x:c r="I187" s="56"/>
+      <x:c r="J187" s="56"/>
+      <x:c r="K187" s="56"/>
+      <x:c r="L187" s="56"/>
+      <x:c r="M187" s="56"/>
+      <x:c r="N187" s="56" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="O187" s="56"/>
+      <x:c r="P187" s="56"/>
+      <x:c r="Q187" s="56"/>
+      <x:c r="R187" s="56"/>
+      <x:c r="S187" s="56"/>
+      <x:c r="T187" s="56"/>
+      <x:c r="U187" s="56"/>
+      <x:c r="V187" s="56"/>
+      <x:c r="W187" s="56"/>
+      <x:c r="X187" s="56"/>
+      <x:c r="Y187" s="56"/>
     </x:row>
     <x:row r="188" spans="2:25">
-      <x:c r="B188" s="47" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C188" s="47"/>
-      <x:c r="D188" s="47"/>
-      <x:c r="E188" s="47"/>
-      <x:c r="F188" s="47"/>
-      <x:c r="G188" s="47"/>
-      <x:c r="H188" s="47"/>
-      <x:c r="I188" s="47"/>
-      <x:c r="J188" s="47"/>
-      <x:c r="K188" s="47"/>
-      <x:c r="L188" s="47"/>
-      <x:c r="M188" s="47"/>
-      <x:c r="N188" s="47" t="s">
-        <x:v>239</x:v>
-      </x:c>
-      <x:c r="O188" s="47"/>
-      <x:c r="P188" s="47"/>
-      <x:c r="Q188" s="47"/>
-      <x:c r="R188" s="47"/>
-      <x:c r="S188" s="47"/>
-      <x:c r="T188" s="47"/>
-      <x:c r="U188" s="47"/>
-      <x:c r="V188" s="47"/>
-      <x:c r="W188" s="47"/>
-      <x:c r="X188" s="47"/>
-      <x:c r="Y188" s="47"/>
+      <x:c r="B188" s="56" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C188" s="56"/>
+      <x:c r="D188" s="56"/>
+      <x:c r="E188" s="56"/>
+      <x:c r="F188" s="56"/>
+      <x:c r="G188" s="56"/>
+      <x:c r="H188" s="56"/>
+      <x:c r="I188" s="56"/>
+      <x:c r="J188" s="56"/>
+      <x:c r="K188" s="56"/>
+      <x:c r="L188" s="56"/>
+      <x:c r="M188" s="56"/>
+      <x:c r="N188" s="56" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="O188" s="56"/>
+      <x:c r="P188" s="56"/>
+      <x:c r="Q188" s="56"/>
+      <x:c r="R188" s="56"/>
+      <x:c r="S188" s="56"/>
+      <x:c r="T188" s="56"/>
+      <x:c r="U188" s="56"/>
+      <x:c r="V188" s="56"/>
+      <x:c r="W188" s="56"/>
+      <x:c r="X188" s="56"/>
+      <x:c r="Y188" s="56"/>
     </x:row>
     <x:row r="191" spans="2:17">
       <x:c r="B191" s="36"/>
-      <x:c r="C191" s="47" t="s">
-        <x:v>177</x:v>
-      </x:c>
-      <x:c r="D191" s="47"/>
-      <x:c r="E191" s="47"/>
+      <x:c r="C191" s="56" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="D191" s="56"/>
+      <x:c r="E191" s="56"/>
       <x:c r="F191" s="36"/>
       <x:c r="G191" s="36"/>
       <x:c r="H191" s="36"/>
@@ -5370,22 +5441,22 @@
       <x:c r="I194" s="36"/>
       <x:c r="J194" s="36"/>
       <x:c r="K194" s="39" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="L194" s="49" t="s">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="M194" s="49" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="N194" s="49" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="O194" s="49" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="P194" s="49" t="s">
-        <x:v>84</x:v>
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="L194" s="58" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="M194" s="58" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="N194" s="58" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="O194" s="58" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="P194" s="58" t="s">
+        <x:v>217</x:v>
       </x:c>
       <x:c r="Q194" s="36"/>
     </x:row>
@@ -5402,23 +5473,23 @@
       <x:c r="K195" s="40">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="L195" s="49" t="s">
-        <x:v>172</x:v>
-      </x:c>
-      <x:c r="M195" s="49" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="N195" s="49" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="O195" s="49" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="P195" s="49" t="s">
-        <x:v>84</x:v>
+      <x:c r="L195" s="58" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="M195" s="58" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="N195" s="58" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="O195" s="58" t="s">
+        <x:v>225</x:v>
+      </x:c>
+      <x:c r="P195" s="58" t="s">
+        <x:v>217</x:v>
       </x:c>
       <x:c r="Q195" s="36" t="s">
-        <x:v>143</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="2:17">
@@ -5434,23 +5505,23 @@
       <x:c r="K196" s="40">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="L196" s="49" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="M196" s="49" t="s">
-        <x:v>198</x:v>
-      </x:c>
-      <x:c r="N196" s="49" t="s">
-        <x:v>198</x:v>
-      </x:c>
-      <x:c r="O196" s="49" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="P196" s="49" t="s">
-        <x:v>118</x:v>
+      <x:c r="L196" s="58" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="M196" s="58" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="N196" s="58" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="O196" s="58" t="s">
+        <x:v>222</x:v>
+      </x:c>
+      <x:c r="P196" s="58" t="s">
+        <x:v>69</x:v>
       </x:c>
       <x:c r="Q196" s="36" t="s">
-        <x:v>143</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="2:17">
@@ -5466,23 +5537,23 @@
       <x:c r="K197" s="40">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="L197" s="49" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="M197" s="49" t="s">
-        <x:v>184</x:v>
-      </x:c>
-      <x:c r="N197" s="49" t="s">
-        <x:v>184</x:v>
-      </x:c>
-      <x:c r="O197" s="49" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="P197" s="49" t="s">
-        <x:v>68</x:v>
+      <x:c r="L197" s="58" t="s">
+        <x:v>229</x:v>
+      </x:c>
+      <x:c r="M197" s="58" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="N197" s="58" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="O197" s="58" t="s">
+        <x:v>203</x:v>
+      </x:c>
+      <x:c r="P197" s="58" t="s">
+        <x:v>214</x:v>
       </x:c>
       <x:c r="Q197" s="36" t="s">
-        <x:v>143</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="2:17">
@@ -5498,23 +5569,23 @@
       <x:c r="K198" s="40">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="L198" s="49" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="M198" s="49" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="N198" s="49" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="O198" s="49" t="s">
-        <x:v>137</x:v>
-      </x:c>
-      <x:c r="P198" s="49" t="s">
-        <x:v>57</x:v>
+      <x:c r="L198" s="58" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="M198" s="58" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="N198" s="58" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="O198" s="58" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="P198" s="58" t="s">
+        <x:v>185</x:v>
       </x:c>
       <x:c r="Q198" s="36" t="s">
-        <x:v>143</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="2:17">
@@ -5530,23 +5601,23 @@
       <x:c r="K199" s="40">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="L199" s="49" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="M199" s="49" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="N199" s="49" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="O199" s="49" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="P199" s="49" t="s">
-        <x:v>57</x:v>
+      <x:c r="L199" s="58" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="M199" s="58" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="N199" s="58" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="O199" s="58" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="P199" s="58" t="s">
+        <x:v>185</x:v>
       </x:c>
       <x:c r="Q199" s="36" t="s">
-        <x:v>142</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="2:17">
@@ -5730,39 +5801,39 @@
       <x:c r="Q209" s="36"/>
     </x:row>
     <x:row r="210" spans="2:17">
-      <x:c r="B210" s="47" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C210" s="47"/>
-      <x:c r="D210" s="47"/>
-      <x:c r="E210" s="47"/>
-      <x:c r="F210" s="47"/>
-      <x:c r="G210" s="47"/>
-      <x:c r="H210" s="47"/>
-      <x:c r="I210" s="47"/>
-      <x:c r="J210" s="47"/>
-      <x:c r="K210" s="47"/>
-      <x:c r="L210" s="47"/>
-      <x:c r="M210" s="47"/>
+      <x:c r="B210" s="56" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C210" s="56"/>
+      <x:c r="D210" s="56"/>
+      <x:c r="E210" s="56"/>
+      <x:c r="F210" s="56"/>
+      <x:c r="G210" s="56"/>
+      <x:c r="H210" s="56"/>
+      <x:c r="I210" s="56"/>
+      <x:c r="J210" s="56"/>
+      <x:c r="K210" s="56"/>
+      <x:c r="L210" s="56"/>
+      <x:c r="M210" s="56"/>
       <x:c r="N210" s="36"/>
       <x:c r="O210" s="36"/>
       <x:c r="P210" s="36"/>
       <x:c r="Q210" s="36"/>
     </x:row>
     <x:row r="211" spans="2:17">
-      <x:c r="B211" s="47" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C211" s="47"/>
-      <x:c r="D211" s="47"/>
-      <x:c r="E211" s="47"/>
-      <x:c r="F211" s="47"/>
-      <x:c r="G211" s="47"/>
-      <x:c r="H211" s="47"/>
-      <x:c r="I211" s="47"/>
-      <x:c r="J211" s="47"/>
-      <x:c r="K211" s="47"/>
-      <x:c r="L211" s="47"/>
+      <x:c r="B211" s="56" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C211" s="56"/>
+      <x:c r="D211" s="56"/>
+      <x:c r="E211" s="56"/>
+      <x:c r="F211" s="56"/>
+      <x:c r="G211" s="56"/>
+      <x:c r="H211" s="56"/>
+      <x:c r="I211" s="56"/>
+      <x:c r="J211" s="56"/>
+      <x:c r="K211" s="56"/>
+      <x:c r="L211" s="56"/>
       <x:c r="M211" s="36"/>
       <x:c r="N211" s="36"/>
       <x:c r="O211" s="36"/>
@@ -5770,35 +5841,35 @@
       <x:c r="Q211" s="36"/>
     </x:row>
     <x:row r="212" spans="2:17">
-      <x:c r="B212" s="47" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C212" s="47"/>
-      <x:c r="D212" s="47"/>
-      <x:c r="E212" s="47"/>
-      <x:c r="F212" s="47"/>
-      <x:c r="G212" s="47"/>
-      <x:c r="H212" s="47"/>
-      <x:c r="I212" s="47"/>
-      <x:c r="J212" s="47"/>
-      <x:c r="K212" s="47"/>
-      <x:c r="L212" s="47"/>
-      <x:c r="M212" s="47"/>
+      <x:c r="B212" s="56" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C212" s="56"/>
+      <x:c r="D212" s="56"/>
+      <x:c r="E212" s="56"/>
+      <x:c r="F212" s="56"/>
+      <x:c r="G212" s="56"/>
+      <x:c r="H212" s="56"/>
+      <x:c r="I212" s="56"/>
+      <x:c r="J212" s="56"/>
+      <x:c r="K212" s="56"/>
+      <x:c r="L212" s="56"/>
+      <x:c r="M212" s="56"/>
       <x:c r="N212" s="36"/>
       <x:c r="O212" s="36"/>
       <x:c r="P212" s="36"/>
       <x:c r="Q212" s="36"/>
     </x:row>
     <x:row r="213" spans="2:17">
-      <x:c r="B213" s="47" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="C213" s="47"/>
-      <x:c r="D213" s="47"/>
-      <x:c r="E213" s="47"/>
-      <x:c r="F213" s="47"/>
-      <x:c r="G213" s="47"/>
-      <x:c r="H213" s="47"/>
+      <x:c r="B213" s="56" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="C213" s="56"/>
+      <x:c r="D213" s="56"/>
+      <x:c r="E213" s="56"/>
+      <x:c r="F213" s="56"/>
+      <x:c r="G213" s="56"/>
+      <x:c r="H213" s="56"/>
       <x:c r="I213" s="36"/>
       <x:c r="J213" s="36"/>
       <x:c r="K213" s="36"/>
@@ -5810,30 +5881,30 @@
       <x:c r="Q213" s="36"/>
     </x:row>
     <x:row r="214" spans="2:8">
-      <x:c r="B214" s="47" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C214" s="47"/>
-      <x:c r="D214" s="47"/>
-      <x:c r="E214" s="47"/>
-      <x:c r="F214" s="47"/>
-      <x:c r="G214" s="47"/>
-      <x:c r="H214" s="47"/>
+      <x:c r="B214" s="56" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C214" s="56"/>
+      <x:c r="D214" s="56"/>
+      <x:c r="E214" s="56"/>
+      <x:c r="F214" s="56"/>
+      <x:c r="G214" s="56"/>
+      <x:c r="H214" s="56"/>
     </x:row>
     <x:row r="215" spans="2:8">
-      <x:c r="B215" s="46"/>
-      <x:c r="C215" s="46"/>
-      <x:c r="D215" s="46"/>
-      <x:c r="E215" s="46"/>
-      <x:c r="F215" s="46"/>
-      <x:c r="G215" s="46"/>
-      <x:c r="H215" s="46"/>
+      <x:c r="B215" s="55"/>
+      <x:c r="C215" s="55"/>
+      <x:c r="D215" s="55"/>
+      <x:c r="E215" s="55"/>
+      <x:c r="F215" s="55"/>
+      <x:c r="G215" s="55"/>
+      <x:c r="H215" s="55"/>
     </x:row>
     <x:row r="216" spans="2:15">
-      <x:c r="B216" s="46" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C216" s="46"/>
+      <x:c r="B216" s="55" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C216" s="55"/>
       <x:c r="K216" s="2"/>
       <x:c r="L216" s="2"/>
       <x:c r="M216" s="2"/>
@@ -5863,38 +5934,38 @@
     <x:row r="220" spans="2:18">
       <x:c r="B220" s="2"/>
       <x:c r="K220" s="27" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="L220" s="42" t="s">
-        <x:v>200</x:v>
-      </x:c>
-      <x:c r="M220" s="42"/>
-      <x:c r="N220" s="42"/>
-      <x:c r="O220" s="42"/>
-      <x:c r="P220" s="42" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="Q220" s="42"/>
-      <x:c r="R220" s="42"/>
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="L220" s="51" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="M220" s="51"/>
+      <x:c r="N220" s="51"/>
+      <x:c r="O220" s="51"/>
+      <x:c r="P220" s="51" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="Q220" s="51"/>
+      <x:c r="R220" s="51"/>
     </x:row>
     <x:row r="221" spans="2:19">
       <x:c r="B221" s="2"/>
       <x:c r="K221" s="24">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="L221" s="42" t="s">
-        <x:v>207</x:v>
-      </x:c>
-      <x:c r="M221" s="42"/>
-      <x:c r="N221" s="42"/>
-      <x:c r="O221" s="42"/>
-      <x:c r="P221" s="42" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="Q221" s="42"/>
-      <x:c r="R221" s="42"/>
+      <x:c r="L221" s="51" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="M221" s="51"/>
+      <x:c r="N221" s="51"/>
+      <x:c r="O221" s="51"/>
+      <x:c r="P221" s="51" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="Q221" s="51"/>
+      <x:c r="R221" s="51"/>
       <x:c r="S221" s="2" t="s">
-        <x:v>142</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="2:19">
@@ -5902,19 +5973,19 @@
       <x:c r="K222" s="24">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="L222" s="42" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="M222" s="42"/>
-      <x:c r="N222" s="42"/>
-      <x:c r="O222" s="42"/>
-      <x:c r="P222" s="42" t="s">
-        <x:v>206</x:v>
-      </x:c>
-      <x:c r="Q222" s="42"/>
-      <x:c r="R222" s="42"/>
+      <x:c r="L222" s="51" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="M222" s="51"/>
+      <x:c r="N222" s="51"/>
+      <x:c r="O222" s="51"/>
+      <x:c r="P222" s="51" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="Q222" s="51"/>
+      <x:c r="R222" s="51"/>
       <x:c r="S222" s="2" t="s">
-        <x:v>143</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="223" spans="2:19">
@@ -5922,19 +5993,19 @@
       <x:c r="K223" s="24">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="L223" s="42" t="s">
-        <x:v>203</x:v>
-      </x:c>
-      <x:c r="M223" s="42"/>
-      <x:c r="N223" s="42"/>
-      <x:c r="O223" s="42"/>
-      <x:c r="P223" s="42" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="Q223" s="42"/>
-      <x:c r="R223" s="42"/>
+      <x:c r="L223" s="51" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="M223" s="51"/>
+      <x:c r="N223" s="51"/>
+      <x:c r="O223" s="51"/>
+      <x:c r="P223" s="51" t="s">
+        <x:v>228</x:v>
+      </x:c>
+      <x:c r="Q223" s="51"/>
+      <x:c r="R223" s="51"/>
       <x:c r="S223" s="2" t="s">
-        <x:v>142</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="224" spans="2:19">
@@ -5942,19 +6013,19 @@
       <x:c r="K224" s="24">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="L224" s="42" t="s">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="M224" s="42"/>
-      <x:c r="N224" s="42"/>
-      <x:c r="O224" s="42"/>
-      <x:c r="P224" s="42" t="s">
-        <x:v>238</x:v>
-      </x:c>
-      <x:c r="Q224" s="42"/>
-      <x:c r="R224" s="42"/>
+      <x:c r="L224" s="51" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="M224" s="51"/>
+      <x:c r="N224" s="51"/>
+      <x:c r="O224" s="51"/>
+      <x:c r="P224" s="51" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="Q224" s="51"/>
+      <x:c r="R224" s="51"/>
       <x:c r="S224" s="2" t="s">
-        <x:v>142</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="225" spans="2:19">
@@ -5962,19 +6033,19 @@
       <x:c r="K225" s="24">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="L225" s="42" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="M225" s="42"/>
-      <x:c r="N225" s="42"/>
-      <x:c r="O225" s="42"/>
-      <x:c r="P225" s="42" t="s">
-        <x:v>185</x:v>
-      </x:c>
-      <x:c r="Q225" s="42"/>
-      <x:c r="R225" s="42"/>
+      <x:c r="L225" s="51" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="M225" s="51"/>
+      <x:c r="N225" s="51"/>
+      <x:c r="O225" s="51"/>
+      <x:c r="P225" s="51" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="Q225" s="51"/>
+      <x:c r="R225" s="51"/>
       <x:c r="S225" s="2" t="s">
-        <x:v>142</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="2:19">
@@ -5982,19 +6053,19 @@
       <x:c r="K226" s="24">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="L226" s="42" t="s">
-        <x:v>186</x:v>
-      </x:c>
-      <x:c r="M226" s="42"/>
-      <x:c r="N226" s="42"/>
-      <x:c r="O226" s="42"/>
-      <x:c r="P226" s="42" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="Q226" s="42"/>
-      <x:c r="R226" s="42"/>
+      <x:c r="L226" s="51" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="M226" s="51"/>
+      <x:c r="N226" s="51"/>
+      <x:c r="O226" s="51"/>
+      <x:c r="P226" s="51" t="s">
+        <x:v>231</x:v>
+      </x:c>
+      <x:c r="Q226" s="51"/>
+      <x:c r="R226" s="51"/>
       <x:c r="S226" s="2" t="s">
-        <x:v>143</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="227" spans="2:19">
@@ -6002,19 +6073,19 @@
       <x:c r="K227" s="24">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="L227" s="42" t="s">
-        <x:v>240</x:v>
-      </x:c>
-      <x:c r="M227" s="42"/>
-      <x:c r="N227" s="42"/>
-      <x:c r="O227" s="42"/>
-      <x:c r="P227" s="42" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="Q227" s="42"/>
-      <x:c r="R227" s="42"/>
+      <x:c r="L227" s="51" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="M227" s="51"/>
+      <x:c r="N227" s="51"/>
+      <x:c r="O227" s="51"/>
+      <x:c r="P227" s="51" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="Q227" s="51"/>
+      <x:c r="R227" s="51"/>
       <x:c r="S227" s="2" t="s">
-        <x:v>143</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="228" spans="2:19">
@@ -6022,19 +6093,19 @@
       <x:c r="K228" s="24">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="L228" s="42" t="s">
-        <x:v>193</x:v>
-      </x:c>
-      <x:c r="M228" s="42"/>
-      <x:c r="N228" s="42"/>
-      <x:c r="O228" s="42"/>
-      <x:c r="P228" s="42" t="s">
-        <x:v>206</x:v>
-      </x:c>
-      <x:c r="Q228" s="42"/>
-      <x:c r="R228" s="42"/>
+      <x:c r="L228" s="51" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="M228" s="51"/>
+      <x:c r="N228" s="51"/>
+      <x:c r="O228" s="51"/>
+      <x:c r="P228" s="51" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="Q228" s="51"/>
+      <x:c r="R228" s="51"/>
       <x:c r="S228" s="2" t="s">
-        <x:v>142</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="229" spans="2:15">
@@ -6073,110 +6144,110 @@
       <x:c r="O233" s="2"/>
     </x:row>
     <x:row r="234" spans="2:17">
-      <x:c r="B234" s="46" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C234" s="46"/>
-      <x:c r="D234" s="46"/>
-      <x:c r="E234" s="46"/>
-      <x:c r="F234" s="46"/>
-      <x:c r="G234" s="46"/>
-      <x:c r="H234" s="46"/>
-      <x:c r="K234" s="46" t="s">
-        <x:v>218</x:v>
-      </x:c>
-      <x:c r="L234" s="46"/>
-      <x:c r="M234" s="46"/>
-      <x:c r="N234" s="46"/>
-      <x:c r="O234" s="46"/>
-      <x:c r="P234" s="46"/>
-      <x:c r="Q234" s="46"/>
+      <x:c r="B234" s="55" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C234" s="55"/>
+      <x:c r="D234" s="55"/>
+      <x:c r="E234" s="55"/>
+      <x:c r="F234" s="55"/>
+      <x:c r="G234" s="55"/>
+      <x:c r="H234" s="55"/>
+      <x:c r="K234" s="55" t="s">
+        <x:v>234</x:v>
+      </x:c>
+      <x:c r="L234" s="55"/>
+      <x:c r="M234" s="55"/>
+      <x:c r="N234" s="55"/>
+      <x:c r="O234" s="55"/>
+      <x:c r="P234" s="55"/>
+      <x:c r="Q234" s="55"/>
     </x:row>
     <x:row r="235" spans="2:17">
-      <x:c r="B235" s="46" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C235" s="46"/>
-      <x:c r="D235" s="46"/>
-      <x:c r="E235" s="46"/>
-      <x:c r="F235" s="46"/>
-      <x:c r="G235" s="46"/>
-      <x:c r="H235" s="46"/>
-      <x:c r="K235" s="46" t="s">
+      <x:c r="B235" s="55" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C235" s="55"/>
+      <x:c r="D235" s="55"/>
+      <x:c r="E235" s="55"/>
+      <x:c r="F235" s="55"/>
+      <x:c r="G235" s="55"/>
+      <x:c r="H235" s="55"/>
+      <x:c r="K235" s="55" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="L235" s="55"/>
+      <x:c r="M235" s="55"/>
+      <x:c r="N235" s="55"/>
+      <x:c r="O235" s="55"/>
+      <x:c r="P235" s="55"/>
+      <x:c r="Q235" s="55"/>
+    </x:row>
+    <x:row r="236" spans="2:17">
+      <x:c r="B236" s="55" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C236" s="55"/>
+      <x:c r="D236" s="55"/>
+      <x:c r="E236" s="55"/>
+      <x:c r="F236" s="55"/>
+      <x:c r="G236" s="55"/>
+      <x:c r="H236" s="55"/>
+      <x:c r="K236" s="55" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="L236" s="55"/>
+      <x:c r="M236" s="55"/>
+      <x:c r="N236" s="55"/>
+      <x:c r="O236" s="55"/>
+      <x:c r="P236" s="55"/>
+      <x:c r="Q236" s="55"/>
+    </x:row>
+    <x:row r="237" spans="2:17">
+      <x:c r="B237" s="55" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C237" s="55"/>
+      <x:c r="D237" s="55"/>
+      <x:c r="E237" s="55"/>
+      <x:c r="F237" s="55"/>
+      <x:c r="G237" s="55"/>
+      <x:c r="H237" s="55"/>
+      <x:c r="K237" s="55" t="s">
         <x:v>241</x:v>
       </x:c>
-      <x:c r="L235" s="46"/>
-      <x:c r="M235" s="46"/>
-      <x:c r="N235" s="46"/>
-      <x:c r="O235" s="46"/>
-      <x:c r="P235" s="46"/>
-      <x:c r="Q235" s="46"/>
-    </x:row>
-    <x:row r="236" spans="2:17">
-      <x:c r="B236" s="46" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C236" s="46"/>
-      <x:c r="D236" s="46"/>
-      <x:c r="E236" s="46"/>
-      <x:c r="F236" s="46"/>
-      <x:c r="G236" s="46"/>
-      <x:c r="H236" s="46"/>
-      <x:c r="K236" s="46" t="s">
-        <x:v>226</x:v>
-      </x:c>
-      <x:c r="L236" s="46"/>
-      <x:c r="M236" s="46"/>
-      <x:c r="N236" s="46"/>
-      <x:c r="O236" s="46"/>
-      <x:c r="P236" s="46"/>
-      <x:c r="Q236" s="46"/>
-    </x:row>
-    <x:row r="237" spans="2:17">
-      <x:c r="B237" s="46" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C237" s="46"/>
-      <x:c r="D237" s="46"/>
-      <x:c r="E237" s="46"/>
-      <x:c r="F237" s="46"/>
-      <x:c r="G237" s="46"/>
-      <x:c r="H237" s="46"/>
-      <x:c r="K237" s="46" t="s">
-        <x:v>228</x:v>
-      </x:c>
-      <x:c r="L237" s="46"/>
-      <x:c r="M237" s="46"/>
-      <x:c r="N237" s="46"/>
-      <x:c r="O237" s="46"/>
-      <x:c r="P237" s="46"/>
-      <x:c r="Q237" s="46"/>
+      <x:c r="L237" s="55"/>
+      <x:c r="M237" s="55"/>
+      <x:c r="N237" s="55"/>
+      <x:c r="O237" s="55"/>
+      <x:c r="P237" s="55"/>
+      <x:c r="Q237" s="55"/>
     </x:row>
     <x:row r="238" spans="2:15">
-      <x:c r="B238" s="46" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="C238" s="46"/>
-      <x:c r="D238" s="46"/>
-      <x:c r="E238" s="46"/>
-      <x:c r="F238" s="46"/>
-      <x:c r="G238" s="46"/>
-      <x:c r="H238" s="46"/>
+      <x:c r="B238" s="55" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C238" s="55"/>
+      <x:c r="D238" s="55"/>
+      <x:c r="E238" s="55"/>
+      <x:c r="F238" s="55"/>
+      <x:c r="G238" s="55"/>
+      <x:c r="H238" s="55"/>
       <x:c r="K238" s="2"/>
       <x:c r="L238" s="2"/>
       <x:c r="M238" s="2"/>
       <x:c r="O238" s="2"/>
     </x:row>
     <x:row r="239" spans="2:15">
-      <x:c r="B239" s="46" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C239" s="46"/>
-      <x:c r="D239" s="46"/>
-      <x:c r="E239" s="46"/>
-      <x:c r="F239" s="46"/>
-      <x:c r="G239" s="46"/>
-      <x:c r="H239" s="46"/>
+      <x:c r="B239" s="55" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C239" s="55"/>
+      <x:c r="D239" s="55"/>
+      <x:c r="E239" s="55"/>
+      <x:c r="F239" s="55"/>
+      <x:c r="G239" s="55"/>
+      <x:c r="H239" s="55"/>
       <x:c r="K239" s="26">
         <x:v>1</x:v>
       </x:c>
@@ -6189,30 +6260,30 @@
       </x:c>
     </x:row>
     <x:row r="240" spans="2:15">
-      <x:c r="B240" s="46" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="C240" s="46"/>
-      <x:c r="D240" s="46"/>
-      <x:c r="E240" s="46"/>
-      <x:c r="F240" s="46"/>
-      <x:c r="G240" s="46"/>
-      <x:c r="H240" s="46"/>
+      <x:c r="B240" s="55" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C240" s="55"/>
+      <x:c r="D240" s="55"/>
+      <x:c r="E240" s="55"/>
+      <x:c r="F240" s="55"/>
+      <x:c r="G240" s="55"/>
+      <x:c r="H240" s="55"/>
       <x:c r="K240" s="2"/>
       <x:c r="L240" s="2"/>
       <x:c r="M240" s="2"/>
       <x:c r="O240" s="2"/>
     </x:row>
     <x:row r="241" spans="2:15">
-      <x:c r="B241" s="46" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C241" s="46"/>
-      <x:c r="D241" s="46"/>
-      <x:c r="E241" s="46"/>
-      <x:c r="F241" s="46"/>
-      <x:c r="G241" s="46"/>
-      <x:c r="H241" s="46"/>
+      <x:c r="B241" s="55" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C241" s="55"/>
+      <x:c r="D241" s="55"/>
+      <x:c r="E241" s="55"/>
+      <x:c r="F241" s="55"/>
+      <x:c r="G241" s="55"/>
+      <x:c r="H241" s="55"/>
       <x:c r="K241" s="2"/>
       <x:c r="L241" s="2"/>
       <x:c r="M241" s="2"/>
@@ -6254,47 +6325,47 @@
       <x:c r="O246" s="2"/>
     </x:row>
     <x:row r="247" spans="2:15">
-      <x:c r="B247" s="46" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="C247" s="46"/>
+      <x:c r="B247" s="55" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C247" s="55"/>
       <x:c r="K247" s="2"/>
       <x:c r="L247" s="2"/>
       <x:c r="M247" s="2"/>
       <x:c r="O247" s="2"/>
     </x:row>
     <x:row r="248" spans="2:15">
-      <x:c r="B248" s="46" t="s">
+      <x:c r="B248" s="55" t="s">
         <x:v>157</x:v>
       </x:c>
-      <x:c r="C248" s="46"/>
-      <x:c r="D248" s="46"/>
-      <x:c r="E248" s="46"/>
-      <x:c r="F248" s="46"/>
-      <x:c r="G248" s="46"/>
-      <x:c r="H248" s="46"/>
+      <x:c r="C248" s="55"/>
+      <x:c r="D248" s="55"/>
+      <x:c r="E248" s="55"/>
+      <x:c r="F248" s="55"/>
+      <x:c r="G248" s="55"/>
+      <x:c r="H248" s="55"/>
       <x:c r="K248" s="2"/>
       <x:c r="L248" s="2"/>
       <x:c r="M248" s="2"/>
       <x:c r="O248" s="2"/>
     </x:row>
     <x:row r="249" spans="2:15">
-      <x:c r="B249" s="46" t="s">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="C249" s="46"/>
-      <x:c r="D249" s="46"/>
-      <x:c r="E249" s="46"/>
-      <x:c r="F249" s="46"/>
-      <x:c r="G249" s="46"/>
-      <x:c r="H249" s="46"/>
+      <x:c r="B249" s="55" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="C249" s="55"/>
+      <x:c r="D249" s="55"/>
+      <x:c r="E249" s="55"/>
+      <x:c r="F249" s="55"/>
+      <x:c r="G249" s="55"/>
+      <x:c r="H249" s="55"/>
       <x:c r="K249" s="2"/>
       <x:c r="L249" s="2"/>
       <x:c r="M249" s="2"/>
       <x:c r="O249" s="2"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="219">
+  <x:mergeCells count="223">
     <x:mergeCell ref="L7:M7"/>
     <x:mergeCell ref="L8:M8"/>
     <x:mergeCell ref="L9:M9"/>
@@ -6339,7 +6410,6 @@
     <x:mergeCell ref="B52:H52"/>
     <x:mergeCell ref="B53:H53"/>
     <x:mergeCell ref="B54:H54"/>
-    <x:mergeCell ref="B56:H56"/>
     <x:mergeCell ref="B57:H57"/>
     <x:mergeCell ref="K46:Q46"/>
     <x:mergeCell ref="K47:Q47"/>
@@ -6514,6 +6584,11 @@
     <x:mergeCell ref="L199:N199"/>
     <x:mergeCell ref="O199:P199"/>
     <x:mergeCell ref="B214:H214"/>
+    <x:mergeCell ref="B55:H55"/>
+    <x:mergeCell ref="B56:H56"/>
+    <x:mergeCell ref="K41:U41"/>
+    <x:mergeCell ref="K42:U42"/>
+    <x:mergeCell ref="K43:U43"/>
   </x:mergeCells>
   <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -6538,40 +6613,40 @@
   <x:sheetData>
     <x:row r="2" spans="2:14">
       <x:c r="B2" s="5" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="K2" s="57" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="L2" s="57"/>
-      <x:c r="M2" s="57"/>
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="K2" s="49" t="s">
+        <x:v>191</x:v>
+      </x:c>
+      <x:c r="L2" s="49"/>
+      <x:c r="M2" s="49"/>
       <x:c r="N2" s="19"/>
     </x:row>
     <x:row r="3" spans="2:14">
       <x:c r="B3" s="30"/>
       <x:c r="C3" s="30" t="s">
-        <x:v>132</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D3" s="30" t="s">
-        <x:v>138</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="E3" s="30" t="s">
-        <x:v>133</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="F3" s="30" t="s">
-        <x:v>141</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="G3" s="30" t="s">
-        <x:v>139</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="H3" s="30" t="s">
-        <x:v>136</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="I3" s="30" t="s">
-        <x:v>135</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="K3" s="62" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="L3" s="62"/>
       <x:c r="M3" s="62"/>
@@ -6579,7 +6654,7 @@
     </x:row>
     <x:row r="4" spans="2:14">
       <x:c r="B4" s="30" t="s">
-        <x:v>59</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="C4" s="30">
         <x:v>22</x:v>
@@ -6609,7 +6684,7 @@
     </x:row>
     <x:row r="5" spans="2:14">
       <x:c r="B5" s="30" t="s">
-        <x:v>70</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="C5" s="30">
         <x:v>29</x:v>
@@ -6639,7 +6714,7 @@
     </x:row>
     <x:row r="6" spans="2:14">
       <x:c r="B6" s="30" t="s">
-        <x:v>66</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="C6" s="30">
         <x:v>5</x:v>
@@ -6675,10 +6750,10 @@
     </x:row>
     <x:row r="8" spans="2:14">
       <x:c r="B8" s="30" t="s">
-        <x:v>69</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="C8" s="59" t="s">
-        <x:v>113</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D8" s="60"/>
       <x:c r="E8" s="60"/>
@@ -6693,7 +6768,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C9" s="59" t="s">
-        <x:v>224</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="D9" s="60"/>
       <x:c r="E9" s="60"/>
@@ -6708,7 +6783,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C10" s="59" t="s">
-        <x:v>124</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D10" s="60"/>
       <x:c r="E10" s="60"/>
@@ -6732,7 +6807,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C12" s="59" t="s">
-        <x:v>166</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D12" s="60"/>
       <x:c r="E12" s="60"/>
@@ -6752,7 +6827,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C14" s="59" t="s">
-        <x:v>125</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D14" s="60"/>
       <x:c r="E14" s="60"/>
@@ -6772,7 +6847,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="C16" s="59" t="s">
-        <x:v>237</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D16" s="60"/>
       <x:c r="E16" s="60"/>
@@ -6792,7 +6867,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="C18" s="59" t="s">
-        <x:v>245</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D18" s="60"/>
       <x:c r="E18" s="60"/>
@@ -6812,7 +6887,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C20" s="59" t="s">
-        <x:v>215</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="D20" s="60"/>
       <x:c r="E20" s="60"/>

--- a/Design/UI기획서.xlsx
+++ b/Design/UI기획서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8520" tabRatio="500" activeTab="1"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8520" tabRatio="500" activeTab="2"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="VerCon" sheetId="1" r:id="rId4"/>
@@ -21,93 +21,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="270">
-  <x:si>
-    <x:t>Monster_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Obstacle_Cancel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Version Control</x:t>
-  </x:si>
-  <x:si>
-    <x:t>버튼으로 바뀌게 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.3 일시정지 UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.8 장애물 UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20. StringUI/Main_Menu 는 메인 화면으로 돌아가는 버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>42. StringUI/Sound 는 효과음을 끌지 안끌지 설정해주는 글자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>버프, 디버프 부분은 될 수 있으면 몬스터 주변의 이펙트로 나타내게 할 것</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4. 캐릭터 속성을 이미지로 보여준다.(물, 불, 흙, 전기 이미지 필요)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28. StringUI/Tower_UI_Name 은 타워의 이름을 나타냄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4. StringUI/Option 버튼을 누르면 환경 설정 화면으로 넘어감</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ex. 스테이지 3,6,9,...를 클리어하는 순간 증강체 화면이 공개되어야됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9. StringUI/Money 자신이 현재 가지고 있는 돈을 보여준다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22. StringUI/Xp_Reset 지금까지 사용했던 Xp를 전부 리셋</x:t>
-  </x:si>
-  <x:si>
-    <x:t>41. StringUI/Music 은 배경음악을 끌지 안끌지 설정해주는 글자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>26. StringUI/Upgrade_Contents 어떻게 강화되는지 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19. StringUI/Game_Over 는 게임이 끝났다고 알려주는 글자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. StringUI/Upgrade 버튼을 누르면 1.3 강화 화면으로 넘어감</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포맷식 {0}의 초기값은 1, 몬스터의 웨이브가 끝났을때 1씩 증가된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14, 15 사이에는 그림 에셋이 들어갈 예정(추후 추가)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18. StringUI/Back 은 이전으로 돌아가는 버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16. StringUI/Select 는 증강체를 선택하는 버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일시정지 UI 는 esc 버튼으로 열고 닫을수 있도록 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25. StringUI/Upgrade_Title 강화의 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 주변으로 Range를 보여줘서 타워의 공격 범위를 보여줌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체력바 부분은 단위 체력바로 만들수있다면 시인성이 좋아보임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포맷식 {0}은 현재 체력,{1}은 최대 체력을 나타낸다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contents</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="325">
+  <x:si>
+    <x:t>35. StringUI/Tower_Move는 타워를 이동하게 해주는 버튼, {0}은 이동에 필요한 재화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10, 11의 StringUI/Expand, StringUI/Stage_Start는 밑의 흐름을 통해</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33. StingUI/Select_Target_Priority 는 우선적 선택이 현재 이걸로 지정되어있다는 것을 알려줌.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StringUI 제작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. 현재 몬스터의 상태를 나타낸다.(ex, 버프나 디버프가 걸려있으면 표시)(몬스터 자체 효과 부여)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24. StringUI/Tower_Resource_Passive_Select 타워, 자원, 패시브 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27. StringUI/Required_Xp 요구되는 Xp, 포맷식 {0}에는 요구되는 Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15. StringUI/In_Game_Upgrade_Content 는 인게임 증강체 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 몬스터의 캐릭터 특성 1, 2과 이름을 나타낸다. (ex. 거대한 강화된 흡혈박쥐)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39. StringUI/Option_String 은 환경설정 화면임을 알려주는 환경설정 글자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6. StringUI/Stage_Level 은 현재 스테이지의 Level(단계)를 표시해준다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">37. StringUI/Tower_Attack은 타워의 타겟을 지정하는 버튼, A키로도 가능하다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>추후에 환경설정 UI가 구현되면 일시정지 UI에서 환경설정 UI로 넘어갈 수 있도록 설계할 예정임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40. StringUI/Show_Monster_UI 는 몬스터UI표시를 할지 안할지 설정해주는 글자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 특성 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>38. StringUI/Monster_Name 은 몬스터의 캐릭터 특성을 나타내는 글자, 특성은 특성부여 알고리즘에 따라 부여된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>44. StringUI/Obstacle_Cancel 은 장애물 제거를 취소할때 누르는 버튼이다. 버튼을 누르면 장애물 UI가 사라진다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인메뉴 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>왼쪽 상단의 일시정지 버튼을 누르면 1.2.3의 일시정지 UI화면이 나옴, esc버튼을 눌렀을때도 나오게 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23. StringUI/Tower_Resource_Passive_Category 타워, 자원, 패시브의 종류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>왼쪽 상단의 배속 버튼을 누르면 배속이 되게 하도록 설계, 어떤 매커니즘으로 배속을 시킬지 명확하게 적어야됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워는 모든 타워의 종류를 보여줌, 타워 에셋을 확보하여 12,13 중간 부분에 타워 그림을 넣는 작업 필요.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13. StringUI/Tower_Cost 타워의 비용을 보여준다. 포맷식 {0}에는 타워마다의 비용이 들어간다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36. StringUI/Tower_Demolish는 타워를 부수게 해주는 버튼, {0}은 부수고 나서 돌려받는 재화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>34. StingUI/Tower_Upgrade는 타워를 업그레이드 해 줄수 있는 버튼, {0}은 업그레이드에 필요한 재화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30. StingUI/Tower_Damage 는 타워 데미지를 알려주는 글자, {0}에는 그 타워의 데미지 수치를 나타냄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29. StringUI/Tower_Level 은 타워의 레벨을 알려주는 글자, {0}에는 타워의 레벨 수치가 들어감. 초기값 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>45. StringUI/Obstacle_Remove 는 장애물 제거를 실행하는 버튼이다. 버튼을 누르면 장애물이 제거된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31. StringUI/Tower_Fire_Rate는 타워의 공격속도를 나타내는 글자, {0}에는 타워의 공격속도를 나타냄</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -183,727 +186,888 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>29. StringUI/Tower_Level 은 타워의 레벨을 알려주는 글자, {0}에는 타워의 레벨 수치가 들어감. 초기값 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>45. StringUI/Obstacle_Remove 는 장애물 제거를 실행하는 버튼이다. 버튼을 누르면 장애물이 제거된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31. StringUI/Tower_Fire_Rate는 타워의 공격속도를 나타내는 글자, {0}에는 타워의 공격속도를 나타냄</x:t>
+    <x:t>17. StringUI/PAUSE 는 게임이 멈춰있다고 알려주는 글자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14, 15가 포함된 길쭉한 네모는 증강체를 표현, 하나의 버튼임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12. StringUI/Tower_Name 타워의 이름을 보여준다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5. StringUI/Game_End 버튼을 누르면 게임이 종료됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>41. StringUI/Music 은 배경음악을 끌지 안끌지 설정해주는 글자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>버프, 디버프 부분은 될 수 있으면 몬스터 주변의 이펙트로 나타내게 할 것</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20. StringUI/Main_Menu 는 메인 화면으로 돌아가는 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. StringUI/Upgrade 버튼을 누르면 1.3 강화 화면으로 넘어감</x:t>
+  </x:si>
+  <x:si>
+    <x:t>42. StringUI/Sound 는 효과음을 끌지 안끌지 설정해주는 글자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9. StringUI/Money 자신이 현재 가지고 있는 돈을 보여준다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. StringUI/Option 버튼을 누르면 환경 설정 화면으로 넘어감</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28. StringUI/Tower_UI_Name 은 타워의 이름을 나타냄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ex. 스테이지 3,6,9,...를 클리어하는 순간 증강체 화면이 공개되어야됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26. StringUI/Upgrade_Contents 어떻게 강화되는지 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19. StringUI/Game_Over 는 게임이 끝났다고 알려주는 글자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포맷식 {0}의 초기값은 1, 몬스터의 웨이브가 끝났을때 1씩 증가된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. 캐릭터 속성을 이미지로 보여준다.(물, 불, 흙, 전기 이미지 필요)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22. StringUI/Xp_Reset 지금까지 사용했던 Xp를 전부 리셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43. StringUI/Obstacle_Remove_Cost 는 장애물을 제거할때 필요한 비용을 나타낸다. {0}은 제거할때 필요한 비용.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. StringUI/Game_Start 버튼을 누르면 1.2 인게임 화면으로 넘어감</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포맷식 {0}의 초기값은 0, 몬스터의 웨이브가 끝나면 '그 레벨'만큼 증가함.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14. StringUI/In_Game_Upgrade_Title 은 인게임 증강체 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21. StringUI/Xp 는 총 Xp를 나타낸다. 포맷식 {0}에는 총 모은 Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7. StringUI/Xp_Point 는 이번 게임동안 벌어들인 Xp를 보여준다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오른쪽 상단의 톱니바퀴 버튼을 누르면 1.2.7의 환경설정 UI가 나오도록 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ver1.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.8.22</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.8.25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ver1.3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.8.23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Version</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.8.31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Week3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ver1.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp 리셋하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ver1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Week2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.8.21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ver1.7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제거취소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ver1.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ver1.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Week1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ver1.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환경설정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>To Do</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인 메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>돌아가기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Music</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.9.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개발 일정</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">범위 : </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Back</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제거하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>배경음악</x:t>
+  </x:si>
+  <x:si>
+    <x:t>String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UI 기획서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우선적 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>확장하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Expand</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워의 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Option</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타겟 지정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 이동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.8.27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PAUSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sound</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 부수기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임종료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터UI표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임시작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pause</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문서 개요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22.8.29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Obstacle_Cancel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Monster_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.3 일시정지 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.8 장애물 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Version Control</x:t>
+  </x:si>
+  <x:si>
+    <x:t>버튼으로 바뀌게 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포맷식 {0}은 현재 체력,{1}은 최대 체력을 나타낸다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일시정지 UI 는 esc 버튼으로 열고 닫을수 있도록 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16. StringUI/Select 는 증강체를 선택하는 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 주변으로 Range를 보여줘서 타워의 공격 범위를 보여줌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체력바 부분은 단위 체력바로 만들수있다면 시인성이 좋아보임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18. StringUI/Back 은 이전으로 돌아가는 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25. StringUI/Upgrade_Title 강화의 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14, 15 사이에는 그림 에셋이 들어갈 예정(추후 추가)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8. StringUI/HP 는 자신의 체력을 나타낸다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UI파트 개발자와 지속적인 커뮤니케이션을 통해 구현중</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Resource_Passive_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Resource_Passive_Category</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장애물 UI는 장애물을 클릭했을시 나타나는 UI이다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14, 15가 포함된 네모를 클릭하면 16의 버튼이 나옴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타겟 지정버튼 클릭시 마우스 포인터가 이렇게 바뀔 예정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워가 여러개 이상 선택이 되면 이런 UI로 바뀌게됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스테이지를 3번 클리어할 때마다 증강체 화면UI를 공개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StringUI 1~27에 해당하는 UI부분 작업중</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.4 게임오버 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 정보 UI 제작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Fire_Rate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워, 자원, 패시브 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워의 비용 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 UI 초안 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_UI_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>웨이브가 시작되고, 버튼은</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Upgrade</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">맵을 밝히기 위해 확장하기 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4 현재 진행 상황</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.1 인게임 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Target_Priority</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.6 몬스터 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.7 환경설정 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Option_String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 업그레이드 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Show_Monster_UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>확장하기 버튼으로 바뀌게</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 데미지 : {0}</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">확장하기 버튼이 시작하기 </x:t>
   </x:si>
   <x:si>
-    <x:t>몬스터 UI 초안 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터 정보 UI 제작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확장하기 버튼으로 바뀌게</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추후에 환경설정 UI가 구현되면 일시정지 UI에서 환경설정 UI로 넘어갈 수 있도록 설계할 예정임</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">37. StringUI/Tower_Attack은 타워의 타겟을 지정하는 버튼, A키로도 가능하다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>40. StringUI/Show_Monster_UI 는 몬스터UI표시를 할지 안할지 설정해주는 글자</x:t>
+    <x:t>HP : {0} / {1}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 부수기 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Money</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이므로 클릭할 수 없다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.5 타워정보 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Select</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Damage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 타겟지정 UI 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Attack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Demolish</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Obstacle_Remove</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Range</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임이 진행된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제거비용 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일시정지 UI 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2 인게임 화면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 정보 UI 제작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 증강체 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Required_Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp_Reset</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.1 메인 화면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>XP : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StringUI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_Menu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>우선적 선택 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 이동 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Level</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인 메뉴로 돌아가기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Hp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 UI 제작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.3 강화 화면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Move</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환경설정 UI 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Level : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환경설정 UI 제작</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">타워 데미지 : </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Cost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 레벨 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tower_Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_End</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 증강체 제목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 UI 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>버튼을 누른다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격 속도 : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">타워 레벨 : </x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 정보 UI 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.4 현재 진행상황</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stage_Start</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 업그레이드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Game_Over</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GAME OVER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Money : {0}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12,13 사이에는 그림 들어감(에셋 필요)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장애물 UI 제작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Upgrade_Contents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포맷식 {0}의 초기값은 100으로 설정한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37번 버튼은 타겟 지정 버튼으로 따로 생기게됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타겟들</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>효과음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김시우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>int</x:t>
+  </x:si>
+  <x:si>
+    <x:t>담당자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>→</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>토</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>금</x:t>
+  </x:si>
+  <x:si>
+    <x:t>목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Upgrade_Contents</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 사서 현재 적용이 되는 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.2.2 인게임 증강체 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터의 속성을 이미지로 보여줌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워, 자원, 패시브 카테고리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>되고, 이 버튼은 비활성화 상태</x:t>
+  </x:si>
+  <x:si>
+    <x:t>확장하기 버튼을 누르게 된다면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32, 33번은 기존 UI와 동일함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일시정지 UI에 환경설정 버튼 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Xp_Point</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임 흐름도 -&gt; (이쪽 방향)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터테이블 포맷 형식으로 변경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 정보 UI 시인성있게 재구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PLUM TOWER DEFESNSE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작하기 버튼을 누르게 된다면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전체적인 UI들 시인성있게 재구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Target_Priority_Button</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In_Game_Upgrade_Title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 사지 않았지만 살 수 있는 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나머지 버튼은 비활성화 상태로 표현해놨음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 타겟지정 UI, 마우스 포인터 추가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인, 인게임, 강화 화면 UI기본 틀구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16 버튼을 클릭하면 증강체가 적용됨.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 몬스터의 체력과 방어구를 나타낸다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Select_Target_Priority</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 UI의 확장, 타워정보 UI 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터UI의 공격로 버프 이펙트 구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중앙에 있는 정사각형은 타워를 나타냄</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Target_Priority_String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화 카드는 크게 3가지로 나눌수 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인, 인게임, 강화 화면 UI 제작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Obstacle_Remove_Cost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. 사지 않았고 현재 살 수 없는 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12,13이 같이 들어있는 네모는 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 체력바</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워정보 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp 포인트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화 화면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스테이지 레벨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>O</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임오버 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UI구현, 적용 미구현</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정지 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환경설정 화면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 속성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>X</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이전 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 레벨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개발 진행 체크리스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>List</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Check</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인 화면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>32. StringUI/Tower_Priority_String은 우선적 선택을 알려주는 글자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 데미지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임오버 화면</x:t>
+  </x:si>
+  <x:si>
+    <x:t>증강체 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플레이어 HP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환경설정 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Money</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임 타이틀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일시정지 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맵기믹</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 제거</x:t>
+  </x:si>
+  <x:si>
+    <x:t>강화 카드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 우선선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PTSD로 바꿔야함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 UI 표시 여부</x:t>
+  </x:si>
+  <x:si>
+    <x:t>확장, 시작 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 특성 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인화면 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>증강체 선택 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인게임 증강체 UI</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">
 프로토타입이후 요구되는 정보들 구현
-몬스터 UI의 공격로 버프 이펙트 구현
 게임 타이틀 변경</x:t>
   </x:si>
   <x:si>
-    <x:t>6. StringUI/Stage_Level 은 현재 스테이지의 Level(단계)를 표시해준다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>38. StringUI/Monster_Name 은 몬스터의 캐릭터 특성을 나타내는 글자, 특성은 특성부여 알고리즘에 따라 부여된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>44. StringUI/Obstacle_Cancel 은 장애물 제거를 취소할때 누르는 버튼이다. 버튼을 누르면 장애물 UI가 사라진다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 타겟지정 UI, 마우스 포인터 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. StringUI/Game_Start 버튼을 누르면 1.2 인게임 화면으로 넘어감</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14. StringUI/In_Game_Upgrade_Title 은 인게임 증강체 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32. StringUI/Tower_Priority_String은 타겟 지정을 알려주는</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7. StringUI/Xp_Point 는 이번 게임동안 벌어들인 Xp를 보여준다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오른쪽 상단의 톱니바퀴 버튼을 누르면 1.2.7의 환경설정 UI가 나오도록 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21. StringUI/Xp 는 총 Xp를 나타낸다. 포맷식 {0}에는 총 모은 Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포맷식 {0}의 초기값은 0, 몬스터의 웨이브가 끝나면 '그 레벨'만큼 증가함.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. 현재 몬스터의 상태를 나타낸다.(ex, 버프나 디버프가 걸려있으면 표시)(몬스터 자체 효과 부여)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24. StringUI/Tower_Resource_Passive_Select 타워, 자원, 패시브 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10, 11의 StringUI/Expand, StringUI/Stage_Start는 밑의 흐름을 통해</x:t>
-  </x:si>
-  <x:si>
-    <x:t>35. StringUI/Tower_Move는 타워를 이동하게 해주는 버튼, {0}은 이동에 필요한 재화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>토</x:t>
-  </x:si>
-  <x:si>
-    <x:t>수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>금</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ver1.0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.8.22</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ver1.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Week3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Week2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Version</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Week1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ver1.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.8.25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ver1.5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ver1.7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ver1.4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ver1.3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.8.23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ver1.6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.8.31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>43. StringUI/Obstacle_Remove_Cost 는 장애물을 제거할때 필요한 비용을 나타낸다. {0}은 제거할때 필요한 비용.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타겟 지정버튼 클릭시 마우스 포인터가 이렇게 바뀔 예정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 데미지 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 부수기 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.4 현재 진행 상황</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 업그레이드 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Show_Monster_UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.4 게임오버 UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_UI_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>웨이브가 시작되고, 버튼은</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.1 인게임 UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.6 몬스터 UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Fire_Rate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워의 비용 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Target_Priority</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워, 자원, 패시브 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Option_String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Upgrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">맵을 밝히기 위해 확장하기 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>HP : {0} / {1}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.7 환경설정 UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이므로 클릭할 수 없다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.5 타워정보 UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>34. StingUI/Tower_Upgrade는 타워를 업그레이드 해 줄수 있는 버튼, {0}은 업그레이드에 필요한 재화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>30. StingUI/Tower_Damage 는 타워 데미지를 알려주는 글자, {0}에는 그 타워의 데미지 수치를 나타냄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>36. StringUI/Tower_Demolish는 타워를 부수게 해주는 버튼, {0}은 부수고 나서 돌려받는 재화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장애물 UI 제작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Resource_Passive_Select</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14, 15가 포함된 네모를 클릭하면 16의 버튼이 나옴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Resource_Passive_Category</x:t>
-  </x:si>
-  <x:si>
-    <x:t>StringUI 1~27에 해당하는 UI부분 작업중</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워가 여러개 이상 선택이 되면 이런 UI로 바뀌게됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스테이지를 3번 클리어할 때마다 증강체 화면UI를 공개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8. StringUI/HP 는 자신의 체력을 나타낸다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>장애물 UI는 장애물을 클릭했을시 나타나는 UI이다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UI파트 개발자와 지속적인 커뮤니케이션을 통해 구현중</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타겟들</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>int</x:t>
-  </x:si>
-  <x:si>
-    <x:t>담당자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김시우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>→</x:t>
-  </x:si>
-  <x:si>
-    <x:t>효과음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워, 자원, 패시브 카테고리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>되고, 이 버튼은 비활성화 상태</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확장하기 버튼을 누르게 된다면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 사서 현재 적용이 되는 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Xp_Point</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2.2 인게임 증강체 UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터테이블 포맷 형식으로 변경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PLUM TOWER DEFESNSE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임 흐름도 -&gt; (이쪽 방향)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일시정지 UI에 환경설정 버튼 추가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>32, 33번은 기존 UI와 동일함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Contents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터의 속성을 이미지로 보여줌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 정보 UI 시인성있게 재구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작하기 버튼을 누르게 된다면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전체적인 UI들 시인성있게 재구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12. StringUI/Tower_Name 타워의 이름을 보여준다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17. StringUI/PAUSE 는 게임이 멈춰있다고 알려주는 글자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14, 15가 포함된 길쭉한 네모는 증강체를 표현, 하나의 버튼임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5. StringUI/Game_End 버튼을 누르면 게임이 종료됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인, 인게임, 강화 화면 UI 제작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12,13이 같이 들어있는 네모는 버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인, 인게임, 강화 화면 UI기본 틀구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Select_Target_Priority</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중앙에 있는 정사각형은 타워를 나타냄</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. 사지 않았고 현재 살 수 없는 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나머지 버튼은 비활성화 상태로 표현해놨음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Target_Priority_Button</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 사지 않았지만 살 수 있는 카드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Target_Priority_String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인게임 UI의 확장, 타워정보 UI 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 몬스터의 체력과 방어구를 나타낸다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터UI의 공격로 버프 이펙트 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16 버튼을 클릭하면 증강체가 적용됨.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Obstacle_Remove_Cost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Upgrade_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 카드는 크게 3가지로 나눌수 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 몬스터의 캐릭터 특성 1, 2과 이름을 나타낸다. (ex. 거대한 강화된 흡혈박쥐)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27. StringUI/Required_Xp 요구되는 Xp, 포맷식 {0}에는 요구되는 Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>39. StringUI/Option_String 은 환경설정 화면임을 알려주는 환경설정 글자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15. StringUI/In_Game_Upgrade_Content 는 인게임 증강체 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포맷식 {0}의 초기값은 100으로 설정한다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>37번 버튼은 타겟 지정 버튼으로 따로 생기게됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Upgrade_Contents</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Money</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Damage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 타겟지정 UI 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Demolish</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Attack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환경설정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp 리셋하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.8.21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제거취소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인 메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">범위 : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>To Do</x:t>
-  </x:si>
-  <x:si>
-    <x:t>강화 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UI 기획서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>돌아가기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Music</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우선적 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Expand</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.9.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>배경음악</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확장하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개발 일정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제거하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Back</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임종료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워의 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Option</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타겟 지정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 이동</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. UI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.8.27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PAUSE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sound</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Upgrade</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 부수기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>22.8.29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터UI표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문서 개요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pause</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임시작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제거비용 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일시정지 UI 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_Level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 정보 UI 제작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인게임 증강체 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>StringUI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Required_Xp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.2 인게임 화면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게임이 진행된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.1 메인 화면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp_Reset</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_Menu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>XP : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>우선적 선택 버튼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Range</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.3 강화 화면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Level : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_End</x:t>
-  </x:si>
-  <x:si>
-    <x:t>In_Game_Hp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환경설정 UI 제작</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">타워 데미지 : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>인게임 증강체 제목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 이동 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환경설정 UI 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Move</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Cost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tower_Level</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 레벨 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인 메뉴로 돌아가기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>몬스터 UI 제작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stage_Start</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Title</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GAME OVER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격 속도 : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 정보 UI 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Xp : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워 업그레이드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.4 현재 진행상황</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Over</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Money : {0}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Game_Start</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">타워 레벨 : </x:t>
-  </x:si>
-  <x:si>
-    <x:t>인게임 UI 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>버튼을 누른다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12,13 사이에는 그림 들어감(에셋 필요)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>타워는 모든 타워의 종류를 보여줌, 타워 에셋을 확보하여 12,13 중간 부분에 타워 그림을 넣는 작업 필요.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33. StingUI/Select_Target_Priority 는 타겟이 현재 이걸로 지정되어있다는 것을 알려줌.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23. StringUI/Tower_Resource_Passive_Category 타워, 자원, 패시브의 종류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13. StringUI/Tower_Cost 타워의 비용을 보여준다. 포맷식 {0}에는 타워마다의 비용이 들어간다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>왼쪽 상단의 배속 버튼을 누르면 배속이 되게 하도록 설계, 어떤 매커니즘으로 배속을 시킬지 명확하게 적어야됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>왼쪽 상단의 일시정지 버튼을 누르면 1.2.3의 일시정지 UI화면이 나옴, esc버튼을 눌렀을때도 나오게 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Obstacle_Remove</x:t>
+    <x:t>환경설정 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>돌아가기 버튼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 타겟지정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타워 비용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>몬스터 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총 Xp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카테고리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>장애물 UI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Xp 리셋</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UI로 구현 X</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -941,46 +1105,16 @@
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff1f4e79"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff1f4e79"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="14"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="14"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff1f4e79"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="14"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -992,28 +1126,12 @@
       <x:color rgb="ff000000"/>
       <x:b val="1"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="14"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="14"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="14"/>
+      <x:color rgb="ff000000"/>
+      <x:b val="1"/>
+    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -1523,7 +1641,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1606,7 +1723,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1641,7 +1757,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1686,7 +1801,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1730,7 +1844,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1815,7 +1928,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1836,7 +1948,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1867,7 +1978,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1920,7 +2030,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing0.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2904,7 +3014,7 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:J18"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="B17" activeCellId="0" sqref="B17:B17"/>
     </x:sheetView>
   </x:sheetViews>
@@ -2917,12 +3027,12 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" ht="23.5">
       <x:c r="A1" s="54" t="s">
-        <x:v>186</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B1" s="54"/>
       <x:c r="C1" s="13"/>
       <x:c r="F1" s="55" t="s">
-        <x:v>214</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="G1" s="55"/>
       <x:c r="H1" s="55"/>
@@ -2931,21 +3041,21 @@
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="53" t="s">
-        <x:v>2</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B2" s="53"/>
       <x:c r="C2" s="13"/>
     </x:row>
     <x:row r="3" spans="1:10" ht="16.75">
       <x:c r="A3" s="14" t="s">
-        <x:v>121</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="B3" s="14" t="s">
-        <x:v>124</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="C3" s="14"/>
       <x:c r="F3" s="15" t="s">
-        <x:v>206</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="G3" s="16"/>
       <x:c r="H3" s="16"/>
@@ -2954,17 +3064,17 @@
     </x:row>
     <x:row r="4" spans="1:10">
       <x:c r="A4" s="18" t="s">
-        <x:v>69</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B4" s="18" t="s">
-        <x:v>28</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C4" s="18" t="s">
-        <x:v>66</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="F4" s="19"/>
       <x:c r="G4" s="56" t="s">
-        <x:v>226</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="H4" s="56"/>
       <x:c r="I4" s="56"/>
@@ -2972,17 +3082,17 @@
     </x:row>
     <x:row r="5" spans="1:10">
       <x:c r="A5" s="20" t="s">
-        <x:v>63</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B5" s="20" t="s">
-        <x:v>149</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="C5" s="20" t="s">
-        <x:v>180</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F5" s="19"/>
       <x:c r="G5" s="56" t="s">
-        <x:v>224</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="H5" s="56"/>
       <x:c r="I5" s="56"/>
@@ -2990,70 +3100,70 @@
     </x:row>
     <x:row r="6" spans="1:10">
       <x:c r="A6" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B6" s="20" t="s">
-        <x:v>218</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="C6" s="20" t="s">
-        <x:v>64</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F6" s="21"/>
       <x:c r="G6" s="22"/>
       <x:c r="H6" s="40" t="s">
-        <x:v>90</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="I6" s="22"/>
       <x:c r="J6" s="23"/>
     </x:row>
     <x:row r="7" spans="1:10">
       <x:c r="A7" s="22" t="s">
-        <x:v>71</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B7" s="40" t="s">
-        <x:v>157</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="C7" s="20" t="s">
-        <x:v>77</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F7" s="21"/>
       <x:c r="G7" s="22"/>
       <x:c r="H7" s="22" t="s">
-        <x:v>132</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="I7" s="22"/>
       <x:c r="J7" s="23"/>
     </x:row>
     <x:row r="8" spans="1:10">
       <x:c r="A8" s="22" t="s">
-        <x:v>76</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B8" s="20" t="s">
-        <x:v>34</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C8" s="20" t="s">
-        <x:v>72</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F8" s="21"/>
       <x:c r="G8" s="22"/>
       <x:c r="H8" s="40" t="s">
-        <x:v>4</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="I8" s="22"/>
       <x:c r="J8" s="23"/>
     </x:row>
     <x:row r="9" spans="1:10">
       <x:c r="A9" s="22" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B9" s="22" t="s">
-        <x:v>236</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="C9" s="22"/>
       <x:c r="F9" s="21"/>
       <x:c r="G9" s="22"/>
       <x:c r="H9" s="22" t="s">
-        <x:v>87</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="I9" s="22"/>
       <x:c r="J9" s="23"/>
@@ -3061,13 +3171,13 @@
     <x:row r="10" spans="1:10">
       <x:c r="A10" s="22"/>
       <x:c r="B10" s="22" t="s">
-        <x:v>136</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="C10" s="22"/>
       <x:c r="F10" s="21"/>
       <x:c r="G10" s="36"/>
       <x:c r="H10" s="38" t="s">
-        <x:v>102</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="I10" s="36"/>
       <x:c r="J10" s="37"/>
@@ -3075,13 +3185,13 @@
     <x:row r="11" spans="1:10">
       <x:c r="A11" s="22"/>
       <x:c r="B11" s="22" t="s">
-        <x:v>247</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="C11" s="22"/>
       <x:c r="F11" s="21"/>
       <x:c r="G11" s="36"/>
       <x:c r="H11" s="36" t="s">
-        <x:v>91</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="I11" s="36"/>
       <x:c r="J11" s="37"/>
@@ -3089,48 +3199,48 @@
     <x:row r="12" spans="1:10">
       <x:c r="A12" s="22"/>
       <x:c r="B12" s="22" t="s">
-        <x:v>133</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="C12" s="22" t="s">
-        <x:v>207</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="F12" s="21"/>
       <x:c r="G12" s="36"/>
       <x:c r="H12" s="36" t="s">
-        <x:v>100</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="I12" s="36"/>
       <x:c r="J12" s="37"/>
     </x:row>
     <x:row r="13" spans="1:10">
       <x:c r="A13" s="22" t="s">
-        <x:v>73</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B13" s="22" t="s">
-        <x:v>252</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="C13" s="22" t="s">
-        <x:v>212</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="F13" s="21"/>
       <x:c r="G13" s="36"/>
       <x:c r="H13" s="38" t="s">
-        <x:v>5</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="I13" s="36"/>
       <x:c r="J13" s="37"/>
     </x:row>
     <x:row r="14" spans="1:10">
       <x:c r="A14" s="22" t="s">
-        <x:v>78</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B14" s="22" t="s">
-        <x:v>260</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="C14" s="22"/>
       <x:c r="F14" s="21"/>
       <x:c r="G14" s="60" t="s">
-        <x:v>232</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="H14" s="60"/>
       <x:c r="I14" s="60"/>
@@ -3139,12 +3249,12 @@
     <x:row r="15" spans="1:10">
       <x:c r="A15" s="22"/>
       <x:c r="B15" s="22" t="s">
-        <x:v>252</x:v>
+        <x:v>206</x:v>
       </x:c>
       <x:c r="C15" s="22"/>
       <x:c r="F15" s="21"/>
       <x:c r="G15" s="60" t="s">
-        <x:v>84</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="H15" s="60"/>
       <x:c r="I15" s="60"/>
@@ -3152,10 +3262,10 @@
     </x:row>
     <x:row r="16" spans="2:10">
       <x:c r="B16" s="7" t="s">
-        <x:v>241</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="C16" s="5" t="s">
-        <x:v>79</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="F16" s="21"/>
       <x:c r="G16" s="58"/>
@@ -3165,10 +3275,10 @@
     </x:row>
     <x:row r="17" spans="1:10">
       <x:c r="A17" s="7" t="s">
-        <x:v>74</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B17" s="7" t="s">
-        <x:v>44</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="C17" s="2"/>
       <x:c r="F17" s="21"/>
@@ -3179,10 +3289,10 @@
     </x:row>
     <x:row r="18" spans="2:10" ht="16.75">
       <x:c r="B18" s="7" t="s">
-        <x:v>107</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="F18" s="24"/>
       <x:c r="G18" s="25"/>
@@ -3212,8 +3322,8 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="A1:AP274"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A128" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="AJ154" activeCellId="0" sqref="AJ154:AJ154"/>
+    <x:sheetView showGridLines="0" topLeftCell="A236" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="B157" activeCellId="0" sqref="B157:K157"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -3226,25 +3336,25 @@
   <x:sheetData>
     <x:row r="1" spans="1:1">
       <x:c r="A1" s="11" t="s">
-        <x:v>206</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="2:3">
       <x:c r="B2" s="49" t="s">
-        <x:v>226</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C2" s="49"/>
     </x:row>
     <x:row r="7" spans="11:16">
       <x:c r="K7" s="30" t="s">
-        <x:v>120</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="L7" s="45" t="s">
-        <x:v>222</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="M7" s="45"/>
       <x:c r="N7" s="46" t="s">
-        <x:v>199</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="O7" s="47"/>
       <x:c r="P7" s="48"/>
@@ -3254,16 +3364,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="L8" s="45" t="s">
-        <x:v>249</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="M8" s="45"/>
       <x:c r="N8" s="45" t="s">
-        <x:v>134</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="O8" s="45"/>
       <x:c r="P8" s="45"/>
       <x:c r="Q8" s="9" t="s">
-        <x:v>117</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="11:17">
@@ -3271,16 +3381,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="L9" s="45" t="s">
-        <x:v>258</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="M9" s="45"/>
       <x:c r="N9" s="45" t="s">
-        <x:v>216</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="O9" s="45"/>
       <x:c r="P9" s="45"/>
       <x:c r="Q9" s="9" t="s">
-        <x:v>122</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="11:17">
@@ -3288,16 +3398,16 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="L10" s="45" t="s">
-        <x:v>210</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="M10" s="45"/>
       <x:c r="N10" s="45" t="s">
-        <x:v>123</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="O10" s="45"/>
       <x:c r="P10" s="45"/>
       <x:c r="Q10" s="9" t="s">
-        <x:v>122</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="11:17">
@@ -3305,16 +3415,16 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="L11" s="45" t="s">
-        <x:v>203</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="M11" s="45"/>
       <x:c r="N11" s="45" t="s">
-        <x:v>178</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="O11" s="45"/>
       <x:c r="P11" s="45"/>
       <x:c r="Q11" s="9" t="s">
-        <x:v>122</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="11:17">
@@ -3322,21 +3432,21 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="L12" s="45" t="s">
-        <x:v>234</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="M12" s="45"/>
       <x:c r="N12" s="45" t="s">
-        <x:v>201</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="O12" s="45"/>
       <x:c r="P12" s="45"/>
       <x:c r="Q12" s="9" t="s">
-        <x:v>122</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:8">
       <x:c r="B20" s="49" t="s">
-        <x:v>45</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C20" s="49"/>
       <x:c r="D20" s="49"/>
@@ -3347,7 +3457,7 @@
     </x:row>
     <x:row r="21" spans="2:8">
       <x:c r="B21" s="49" t="s">
-        <x:v>18</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C21" s="49"/>
       <x:c r="D21" s="49"/>
@@ -3358,7 +3468,7 @@
     </x:row>
     <x:row r="22" spans="2:8">
       <x:c r="B22" s="49" t="s">
-        <x:v>11</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C22" s="49"/>
       <x:c r="D22" s="49"/>
@@ -3369,7 +3479,7 @@
     </x:row>
     <x:row r="23" spans="2:8">
       <x:c r="B23" s="49" t="s">
-        <x:v>146</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C23" s="49"/>
       <x:c r="D23" s="49"/>
@@ -3380,7 +3490,7 @@
     </x:row>
     <x:row r="24" spans="2:14">
       <x:c r="B24" s="50" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C24" s="49"/>
       <x:c r="D24" s="49"/>
@@ -3412,27 +3522,27 @@
     </x:row>
     <x:row r="27" spans="2:3">
       <x:c r="B27" s="49" t="s">
-        <x:v>224</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C27" s="49"/>
     </x:row>
     <x:row r="28" spans="2:4">
       <x:c r="B28" s="28"/>
       <x:c r="C28" s="49" t="s">
-        <x:v>90</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D28" s="49"/>
     </x:row>
     <x:row r="31" spans="11:16">
       <x:c r="K31" s="30" t="s">
-        <x:v>120</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="L31" s="45" t="s">
-        <x:v>222</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="M31" s="45"/>
       <x:c r="N31" s="46" t="s">
-        <x:v>199</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="O31" s="47"/>
       <x:c r="P31" s="48"/>
@@ -3442,16 +3552,16 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="L32" s="45" t="s">
-        <x:v>219</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="M32" s="45"/>
       <x:c r="N32" s="45" t="s">
-        <x:v>233</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="O32" s="45"/>
       <x:c r="P32" s="45"/>
       <x:c r="Q32" s="9" t="s">
-        <x:v>117</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="11:17">
@@ -3459,18 +3569,18 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="L33" s="45" t="s">
-        <x:v>131</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="M33" s="45" t="s">
-        <x:v>131</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="N33" s="45" t="s">
-        <x:v>229</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="O33" s="45"/>
       <x:c r="P33" s="45"/>
       <x:c r="Q33" s="9" t="s">
-        <x:v>117</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="11:17">
@@ -3478,18 +3588,18 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="L34" s="45" t="s">
-        <x:v>235</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="M34" s="45" t="s">
-        <x:v>235</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="N34" s="45" t="s">
-        <x:v>99</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="O34" s="45"/>
       <x:c r="P34" s="45"/>
       <x:c r="Q34" s="9" t="s">
-        <x:v>117</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="11:17">
@@ -3497,18 +3607,18 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="L35" s="45" t="s">
-        <x:v>171</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="M35" s="45" t="s">
-        <x:v>171</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="N35" s="45" t="s">
-        <x:v>257</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="O35" s="45"/>
       <x:c r="P35" s="45"/>
       <x:c r="Q35" s="9" t="s">
-        <x:v>117</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="11:17">
@@ -3516,16 +3626,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="L36" s="45" t="s">
-        <x:v>190</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="M36" s="45"/>
       <x:c r="N36" s="45" t="s">
-        <x:v>194</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="O36" s="45"/>
       <x:c r="P36" s="45"/>
       <x:c r="Q36" s="9" t="s">
-        <x:v>122</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="11:17">
@@ -3533,16 +3643,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="L37" s="45" t="s">
-        <x:v>248</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="M37" s="45"/>
       <x:c r="N37" s="45" t="s">
-        <x:v>198</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="O37" s="45"/>
       <x:c r="P37" s="45"/>
       <x:c r="Q37" s="9" t="s">
-        <x:v>122</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="11:21">
@@ -3550,19 +3660,19 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="L38" s="45" t="s">
-        <x:v>240</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="M38" s="45"/>
       <x:c r="N38" s="45" t="s">
-        <x:v>202</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="O38" s="45"/>
       <x:c r="P38" s="45"/>
       <x:c r="Q38" s="9" t="s">
-        <x:v>117</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="R38" s="49" t="s">
-        <x:v>148</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="S38" s="49"/>
       <x:c r="T38" s="49"/>
@@ -3573,19 +3683,19 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="L39" s="45" t="s">
-        <x:v>243</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="M39" s="45"/>
       <x:c r="N39" s="45" t="s">
-        <x:v>93</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="O39" s="45"/>
       <x:c r="P39" s="45"/>
       <x:c r="Q39" s="9" t="s">
-        <x:v>117</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="R39" s="49" t="s">
-        <x:v>262</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="S39" s="49"/>
       <x:c r="T39" s="49"/>
@@ -3600,7 +3710,7 @@
     </x:row>
     <x:row r="41" spans="11:22">
       <x:c r="K41" s="49" t="s">
-        <x:v>268</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="L41" s="49"/>
       <x:c r="M41" s="49"/>
@@ -3616,7 +3726,7 @@
     </x:row>
     <x:row r="42" spans="11:22">
       <x:c r="K42" s="49" t="s">
-        <x:v>267</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="L42" s="49"/>
       <x:c r="M42" s="49"/>
@@ -3632,7 +3742,7 @@
     </x:row>
     <x:row r="43" spans="11:21">
       <x:c r="K43" s="49" t="s">
-        <x:v>49</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="L43" s="49"/>
       <x:c r="M43" s="49"/>
@@ -3647,7 +3757,7 @@
     </x:row>
     <x:row r="46" spans="2:21">
       <x:c r="B46" s="49" t="s">
-        <x:v>41</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C46" s="49"/>
       <x:c r="D46" s="49"/>
@@ -3658,7 +3768,7 @@
       <x:c r="I46" s="41"/>
       <x:c r="J46" s="41"/>
       <x:c r="K46" s="49" t="s">
-        <x:v>54</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L46" s="49"/>
       <x:c r="M46" s="49"/>
@@ -3673,7 +3783,7 @@
     </x:row>
     <x:row r="47" spans="2:21">
       <x:c r="B47" s="49" t="s">
-        <x:v>19</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C47" s="49"/>
       <x:c r="D47" s="49"/>
@@ -3684,7 +3794,7 @@
       <x:c r="I47" s="41"/>
       <x:c r="J47" s="41"/>
       <x:c r="K47" s="49" t="s">
-        <x:v>225</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="L47" s="49"/>
       <x:c r="M47" s="49"/>
@@ -3721,7 +3831,7 @@
     </x:row>
     <x:row r="49" spans="2:21">
       <x:c r="B49" s="49" t="s">
-        <x:v>48</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C49" s="49"/>
       <x:c r="D49" s="49"/>
@@ -3732,7 +3842,7 @@
       <x:c r="I49" s="41"/>
       <x:c r="J49" s="41"/>
       <x:c r="K49" s="49" t="s">
-        <x:v>135</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="L49" s="49"/>
       <x:c r="M49" s="49"/>
@@ -3793,7 +3903,7 @@
     </x:row>
     <x:row r="52" spans="2:21">
       <x:c r="B52" s="49" t="s">
-        <x:v>114</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C52" s="49"/>
       <x:c r="D52" s="49"/>
@@ -3817,7 +3927,7 @@
     </x:row>
     <x:row r="53" spans="2:21">
       <x:c r="B53" s="49" t="s">
-        <x:v>27</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C53" s="49"/>
       <x:c r="D53" s="49"/>
@@ -3853,13 +3963,13 @@
       <x:c r="L54" s="41"/>
       <x:c r="M54" s="41"/>
       <x:c r="N54" s="31" t="s">
-        <x:v>125</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="O54" s="41"/>
       <x:c r="P54" s="41"/>
       <x:c r="Q54" s="41"/>
       <x:c r="R54" s="32" t="s">
-        <x:v>125</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="S54" s="41"/>
       <x:c r="T54" s="41"/>
@@ -3868,7 +3978,7 @@
     </x:row>
     <x:row r="55" spans="2:21">
       <x:c r="B55" s="49" t="s">
-        <x:v>13</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C55" s="49"/>
       <x:c r="D55" s="49"/>
@@ -3892,7 +4002,7 @@
     </x:row>
     <x:row r="56" spans="2:21">
       <x:c r="B56" s="49" t="s">
-        <x:v>168</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="C56" s="49"/>
       <x:c r="D56" s="49"/>
@@ -3947,19 +4057,19 @@
       <x:c r="I58" s="41"/>
       <x:c r="J58" s="41"/>
       <x:c r="K58" s="49" t="s">
-        <x:v>98</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="L58" s="49"/>
       <x:c r="M58" s="49"/>
       <x:c r="N58" s="41"/>
       <x:c r="O58" s="49" t="s">
-        <x:v>129</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="P58" s="49"/>
       <x:c r="Q58" s="49"/>
       <x:c r="R58" s="41"/>
       <x:c r="S58" s="49" t="s">
-        <x:v>141</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="T58" s="49"/>
       <x:c r="U58" s="49"/>
@@ -3978,19 +4088,19 @@
       <x:c r="I59" s="41"/>
       <x:c r="J59" s="41"/>
       <x:c r="K59" s="49" t="s">
-        <x:v>261</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="L59" s="49"/>
       <x:c r="M59" s="49"/>
       <x:c r="N59" s="41"/>
       <x:c r="O59" s="49" t="s">
-        <x:v>33</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="P59" s="49"/>
       <x:c r="Q59" s="49"/>
       <x:c r="R59" s="41"/>
       <x:c r="S59" s="49" t="s">
-        <x:v>89</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="T59" s="49"/>
       <x:c r="U59" s="49"/>
@@ -4013,20 +4123,20 @@
       <x:c r="M60" s="41"/>
       <x:c r="N60" s="41"/>
       <x:c r="O60" s="49" t="s">
-        <x:v>3</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="P60" s="49"/>
       <x:c r="Q60" s="49"/>
       <x:c r="R60" s="41"/>
       <x:c r="S60" s="49" t="s">
-        <x:v>36</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="T60" s="49"/>
       <x:c r="U60" s="49"/>
     </x:row>
     <x:row r="61" spans="2:21">
       <x:c r="B61" s="49" t="s">
-        <x:v>143</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C61" s="49"/>
       <x:c r="D61" s="49"/>
@@ -4045,14 +4155,14 @@
       <x:c r="Q61" s="41"/>
       <x:c r="R61" s="41"/>
       <x:c r="S61" s="49" t="s">
-        <x:v>128</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="T61" s="49"/>
       <x:c r="U61" s="49"/>
     </x:row>
     <x:row r="62" spans="2:21">
       <x:c r="B62" s="49" t="s">
-        <x:v>266</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C62" s="49"/>
       <x:c r="D62" s="49"/>
@@ -4071,14 +4181,14 @@
       <x:c r="Q62" s="41"/>
       <x:c r="R62" s="41"/>
       <x:c r="S62" s="49" t="s">
-        <x:v>101</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="T62" s="49"/>
       <x:c r="U62" s="49"/>
     </x:row>
     <x:row r="63" spans="2:21">
       <x:c r="B63" s="49" t="s">
-        <x:v>263</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C63" s="49"/>
       <x:c r="D63" s="49"/>
@@ -4108,23 +4218,23 @@
     </x:row>
     <x:row r="65" spans="3:5">
       <x:c r="C65" s="49" t="s">
-        <x:v>132</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="D65" s="49"/>
       <x:c r="E65" s="49"/>
     </x:row>
     <x:row r="70" spans="12:19">
       <x:c r="L70" s="30" t="s">
-        <x:v>120</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="M70" s="45" t="s">
-        <x:v>222</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="N70" s="45"/>
       <x:c r="O70" s="45"/>
       <x:c r="P70" s="45"/>
       <x:c r="Q70" s="45" t="s">
-        <x:v>199</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="R70" s="45"/>
       <x:c r="S70" s="45"/>
@@ -4134,18 +4244,18 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="M71" s="45" t="s">
-        <x:v>162</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="N71" s="45"/>
       <x:c r="O71" s="45"/>
       <x:c r="P71" s="45"/>
       <x:c r="Q71" s="45" t="s">
-        <x:v>238</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="R71" s="45"/>
       <x:c r="S71" s="45"/>
       <x:c r="T71" s="9" t="s">
-        <x:v>117</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="12:20">
@@ -4153,18 +4263,18 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="M72" s="45" t="s">
-        <x:v>170</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="N72" s="45"/>
       <x:c r="O72" s="45"/>
       <x:c r="P72" s="45"/>
       <x:c r="Q72" s="45" t="s">
-        <x:v>221</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="R72" s="45"/>
       <x:c r="S72" s="45"/>
       <x:c r="T72" s="9" t="s">
-        <x:v>117</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="12:20">
@@ -4172,18 +4282,18 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="M73" s="45" t="s">
-        <x:v>103</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="N73" s="45"/>
       <x:c r="O73" s="45"/>
       <x:c r="P73" s="45"/>
       <x:c r="Q73" s="45" t="s">
-        <x:v>200</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="R73" s="45"/>
       <x:c r="S73" s="45"/>
       <x:c r="T73" s="9" t="s">
-        <x:v>122</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="11:15">
@@ -4195,7 +4305,7 @@
     <x:row r="75" spans="11:20">
       <x:c r="K75" s="9"/>
       <x:c r="L75" s="49" t="s">
-        <x:v>145</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="M75" s="49"/>
       <x:c r="N75" s="49"/>
@@ -4209,7 +4319,7 @@
     <x:row r="76" spans="11:20">
       <x:c r="K76" s="9"/>
       <x:c r="L76" s="49" t="s">
-        <x:v>109</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="M76" s="49"/>
       <x:c r="N76" s="49"/>
@@ -4222,7 +4332,7 @@
     </x:row>
     <x:row r="77" spans="12:20">
       <x:c r="L77" s="49" t="s">
-        <x:v>160</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="M77" s="49"/>
       <x:c r="N77" s="49"/>
@@ -4235,7 +4345,7 @@
     </x:row>
     <x:row r="79" spans="12:20">
       <x:c r="L79" s="49" t="s">
-        <x:v>20</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="M79" s="49"/>
       <x:c r="N79" s="49"/>
@@ -4248,7 +4358,7 @@
     </x:row>
     <x:row r="83" spans="2:8">
       <x:c r="B83" s="49" t="s">
-        <x:v>113</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C83" s="49"/>
       <x:c r="D83" s="49"/>
@@ -4259,7 +4369,7 @@
     </x:row>
     <x:row r="84" spans="2:8">
       <x:c r="B84" s="49" t="s">
-        <x:v>12</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C84" s="49"/>
       <x:c r="D84" s="49"/>
@@ -4288,7 +4398,7 @@
     </x:row>
     <x:row r="87" spans="2:8">
       <x:c r="B87" s="49" t="s">
-        <x:v>46</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C87" s="49"/>
       <x:c r="D87" s="49"/>
@@ -4299,7 +4409,7 @@
     </x:row>
     <x:row r="88" spans="2:8">
       <x:c r="B88" s="49" t="s">
-        <x:v>167</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C88" s="49"/>
       <x:c r="D88" s="49"/>
@@ -4310,7 +4420,7 @@
     </x:row>
     <x:row r="89" spans="2:8">
       <x:c r="B89" s="49" t="s">
-        <x:v>22</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C89" s="49"/>
       <x:c r="D89" s="49"/>
@@ -4321,21 +4431,21 @@
     </x:row>
     <x:row r="91" spans="3:5">
       <x:c r="C91" s="50" t="s">
-        <x:v>4</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D91" s="50"/>
       <x:c r="E91" s="50"/>
     </x:row>
     <x:row r="96" spans="11:16">
       <x:c r="K96" s="30" t="s">
-        <x:v>120</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="L96" s="45" t="s">
-        <x:v>222</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="M96" s="45"/>
       <x:c r="N96" s="46" t="s">
-        <x:v>199</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="O96" s="47"/>
       <x:c r="P96" s="48"/>
@@ -4345,16 +4455,16 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="L97" s="45" t="s">
-        <x:v>215</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="M97" s="45"/>
       <x:c r="N97" s="45" t="s">
-        <x:v>208</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="O97" s="45"/>
       <x:c r="P97" s="45"/>
       <x:c r="Q97" s="9" t="s">
-        <x:v>117</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="11:17">
@@ -4362,16 +4472,16 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="L98" s="45" t="s">
-        <x:v>197</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="M98" s="45"/>
       <x:c r="N98" s="45" t="s">
-        <x:v>187</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="O98" s="45"/>
       <x:c r="P98" s="45"/>
       <x:c r="Q98" s="9" t="s">
-        <x:v>122</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="11:17">
@@ -4379,16 +4489,16 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="L99" s="45" t="s">
-        <x:v>203</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="M99" s="45"/>
       <x:c r="N99" s="45" t="s">
-        <x:v>178</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="O99" s="45"/>
       <x:c r="P99" s="45"/>
       <x:c r="Q99" s="9" t="s">
-        <x:v>122</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="11:17">
@@ -4396,16 +4506,16 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="L100" s="45" t="s">
-        <x:v>228</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="M100" s="45"/>
       <x:c r="N100" s="45" t="s">
-        <x:v>246</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="O100" s="45"/>
       <x:c r="P100" s="45"/>
       <x:c r="Q100" s="6" t="s">
-        <x:v>122</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="11:20">
@@ -4422,7 +4532,7 @@
     </x:row>
     <x:row r="102" spans="11:20">
       <x:c r="K102" s="50" t="s">
-        <x:v>23</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="L102" s="49"/>
       <x:c r="M102" s="49"/>
@@ -4436,7 +4546,7 @@
     </x:row>
     <x:row r="103" spans="11:20">
       <x:c r="K103" s="50" t="s">
-        <x:v>37</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="L103" s="49"/>
       <x:c r="M103" s="49"/>
@@ -4450,7 +4560,7 @@
     </x:row>
     <x:row r="109" spans="2:15">
       <x:c r="B109" s="49" t="s">
-        <x:v>144</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C109" s="49"/>
       <x:c r="D109" s="49"/>
@@ -4459,7 +4569,7 @@
       <x:c r="G109" s="49"/>
       <x:c r="H109" s="49"/>
       <x:c r="I109" s="49" t="s">
-        <x:v>11</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="J109" s="49"/>
       <x:c r="K109" s="49"/>
@@ -4470,7 +4580,7 @@
     </x:row>
     <x:row r="110" spans="2:15">
       <x:c r="B110" s="49" t="s">
-        <x:v>21</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C110" s="49"/>
       <x:c r="D110" s="49"/>
@@ -4479,7 +4589,7 @@
       <x:c r="G110" s="49"/>
       <x:c r="H110" s="49"/>
       <x:c r="I110" s="49" t="s">
-        <x:v>6</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J110" s="49"/>
       <x:c r="K110" s="49"/>
@@ -4499,21 +4609,21 @@
     </x:row>
     <x:row r="113" spans="3:5">
       <x:c r="C113" s="49" t="s">
-        <x:v>87</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="D113" s="49"/>
       <x:c r="E113" s="49"/>
     </x:row>
     <x:row r="116" spans="11:16">
       <x:c r="K116" s="30" t="s">
-        <x:v>120</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="L116" s="45" t="s">
-        <x:v>222</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="M116" s="45"/>
       <x:c r="N116" s="46" t="s">
-        <x:v>199</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="O116" s="47"/>
       <x:c r="P116" s="48"/>
@@ -4523,16 +4633,16 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="L117" s="45" t="s">
-        <x:v>256</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="M117" s="45"/>
       <x:c r="N117" s="45" t="s">
-        <x:v>250</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="O117" s="45"/>
       <x:c r="P117" s="45"/>
       <x:c r="Q117" s="9" t="s">
-        <x:v>117</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="11:17">
@@ -4540,21 +4650,21 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="L118" s="45" t="s">
-        <x:v>228</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="M118" s="45"/>
       <x:c r="N118" s="45" t="s">
-        <x:v>246</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="O118" s="45"/>
       <x:c r="P118" s="45"/>
       <x:c r="Q118" s="9" t="s">
-        <x:v>122</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="2:8">
       <x:c r="B131" s="49" t="s">
-        <x:v>17</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C131" s="49"/>
       <x:c r="D131" s="49"/>
@@ -4565,7 +4675,7 @@
     </x:row>
     <x:row r="132" spans="2:8">
       <x:c r="B132" s="49" t="s">
-        <x:v>6</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C132" s="49"/>
       <x:c r="D132" s="49"/>
@@ -4577,7 +4687,7 @@
     <x:row r="134" spans="2:42">
       <x:c r="B134" s="41"/>
       <x:c r="C134" s="49" t="s">
-        <x:v>102</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="D134" s="49"/>
       <x:c r="E134" s="49"/>
@@ -4673,22 +4783,22 @@
       <x:c r="I136" s="41"/>
       <x:c r="J136" s="41"/>
       <x:c r="K136" s="30" t="s">
-        <x:v>120</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="L136" s="45" t="s">
-        <x:v>222</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="M136" s="45" t="s">
-        <x:v>242</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="N136" s="45" t="s">
-        <x:v>242</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="O136" s="45" t="s">
-        <x:v>199</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="P136" s="45" t="s">
-        <x:v>205</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q136" s="41"/>
       <x:c r="R136" s="41"/>
@@ -4731,22 +4841,22 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="L137" s="45" t="s">
-        <x:v>88</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="M137" s="45" t="s">
-        <x:v>242</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="N137" s="45" t="s">
-        <x:v>242</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="O137" s="45" t="s">
-        <x:v>202</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="P137" s="45" t="s">
-        <x:v>205</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q137" s="41" t="s">
-        <x:v>117</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="R137" s="41"/>
       <x:c r="S137" s="41"/>
@@ -4788,22 +4898,22 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="L138" s="45" t="s">
-        <x:v>244</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="M138" s="45" t="s">
-        <x:v>244</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="N138" s="45" t="s">
-        <x:v>244</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="O138" s="45" t="s">
-        <x:v>245</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="P138" s="45" t="s">
-        <x:v>259</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="Q138" s="41" t="s">
-        <x:v>117</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="R138" s="41"/>
       <x:c r="S138" s="41"/>
@@ -4845,22 +4955,22 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="L139" s="45" t="s">
-        <x:v>172</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="M139" s="45" t="s">
-        <x:v>174</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="N139" s="45" t="s">
-        <x:v>174</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="O139" s="45" t="s">
-        <x:v>82</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="P139" s="45" t="s">
-        <x:v>211</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="Q139" s="41" t="s">
-        <x:v>117</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="R139" s="41"/>
       <x:c r="S139" s="41"/>
@@ -4902,22 +5012,22 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="L140" s="45" t="s">
-        <x:v>92</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="M140" s="45" t="s">
-        <x:v>94</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="N140" s="45" t="s">
-        <x:v>94</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="O140" s="45" t="s">
-        <x:v>251</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="P140" s="45" t="s">
-        <x:v>189</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="Q140" s="41" t="s">
-        <x:v>117</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="R140" s="41"/>
       <x:c r="S140" s="41"/>
@@ -4941,22 +5051,22 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="AK140" s="52" t="s">
-        <x:v>156</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="AL140" s="52" t="s">
-        <x:v>154</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="AM140" s="52" t="s">
-        <x:v>154</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="AN140" s="52" t="s">
-        <x:v>204</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="AO140" s="52" t="s">
-        <x:v>230</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="AP140" s="39" t="s">
-        <x:v>117</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="2:42">
@@ -4973,22 +5083,22 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="L141" s="45" t="s">
-        <x:v>156</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="M141" s="45" t="s">
-        <x:v>154</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="N141" s="45" t="s">
-        <x:v>154</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="O141" s="45" t="s">
-        <x:v>204</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="P141" s="45" t="s">
-        <x:v>230</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="Q141" s="41" t="s">
-        <x:v>117</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="R141" s="41"/>
       <x:c r="S141" s="41"/>
@@ -5012,22 +5122,22 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="AK141" s="52" t="s">
-        <x:v>150</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="AL141" s="52" t="s">
-        <x:v>172</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="AM141" s="52" t="s">
-        <x:v>172</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="AN141" s="52" t="s">
-        <x:v>118</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="AO141" s="52" t="s">
-        <x:v>237</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="AP141" s="39" t="s">
-        <x:v>117</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="2:42">
@@ -5044,22 +5154,22 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="L142" s="45" t="s">
-        <x:v>150</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="M142" s="45" t="s">
-        <x:v>172</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="N142" s="45" t="s">
-        <x:v>172</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="O142" s="45" t="s">
-        <x:v>118</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="P142" s="45" t="s">
-        <x:v>237</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="Q142" s="41" t="s">
-        <x:v>117</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="R142" s="41"/>
       <x:c r="S142" s="41"/>
@@ -5083,22 +5193,22 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="AK142" s="52" t="s">
-        <x:v>175</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="AL142" s="52" t="s">
-        <x:v>231</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AM142" s="52" t="s">
-        <x:v>231</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="AN142" s="52" t="s">
-        <x:v>204</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="AO142" s="52" t="s">
-        <x:v>183</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="AP142" s="39" t="s">
-        <x:v>122</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="2:42">
@@ -5115,22 +5225,22 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="L143" s="45" t="s">
-        <x:v>97</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="M143" s="45" t="s">
-        <x:v>97</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="N143" s="45" t="s">
-        <x:v>97</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="O143" s="45" t="s">
-        <x:v>85</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="P143" s="45" t="s">
-        <x:v>254</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="Q143" s="41" t="s">
-        <x:v>122</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="R143" s="41"/>
       <x:c r="S143" s="41"/>
@@ -5172,22 +5282,22 @@
         <x:v>35</x:v>
       </x:c>
       <x:c r="L144" s="45" t="s">
-        <x:v>242</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="M144" s="45" t="s">
-        <x:v>231</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="N144" s="45" t="s">
-        <x:v>231</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="O144" s="45" t="s">
-        <x:v>239</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="P144" s="45" t="s">
-        <x:v>183</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="Q144" s="41" t="s">
-        <x:v>122</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="R144" s="41"/>
       <x:c r="S144" s="41"/>
@@ -5229,22 +5339,22 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="L145" s="45" t="s">
-        <x:v>174</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="M145" s="45" t="s">
-        <x:v>231</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="N145" s="45" t="s">
-        <x:v>231</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="O145" s="45" t="s">
-        <x:v>83</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="P145" s="45" t="s">
-        <x:v>183</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="Q145" s="41" t="s">
-        <x:v>122</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="V145" s="39"/>
       <x:c r="W145" s="39"/>
@@ -5282,22 +5392,22 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="L146" s="45" t="s">
-        <x:v>175</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="M146" s="45" t="s">
-        <x:v>231</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="N146" s="45" t="s">
-        <x:v>231</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="O146" s="45" t="s">
-        <x:v>204</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="P146" s="45" t="s">
-        <x:v>183</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="Q146" s="41" t="s">
-        <x:v>122</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="R146" s="41"/>
       <x:c r="S146" s="41"/>
@@ -5336,7 +5446,7 @@
       <x:c r="I147" s="41"/>
       <x:c r="J147" s="41"/>
       <x:c r="K147" s="51" t="s">
-        <x:v>151</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="L147" s="51"/>
       <x:c r="M147" s="51"/>
@@ -5393,7 +5503,7 @@
       <x:c r="U148" s="41"/>
       <x:c r="V148" s="39"/>
       <x:c r="W148" s="43" t="s">
-        <x:v>125</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="X148" s="39"/>
       <x:c r="Y148" s="39"/>
@@ -5540,7 +5650,7 @@
     </x:row>
     <x:row r="152" spans="2:42">
       <x:c r="B152" s="49" t="s">
-        <x:v>10</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C152" s="49"/>
       <x:c r="D152" s="49"/>
@@ -5554,7 +5664,7 @@
       <x:c r="L152" s="49"/>
       <x:c r="M152" s="49"/>
       <x:c r="N152" s="49" t="s">
-        <x:v>25</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="O152" s="49"/>
       <x:c r="P152" s="49"/>
@@ -5568,7 +5678,7 @@
       <x:c r="Z152" s="50"/>
       <x:c r="AA152" s="50"/>
       <x:c r="AB152" s="50" t="s">
-        <x:v>112</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="AC152" s="50"/>
       <x:c r="AD152" s="50"/>
@@ -5587,7 +5697,7 @@
     </x:row>
     <x:row r="153" spans="2:42">
       <x:c r="B153" s="49" t="s">
-        <x:v>30</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C153" s="49"/>
       <x:c r="D153" s="49"/>
@@ -5603,7 +5713,7 @@
       <x:c r="N153" s="41"/>
       <x:c r="O153" s="41"/>
       <x:c r="P153" s="49" t="s">
-        <x:v>81</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="Q153" s="49"/>
       <x:c r="R153" s="49"/>
@@ -5617,7 +5727,7 @@
       <x:c r="Z153" s="39"/>
       <x:c r="AA153" s="39"/>
       <x:c r="AB153" s="50" t="s">
-        <x:v>137</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="AC153" s="50"/>
       <x:c r="AD153" s="50"/>
@@ -5636,7 +5746,7 @@
     </x:row>
     <x:row r="154" spans="2:42">
       <x:c r="B154" s="49" t="s">
-        <x:v>105</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C154" s="49"/>
       <x:c r="D154" s="49"/>
@@ -5664,7 +5774,7 @@
       <x:c r="Z154" s="39"/>
       <x:c r="AA154" s="39"/>
       <x:c r="AB154" s="50" t="s">
-        <x:v>169</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="AC154" s="50"/>
       <x:c r="AD154" s="50"/>
@@ -5683,7 +5793,7 @@
     </x:row>
     <x:row r="155" spans="2:42">
       <x:c r="B155" s="49" t="s">
-        <x:v>32</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C155" s="49"/>
       <x:c r="D155" s="49"/>
@@ -5711,7 +5821,7 @@
       <x:c r="Z155" s="39"/>
       <x:c r="AA155" s="39"/>
       <x:c r="AB155" s="50" t="s">
-        <x:v>153</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="AC155" s="50"/>
       <x:c r="AD155" s="50"/>
@@ -5730,7 +5840,7 @@
     </x:row>
     <x:row r="156" spans="2:22">
       <x:c r="B156" s="49" t="s">
-        <x:v>47</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="C156" s="49"/>
       <x:c r="D156" s="49"/>
@@ -5755,7 +5865,7 @@
     </x:row>
     <x:row r="157" spans="2:22">
       <x:c r="B157" s="49" t="s">
-        <x:v>264</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C157" s="49"/>
       <x:c r="D157" s="49"/>
@@ -5780,7 +5890,7 @@
     </x:row>
     <x:row r="158" spans="2:22">
       <x:c r="B158" s="49" t="s">
-        <x:v>104</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C158" s="49"/>
       <x:c r="D158" s="49"/>
@@ -5805,7 +5915,7 @@
     </x:row>
     <x:row r="159" spans="2:22">
       <x:c r="B159" s="49" t="s">
-        <x:v>55</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C159" s="49"/>
       <x:c r="D159" s="49"/>
@@ -5830,7 +5940,7 @@
     </x:row>
     <x:row r="160" spans="2:22">
       <x:c r="B160" s="49" t="s">
-        <x:v>106</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C160" s="49"/>
       <x:c r="D160" s="49"/>
@@ -5855,7 +5965,7 @@
     </x:row>
     <x:row r="161" spans="2:13">
       <x:c r="B161" s="49" t="s">
-        <x:v>38</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C161" s="49"/>
       <x:c r="D161" s="49"/>
@@ -5872,7 +5982,7 @@
     <x:row r="162" spans="2:27">
       <x:c r="B162" s="41"/>
       <x:c r="C162" s="49" t="s">
-        <x:v>91</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="D162" s="49"/>
       <x:c r="E162" s="49"/>
@@ -6089,22 +6199,22 @@
       <x:c r="T169" s="41"/>
       <x:c r="U169" s="41"/>
       <x:c r="V169" s="30" t="s">
-        <x:v>120</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="W169" s="45" t="s">
-        <x:v>222</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="X169" s="45" t="s">
-        <x:v>242</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="Y169" s="45" t="s">
-        <x:v>242</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="Z169" s="45" t="s">
-        <x:v>199</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="AA169" s="45" t="s">
-        <x:v>205</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="2:28">
@@ -6132,22 +6242,22 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="W170" s="45" t="s">
-        <x:v>0</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="X170" s="45" t="s">
-        <x:v>242</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="Y170" s="45" t="s">
-        <x:v>242</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="Z170" s="45" t="s">
-        <x:v>191</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="AA170" s="45" t="s">
-        <x:v>205</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="AB170" s="6" t="s">
-        <x:v>117</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="2:27">
@@ -6544,7 +6654,7 @@
     </x:row>
     <x:row r="185" spans="2:27">
       <x:c r="B185" s="49" t="s">
-        <x:v>164</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C185" s="49"/>
       <x:c r="D185" s="49"/>
@@ -6558,7 +6668,7 @@
       <x:c r="L185" s="49"/>
       <x:c r="M185" s="49"/>
       <x:c r="N185" s="49" t="s">
-        <x:v>42</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="O185" s="49"/>
       <x:c r="P185" s="49"/>
@@ -6576,7 +6686,7 @@
     </x:row>
     <x:row r="186" spans="2:27">
       <x:c r="B186" s="49" t="s">
-        <x:v>158</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="C186" s="49"/>
       <x:c r="D186" s="49"/>
@@ -6590,7 +6700,7 @@
       <x:c r="L186" s="49"/>
       <x:c r="M186" s="49"/>
       <x:c r="N186" s="49" t="s">
-        <x:v>26</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="O186" s="49"/>
       <x:c r="P186" s="49"/>
@@ -6608,7 +6718,7 @@
     </x:row>
     <x:row r="187" spans="2:27">
       <x:c r="B187" s="49" t="s">
-        <x:v>52</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C187" s="49"/>
       <x:c r="D187" s="49"/>
@@ -6622,7 +6732,7 @@
       <x:c r="L187" s="49"/>
       <x:c r="M187" s="49"/>
       <x:c r="N187" s="49" t="s">
-        <x:v>8</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="O187" s="49"/>
       <x:c r="P187" s="49"/>
@@ -6640,7 +6750,7 @@
     </x:row>
     <x:row r="188" spans="2:27">
       <x:c r="B188" s="49" t="s">
-        <x:v>9</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C188" s="49"/>
       <x:c r="D188" s="49"/>
@@ -6654,7 +6764,7 @@
       <x:c r="L188" s="49"/>
       <x:c r="M188" s="49"/>
       <x:c r="N188" s="49" t="s">
-        <x:v>139</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="O188" s="49"/>
       <x:c r="P188" s="49"/>
@@ -6673,7 +6783,7 @@
     <x:row r="191" spans="2:17">
       <x:c r="B191" s="41"/>
       <x:c r="C191" s="49" t="s">
-        <x:v>100</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="D191" s="49"/>
       <x:c r="E191" s="49"/>
@@ -6737,22 +6847,22 @@
       <x:c r="I194" s="41"/>
       <x:c r="J194" s="41"/>
       <x:c r="K194" s="30" t="s">
-        <x:v>120</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="L194" s="45" t="s">
-        <x:v>222</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="M194" s="45" t="s">
-        <x:v>242</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="N194" s="45" t="s">
-        <x:v>242</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="O194" s="45" t="s">
-        <x:v>199</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="P194" s="45" t="s">
-        <x:v>205</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q194" s="41"/>
     </x:row>
@@ -6770,22 +6880,22 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="L195" s="45" t="s">
-        <x:v>96</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="M195" s="45" t="s">
-        <x:v>242</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="N195" s="45" t="s">
-        <x:v>242</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="O195" s="45" t="s">
-        <x:v>178</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="P195" s="45" t="s">
-        <x:v>205</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q195" s="41" t="s">
-        <x:v>117</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="2:17">
@@ -6802,22 +6912,22 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="L196" s="45" t="s">
-        <x:v>86</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="M196" s="45" t="s">
-        <x:v>244</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="N196" s="45" t="s">
-        <x:v>244</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="O196" s="45" t="s">
-        <x:v>213</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="P196" s="45" t="s">
-        <x:v>259</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="Q196" s="41" t="s">
-        <x:v>117</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="2:17">
@@ -6834,22 +6944,22 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="L197" s="45" t="s">
-        <x:v>188</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="M197" s="45" t="s">
-        <x:v>174</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="N197" s="45" t="s">
-        <x:v>174</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="O197" s="45" t="s">
-        <x:v>193</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="P197" s="45" t="s">
-        <x:v>211</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="Q197" s="41" t="s">
-        <x:v>117</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="2:17">
@@ -6866,22 +6976,22 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="L198" s="45" t="s">
-        <x:v>209</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="M198" s="45" t="s">
-        <x:v>94</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="N198" s="45" t="s">
-        <x:v>94</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="O198" s="45" t="s">
-        <x:v>126</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="P198" s="45" t="s">
-        <x:v>189</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="Q198" s="41" t="s">
-        <x:v>117</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="2:17">
@@ -6898,22 +7008,22 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="L199" s="45" t="s">
-        <x:v>197</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="M199" s="45" t="s">
-        <x:v>94</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="N199" s="45" t="s">
-        <x:v>94</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="O199" s="45" t="s">
-        <x:v>187</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="P199" s="45" t="s">
-        <x:v>189</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="Q199" s="41" t="s">
-        <x:v>122</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="2:17">
@@ -7098,7 +7208,7 @@
     </x:row>
     <x:row r="210" spans="2:17">
       <x:c r="B210" s="49" t="s">
-        <x:v>166</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C210" s="49"/>
       <x:c r="D210" s="49"/>
@@ -7118,7 +7228,7 @@
     </x:row>
     <x:row r="211" spans="2:17">
       <x:c r="B211" s="49" t="s">
-        <x:v>39</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C211" s="49"/>
       <x:c r="D211" s="49"/>
@@ -7138,7 +7248,7 @@
     </x:row>
     <x:row r="212" spans="2:17">
       <x:c r="B212" s="49" t="s">
-        <x:v>15</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C212" s="49"/>
       <x:c r="D212" s="49"/>
@@ -7158,7 +7268,7 @@
     </x:row>
     <x:row r="213" spans="2:17">
       <x:c r="B213" s="49" t="s">
-        <x:v>7</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C213" s="49"/>
       <x:c r="D213" s="49"/>
@@ -7178,7 +7288,7 @@
     </x:row>
     <x:row r="214" spans="2:17">
       <x:c r="B214" s="49" t="s">
-        <x:v>21</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C214" s="49"/>
       <x:c r="D214" s="49"/>
@@ -7208,7 +7318,7 @@
     <x:row r="216" spans="2:17">
       <x:c r="B216" s="39"/>
       <x:c r="C216" s="50" t="s">
-        <x:v>5</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D216" s="50"/>
       <x:c r="E216" s="50"/>
@@ -7290,22 +7400,22 @@
       <x:c r="I220" s="39"/>
       <x:c r="J220" s="39"/>
       <x:c r="K220" s="44" t="s">
-        <x:v>120</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="L220" s="52" t="s">
-        <x:v>222</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="M220" s="52" t="s">
-        <x:v>242</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="N220" s="52" t="s">
-        <x:v>242</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="O220" s="52" t="s">
-        <x:v>199</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="P220" s="52" t="s">
-        <x:v>205</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q220" s="39"/>
     </x:row>
@@ -7323,22 +7433,22 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="L221" s="52" t="s">
-        <x:v>161</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="M221" s="52" t="s">
-        <x:v>242</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="N221" s="52" t="s">
-        <x:v>242</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="O221" s="52" t="s">
-        <x:v>217</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="P221" s="52" t="s">
-        <x:v>205</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="Q221" s="39" t="s">
-        <x:v>117</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="2:17">
@@ -7355,22 +7465,22 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="L222" s="52" t="s">
-        <x:v>1</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="M222" s="52" t="s">
-        <x:v>244</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="N222" s="52" t="s">
-        <x:v>244</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="O222" s="52" t="s">
-        <x:v>181</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="P222" s="52" t="s">
-        <x:v>259</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="Q222" s="39" t="s">
-        <x:v>122</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="223" spans="2:17">
@@ -7387,22 +7497,22 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="L223" s="52" t="s">
-        <x:v>269</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="M223" s="52" t="s">
-        <x:v>174</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="N223" s="52" t="s">
-        <x:v>174</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="O223" s="52" t="s">
-        <x:v>196</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="P223" s="52" t="s">
-        <x:v>211</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="Q223" s="39" t="s">
-        <x:v>122</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="224" spans="2:17">
@@ -7452,7 +7562,7 @@
       <x:c r="I226" s="39"/>
       <x:c r="J226" s="39"/>
       <x:c r="K226" s="50" t="s">
-        <x:v>115</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="L226" s="50"/>
       <x:c r="M226" s="50"/>
@@ -7643,7 +7753,7 @@
     </x:row>
     <x:row r="237" spans="2:17">
       <x:c r="B237" s="50" t="s">
-        <x:v>80</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C237" s="50"/>
       <x:c r="D237" s="50"/>
@@ -7663,7 +7773,7 @@
     </x:row>
     <x:row r="238" spans="2:17">
       <x:c r="B238" s="50" t="s">
-        <x:v>43</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C238" s="50"/>
       <x:c r="D238" s="50"/>
@@ -7683,7 +7793,7 @@
     </x:row>
     <x:row r="239" spans="2:17">
       <x:c r="B239" s="50" t="s">
-        <x:v>31</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C239" s="50"/>
       <x:c r="D239" s="50"/>
@@ -7703,7 +7813,7 @@
     </x:row>
     <x:row r="241" spans="2:15">
       <x:c r="B241" s="49" t="s">
-        <x:v>232</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="C241" s="49"/>
       <x:c r="K241" s="1"/>
@@ -7735,16 +7845,16 @@
     <x:row r="245" spans="2:18">
       <x:c r="B245" s="1"/>
       <x:c r="K245" s="30" t="s">
-        <x:v>120</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="L245" s="45" t="s">
-        <x:v>222</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="M245" s="45"/>
       <x:c r="N245" s="45"/>
       <x:c r="O245" s="45"/>
       <x:c r="P245" s="45" t="s">
-        <x:v>199</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="Q245" s="45"/>
       <x:c r="R245" s="45"/>
@@ -7755,18 +7865,18 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="L246" s="45" t="s">
-        <x:v>228</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="M246" s="45"/>
       <x:c r="N246" s="45"/>
       <x:c r="O246" s="45"/>
       <x:c r="P246" s="45" t="s">
-        <x:v>182</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="Q246" s="45"/>
       <x:c r="R246" s="45"/>
       <x:c r="S246" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="247" spans="2:19">
@@ -7775,18 +7885,18 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="L247" s="45" t="s">
-        <x:v>119</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="M247" s="45"/>
       <x:c r="N247" s="45"/>
       <x:c r="O247" s="45"/>
       <x:c r="P247" s="45" t="s">
-        <x:v>253</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="Q247" s="45"/>
       <x:c r="R247" s="45"/>
       <x:c r="S247" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="248" spans="2:19">
@@ -7795,18 +7905,18 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="L248" s="45" t="s">
-        <x:v>227</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="M248" s="45"/>
       <x:c r="N248" s="45"/>
       <x:c r="O248" s="45"/>
       <x:c r="P248" s="45" t="s">
-        <x:v>179</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="Q248" s="45"/>
       <x:c r="R248" s="45"/>
       <x:c r="S248" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="2:19">
@@ -7815,18 +7925,18 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="L249" s="45" t="s">
-        <x:v>110</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="M249" s="45"/>
       <x:c r="N249" s="45"/>
       <x:c r="O249" s="45"/>
       <x:c r="P249" s="45" t="s">
-        <x:v>127</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="Q249" s="45"/>
       <x:c r="R249" s="45"/>
       <x:c r="S249" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="250" spans="2:19">
@@ -7835,18 +7945,18 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="L250" s="45" t="s">
-        <x:v>108</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="M250" s="45"/>
       <x:c r="N250" s="45"/>
       <x:c r="O250" s="45"/>
       <x:c r="P250" s="45" t="s">
-        <x:v>95</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="Q250" s="45"/>
       <x:c r="R250" s="45"/>
       <x:c r="S250" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="251" spans="2:19">
@@ -7855,18 +7965,18 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="L251" s="45" t="s">
-        <x:v>176</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="M251" s="45"/>
       <x:c r="N251" s="45"/>
       <x:c r="O251" s="45"/>
       <x:c r="P251" s="45" t="s">
-        <x:v>185</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="Q251" s="45"/>
       <x:c r="R251" s="45"/>
       <x:c r="S251" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="252" spans="2:19">
@@ -7875,18 +7985,18 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="L252" s="45" t="s">
-        <x:v>138</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="M252" s="45"/>
       <x:c r="N252" s="45"/>
       <x:c r="O252" s="45"/>
       <x:c r="P252" s="45" t="s">
-        <x:v>177</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="Q252" s="45"/>
       <x:c r="R252" s="45"/>
       <x:c r="S252" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="253" spans="2:19">
@@ -7895,18 +8005,18 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="L253" s="45" t="s">
-        <x:v>223</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="M253" s="45"/>
       <x:c r="N253" s="45"/>
       <x:c r="O253" s="45"/>
       <x:c r="P253" s="45" t="s">
-        <x:v>253</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="Q253" s="45"/>
       <x:c r="R253" s="45"/>
       <x:c r="S253" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="254" spans="2:15">
@@ -7946,7 +8056,7 @@
     </x:row>
     <x:row r="259" spans="2:17">
       <x:c r="B259" s="49" t="s">
-        <x:v>6</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C259" s="49"/>
       <x:c r="D259" s="49"/>
@@ -7955,7 +8065,7 @@
       <x:c r="G259" s="49"/>
       <x:c r="H259" s="49"/>
       <x:c r="K259" s="49" t="s">
-        <x:v>163</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="L259" s="49"/>
       <x:c r="M259" s="49"/>
@@ -7966,7 +8076,7 @@
     </x:row>
     <x:row r="260" spans="2:17">
       <x:c r="B260" s="49" t="s">
-        <x:v>50</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C260" s="49"/>
       <x:c r="D260" s="49"/>
@@ -7975,7 +8085,7 @@
       <x:c r="G260" s="49"/>
       <x:c r="H260" s="49"/>
       <x:c r="K260" s="49" t="s">
-        <x:v>130</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="L260" s="49"/>
       <x:c r="M260" s="49"/>
@@ -7986,7 +8096,7 @@
     </x:row>
     <x:row r="261" spans="2:17">
       <x:c r="B261" s="49" t="s">
-        <x:v>14</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C261" s="49"/>
       <x:c r="D261" s="49"/>
@@ -7995,7 +8105,7 @@
       <x:c r="G261" s="49"/>
       <x:c r="H261" s="49"/>
       <x:c r="K261" s="49" t="s">
-        <x:v>155</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="L261" s="49"/>
       <x:c r="M261" s="49"/>
@@ -8006,7 +8116,7 @@
     </x:row>
     <x:row r="262" spans="2:17">
       <x:c r="B262" s="49" t="s">
-        <x:v>265</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C262" s="49"/>
       <x:c r="D262" s="49"/>
@@ -8015,7 +8125,7 @@
       <x:c r="G262" s="49"/>
       <x:c r="H262" s="49"/>
       <x:c r="K262" s="49" t="s">
-        <x:v>152</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="L262" s="49"/>
       <x:c r="M262" s="49"/>
@@ -8026,7 +8136,7 @@
     </x:row>
     <x:row r="263" spans="2:15">
       <x:c r="B263" s="49" t="s">
-        <x:v>53</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C263" s="49"/>
       <x:c r="D263" s="49"/>
@@ -8041,7 +8151,7 @@
     </x:row>
     <x:row r="264" spans="2:15">
       <x:c r="B264" s="49" t="s">
-        <x:v>24</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C264" s="49"/>
       <x:c r="D264" s="49"/>
@@ -8062,7 +8172,7 @@
     </x:row>
     <x:row r="265" spans="2:15">
       <x:c r="B265" s="49" t="s">
-        <x:v>16</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C265" s="49"/>
       <x:c r="D265" s="49"/>
@@ -8077,7 +8187,7 @@
     </x:row>
     <x:row r="266" spans="2:15">
       <x:c r="B266" s="49" t="s">
-        <x:v>165</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C266" s="49"/>
       <x:c r="D266" s="49"/>
@@ -8127,7 +8237,7 @@
     </x:row>
     <x:row r="272" spans="2:15">
       <x:c r="B272" s="49" t="s">
-        <x:v>255</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="C272" s="49"/>
       <x:c r="K272" s="1"/>
@@ -8137,7 +8247,7 @@
     </x:row>
     <x:row r="273" spans="2:15">
       <x:c r="B273" s="49" t="s">
-        <x:v>111</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C273" s="49"/>
       <x:c r="D273" s="49"/>
@@ -8152,7 +8262,7 @@
     </x:row>
     <x:row r="274" spans="2:15">
       <x:c r="B274" s="49" t="s">
-        <x:v>116</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C274" s="49"/>
       <x:c r="D274" s="49"/>
@@ -8430,10 +8540,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet5"/>
-  <x:dimension ref="B2:N26"/>
+  <x:dimension ref="B2:Q65"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="F6" activeCellId="0" sqref="F6:F6"/>
+    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="K59" activeCellId="0" sqref="K59:Q59"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -8444,10 +8554,10 @@
   <x:sheetData>
     <x:row r="2" spans="2:14">
       <x:c r="B2" s="8" t="s">
-        <x:v>195</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="K2" s="60" t="s">
-        <x:v>184</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="L2" s="60"/>
       <x:c r="M2" s="60"/>
@@ -8456,28 +8566,28 @@
     <x:row r="3" spans="2:14">
       <x:c r="B3" s="33"/>
       <x:c r="C3" s="33" t="s">
-        <x:v>60</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="D3" s="33" t="s">
-        <x:v>62</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="E3" s="33" t="s">
-        <x:v>58</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="F3" s="33" t="s">
-        <x:v>56</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="G3" s="33" t="s">
-        <x:v>61</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="H3" s="33" t="s">
-        <x:v>57</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="I3" s="33" t="s">
-        <x:v>59</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="K3" s="65" t="s">
-        <x:v>40</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="L3" s="65"/>
       <x:c r="M3" s="65"/>
@@ -8485,7 +8595,7 @@
     </x:row>
     <x:row r="4" spans="2:14">
       <x:c r="B4" s="33" t="s">
-        <x:v>70</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C4" s="33">
         <x:v>22</x:v>
@@ -8515,7 +8625,7 @@
     </x:row>
     <x:row r="5" spans="2:14">
       <x:c r="B5" s="33" t="s">
-        <x:v>68</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C5" s="33">
         <x:v>29</x:v>
@@ -8545,7 +8655,7 @@
     </x:row>
     <x:row r="6" spans="2:14">
       <x:c r="B6" s="33" t="s">
-        <x:v>67</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C6" s="33">
         <x:v>5</x:v>
@@ -8581,10 +8691,10 @@
     </x:row>
     <x:row r="8" spans="2:14">
       <x:c r="B8" s="33" t="s">
-        <x:v>66</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C8" s="62" t="s">
-        <x:v>28</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="D8" s="63"/>
       <x:c r="E8" s="63"/>
@@ -8599,7 +8709,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C9" s="62" t="s">
-        <x:v>147</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="D9" s="63"/>
       <x:c r="E9" s="63"/>
@@ -8614,7 +8724,7 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="C10" s="62" t="s">
-        <x:v>220</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="D10" s="63"/>
       <x:c r="E10" s="63"/>
@@ -8633,18 +8743,19 @@
       <x:c r="E11" s="63"/>
       <x:c r="F11" s="64"/>
     </x:row>
-    <x:row r="12" spans="2:6">
+    <x:row r="12" spans="2:10">
       <x:c r="B12" s="35">
         <x:v>25</x:v>
       </x:c>
       <x:c r="C12" s="62" t="s">
-        <x:v>35</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D12" s="63"/>
       <x:c r="E12" s="63"/>
       <x:c r="F12" s="64"/>
-    </x:row>
-    <x:row r="13" spans="2:6">
+      <x:c r="J12"/>
+    </x:row>
+    <x:row r="13" spans="2:13">
       <x:c r="B13" s="35">
         <x:v>26</x:v>
       </x:c>
@@ -8652,19 +8763,39 @@
       <x:c r="D13" s="63"/>
       <x:c r="E13" s="63"/>
       <x:c r="F13" s="64"/>
-    </x:row>
-    <x:row r="14" spans="2:6">
+      <x:c r="J13"/>
+      <x:c r="K13" s="46" t="s">
+        <x:v>288</x:v>
+      </x:c>
+      <x:c r="L13" s="47"/>
+      <x:c r="M13" s="48"/>
+    </x:row>
+    <x:row r="14" spans="2:17">
       <x:c r="B14" s="35">
         <x:v>27</x:v>
       </x:c>
       <x:c r="C14" s="62" t="s">
-        <x:v>236</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="D14" s="63"/>
       <x:c r="E14" s="63"/>
       <x:c r="F14" s="64"/>
-    </x:row>
-    <x:row r="15" spans="2:6">
+      <x:c r="J14"/>
+      <x:c r="K14" s="46" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="L14" s="47"/>
+      <x:c r="M14" s="47"/>
+      <x:c r="N14" s="48"/>
+      <x:c r="O14" s="30" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="P14" s="46" t="s">
+        <x:v>278</x:v>
+      </x:c>
+      <x:c r="Q14" s="48"/>
+    </x:row>
+    <x:row r="15" spans="2:17">
       <x:c r="B15" s="35">
         <x:v>28</x:v>
       </x:c>
@@ -8672,19 +8803,41 @@
       <x:c r="D15" s="63"/>
       <x:c r="E15" s="63"/>
       <x:c r="F15" s="64"/>
-    </x:row>
-    <x:row r="16" spans="2:6">
+      <x:c r="J15"/>
+      <x:c r="K15" s="46" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L15" s="47"/>
+      <x:c r="M15" s="47"/>
+      <x:c r="N15" s="48"/>
+      <x:c r="O15" s="30" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="P15" s="46"/>
+      <x:c r="Q15" s="48"/>
+    </x:row>
+    <x:row r="16" spans="2:17">
       <x:c r="B16" s="35">
         <x:v>29</x:v>
       </x:c>
       <x:c r="C16" s="62" t="s">
-        <x:v>140</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="D16" s="63"/>
       <x:c r="E16" s="63"/>
       <x:c r="F16" s="64"/>
-    </x:row>
-    <x:row r="17" spans="2:6">
+      <x:c r="J16"/>
+      <x:c r="K16" s="46" t="s">
+        <x:v>291</x:v>
+      </x:c>
+      <x:c r="L16" s="47"/>
+      <x:c r="M16" s="47"/>
+      <x:c r="N16" s="47"/>
+      <x:c r="O16" s="47"/>
+      <x:c r="P16" s="47"/>
+      <x:c r="Q16" s="48"/>
+    </x:row>
+    <x:row r="17" spans="2:17">
       <x:c r="B17" s="35">
         <x:v>30</x:v>
       </x:c>
@@ -8692,19 +8845,45 @@
       <x:c r="D17" s="63"/>
       <x:c r="E17" s="63"/>
       <x:c r="F17" s="64"/>
-    </x:row>
-    <x:row r="18" spans="2:6">
+      <x:c r="J17"/>
+      <x:c r="K17" s="30"/>
+      <x:c r="L17" s="46" t="s">
+        <x:v>299</x:v>
+      </x:c>
+      <x:c r="M17" s="47"/>
+      <x:c r="N17" s="48"/>
+      <x:c r="O17" s="30" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="P17" s="46" t="s">
+        <x:v>306</x:v>
+      </x:c>
+      <x:c r="Q17" s="48"/>
+    </x:row>
+    <x:row r="18" spans="2:17">
       <x:c r="B18" s="35">
         <x:v>31</x:v>
       </x:c>
       <x:c r="C18" s="62" t="s">
-        <x:v>142</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="D18" s="63"/>
       <x:c r="E18" s="63"/>
       <x:c r="F18" s="64"/>
-    </x:row>
-    <x:row r="19" spans="2:6">
+      <x:c r="J18"/>
+      <x:c r="K18" s="30"/>
+      <x:c r="L18" s="46" t="s">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="M18" s="47"/>
+      <x:c r="N18" s="48"/>
+      <x:c r="O18" s="30" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="P18" s="46"/>
+      <x:c r="Q18" s="48"/>
+    </x:row>
+    <x:row r="19" spans="2:17">
       <x:c r="B19" s="35">
         <x:v>1</x:v>
       </x:c>
@@ -8712,19 +8891,39 @@
       <x:c r="D19" s="63"/>
       <x:c r="E19" s="63"/>
       <x:c r="F19" s="64"/>
-    </x:row>
-    <x:row r="20" spans="2:6">
+      <x:c r="K19" s="46" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="L19" s="47"/>
+      <x:c r="M19" s="47"/>
+      <x:c r="N19" s="47"/>
+      <x:c r="O19" s="47"/>
+      <x:c r="P19" s="47"/>
+      <x:c r="Q19" s="48"/>
+    </x:row>
+    <x:row r="20" spans="2:17">
       <x:c r="B20" s="35">
         <x:v>2</x:v>
       </x:c>
       <x:c r="C20" s="62" t="s">
-        <x:v>173</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D20" s="63"/>
       <x:c r="E20" s="63"/>
       <x:c r="F20" s="64"/>
-    </x:row>
-    <x:row r="21" spans="2:6">
+      <x:c r="K20" s="30"/>
+      <x:c r="L20" s="46" t="s">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="M20" s="47"/>
+      <x:c r="N20" s="48"/>
+      <x:c r="O20" s="30" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="P20" s="46"/>
+      <x:c r="Q20" s="48"/>
+    </x:row>
+    <x:row r="21" spans="2:17">
       <x:c r="B21" s="35">
         <x:v>3</x:v>
       </x:c>
@@ -8732,19 +8931,41 @@
       <x:c r="D21" s="63"/>
       <x:c r="E21" s="63"/>
       <x:c r="F21" s="64"/>
-    </x:row>
-    <x:row r="22" spans="2:6">
+      <x:c r="K21" s="30"/>
+      <x:c r="L21" s="46" t="s">
+        <x:v>275</x:v>
+      </x:c>
+      <x:c r="M21" s="47"/>
+      <x:c r="N21" s="48"/>
+      <x:c r="O21" s="30" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="P21" s="46"/>
+      <x:c r="Q21" s="48"/>
+    </x:row>
+    <x:row r="22" spans="2:17">
       <x:c r="B22" s="35">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C22" s="62" t="s">
-        <x:v>159</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="D22" s="63"/>
       <x:c r="E22" s="63"/>
       <x:c r="F22" s="64"/>
-    </x:row>
-    <x:row r="23" spans="2:6">
+      <x:c r="K22" s="30"/>
+      <x:c r="L22" s="46" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="M22" s="47"/>
+      <x:c r="N22" s="48"/>
+      <x:c r="O22" s="30" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="P22" s="46"/>
+      <x:c r="Q22" s="48"/>
+    </x:row>
+    <x:row r="23" spans="2:17">
       <x:c r="B23" s="35">
         <x:v>5</x:v>
       </x:c>
@@ -8752,8 +8973,19 @@
       <x:c r="D23" s="63"/>
       <x:c r="E23" s="63"/>
       <x:c r="F23" s="64"/>
-    </x:row>
-    <x:row r="24" spans="2:6">
+      <x:c r="K23" s="30"/>
+      <x:c r="L23" s="46" t="s">
+        <x:v>298</x:v>
+      </x:c>
+      <x:c r="M23" s="47"/>
+      <x:c r="N23" s="48"/>
+      <x:c r="O23" s="30" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="P23" s="46"/>
+      <x:c r="Q23" s="48"/>
+    </x:row>
+    <x:row r="24" spans="2:17">
       <x:c r="B24" s="35">
         <x:v>6</x:v>
       </x:c>
@@ -8761,8 +8993,19 @@
       <x:c r="D24" s="63"/>
       <x:c r="E24" s="63"/>
       <x:c r="F24" s="64"/>
-    </x:row>
-    <x:row r="25" spans="2:6">
+      <x:c r="K24" s="30"/>
+      <x:c r="L24" s="46" t="s">
+        <x:v>308</x:v>
+      </x:c>
+      <x:c r="M24" s="47"/>
+      <x:c r="N24" s="48"/>
+      <x:c r="O24" s="30" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="P24" s="46"/>
+      <x:c r="Q24" s="48"/>
+    </x:row>
+    <x:row r="25" spans="2:17">
       <x:c r="B25" s="35">
         <x:v>7</x:v>
       </x:c>
@@ -8770,8 +9013,19 @@
       <x:c r="D25" s="63"/>
       <x:c r="E25" s="63"/>
       <x:c r="F25" s="64"/>
-    </x:row>
-    <x:row r="26" spans="2:6">
+      <x:c r="K25" s="30"/>
+      <x:c r="L25" s="46" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="M25" s="47"/>
+      <x:c r="N25" s="48"/>
+      <x:c r="O25" s="30" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="P25" s="46"/>
+      <x:c r="Q25" s="48"/>
+    </x:row>
+    <x:row r="26" spans="2:17">
       <x:c r="B26" s="35">
         <x:v>8</x:v>
       </x:c>
@@ -8779,9 +9033,533 @@
       <x:c r="D26" s="63"/>
       <x:c r="E26" s="63"/>
       <x:c r="F26" s="64"/>
+      <x:c r="K26" s="30"/>
+      <x:c r="L26" s="46" t="s">
+        <x:v>318</x:v>
+      </x:c>
+      <x:c r="M26" s="47"/>
+      <x:c r="N26" s="48"/>
+      <x:c r="O26" s="30" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="P26" s="46"/>
+      <x:c r="Q26" s="48"/>
+    </x:row>
+    <x:row r="27" spans="11:17">
+      <x:c r="K27" s="46" t="s">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c r="L27" s="47"/>
+      <x:c r="M27" s="47"/>
+      <x:c r="N27" s="47"/>
+      <x:c r="O27" s="47"/>
+      <x:c r="P27" s="47"/>
+      <x:c r="Q27" s="48"/>
+    </x:row>
+    <x:row r="28" spans="11:17">
+      <x:c r="K28" s="30"/>
+      <x:c r="L28" s="46" t="s">
+        <x:v>295</x:v>
+      </x:c>
+      <x:c r="M28" s="47"/>
+      <x:c r="N28" s="48"/>
+      <x:c r="O28" s="30" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="P28" s="46"/>
+      <x:c r="Q28" s="48"/>
+    </x:row>
+    <x:row r="29" spans="11:17">
+      <x:c r="K29" s="30"/>
+      <x:c r="L29" s="46" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="M29" s="47"/>
+      <x:c r="N29" s="48"/>
+      <x:c r="O29" s="30" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="P29" s="46"/>
+      <x:c r="Q29" s="48"/>
+    </x:row>
+    <x:row r="30" spans="11:17">
+      <x:c r="K30" s="46" t="s">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="L30" s="47"/>
+      <x:c r="M30" s="47"/>
+      <x:c r="N30" s="47"/>
+      <x:c r="O30" s="47"/>
+      <x:c r="P30" s="47"/>
+      <x:c r="Q30" s="48"/>
+    </x:row>
+    <x:row r="31" spans="11:17">
+      <x:c r="K31" s="30"/>
+      <x:c r="L31" s="46" t="s">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="M31" s="47"/>
+      <x:c r="N31" s="48"/>
+      <x:c r="O31" s="30" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="P31" s="46"/>
+      <x:c r="Q31" s="48"/>
+    </x:row>
+    <x:row r="32" spans="11:17">
+      <x:c r="K32" s="30"/>
+      <x:c r="L32" s="46" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="M32" s="47"/>
+      <x:c r="N32" s="48"/>
+      <x:c r="O32" s="30" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="P32" s="46"/>
+      <x:c r="Q32" s="48"/>
+    </x:row>
+    <x:row r="33" spans="11:17">
+      <x:c r="K33" s="30"/>
+      <x:c r="L33" s="46" t="s">
+        <x:v>315</x:v>
+      </x:c>
+      <x:c r="M33" s="47"/>
+      <x:c r="N33" s="48"/>
+      <x:c r="O33" s="30" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="P33" s="46"/>
+      <x:c r="Q33" s="48"/>
+    </x:row>
+    <x:row r="34" spans="11:17">
+      <x:c r="K34" s="30"/>
+      <x:c r="L34" s="46" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="M34" s="47"/>
+      <x:c r="N34" s="48"/>
+      <x:c r="O34" s="30" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="P34" s="46"/>
+      <x:c r="Q34" s="48"/>
+    </x:row>
+    <x:row r="35" spans="11:17">
+      <x:c r="K35" s="46" t="s">
+        <x:v>280</x:v>
+      </x:c>
+      <x:c r="L35" s="47"/>
+      <x:c r="M35" s="47"/>
+      <x:c r="N35" s="47"/>
+      <x:c r="O35" s="47"/>
+      <x:c r="P35" s="47"/>
+      <x:c r="Q35" s="48"/>
+    </x:row>
+    <x:row r="36" spans="11:17">
+      <x:c r="K36" s="30"/>
+      <x:c r="L36" s="46" t="s">
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="M36" s="47"/>
+      <x:c r="N36" s="48"/>
+      <x:c r="O36" s="30" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="P36" s="46"/>
+      <x:c r="Q36" s="48"/>
+    </x:row>
+    <x:row r="37" spans="11:17">
+      <x:c r="K37" s="30"/>
+      <x:c r="L37" s="46" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="M37" s="47"/>
+      <x:c r="N37" s="48"/>
+      <x:c r="O37" s="30" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="P37" s="46"/>
+      <x:c r="Q37" s="48"/>
+    </x:row>
+    <x:row r="38" spans="11:17">
+      <x:c r="K38" s="46" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="L38" s="47"/>
+      <x:c r="M38" s="47"/>
+      <x:c r="N38" s="47"/>
+      <x:c r="O38" s="47"/>
+      <x:c r="P38" s="47"/>
+      <x:c r="Q38" s="48"/>
+    </x:row>
+    <x:row r="39" spans="11:17">
+      <x:c r="K39" s="30"/>
+      <x:c r="L39" s="46" t="s">
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="M39" s="47"/>
+      <x:c r="N39" s="48"/>
+      <x:c r="O39" s="30" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="P39" s="46" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="Q39" s="48"/>
+    </x:row>
+    <x:row r="40" spans="11:17">
+      <x:c r="K40" s="30"/>
+      <x:c r="L40" s="46" t="s">
+        <x:v>287</x:v>
+      </x:c>
+      <x:c r="M40" s="47"/>
+      <x:c r="N40" s="48"/>
+      <x:c r="O40" s="30" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="P40" s="46" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="Q40" s="48"/>
+    </x:row>
+    <x:row r="41" spans="11:17">
+      <x:c r="K41" s="30"/>
+      <x:c r="L41" s="46" t="s">
+        <x:v>293</x:v>
+      </x:c>
+      <x:c r="M41" s="47"/>
+      <x:c r="N41" s="48"/>
+      <x:c r="O41" s="30" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="P41" s="46" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="Q41" s="48"/>
+    </x:row>
+    <x:row r="42" spans="11:17">
+      <x:c r="K42" s="30"/>
+      <x:c r="L42" s="46" t="s">
+        <x:v>305</x:v>
+      </x:c>
+      <x:c r="M42" s="47"/>
+      <x:c r="N42" s="48"/>
+      <x:c r="O42" s="30" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="P42" s="46" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="Q42" s="48"/>
+    </x:row>
+    <x:row r="43" spans="11:17">
+      <x:c r="K43" s="30"/>
+      <x:c r="L43" s="46" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="M43" s="47"/>
+      <x:c r="N43" s="48"/>
+      <x:c r="O43" s="30" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="P43" s="46" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="Q43" s="48"/>
+    </x:row>
+    <x:row r="44" spans="11:17">
+      <x:c r="K44" s="30"/>
+      <x:c r="L44" s="46" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="M44" s="47"/>
+      <x:c r="N44" s="48"/>
+      <x:c r="O44" s="30" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="P44" s="46" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="Q44" s="48"/>
+    </x:row>
+    <x:row r="45" spans="11:17">
+      <x:c r="K45" s="30"/>
+      <x:c r="L45" s="46" t="s">
+        <x:v>302</x:v>
+      </x:c>
+      <x:c r="M45" s="47"/>
+      <x:c r="N45" s="48"/>
+      <x:c r="O45" s="30" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="P45" s="46" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="Q45" s="48"/>
+    </x:row>
+    <x:row r="46" spans="11:17">
+      <x:c r="K46" s="30"/>
+      <x:c r="L46" s="46" t="s">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="M46" s="47"/>
+      <x:c r="N46" s="48"/>
+      <x:c r="O46" s="30" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="P46" s="46" t="s">
+        <x:v>281</x:v>
+      </x:c>
+      <x:c r="Q46" s="48"/>
+    </x:row>
+    <x:row r="47" spans="11:17">
+      <x:c r="K47" s="46" t="s">
+        <x:v>319</x:v>
+      </x:c>
+      <x:c r="L47" s="47"/>
+      <x:c r="M47" s="47"/>
+      <x:c r="N47" s="47"/>
+      <x:c r="O47" s="47"/>
+      <x:c r="P47" s="47"/>
+      <x:c r="Q47" s="48"/>
+    </x:row>
+    <x:row r="48" spans="11:17">
+      <x:c r="K48" s="30"/>
+      <x:c r="L48" s="46" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="M48" s="47"/>
+      <x:c r="N48" s="48"/>
+      <x:c r="O48" s="30" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="P48" s="46" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="Q48" s="48"/>
+    </x:row>
+    <x:row r="49" spans="11:17">
+      <x:c r="K49" s="30"/>
+      <x:c r="L49" s="46" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="M49" s="47"/>
+      <x:c r="N49" s="48"/>
+      <x:c r="O49" s="30" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="P49" s="46" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="Q49" s="48"/>
+    </x:row>
+    <x:row r="50" spans="11:17">
+      <x:c r="K50" s="30"/>
+      <x:c r="L50" s="46" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="M50" s="47"/>
+      <x:c r="N50" s="48"/>
+      <x:c r="O50" s="30" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="P50" s="46" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="Q50" s="48"/>
+    </x:row>
+    <x:row r="51" spans="11:17">
+      <x:c r="K51" s="30"/>
+      <x:c r="L51" s="46" t="s">
+        <x:v>309</x:v>
+      </x:c>
+      <x:c r="M51" s="47"/>
+      <x:c r="N51" s="48"/>
+      <x:c r="O51" s="30" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="P51" s="46" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="Q51" s="48"/>
+    </x:row>
+    <x:row r="52" spans="11:17">
+      <x:c r="K52" s="46" t="s">
+        <x:v>297</x:v>
+      </x:c>
+      <x:c r="L52" s="47"/>
+      <x:c r="M52" s="47"/>
+      <x:c r="N52" s="47"/>
+      <x:c r="O52" s="47"/>
+      <x:c r="P52" s="47"/>
+      <x:c r="Q52" s="48"/>
+    </x:row>
+    <x:row r="53" spans="11:17">
+      <x:c r="K53" s="30"/>
+      <x:c r="L53" s="46" t="s">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="M53" s="47"/>
+      <x:c r="N53" s="48"/>
+      <x:c r="O53" s="30" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="P53" s="46"/>
+      <x:c r="Q53" s="48"/>
+    </x:row>
+    <x:row r="54" spans="11:17">
+      <x:c r="K54" s="30"/>
+      <x:c r="L54" s="46" t="s">
+        <x:v>307</x:v>
+      </x:c>
+      <x:c r="M54" s="47"/>
+      <x:c r="N54" s="48"/>
+      <x:c r="O54" s="30" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="P54" s="46"/>
+      <x:c r="Q54" s="48"/>
+    </x:row>
+    <x:row r="55" spans="11:17">
+      <x:c r="K55" s="30"/>
+      <x:c r="L55" s="46" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="M55" s="47"/>
+      <x:c r="N55" s="48"/>
+      <x:c r="O55" s="30" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="P55" s="46"/>
+      <x:c r="Q55" s="48"/>
+    </x:row>
+    <x:row r="56" spans="11:17">
+      <x:c r="K56" s="30"/>
+      <x:c r="L56" s="46" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="M56" s="47"/>
+      <x:c r="N56" s="48"/>
+      <x:c r="O56" s="30" t="s">
+        <x:v>285</x:v>
+      </x:c>
+      <x:c r="P56" s="46"/>
+      <x:c r="Q56" s="48"/>
+    </x:row>
+    <x:row r="57" spans="11:17">
+      <x:c r="K57" s="30"/>
+      <x:c r="L57" s="46" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="M57" s="47"/>
+      <x:c r="N57" s="48"/>
+      <x:c r="O57" s="30" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="P57" s="46"/>
+      <x:c r="Q57" s="48"/>
+    </x:row>
+    <x:row r="58" spans="11:17">
+      <x:c r="K58" s="46" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="L58" s="47"/>
+      <x:c r="M58" s="47"/>
+      <x:c r="N58" s="47"/>
+      <x:c r="O58" s="47"/>
+      <x:c r="P58" s="47"/>
+      <x:c r="Q58" s="48"/>
+    </x:row>
+    <x:row r="59" spans="11:17">
+      <x:c r="K59" s="46" t="s">
+        <x:v>301</x:v>
+      </x:c>
+      <x:c r="L59" s="47"/>
+      <x:c r="M59" s="47"/>
+      <x:c r="N59" s="47"/>
+      <x:c r="O59" s="47"/>
+      <x:c r="P59" s="47"/>
+      <x:c r="Q59" s="48"/>
+    </x:row>
+    <x:row r="60" spans="11:17">
+      <x:c r="K60" s="46" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="L60" s="47"/>
+      <x:c r="M60" s="47"/>
+      <x:c r="N60" s="47"/>
+      <x:c r="O60" s="47"/>
+      <x:c r="P60" s="47"/>
+      <x:c r="Q60" s="48"/>
+    </x:row>
+    <x:row r="61" spans="11:17">
+      <x:c r="K61" s="30"/>
+      <x:c r="L61" s="46" t="s">
+        <x:v>310</x:v>
+      </x:c>
+      <x:c r="M61" s="47"/>
+      <x:c r="N61" s="48"/>
+      <x:c r="O61" s="30" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="P61" s="46"/>
+      <x:c r="Q61" s="48"/>
+    </x:row>
+    <x:row r="62" spans="11:17">
+      <x:c r="K62" s="30"/>
+      <x:c r="L62" s="46" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="M62" s="47"/>
+      <x:c r="N62" s="48"/>
+      <x:c r="O62" s="30" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="P62" s="46"/>
+      <x:c r="Q62" s="48"/>
+    </x:row>
+    <x:row r="63" spans="11:17">
+      <x:c r="K63" s="30"/>
+      <x:c r="L63" s="46" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="M63" s="47"/>
+      <x:c r="N63" s="48"/>
+      <x:c r="O63" s="30" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="P63" s="46"/>
+      <x:c r="Q63" s="48"/>
+    </x:row>
+    <x:row r="64" spans="11:17">
+      <x:c r="K64" s="30"/>
+      <x:c r="L64" s="46" t="s">
+        <x:v>321</x:v>
+      </x:c>
+      <x:c r="M64" s="47"/>
+      <x:c r="N64" s="48"/>
+      <x:c r="O64" s="30" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="P64" s="46"/>
+      <x:c r="Q64" s="48"/>
+    </x:row>
+    <x:row r="65" spans="11:17">
+      <x:c r="K65" s="30"/>
+      <x:c r="L65" s="46" t="s">
+        <x:v>303</x:v>
+      </x:c>
+      <x:c r="M65" s="47"/>
+      <x:c r="N65" s="48"/>
+      <x:c r="O65" s="30" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="P65" s="46"/>
+      <x:c r="Q65" s="48"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="21">
+  <x:mergeCells count="115">
     <x:mergeCell ref="C16:F16"/>
     <x:mergeCell ref="K2:M2"/>
     <x:mergeCell ref="K3:N10"/>
@@ -8803,6 +9581,100 @@
     <x:mergeCell ref="C20:F20"/>
     <x:mergeCell ref="C21:F21"/>
     <x:mergeCell ref="C22:F22"/>
+    <x:mergeCell ref="K13:M13"/>
+    <x:mergeCell ref="K14:N14"/>
+    <x:mergeCell ref="K15:N15"/>
+    <x:mergeCell ref="K16:Q16"/>
+    <x:mergeCell ref="L17:N17"/>
+    <x:mergeCell ref="L18:N18"/>
+    <x:mergeCell ref="K19:Q19"/>
+    <x:mergeCell ref="P14:Q14"/>
+    <x:mergeCell ref="P15:Q15"/>
+    <x:mergeCell ref="P17:Q17"/>
+    <x:mergeCell ref="P18:Q18"/>
+    <x:mergeCell ref="L20:N20"/>
+    <x:mergeCell ref="L21:N21"/>
+    <x:mergeCell ref="L22:N22"/>
+    <x:mergeCell ref="L23:N23"/>
+    <x:mergeCell ref="L24:N24"/>
+    <x:mergeCell ref="L25:N25"/>
+    <x:mergeCell ref="L26:N26"/>
+    <x:mergeCell ref="P20:Q20"/>
+    <x:mergeCell ref="P21:Q21"/>
+    <x:mergeCell ref="P22:Q22"/>
+    <x:mergeCell ref="P23:Q23"/>
+    <x:mergeCell ref="P24:Q24"/>
+    <x:mergeCell ref="P25:Q25"/>
+    <x:mergeCell ref="P26:Q26"/>
+    <x:mergeCell ref="K27:Q27"/>
+    <x:mergeCell ref="L28:N28"/>
+    <x:mergeCell ref="L29:N29"/>
+    <x:mergeCell ref="P28:Q28"/>
+    <x:mergeCell ref="P29:Q29"/>
+    <x:mergeCell ref="K30:Q30"/>
+    <x:mergeCell ref="L31:N31"/>
+    <x:mergeCell ref="L32:N32"/>
+    <x:mergeCell ref="L33:N33"/>
+    <x:mergeCell ref="L34:N34"/>
+    <x:mergeCell ref="P31:Q31"/>
+    <x:mergeCell ref="P32:Q32"/>
+    <x:mergeCell ref="P33:Q33"/>
+    <x:mergeCell ref="P34:Q34"/>
+    <x:mergeCell ref="K35:Q35"/>
+    <x:mergeCell ref="L36:N36"/>
+    <x:mergeCell ref="L37:N37"/>
+    <x:mergeCell ref="P36:Q36"/>
+    <x:mergeCell ref="P37:Q37"/>
+    <x:mergeCell ref="K38:Q38"/>
+    <x:mergeCell ref="L39:N39"/>
+    <x:mergeCell ref="L40:N40"/>
+    <x:mergeCell ref="L41:N41"/>
+    <x:mergeCell ref="L42:N42"/>
+    <x:mergeCell ref="L43:N43"/>
+    <x:mergeCell ref="L44:N44"/>
+    <x:mergeCell ref="L45:N45"/>
+    <x:mergeCell ref="L46:N46"/>
+    <x:mergeCell ref="P39:Q39"/>
+    <x:mergeCell ref="P40:Q40"/>
+    <x:mergeCell ref="P41:Q41"/>
+    <x:mergeCell ref="P42:Q42"/>
+    <x:mergeCell ref="P43:Q43"/>
+    <x:mergeCell ref="P44:Q44"/>
+    <x:mergeCell ref="P45:Q45"/>
+    <x:mergeCell ref="P46:Q46"/>
+    <x:mergeCell ref="K47:Q47"/>
+    <x:mergeCell ref="L48:N48"/>
+    <x:mergeCell ref="L49:N49"/>
+    <x:mergeCell ref="L50:N50"/>
+    <x:mergeCell ref="L51:N51"/>
+    <x:mergeCell ref="P48:Q48"/>
+    <x:mergeCell ref="P49:Q49"/>
+    <x:mergeCell ref="P50:Q50"/>
+    <x:mergeCell ref="P51:Q51"/>
+    <x:mergeCell ref="K52:Q52"/>
+    <x:mergeCell ref="L53:N53"/>
+    <x:mergeCell ref="L54:N54"/>
+    <x:mergeCell ref="L55:N55"/>
+    <x:mergeCell ref="L57:N57"/>
+    <x:mergeCell ref="L56:N56"/>
+    <x:mergeCell ref="P53:Q53"/>
+    <x:mergeCell ref="P54:Q54"/>
+    <x:mergeCell ref="P55:Q55"/>
+    <x:mergeCell ref="P56:Q56"/>
+    <x:mergeCell ref="P57:Q57"/>
+    <x:mergeCell ref="K58:Q58"/>
+    <x:mergeCell ref="K59:Q59"/>
+    <x:mergeCell ref="K60:Q60"/>
+    <x:mergeCell ref="L61:N61"/>
+    <x:mergeCell ref="L62:N62"/>
+    <x:mergeCell ref="L63:N63"/>
+    <x:mergeCell ref="L64:N64"/>
+    <x:mergeCell ref="L65:N65"/>
+    <x:mergeCell ref="P61:Q61"/>
+    <x:mergeCell ref="P62:Q62"/>
+    <x:mergeCell ref="P63:Q63"/>
+    <x:mergeCell ref="P64:Q64"/>
+    <x:mergeCell ref="P65:Q65"/>
   </x:mergeCells>
   <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
